--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC212"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5400048</v>
+        <v>5404699</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>44982.125</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z50">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5404699</v>
+        <v>5400048</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,73 +4977,73 @@
         <v>44982.125</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA51">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5404706</v>
+        <v>5404704</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>44989.125</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5404704</v>
+        <v>5404706</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,58 +5600,58 @@
         <v>44989.125</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>42</v>
       </c>
       <c r="K58">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,16 +5660,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5404732</v>
+        <v>5400063</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>1.75</v>
+      </c>
+      <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
         <v>4</v>
       </c>
-      <c r="J97" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97">
-        <v>2.3</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>2.75</v>
-      </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5400063</v>
+        <v>5404732</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,73 +9160,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.4</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>1.025</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7127372</v>
+        <v>7127370</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18947,49 +18947,49 @@
         <v>28</v>
       </c>
       <c r="E208" s="2">
-        <v>45339.16666666666</v>
+        <v>45340.125</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N208">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="O208">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S208">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T208">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -19012,7 +19012,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7126788</v>
+        <v>7127374</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19021,49 +19021,49 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45339.23958333334</v>
+        <v>45340.125</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K209">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
         <v>3.75</v>
       </c>
       <c r="M209">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O209">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T209">
         <v>3</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19078,228 +19078,6 @@
         <v>0</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>7127373</v>
-      </c>
-      <c r="C210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" t="s">
-        <v>28</v>
-      </c>
-      <c r="E210" s="2">
-        <v>45339.32291666666</v>
-      </c>
-      <c r="F210" t="s">
-        <v>34</v>
-      </c>
-      <c r="G210" t="s">
-        <v>39</v>
-      </c>
-      <c r="K210">
-        <v>2.4</v>
-      </c>
-      <c r="L210">
-        <v>4</v>
-      </c>
-      <c r="M210">
-        <v>2.5</v>
-      </c>
-      <c r="N210">
-        <v>2.3</v>
-      </c>
-      <c r="O210">
-        <v>4.2</v>
-      </c>
-      <c r="P210">
-        <v>2.625</v>
-      </c>
-      <c r="Q210">
-        <v>0</v>
-      </c>
-      <c r="R210">
-        <v>1.85</v>
-      </c>
-      <c r="S210">
-        <v>2.05</v>
-      </c>
-      <c r="T210">
-        <v>3.25</v>
-      </c>
-      <c r="U210">
-        <v>1.875</v>
-      </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-      <c r="Y210">
-        <v>0</v>
-      </c>
-      <c r="Z210">
-        <v>0</v>
-      </c>
-      <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>7127370</v>
-      </c>
-      <c r="C211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2">
-        <v>45340.125</v>
-      </c>
-      <c r="F211" t="s">
-        <v>38</v>
-      </c>
-      <c r="G211" t="s">
-        <v>31</v>
-      </c>
-      <c r="K211">
-        <v>2.4</v>
-      </c>
-      <c r="L211">
-        <v>3.75</v>
-      </c>
-      <c r="M211">
-        <v>2.625</v>
-      </c>
-      <c r="N211">
-        <v>2.3</v>
-      </c>
-      <c r="O211">
-        <v>3.8</v>
-      </c>
-      <c r="P211">
-        <v>2.875</v>
-      </c>
-      <c r="Q211">
-        <v>-0.25</v>
-      </c>
-      <c r="R211">
-        <v>2.08</v>
-      </c>
-      <c r="S211">
-        <v>1.82</v>
-      </c>
-      <c r="T211">
-        <v>3</v>
-      </c>
-      <c r="U211">
-        <v>1.9</v>
-      </c>
-      <c r="V211">
-        <v>1.95</v>
-      </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>7127374</v>
-      </c>
-      <c r="C212" t="s">
-        <v>28</v>
-      </c>
-      <c r="D212" t="s">
-        <v>28</v>
-      </c>
-      <c r="E212" s="2">
-        <v>45340.125</v>
-      </c>
-      <c r="F212" t="s">
-        <v>36</v>
-      </c>
-      <c r="G212" t="s">
-        <v>30</v>
-      </c>
-      <c r="K212">
-        <v>1.909</v>
-      </c>
-      <c r="L212">
-        <v>3.75</v>
-      </c>
-      <c r="M212">
-        <v>3.6</v>
-      </c>
-      <c r="N212">
-        <v>1.85</v>
-      </c>
-      <c r="O212">
-        <v>4</v>
-      </c>
-      <c r="P212">
-        <v>3.75</v>
-      </c>
-      <c r="Q212">
-        <v>-0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.91</v>
-      </c>
-      <c r="S212">
-        <v>1.99</v>
-      </c>
-      <c r="T212">
-        <v>3</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.9</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <v>0</v>
-      </c>
-      <c r="Y212">
-        <v>0</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5400063</v>
+        <v>5404732</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
       <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>1.4</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
         <v>1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>1.025</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5404732</v>
+        <v>5400063</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,73 +9160,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>1.75</v>
+      </c>
+      <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
         <v>4</v>
       </c>
-      <c r="J98" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98">
-        <v>2.3</v>
-      </c>
-      <c r="L98">
-        <v>3.75</v>
-      </c>
-      <c r="M98">
-        <v>2.75</v>
-      </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -18977,19 +18977,19 @@
         <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S208">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T208">
         <v>3</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -19051,19 +19051,19 @@
         <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T209">
         <v>3</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19078,6 +19078,80 @@
         <v>0</v>
       </c>
       <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7661946</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45342.20833333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" t="s">
+        <v>40</v>
+      </c>
+      <c r="K210">
+        <v>1.45</v>
+      </c>
+      <c r="L210">
+        <v>4.75</v>
+      </c>
+      <c r="M210">
+        <v>6.5</v>
+      </c>
+      <c r="N210">
+        <v>1.45</v>
+      </c>
+      <c r="O210">
+        <v>4.75</v>
+      </c>
+      <c r="P210">
+        <v>6.5</v>
+      </c>
+      <c r="Q210">
+        <v>-1.25</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>3</v>
+      </c>
+      <c r="U210">
+        <v>1.875</v>
+      </c>
+      <c r="V210">
+        <v>1.975</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5400043</v>
+        <v>5400042</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>44961.125</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3.25</v>
+      </c>
+      <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.875</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,13 +3346,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5400042</v>
+        <v>5400043</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,58 +3375,58 @@
         <v>44961.125</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,13 +3435,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5404714</v>
+        <v>5404713</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45003.125</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5404713</v>
+        <v>5404714</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45003.125</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
         <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5404735</v>
+        <v>5400064</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,40 +9249,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P99">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
         <v>2.025</v>
@@ -9291,34 +9291,34 @@
         <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5400064</v>
+        <v>5404735</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,40 +9338,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>1.909</v>
+      </c>
+      <c r="N100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>4.5</v>
-      </c>
-      <c r="N100">
-        <v>1.533</v>
-      </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
         <v>2.025</v>
@@ -9380,34 +9380,34 @@
         <v>1.825</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7127370</v>
+        <v>7127372</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18947,72 +18947,87 @@
         <v>28</v>
       </c>
       <c r="E208" s="2">
-        <v>45340.125</v>
+        <v>45339.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>42</v>
       </c>
       <c r="K208">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>4.2</v>
+      </c>
+      <c r="N208">
+        <v>1.55</v>
+      </c>
+      <c r="O208">
+        <v>5</v>
+      </c>
+      <c r="P208">
+        <v>5</v>
+      </c>
+      <c r="Q208">
+        <v>-1</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>2</v>
+      </c>
+      <c r="T208">
         <v>3.75</v>
       </c>
-      <c r="M208">
-        <v>2.625</v>
-      </c>
-      <c r="N208">
-        <v>2.3</v>
-      </c>
-      <c r="O208">
-        <v>3.8</v>
-      </c>
-      <c r="P208">
-        <v>2.875</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>2.02</v>
-      </c>
-      <c r="S208">
-        <v>1.88</v>
-      </c>
-      <c r="T208">
-        <v>3</v>
-      </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>0</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7127374</v>
+        <v>7126788</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19021,137 +19036,863 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45340.125</v>
+        <v>45339.23958333334</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>43</v>
       </c>
       <c r="K209">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L209">
         <v>3.75</v>
       </c>
       <c r="M209">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N209">
+        <v>2.9</v>
+      </c>
+      <c r="O209">
+        <v>3.8</v>
+      </c>
+      <c r="P209">
+        <v>2.25</v>
+      </c>
+      <c r="Q209">
+        <v>0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.88</v>
+      </c>
+      <c r="S209">
+        <v>2.02</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
         <v>1.85</v>
       </c>
-      <c r="O209">
-        <v>4</v>
-      </c>
-      <c r="P209">
-        <v>3.75</v>
-      </c>
-      <c r="Q209">
+      <c r="V209">
+        <v>2</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>2.8</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="AA209">
         <v>-0.5</v>
       </c>
-      <c r="R209">
-        <v>1.87</v>
-      </c>
-      <c r="S209">
-        <v>2.03</v>
-      </c>
-      <c r="T209">
-        <v>3</v>
-      </c>
-      <c r="U209">
-        <v>1.95</v>
-      </c>
-      <c r="V209">
-        <v>1.9</v>
-      </c>
-      <c r="W209">
-        <v>0</v>
-      </c>
-      <c r="X209">
-        <v>0</v>
-      </c>
-      <c r="Y209">
-        <v>0</v>
-      </c>
-      <c r="Z209">
-        <v>0</v>
-      </c>
-      <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
+        <v>7127373</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45339.32291666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>34</v>
+      </c>
+      <c r="G210" t="s">
+        <v>39</v>
+      </c>
+      <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>42</v>
+      </c>
+      <c r="K210">
+        <v>2.4</v>
+      </c>
+      <c r="L210">
+        <v>4</v>
+      </c>
+      <c r="M210">
+        <v>2.5</v>
+      </c>
+      <c r="N210">
+        <v>2.4</v>
+      </c>
+      <c r="O210">
+        <v>4.2</v>
+      </c>
+      <c r="P210">
+        <v>2.5</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>3.25</v>
+      </c>
+      <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
+        <v>1.9</v>
+      </c>
+      <c r="W210">
+        <v>1.4</v>
+      </c>
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>0.925</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>0.95</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7127374</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45340.125</v>
+      </c>
+      <c r="F211" t="s">
+        <v>36</v>
+      </c>
+      <c r="G211" t="s">
+        <v>30</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>42</v>
+      </c>
+      <c r="K211">
+        <v>1.909</v>
+      </c>
+      <c r="L211">
+        <v>3.75</v>
+      </c>
+      <c r="M211">
+        <v>3.6</v>
+      </c>
+      <c r="N211">
+        <v>2.15</v>
+      </c>
+      <c r="O211">
+        <v>3.6</v>
+      </c>
+      <c r="P211">
+        <v>3.25</v>
+      </c>
+      <c r="Q211">
+        <v>-0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.86</v>
+      </c>
+      <c r="S211">
+        <v>2.04</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.875</v>
+      </c>
+      <c r="W211">
+        <v>1.15</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7127370</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45340.125</v>
+      </c>
+      <c r="F212" t="s">
+        <v>38</v>
+      </c>
+      <c r="G212" t="s">
+        <v>31</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+      <c r="J212" t="s">
+        <v>41</v>
+      </c>
+      <c r="K212">
+        <v>2.4</v>
+      </c>
+      <c r="L212">
+        <v>3.75</v>
+      </c>
+      <c r="M212">
+        <v>2.625</v>
+      </c>
+      <c r="N212">
+        <v>2.375</v>
+      </c>
+      <c r="O212">
+        <v>3.8</v>
+      </c>
+      <c r="P212">
+        <v>2.75</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>2.05</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.9</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>1.75</v>
+      </c>
+      <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>1.05</v>
+      </c>
+      <c r="AB212">
+        <v>0</v>
+      </c>
+      <c r="AC212">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
         <v>7661946</v>
       </c>
-      <c r="C210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" t="s">
-        <v>28</v>
-      </c>
-      <c r="E210" s="2">
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
         <v>45342.20833333334</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F213" t="s">
         <v>33</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G213" t="s">
         <v>40</v>
       </c>
-      <c r="K210">
+      <c r="K213">
         <v>1.45</v>
       </c>
-      <c r="L210">
+      <c r="L213">
         <v>4.75</v>
       </c>
-      <c r="M210">
+      <c r="M213">
         <v>6.5</v>
       </c>
-      <c r="N210">
-        <v>1.45</v>
-      </c>
-      <c r="O210">
-        <v>4.75</v>
-      </c>
-      <c r="P210">
-        <v>6.5</v>
-      </c>
-      <c r="Q210">
-        <v>-1.25</v>
-      </c>
-      <c r="R210">
-        <v>2</v>
-      </c>
-      <c r="S210">
+      <c r="N213">
+        <v>1.533</v>
+      </c>
+      <c r="O213">
+        <v>4.333</v>
+      </c>
+      <c r="P213">
+        <v>5.75</v>
+      </c>
+      <c r="Q213">
+        <v>-1</v>
+      </c>
+      <c r="R213">
+        <v>1.92</v>
+      </c>
+      <c r="S213">
+        <v>1.98</v>
+      </c>
+      <c r="T213">
+        <v>3</v>
+      </c>
+      <c r="U213">
         <v>1.9</v>
       </c>
-      <c r="T210">
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7127375</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45345.23958333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>39</v>
+      </c>
+      <c r="G214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3.75</v>
+      </c>
+      <c r="M214">
+        <v>3.2</v>
+      </c>
+      <c r="N214">
+        <v>1.909</v>
+      </c>
+      <c r="O214">
+        <v>3.75</v>
+      </c>
+      <c r="P214">
+        <v>3.4</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.99</v>
+      </c>
+      <c r="S214">
+        <v>1.91</v>
+      </c>
+      <c r="T214">
         <v>3</v>
       </c>
-      <c r="U210">
-        <v>1.875</v>
-      </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
-      <c r="W210">
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.95</v>
+      </c>
+      <c r="W214">
         <v>0</v>
       </c>
-      <c r="X210">
+      <c r="X214">
         <v>0</v>
       </c>
-      <c r="Y210">
+      <c r="Y214">
         <v>0</v>
       </c>
-      <c r="Z210">
+      <c r="Z214">
         <v>0</v>
       </c>
-      <c r="AA210">
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7126789</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45346.14583333334</v>
+      </c>
+      <c r="F215" t="s">
+        <v>35</v>
+      </c>
+      <c r="G215" t="s">
+        <v>37</v>
+      </c>
+      <c r="K215">
+        <v>1.833</v>
+      </c>
+      <c r="L215">
+        <v>4</v>
+      </c>
+      <c r="M215">
+        <v>3.6</v>
+      </c>
+      <c r="N215">
+        <v>1.833</v>
+      </c>
+      <c r="O215">
+        <v>4</v>
+      </c>
+      <c r="P215">
+        <v>3.6</v>
+      </c>
+      <c r="Q215">
+        <v>-0.5</v>
+      </c>
+      <c r="R215">
+        <v>1.89</v>
+      </c>
+      <c r="S215">
+        <v>2.01</v>
+      </c>
+      <c r="T215">
+        <v>3.25</v>
+      </c>
+      <c r="U215">
+        <v>1.825</v>
+      </c>
+      <c r="V215">
+        <v>2.025</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7127376</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45346.16666666666</v>
+      </c>
+      <c r="F216" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216" t="s">
+        <v>38</v>
+      </c>
+      <c r="K216">
+        <v>2.375</v>
+      </c>
+      <c r="L216">
+        <v>3.6</v>
+      </c>
+      <c r="M216">
+        <v>2.7</v>
+      </c>
+      <c r="N216">
+        <v>2.15</v>
+      </c>
+      <c r="O216">
+        <v>3.8</v>
+      </c>
+      <c r="P216">
+        <v>3</v>
+      </c>
+      <c r="Q216">
+        <v>-0.25</v>
+      </c>
+      <c r="R216">
+        <v>1.88</v>
+      </c>
+      <c r="S216">
+        <v>2.02</v>
+      </c>
+      <c r="T216">
+        <v>3.25</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+      <c r="V216">
+        <v>1.85</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7127377</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45346.23958333334</v>
+      </c>
+      <c r="F217" t="s">
+        <v>32</v>
+      </c>
+      <c r="G217" t="s">
+        <v>30</v>
+      </c>
+      <c r="K217">
+        <v>2.8</v>
+      </c>
+      <c r="L217">
+        <v>3.6</v>
+      </c>
+      <c r="M217">
+        <v>2.25</v>
+      </c>
+      <c r="N217">
+        <v>2.375</v>
+      </c>
+      <c r="O217">
+        <v>3.75</v>
+      </c>
+      <c r="P217">
+        <v>2.55</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>1.82</v>
+      </c>
+      <c r="S217">
+        <v>2.08</v>
+      </c>
+      <c r="T217">
+        <v>3.25</v>
+      </c>
+      <c r="U217">
+        <v>1.925</v>
+      </c>
+      <c r="V217">
+        <v>1.925</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>7127378</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45346.32291666666</v>
+      </c>
+      <c r="F218" t="s">
+        <v>34</v>
+      </c>
+      <c r="G218" t="s">
+        <v>31</v>
+      </c>
+      <c r="K218">
+        <v>2.6</v>
+      </c>
+      <c r="L218">
+        <v>3.5</v>
+      </c>
+      <c r="M218">
+        <v>2.5</v>
+      </c>
+      <c r="N218">
+        <v>2.7</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>2.5</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>1.98</v>
+      </c>
+      <c r="S218">
+        <v>1.92</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>1.925</v>
+      </c>
+      <c r="V218">
+        <v>1.925</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7127379</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45347.125</v>
+      </c>
+      <c r="F219" t="s">
+        <v>33</v>
+      </c>
+      <c r="G219" t="s">
+        <v>36</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>3.6</v>
+      </c>
+      <c r="M219">
+        <v>3.4</v>
+      </c>
+      <c r="N219">
+        <v>2.05</v>
+      </c>
+      <c r="O219">
+        <v>3.6</v>
+      </c>
+      <c r="P219">
+        <v>3.3</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.82</v>
+      </c>
+      <c r="S219">
+        <v>2.08</v>
+      </c>
+      <c r="T219">
+        <v>3</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
+      <c r="V219">
+        <v>1.85</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -121,10 +121,10 @@
     <t>Perth Glory</t>
   </si>
   <si>
-    <t>Sydney FC</t>
+    <t>Central Coast Mariners</t>
   </si>
   <si>
-    <t>Central Coast Mariners</t>
+    <t>Sydney FC</t>
   </si>
   <si>
     <t>Melbourne City</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5400034</v>
+        <v>5404672</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,25 +1153,25 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N8">
         <v>1.909</v>
@@ -1195,31 +1195,31 @@
         <v>3</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.925</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5404672</v>
+        <v>5400034</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,25 +1242,25 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N9">
         <v>1.909</v>
@@ -1284,31 +1284,31 @@
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
         <v>0.925</v>
       </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>44954.23958333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5400042</v>
+        <v>5400043</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>44961.125</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,13 +3346,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5400043</v>
+        <v>5400042</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,58 +3375,58 @@
         <v>44961.125</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O33">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3.25</v>
+      </c>
+      <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
         <v>1.975</v>
       </c>
-      <c r="S33">
-        <v>1.875</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>1.9</v>
-      </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,13 +3435,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>44975.125</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -4624,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4799,7 +4799,7 @@
         <v>44981.23958333334</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5404699</v>
+        <v>5400048</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>44982.125</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L50">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N50">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA50">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5400048</v>
+        <v>5404699</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,73 +4977,73 @@
         <v>44982.125</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N51">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z51">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5514,7 +5514,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5689,7 +5689,7 @@
         <v>44989.23958333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5956,7 +5956,7 @@
         <v>44996.125</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5404713</v>
+        <v>5404714</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45003.125</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5404714</v>
+        <v>5404713</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45003.125</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K69">
         <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA69">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>45003.23958333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -6760,7 +6760,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>45017.125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
@@ -7202,7 +7202,7 @@
         <v>45017.23958333334</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -7472,7 +7472,7 @@
         <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8359,7 +8359,7 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
@@ -8629,7 +8629,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5404732</v>
+        <v>5400063</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>1.75</v>
+      </c>
+      <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
         <v>4</v>
       </c>
-      <c r="J97" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97">
-        <v>2.3</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>2.75</v>
-      </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5400063</v>
+        <v>5404732</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,73 +9160,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.4</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>1.025</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -9697,7 +9697,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9783,7 +9783,7 @@
         <v>45058.28125</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
         <v>37</v>
@@ -9875,7 +9875,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10050,7 +10050,7 @@
         <v>45066.28125</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10142,7 +10142,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10231,7 +10231,7 @@
         <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10495,7 +10495,7 @@
         <v>45220.23958333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>33</v>
@@ -10765,7 +10765,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11029,7 +11029,7 @@
         <v>45228.04166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11299,7 +11299,7 @@
         <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -12100,7 +12100,7 @@
         <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12275,7 +12275,7 @@
         <v>45242.125</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12542,7 +12542,7 @@
         <v>45255.23958333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>30</v>
@@ -12987,7 +12987,7 @@
         <v>45262.23958333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
         <v>34</v>
@@ -13076,7 +13076,7 @@
         <v>45263.04166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
         <v>33</v>
@@ -13343,7 +13343,7 @@
         <v>45268.23958333334</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13610,7 +13610,7 @@
         <v>45269.23958333334</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -14147,7 +14147,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14236,7 +14236,7 @@
         <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14414,7 +14414,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14678,7 +14678,7 @@
         <v>45283.14583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
         <v>40</v>
@@ -15034,7 +15034,7 @@
         <v>45289.23958333334</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15301,7 +15301,7 @@
         <v>45291.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>34</v>
@@ -15660,7 +15660,7 @@
         <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15749,7 +15749,7 @@
         <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -16280,7 +16280,7 @@
         <v>45304.13541666666</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
         <v>33</v>
@@ -16369,7 +16369,7 @@
         <v>45304.25</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -16814,7 +16814,7 @@
         <v>45310.23958333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -16992,7 +16992,7 @@
         <v>45312.16666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>37</v>
@@ -17262,7 +17262,7 @@
         <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17526,7 +17526,7 @@
         <v>45318.23958333334</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
         <v>39</v>
@@ -17885,7 +17885,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18063,7 +18063,7 @@
         <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18241,7 +18241,7 @@
         <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18683,10 +18683,10 @@
         <v>45332.23958333334</v>
       </c>
       <c r="F205" t="s">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s">
         <v>36</v>
-      </c>
-      <c r="G205" t="s">
-        <v>35</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18950,7 +18950,7 @@
         <v>45339.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -19217,7 +19217,7 @@
         <v>45340.125</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>30</v>
@@ -19410,31 +19410,31 @@
         <v>6.5</v>
       </c>
       <c r="N213">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O213">
         <v>4.333</v>
       </c>
       <c r="P213">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q213">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="S213">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="T213">
         <v>3</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19487,7 +19487,7 @@
         <v>1.909</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P214">
         <v>3.4</v>
@@ -19502,13 +19502,13 @@
         <v>1.91</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19543,7 +19543,7 @@
         <v>45346.14583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19558,7 +19558,7 @@
         <v>3.6</v>
       </c>
       <c r="N215">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O215">
         <v>4</v>
@@ -19570,10 +19570,10 @@
         <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="S215">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="T215">
         <v>3.25</v>
@@ -19605,7 +19605,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7127376</v>
+        <v>7127377</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19614,49 +19614,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45346.16666666666</v>
+        <v>45346.23958333334</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K216">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L216">
         <v>3.6</v>
       </c>
       <c r="M216">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N216">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O216">
         <v>3.8</v>
       </c>
       <c r="P216">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R216">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T216">
         <v>3.25</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19679,7 +19679,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7127377</v>
+        <v>7127378</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19688,28 +19688,28 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45346.23958333334</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K217">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N217">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="O217">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P217">
         <v>2.55</v>
@@ -19718,19 +19718,19 @@
         <v>0</v>
       </c>
       <c r="R217">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19753,7 +19753,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7127378</v>
+        <v>7127376</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19762,43 +19762,43 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45346.32291666666</v>
+        <v>45347.125</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K218">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N218">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="S218">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U218">
         <v>1.925</v>
@@ -19842,7 +19842,7 @@
         <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K219">
         <v>2</v>
@@ -19854,22 +19854,22 @@
         <v>3.4</v>
       </c>
       <c r="N219">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O219">
         <v>3.6</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="S219">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="T219">
         <v>3</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Perth Glory</t>
   </si>
   <si>
-    <t>Central Coast Mariners</t>
+    <t>Sydney FC</t>
   </si>
   <si>
-    <t>Sydney FC</t>
+    <t>Central Coast Mariners</t>
   </si>
   <si>
     <t>Melbourne City</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5404672</v>
+        <v>5400034</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,25 +1153,25 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
         <v>1.909</v>
@@ -1195,31 +1195,31 @@
         <v>3</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.925</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5400034</v>
+        <v>5404672</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,25 +1242,25 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
         <v>1.909</v>
@@ -1284,31 +1284,31 @@
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.925</v>
       </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>44954.23958333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -3286,10 +3286,10 @@
         <v>44961.125</v>
       </c>
       <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
         <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3734,7 +3734,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>44975.125</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -4624,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4799,7 +4799,7 @@
         <v>44981.23958333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4891,7 +4891,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5404704</v>
+        <v>5404706</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>44989.125</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N57">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5404706</v>
+        <v>5404704</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,58 +5600,58 @@
         <v>44989.125</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>42</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N58">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,16 +5660,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>44989.23958333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5956,7 +5956,7 @@
         <v>44996.125</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>45003.23958333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -6760,7 +6760,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7113,7 +7113,7 @@
         <v>45017.125</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
@@ -7202,7 +7202,7 @@
         <v>45017.23958333334</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
         <v>40</v>
@@ -7472,7 +7472,7 @@
         <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7561,7 +7561,7 @@
         <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8359,7 +8359,7 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
@@ -8629,7 +8629,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5400063</v>
+        <v>5404732</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
       <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>1.4</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
         <v>1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>1.025</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5404732</v>
+        <v>5400063</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,73 +9160,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>1.75</v>
+      </c>
+      <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
         <v>4</v>
       </c>
-      <c r="J98" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98">
-        <v>2.3</v>
-      </c>
-      <c r="L98">
-        <v>3.75</v>
-      </c>
-      <c r="M98">
-        <v>2.75</v>
-      </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5400064</v>
+        <v>5404735</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,40 +9249,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
+        <v>1.909</v>
+      </c>
+      <c r="N99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>4.5</v>
-      </c>
-      <c r="N99">
-        <v>1.533</v>
-      </c>
       <c r="O99">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
         <v>2.025</v>
@@ -9291,34 +9291,34 @@
         <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5404735</v>
+        <v>5400064</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,40 +9338,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
         <v>2.025</v>
@@ -9380,34 +9380,34 @@
         <v>1.825</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9783,7 +9783,7 @@
         <v>45058.28125</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>37</v>
@@ -9875,7 +9875,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10050,7 +10050,7 @@
         <v>45066.28125</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10142,7 +10142,7 @@
         <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10231,7 +10231,7 @@
         <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10495,7 +10495,7 @@
         <v>45220.23958333334</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>33</v>
@@ -10765,7 +10765,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11029,7 +11029,7 @@
         <v>45228.04166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11299,7 +11299,7 @@
         <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -12100,7 +12100,7 @@
         <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12275,7 +12275,7 @@
         <v>45242.125</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12542,7 +12542,7 @@
         <v>45255.23958333334</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>30</v>
@@ -12987,7 +12987,7 @@
         <v>45262.23958333334</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
         <v>34</v>
@@ -13076,7 +13076,7 @@
         <v>45263.04166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>33</v>
@@ -13343,7 +13343,7 @@
         <v>45268.23958333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13610,7 +13610,7 @@
         <v>45269.23958333334</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
@@ -14147,7 +14147,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14236,7 +14236,7 @@
         <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14414,7 +14414,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14678,7 +14678,7 @@
         <v>45283.14583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>40</v>
@@ -15034,7 +15034,7 @@
         <v>45289.23958333334</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15301,7 +15301,7 @@
         <v>45291.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>34</v>
@@ -15660,7 +15660,7 @@
         <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15749,7 +15749,7 @@
         <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -16280,7 +16280,7 @@
         <v>45304.13541666666</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
         <v>33</v>
@@ -16369,7 +16369,7 @@
         <v>45304.25</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -16814,7 +16814,7 @@
         <v>45310.23958333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -16992,7 +16992,7 @@
         <v>45312.16666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
         <v>37</v>
@@ -17262,7 +17262,7 @@
         <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17526,7 +17526,7 @@
         <v>45318.23958333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
         <v>39</v>
@@ -17885,7 +17885,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18063,7 +18063,7 @@
         <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18241,7 +18241,7 @@
         <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18683,10 +18683,10 @@
         <v>45332.23958333334</v>
       </c>
       <c r="F205" t="s">
+        <v>36</v>
+      </c>
+      <c r="G205" t="s">
         <v>35</v>
-      </c>
-      <c r="G205" t="s">
-        <v>36</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18950,7 +18950,7 @@
         <v>45339.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -19205,7 +19205,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19217,76 +19217,76 @@
         <v>45340.125</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K211">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L211">
         <v>3.75</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O211">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P211">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S211">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z211">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC211">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19294,7 +19294,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19306,76 +19306,76 @@
         <v>45340.125</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K212">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L212">
         <v>3.75</v>
       </c>
       <c r="M212">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N212">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P212">
+        <v>3.25</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.86</v>
+      </c>
+      <c r="S212">
+        <v>2.04</v>
+      </c>
+      <c r="T212">
         <v>2.75</v>
       </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>2.05</v>
-      </c>
-      <c r="T212">
-        <v>3</v>
-      </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19400,6 +19400,15 @@
       <c r="G213" t="s">
         <v>40</v>
       </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>42</v>
+      </c>
       <c r="K213">
         <v>1.45</v>
       </c>
@@ -19410,10 +19419,10 @@
         <v>6.5</v>
       </c>
       <c r="N213">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O213">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P213">
         <v>6.5</v>
@@ -19422,34 +19431,40 @@
         <v>-1.25</v>
       </c>
       <c r="R213">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S213">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>0.465</v>
+      </c>
+      <c r="AB213">
+        <v>-0.5</v>
+      </c>
+      <c r="AC213">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19484,22 +19499,22 @@
         <v>3.2</v>
       </c>
       <c r="N214">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
         <v>3.8</v>
       </c>
       <c r="P214">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q214">
         <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="S214">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="T214">
         <v>3.25</v>
@@ -19543,7 +19558,7 @@
         <v>45346.14583333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19727,10 +19742,10 @@
         <v>3</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19792,10 +19807,10 @@
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S218">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T218">
         <v>3.25</v>
@@ -19842,7 +19857,7 @@
         <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K219">
         <v>2</v>
@@ -19866,19 +19881,19 @@
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S219">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="T219">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W219">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5400043</v>
+        <v>5400042</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>44961.125</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3.25</v>
+      </c>
+      <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.875</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,13 +3346,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5400042</v>
+        <v>5400043</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,58 +3375,58 @@
         <v>44961.125</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,13 +3435,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5400048</v>
+        <v>5404699</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>44982.125</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.94</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.96</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z50">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5404699</v>
+        <v>5400048</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,73 +4977,73 @@
         <v>44982.125</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.94</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.96</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA51">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5404706</v>
+        <v>5404704</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>44989.125</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5404704</v>
+        <v>5404706</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,58 +5600,58 @@
         <v>44989.125</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>42</v>
       </c>
       <c r="K58">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N58">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,16 +5660,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5404714</v>
+        <v>5404713</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45003.125</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5404713</v>
+        <v>5404714</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45003.125</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
         <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,73 +16458,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N180">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z180">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,73 +16547,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>3</v>
       </c>
       <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>42</v>
+      </c>
+      <c r="K181">
+        <v>1.909</v>
+      </c>
+      <c r="L181">
         <v>4</v>
       </c>
-      <c r="J181" t="s">
-        <v>41</v>
-      </c>
-      <c r="K181">
-        <v>2.45</v>
-      </c>
-      <c r="L181">
-        <v>3.75</v>
-      </c>
       <c r="M181">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -19499,31 +19499,31 @@
         <v>3.2</v>
       </c>
       <c r="N214">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O214">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
         <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
         <v>3.25</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19659,10 +19659,10 @@
         <v>0</v>
       </c>
       <c r="R216">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T216">
         <v>3.25</v>
@@ -19721,22 +19721,22 @@
         <v>2.5</v>
       </c>
       <c r="N217">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O217">
         <v>3.5</v>
       </c>
       <c r="P217">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q217">
         <v>0</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T217">
         <v>3</v>
@@ -19798,19 +19798,19 @@
         <v>2</v>
       </c>
       <c r="O218">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P218">
         <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
+        <v>1.83</v>
+      </c>
+      <c r="S218">
         <v>2.07</v>
-      </c>
-      <c r="S218">
-        <v>1.83</v>
       </c>
       <c r="T218">
         <v>3.25</v>
@@ -19881,10 +19881,10 @@
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S219">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T219">
         <v>2.75</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC219"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5404713</v>
+        <v>5404714</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45003.125</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5404714</v>
+        <v>5404713</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45003.125</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K69">
         <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA69">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5404735</v>
+        <v>5400064</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,40 +9249,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P99">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
         <v>2.025</v>
@@ -9291,34 +9291,34 @@
         <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5400064</v>
+        <v>5404735</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,40 +9338,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>1.909</v>
+      </c>
+      <c r="N100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>4.5</v>
-      </c>
-      <c r="N100">
-        <v>1.533</v>
-      </c>
       <c r="O100">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
         <v>2.025</v>
@@ -9380,34 +9380,34 @@
         <v>1.825</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -19472,7 +19472,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7127375</v>
+        <v>7126789</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19481,49 +19481,49 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45345.23958333334</v>
+        <v>45346.14583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L214">
+        <v>4</v>
+      </c>
+      <c r="M214">
+        <v>3.6</v>
+      </c>
+      <c r="N214">
+        <v>1.833</v>
+      </c>
+      <c r="O214">
+        <v>4.2</v>
+      </c>
+      <c r="P214">
         <v>3.75</v>
-      </c>
-      <c r="M214">
-        <v>3.2</v>
-      </c>
-      <c r="N214">
-        <v>1.909</v>
-      </c>
-      <c r="O214">
-        <v>4</v>
-      </c>
-      <c r="P214">
-        <v>3.6</v>
       </c>
       <c r="Q214">
         <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S214">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
         <v>3.25</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19546,7 +19546,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7126789</v>
+        <v>7127377</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19555,49 +19555,49 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45346.14583333334</v>
+        <v>45346.23958333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K215">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N215">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
         <v>4</v>
       </c>
       <c r="P215">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
         <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19620,7 +19620,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7127377</v>
+        <v>7127378</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19629,43 +19629,43 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45346.23958333334</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K216">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L216">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N216">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O216">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P216">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="S216">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="T216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U216">
         <v>1.925</v>
@@ -19694,7 +19694,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7127378</v>
+        <v>7127376</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19703,49 +19703,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45346.32291666666</v>
+        <v>45347.125</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K217">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N217">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P217">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19768,7 +19768,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19780,46 +19780,46 @@
         <v>45347.125</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K218">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L218">
         <v>3.6</v>
       </c>
       <c r="M218">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O218">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="S218">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="T218">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19834,80 +19834,6 @@
         <v>0</v>
       </c>
       <c r="AA218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>7127379</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45347.125</v>
-      </c>
-      <c r="F219" t="s">
-        <v>33</v>
-      </c>
-      <c r="G219" t="s">
-        <v>36</v>
-      </c>
-      <c r="K219">
-        <v>2</v>
-      </c>
-      <c r="L219">
-        <v>3.6</v>
-      </c>
-      <c r="M219">
-        <v>3.4</v>
-      </c>
-      <c r="N219">
-        <v>1.95</v>
-      </c>
-      <c r="O219">
-        <v>3.6</v>
-      </c>
-      <c r="P219">
-        <v>3.5</v>
-      </c>
-      <c r="Q219">
-        <v>-0.5</v>
-      </c>
-      <c r="R219">
-        <v>1.99</v>
-      </c>
-      <c r="S219">
-        <v>1.91</v>
-      </c>
-      <c r="T219">
-        <v>2.75</v>
-      </c>
-      <c r="U219">
-        <v>1.85</v>
-      </c>
-      <c r="V219">
-        <v>2</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5400042</v>
+        <v>5400043</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>44961.125</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,13 +3346,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5400043</v>
+        <v>5400042</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,58 +3375,58 @@
         <v>44961.125</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O33">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3.25</v>
+      </c>
+      <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
         <v>1.975</v>
       </c>
-      <c r="S33">
-        <v>1.875</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>1.9</v>
-      </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,13 +3435,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5404732</v>
+        <v>5400063</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>1.75</v>
+      </c>
+      <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
         <v>4</v>
       </c>
-      <c r="J97" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97">
-        <v>2.3</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>2.75</v>
-      </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5400063</v>
+        <v>5404732</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,73 +9160,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.4</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>1.025</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5400064</v>
+        <v>5404735</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,40 +9249,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
+        <v>1.909</v>
+      </c>
+      <c r="N99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>4.5</v>
-      </c>
-      <c r="N99">
-        <v>1.533</v>
-      </c>
       <c r="O99">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
         <v>2.025</v>
@@ -9291,34 +9291,34 @@
         <v>1.825</v>
       </c>
       <c r="T99">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5404735</v>
+        <v>5400064</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,40 +9338,40 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P100">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
         <v>2.025</v>
@@ -9380,34 +9380,34 @@
         <v>1.825</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,73 +16458,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>3</v>
       </c>
       <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180" t="s">
+        <v>42</v>
+      </c>
+      <c r="K180">
+        <v>1.909</v>
+      </c>
+      <c r="L180">
         <v>4</v>
       </c>
-      <c r="J180" t="s">
-        <v>41</v>
-      </c>
-      <c r="K180">
-        <v>2.45</v>
-      </c>
-      <c r="L180">
-        <v>3.75</v>
-      </c>
       <c r="M180">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O180">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,73 +16547,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H181">
         <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N181">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z181">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -19472,7 +19472,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7126789</v>
+        <v>7127375</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19481,64 +19481,79 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45346.14583333334</v>
+        <v>45345.23958333334</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>43</v>
       </c>
       <c r="K214">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L214">
+        <v>3.75</v>
+      </c>
+      <c r="M214">
+        <v>3.2</v>
+      </c>
+      <c r="N214">
+        <v>1.727</v>
+      </c>
+      <c r="O214">
+        <v>4.333</v>
+      </c>
+      <c r="P214">
         <v>4</v>
       </c>
-      <c r="M214">
-        <v>3.6</v>
-      </c>
-      <c r="N214">
-        <v>1.833</v>
-      </c>
-      <c r="O214">
-        <v>4.2</v>
-      </c>
-      <c r="P214">
-        <v>3.75</v>
-      </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
         <v>3.25</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB214">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19546,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7127377</v>
+        <v>7875268</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19555,64 +19570,79 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45346.23958333334</v>
+        <v>45345.38194444445</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>43</v>
       </c>
       <c r="K215">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M215">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N215">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O215">
         <v>4</v>
       </c>
       <c r="P215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
         <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19620,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7127378</v>
+        <v>7126789</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19629,49 +19659,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45346.32291666666</v>
+        <v>45346.14583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K216">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N216">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="S216">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T216">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19694,7 +19724,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7127376</v>
+        <v>7127377</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19703,49 +19733,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45347.125</v>
+        <v>45346.23958333334</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K217">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N217">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O217">
         <v>4</v>
       </c>
       <c r="P217">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="T217">
         <v>3.25</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19768,7 +19798,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7127379</v>
+        <v>7127378</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19777,49 +19807,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45347.125</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N218">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P218">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="S218">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19834,6 +19864,154 @@
         <v>0</v>
       </c>
       <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7127376</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45347.125</v>
+      </c>
+      <c r="F219" t="s">
+        <v>29</v>
+      </c>
+      <c r="G219" t="s">
+        <v>38</v>
+      </c>
+      <c r="K219">
+        <v>1.95</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
+      </c>
+      <c r="M219">
+        <v>3.4</v>
+      </c>
+      <c r="N219">
+        <v>1.95</v>
+      </c>
+      <c r="O219">
+        <v>4</v>
+      </c>
+      <c r="P219">
+        <v>3.4</v>
+      </c>
+      <c r="Q219">
+        <v>-0.5</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>1.9</v>
+      </c>
+      <c r="T219">
+        <v>3.25</v>
+      </c>
+      <c r="U219">
+        <v>1.875</v>
+      </c>
+      <c r="V219">
+        <v>1.975</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7127379</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45347.125</v>
+      </c>
+      <c r="F220" t="s">
+        <v>33</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220">
+        <v>1.95</v>
+      </c>
+      <c r="L220">
+        <v>3.6</v>
+      </c>
+      <c r="M220">
+        <v>3.8</v>
+      </c>
+      <c r="N220">
+        <v>1.95</v>
+      </c>
+      <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
+        <v>3.8</v>
+      </c>
+      <c r="Q220">
+        <v>-0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.98</v>
+      </c>
+      <c r="S220">
+        <v>1.92</v>
+      </c>
+      <c r="T220">
+        <v>2.75</v>
+      </c>
+      <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
+        <v>1.9</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5400063</v>
+        <v>5404732</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
       <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>1.4</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
         <v>1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>1.025</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5404732</v>
+        <v>5400063</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,73 +9160,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>1.75</v>
+      </c>
+      <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
         <v>4</v>
       </c>
-      <c r="J98" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98">
-        <v>2.3</v>
-      </c>
-      <c r="L98">
-        <v>3.75</v>
-      </c>
-      <c r="M98">
-        <v>2.75</v>
-      </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,73 +16458,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N180">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z180">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,73 +16547,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>3</v>
       </c>
       <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>42</v>
+      </c>
+      <c r="K181">
+        <v>1.909</v>
+      </c>
+      <c r="L181">
         <v>4</v>
       </c>
-      <c r="J181" t="s">
-        <v>41</v>
-      </c>
-      <c r="K181">
-        <v>2.45</v>
-      </c>
-      <c r="L181">
-        <v>3.75</v>
-      </c>
       <c r="M181">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7126789</v>
+        <v>7127376</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19659,49 +19659,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45346.14583333334</v>
+        <v>45347.125</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K216">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L216">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M216">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N216">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q216">
         <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
         <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19724,7 +19724,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7127377</v>
+        <v>7127379</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19733,49 +19733,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45346.23958333334</v>
+        <v>45347.125</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L217">
+        <v>3.6</v>
+      </c>
+      <c r="M217">
+        <v>3.8</v>
+      </c>
+      <c r="N217">
+        <v>1.909</v>
+      </c>
+      <c r="O217">
+        <v>3.6</v>
+      </c>
+      <c r="P217">
         <v>4</v>
       </c>
-      <c r="M217">
-        <v>2.6</v>
-      </c>
-      <c r="N217">
-        <v>2.4</v>
-      </c>
-      <c r="O217">
-        <v>4</v>
-      </c>
-      <c r="P217">
-        <v>2.6</v>
-      </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="S217">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="T217">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19798,7 +19798,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7127378</v>
+        <v>7127380</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19807,34 +19807,34 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45346.32291666666</v>
+        <v>45353.125</v>
       </c>
       <c r="F218" t="s">
+        <v>40</v>
+      </c>
+      <c r="G218" t="s">
         <v>34</v>
-      </c>
-      <c r="G218" t="s">
-        <v>31</v>
       </c>
       <c r="K218">
         <v>2.375</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N218">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
         <v>2.07</v>
@@ -19846,10 +19846,10 @@
         <v>3</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V218">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19864,154 +19864,6 @@
         <v>0</v>
       </c>
       <c r="AA218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>7127376</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45347.125</v>
-      </c>
-      <c r="F219" t="s">
-        <v>29</v>
-      </c>
-      <c r="G219" t="s">
-        <v>38</v>
-      </c>
-      <c r="K219">
-        <v>1.95</v>
-      </c>
-      <c r="L219">
-        <v>4</v>
-      </c>
-      <c r="M219">
-        <v>3.4</v>
-      </c>
-      <c r="N219">
-        <v>1.95</v>
-      </c>
-      <c r="O219">
-        <v>4</v>
-      </c>
-      <c r="P219">
-        <v>3.4</v>
-      </c>
-      <c r="Q219">
-        <v>-0.5</v>
-      </c>
-      <c r="R219">
-        <v>2</v>
-      </c>
-      <c r="S219">
-        <v>1.9</v>
-      </c>
-      <c r="T219">
-        <v>3.25</v>
-      </c>
-      <c r="U219">
-        <v>1.875</v>
-      </c>
-      <c r="V219">
-        <v>1.975</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>7127379</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45347.125</v>
-      </c>
-      <c r="F220" t="s">
-        <v>33</v>
-      </c>
-      <c r="G220" t="s">
-        <v>36</v>
-      </c>
-      <c r="K220">
-        <v>1.95</v>
-      </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>3.8</v>
-      </c>
-      <c r="N220">
-        <v>1.95</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>3.8</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>1.98</v>
-      </c>
-      <c r="S220">
-        <v>1.92</v>
-      </c>
-      <c r="T220">
-        <v>2.75</v>
-      </c>
-      <c r="U220">
-        <v>1.95</v>
-      </c>
-      <c r="V220">
-        <v>1.9</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5400043</v>
+        <v>5400042</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,58 +3286,58 @@
         <v>44961.125</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3.25</v>
+      </c>
+      <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="S32">
-        <v>1.875</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,13 +3346,13 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5400042</v>
+        <v>5400043</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,58 +3375,58 @@
         <v>44961.125</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,13 +3435,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5404704</v>
+        <v>5404706</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>44989.125</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N57">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W57">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5404706</v>
+        <v>5404704</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,58 +5600,58 @@
         <v>44989.125</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>42</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N58">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
         <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,16 +5660,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5404714</v>
+        <v>5404713</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45003.125</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P68">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q68">
         <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5404713</v>
+        <v>5404714</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45003.125</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
         <v>2.75</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5404732</v>
+        <v>5400063</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,73 +9071,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97">
+        <v>1.75</v>
+      </c>
+      <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
         <v>4</v>
       </c>
-      <c r="J97" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97">
-        <v>2.3</v>
-      </c>
-      <c r="L97">
-        <v>3.75</v>
-      </c>
-      <c r="M97">
-        <v>2.75</v>
-      </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5400063</v>
+        <v>5404732</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,73 +9160,73 @@
         <v>45044.28125</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.4</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>1.025</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,73 +16458,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>3</v>
       </c>
       <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180" t="s">
+        <v>42</v>
+      </c>
+      <c r="K180">
+        <v>1.909</v>
+      </c>
+      <c r="L180">
         <v>4</v>
       </c>
-      <c r="J180" t="s">
-        <v>41</v>
-      </c>
-      <c r="K180">
-        <v>2.45</v>
-      </c>
-      <c r="L180">
-        <v>3.75</v>
-      </c>
       <c r="M180">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O180">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,73 +16547,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H181">
         <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N181">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z181">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -19205,7 +19205,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19217,76 +19217,76 @@
         <v>45340.125</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K211">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L211">
         <v>3.75</v>
       </c>
       <c r="M211">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N211">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O211">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
+        <v>3.25</v>
+      </c>
+      <c r="Q211">
+        <v>-0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.86</v>
+      </c>
+      <c r="S211">
+        <v>2.04</v>
+      </c>
+      <c r="T211">
         <v>2.75</v>
       </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.8</v>
-      </c>
-      <c r="S211">
-        <v>2.05</v>
-      </c>
-      <c r="T211">
-        <v>3</v>
-      </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA211">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19294,7 +19294,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19306,76 +19306,76 @@
         <v>45340.125</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K212">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L212">
         <v>3.75</v>
       </c>
       <c r="M212">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S212">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z212">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC212">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7127376</v>
+        <v>7126789</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19659,64 +19659,79 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45347.125</v>
+        <v>45346.14583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>43</v>
       </c>
       <c r="K216">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M216">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N216">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P216">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q216">
         <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
         <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>1.025</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19724,7 +19739,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7127379</v>
+        <v>7127377</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19733,64 +19748,79 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45347.125</v>
+        <v>45346.23958333334</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>41</v>
       </c>
       <c r="K217">
+        <v>2.4</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="M217">
+        <v>2.6</v>
+      </c>
+      <c r="N217">
+        <v>2.45</v>
+      </c>
+      <c r="O217">
+        <v>4</v>
+      </c>
+      <c r="P217">
+        <v>2.55</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>1.9</v>
+      </c>
+      <c r="S217">
         <v>1.95</v>
       </c>
-      <c r="L217">
-        <v>3.6</v>
-      </c>
-      <c r="M217">
-        <v>3.8</v>
-      </c>
-      <c r="N217">
-        <v>1.909</v>
-      </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>4</v>
-      </c>
-      <c r="Q217">
+      <c r="T217">
+        <v>3.25</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>1.85</v>
+      </c>
+      <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>1.55</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>0.95</v>
+      </c>
+      <c r="AB217">
         <v>-0.5</v>
       </c>
-      <c r="R217">
-        <v>1.92</v>
-      </c>
-      <c r="S217">
-        <v>1.98</v>
-      </c>
-      <c r="T217">
-        <v>2.75</v>
-      </c>
-      <c r="U217">
-        <v>1.925</v>
-      </c>
-      <c r="V217">
-        <v>1.925</v>
-      </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <v>0</v>
-      </c>
-      <c r="Y217">
-        <v>0</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-      <c r="AA217">
-        <v>0</v>
+      <c r="AC217">
+        <v>0.425</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19798,7 +19828,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7127380</v>
+        <v>7127378</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19807,63 +19837,300 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45353.125</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>43</v>
       </c>
       <c r="K218">
         <v>2.375</v>
       </c>
       <c r="L218">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N218">
         <v>2</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P218">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q218">
         <v>-0.5</v>
       </c>
       <c r="R218">
+        <v>1.975</v>
+      </c>
+      <c r="S218">
+        <v>1.875</v>
+      </c>
+      <c r="T218">
+        <v>2.75</v>
+      </c>
+      <c r="U218">
+        <v>1.925</v>
+      </c>
+      <c r="V218">
+        <v>1.925</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
+        <v>2.4</v>
+      </c>
+      <c r="Y218">
+        <v>-1</v>
+      </c>
+      <c r="Z218">
+        <v>-1</v>
+      </c>
+      <c r="AA218">
+        <v>0.875</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7127376</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45347.125</v>
+      </c>
+      <c r="F219" t="s">
+        <v>29</v>
+      </c>
+      <c r="G219" t="s">
+        <v>38</v>
+      </c>
+      <c r="K219">
+        <v>1.95</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
+      </c>
+      <c r="M219">
+        <v>3.4</v>
+      </c>
+      <c r="N219">
+        <v>1.909</v>
+      </c>
+      <c r="O219">
+        <v>4</v>
+      </c>
+      <c r="P219">
+        <v>3.5</v>
+      </c>
+      <c r="Q219">
+        <v>-0.5</v>
+      </c>
+      <c r="R219">
+        <v>1.92</v>
+      </c>
+      <c r="S219">
+        <v>1.98</v>
+      </c>
+      <c r="T219">
+        <v>3.25</v>
+      </c>
+      <c r="U219">
+        <v>1.825</v>
+      </c>
+      <c r="V219">
+        <v>2.025</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7127379</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45347.125</v>
+      </c>
+      <c r="F220" t="s">
+        <v>33</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220">
+        <v>1.95</v>
+      </c>
+      <c r="L220">
+        <v>3.6</v>
+      </c>
+      <c r="M220">
+        <v>3.8</v>
+      </c>
+      <c r="N220">
+        <v>1.909</v>
+      </c>
+      <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
+        <v>4</v>
+      </c>
+      <c r="Q220">
+        <v>-0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.92</v>
+      </c>
+      <c r="S220">
+        <v>1.98</v>
+      </c>
+      <c r="T220">
+        <v>2.75</v>
+      </c>
+      <c r="U220">
+        <v>1.925</v>
+      </c>
+      <c r="V220">
+        <v>1.925</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7127380</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45353.125</v>
+      </c>
+      <c r="F221" t="s">
+        <v>40</v>
+      </c>
+      <c r="G221" t="s">
+        <v>34</v>
+      </c>
+      <c r="K221">
+        <v>2.375</v>
+      </c>
+      <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
+        <v>2.75</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221">
+        <v>3.6</v>
+      </c>
+      <c r="P221">
+        <v>3.4</v>
+      </c>
+      <c r="Q221">
+        <v>-0.5</v>
+      </c>
+      <c r="R221">
         <v>2.07</v>
       </c>
-      <c r="S218">
+      <c r="S221">
         <v>1.83</v>
       </c>
-      <c r="T218">
+      <c r="T221">
         <v>3</v>
       </c>
-      <c r="U218">
+      <c r="U221">
         <v>1.8</v>
       </c>
-      <c r="V218">
+      <c r="V221">
         <v>2.05</v>
       </c>
-      <c r="W218">
+      <c r="W221">
         <v>0</v>
       </c>
-      <c r="X218">
+      <c r="X221">
         <v>0</v>
       </c>
-      <c r="Y218">
+      <c r="Y221">
         <v>0</v>
       </c>
-      <c r="Z218">
+      <c r="Z221">
         <v>0</v>
       </c>
-      <c r="AA218">
+      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10685,10 +10685,10 @@
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T115">
         <v>3</v>
@@ -10747,31 +10747,31 @@
         <v>1.95</v>
       </c>
       <c r="N116">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O116">
         <v>3.6</v>
       </c>
       <c r="P116">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S116">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -10833,19 +10833,19 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -10895,22 +10895,22 @@
         <v>3.5</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="S118">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T118">
         <v>3.25</v>
@@ -10975,25 +10975,25 @@
         <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S119">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
-      </c>
-      <c r="V119">
-        <v>2</v>
       </c>
       <c r="W119">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -10602,28 +10602,28 @@
         <v>2.9</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q114">
         <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>3.25</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>2.75</v>
       </c>
       <c r="N115">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O115">
         <v>3.6</v>
@@ -10685,10 +10685,10 @@
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S115">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T115">
         <v>3</v>
@@ -10753,25 +10753,25 @@
         <v>3.6</v>
       </c>
       <c r="P116">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S116">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -10821,7 +10821,7 @@
         <v>2.7</v>
       </c>
       <c r="N117">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O117">
         <v>3.4</v>
@@ -10842,10 +10842,10 @@
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>2.2</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q118">
         <v>-0.25</v>
@@ -10969,31 +10969,31 @@
         <v>2.2</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="S119">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T119">
         <v>3</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10589,6 +10589,15 @@
       <c r="G114" t="s">
         <v>29</v>
       </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>42</v>
+      </c>
       <c r="K114">
         <v>3</v>
       </c>
@@ -10605,40 +10614,46 @@
         <v>4</v>
       </c>
       <c r="P114">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q114">
         <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
         <v>3.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
+        <v>1.875</v>
+      </c>
+      <c r="W114">
         <v>1.9</v>
       </c>
-      <c r="V114">
-        <v>1.95</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
       <c r="X114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10646,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7127380</v>
+        <v>7127383</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10655,40 +10670,40 @@
         <v>28</v>
       </c>
       <c r="E115" s="2">
-        <v>45353.125</v>
+        <v>45354.04166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K115">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N115">
         <v>2.1</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S115">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T115">
         <v>3</v>
@@ -10720,7 +10735,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7127381</v>
+        <v>7127384</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10729,28 +10744,28 @@
         <v>28</v>
       </c>
       <c r="E116" s="2">
-        <v>45353.16666666666</v>
+        <v>45354.125</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K116">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N116">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
         <v>2.1</v>
@@ -10786,228 +10801,6 @@
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>7127382</v>
-      </c>
-      <c r="C117" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" t="s">
-        <v>28</v>
-      </c>
-      <c r="E117" s="2">
-        <v>45353.23958333334</v>
-      </c>
-      <c r="F117" t="s">
-        <v>33</v>
-      </c>
-      <c r="G117" t="s">
-        <v>32</v>
-      </c>
-      <c r="K117">
-        <v>2.5</v>
-      </c>
-      <c r="L117">
-        <v>3.4</v>
-      </c>
-      <c r="M117">
-        <v>2.7</v>
-      </c>
-      <c r="N117">
-        <v>2.6</v>
-      </c>
-      <c r="O117">
-        <v>3.4</v>
-      </c>
-      <c r="P117">
-        <v>2.7</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>1.9</v>
-      </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.85</v>
-      </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-      <c r="AA117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>7127383</v>
-      </c>
-      <c r="C118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" t="s">
-        <v>28</v>
-      </c>
-      <c r="E118" s="2">
-        <v>45354.04166666666</v>
-      </c>
-      <c r="F118" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>30</v>
-      </c>
-      <c r="K118">
-        <v>2</v>
-      </c>
-      <c r="L118">
-        <v>3.6</v>
-      </c>
-      <c r="M118">
-        <v>3.5</v>
-      </c>
-      <c r="N118">
-        <v>2.2</v>
-      </c>
-      <c r="O118">
-        <v>3.75</v>
-      </c>
-      <c r="P118">
-        <v>3</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.97</v>
-      </c>
-      <c r="S118">
-        <v>1.93</v>
-      </c>
-      <c r="T118">
-        <v>3.25</v>
-      </c>
-      <c r="U118">
-        <v>2.025</v>
-      </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-      <c r="AA118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>7127384</v>
-      </c>
-      <c r="C119" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="2">
-        <v>45354.125</v>
-      </c>
-      <c r="F119" t="s">
-        <v>35</v>
-      </c>
-      <c r="G119" t="s">
-        <v>38</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119">
-        <v>3.6</v>
-      </c>
-      <c r="M119">
-        <v>2.2</v>
-      </c>
-      <c r="N119">
-        <v>3.2</v>
-      </c>
-      <c r="O119">
-        <v>3.8</v>
-      </c>
-      <c r="P119">
-        <v>2.1</v>
-      </c>
-      <c r="Q119">
-        <v>0.25</v>
-      </c>
-      <c r="R119">
-        <v>2.06</v>
-      </c>
-      <c r="S119">
-        <v>1.84</v>
-      </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>2.05</v>
-      </c>
-      <c r="V119">
-        <v>1.8</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
-        <v>0</v>
-      </c>
-      <c r="AA119">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1.909</v>
+      </c>
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>2.45</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7127383</v>
+        <v>7127380</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10670,64 +10670,79 @@
         <v>28</v>
       </c>
       <c r="E115" s="2">
-        <v>45354.04166666666</v>
+        <v>45353.125</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N115">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q115">
         <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>1.88</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.02</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
+        <v>1.05</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10735,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7127384</v>
+        <v>7127381</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10744,63 +10759,389 @@
         <v>28</v>
       </c>
       <c r="E116" s="2">
-        <v>45354.125</v>
+        <v>45353.16666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N116">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q116">
         <v>0.25</v>
       </c>
       <c r="R116">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="S116">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>1.05</v>
+      </c>
+      <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7127382</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45353.23958333334</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" t="s">
+        <v>32</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>41</v>
+      </c>
+      <c r="K117">
+        <v>2.5</v>
+      </c>
+      <c r="L117">
+        <v>3.4</v>
+      </c>
+      <c r="M117">
+        <v>2.7</v>
+      </c>
+      <c r="N117">
+        <v>2.875</v>
+      </c>
+      <c r="O117">
+        <v>3.8</v>
+      </c>
+      <c r="P117">
+        <v>2.25</v>
+      </c>
+      <c r="Q117">
+        <v>0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
         <v>3</v>
       </c>
-      <c r="U116">
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>2.025</v>
       </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
-      <c r="W116">
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>1.25</v>
+      </c>
+      <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>1</v>
+      </c>
+      <c r="AB117">
+        <v>0.825</v>
+      </c>
+      <c r="AC117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7127383</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45354.04166666666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
+        <v>30</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
+        <v>3.5</v>
+      </c>
+      <c r="N118">
+        <v>1.909</v>
+      </c>
+      <c r="O118">
+        <v>3.8</v>
+      </c>
+      <c r="P118">
+        <v>3.75</v>
+      </c>
+      <c r="Q118">
+        <v>-0.5</v>
+      </c>
+      <c r="R118">
+        <v>1.91</v>
+      </c>
+      <c r="S118">
+        <v>1.99</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
+        <v>1.9</v>
+      </c>
+      <c r="W118">
         <v>0</v>
       </c>
-      <c r="X116">
+      <c r="X118">
         <v>0</v>
       </c>
-      <c r="Y116">
+      <c r="Y118">
         <v>0</v>
       </c>
-      <c r="Z116">
+      <c r="Z118">
         <v>0</v>
       </c>
-      <c r="AA116">
+      <c r="AA118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7127384</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45354.125</v>
+      </c>
+      <c r="F119" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>2.2</v>
+      </c>
+      <c r="N119">
+        <v>3.3</v>
+      </c>
+      <c r="O119">
+        <v>3.8</v>
+      </c>
+      <c r="P119">
+        <v>2.05</v>
+      </c>
+      <c r="Q119">
+        <v>0.5</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>1.85</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7127385</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45359.23958333334</v>
+      </c>
+      <c r="F120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s">
+        <v>40</v>
+      </c>
+      <c r="K120">
+        <v>1.615</v>
+      </c>
+      <c r="L120">
+        <v>4.5</v>
+      </c>
+      <c r="M120">
+        <v>4.5</v>
+      </c>
+      <c r="N120">
+        <v>1.65</v>
+      </c>
+      <c r="O120">
+        <v>4.5</v>
+      </c>
+      <c r="P120">
+        <v>4.333</v>
+      </c>
+      <c r="Q120">
+        <v>-0.75</v>
+      </c>
+      <c r="R120">
+        <v>1.84</v>
+      </c>
+      <c r="S120">
+        <v>2.06</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
+        <v>1.85</v>
+      </c>
+      <c r="V120">
+        <v>2</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -10945,6 +10945,15 @@
       <c r="G118" t="s">
         <v>30</v>
       </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
       <c r="K118">
         <v>2</v>
       </c>
@@ -10955,46 +10964,52 @@
         <v>3.5</v>
       </c>
       <c r="N118">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O118">
         <v>3.8</v>
       </c>
       <c r="P118">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q118">
         <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>0.825</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11019,6 +11034,15 @@
       <c r="G119" t="s">
         <v>38</v>
       </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>42</v>
+      </c>
       <c r="K119">
         <v>3</v>
       </c>
@@ -11029,22 +11053,22 @@
         <v>2.2</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="Q119">
         <v>0.5</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
         <v>3</v>
@@ -11056,19 +11080,25 @@
         <v>1.85</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>1</v>
+      </c>
+      <c r="AC119">
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11103,45 +11133,415 @@
         <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q120">
         <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
+        <v>1.85</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7126791</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45360.20833333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3.5</v>
+      </c>
+      <c r="M121">
+        <v>3.6</v>
+      </c>
+      <c r="N121">
+        <v>1.909</v>
+      </c>
+      <c r="O121">
+        <v>3.8</v>
+      </c>
+      <c r="P121">
+        <v>3.75</v>
+      </c>
+      <c r="Q121">
+        <v>-0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.825</v>
+      </c>
+      <c r="V121">
+        <v>2.025</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7127386</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45360.26041666666</v>
+      </c>
+      <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+      <c r="K122">
+        <v>2.4</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>2.8</v>
+      </c>
+      <c r="N122">
         <v>3</v>
       </c>
-      <c r="U120">
+      <c r="O122">
+        <v>3.5</v>
+      </c>
+      <c r="P122">
+        <v>2.25</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.92</v>
+      </c>
+      <c r="S122">
+        <v>1.98</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+      <c r="U122">
         <v>1.85</v>
       </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-      <c r="X120">
-        <v>0</v>
-      </c>
-      <c r="Y120">
-        <v>0</v>
-      </c>
-      <c r="Z120">
-        <v>0</v>
-      </c>
-      <c r="AA120">
+      <c r="V122">
+        <v>2</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7127387</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45360.32291666666</v>
+      </c>
+      <c r="F123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123">
+        <v>1.909</v>
+      </c>
+      <c r="L123">
+        <v>3.75</v>
+      </c>
+      <c r="M123">
+        <v>3.6</v>
+      </c>
+      <c r="N123">
+        <v>2.15</v>
+      </c>
+      <c r="O123">
+        <v>3.6</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.93</v>
+      </c>
+      <c r="S123">
+        <v>1.97</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
+        <v>1.875</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7127388</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45361.125</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="K124">
+        <v>1.5</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.55</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>4.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>3.5</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7128012</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45361.125</v>
+      </c>
+      <c r="F125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="K125">
+        <v>2.4</v>
+      </c>
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
+        <v>2.75</v>
+      </c>
+      <c r="N125">
+        <v>3.1</v>
+      </c>
+      <c r="O125">
+        <v>3.5</v>
+      </c>
+      <c r="P125">
+        <v>2.2</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>1.95</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
+        <v>1.875</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1.909</v>
+      </c>
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>2.45</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -11123,6 +11123,15 @@
       <c r="G120" t="s">
         <v>40</v>
       </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
+      </c>
       <c r="K120">
         <v>1.615</v>
       </c>
@@ -11133,10 +11142,10 @@
         <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O120">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P120">
         <v>4</v>
@@ -11145,34 +11154,40 @@
         <v>-0.75</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
         <v>1.9</v>
-      </c>
-      <c r="S120">
-        <v>2</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB120">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC120">
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11197,6 +11212,15 @@
       <c r="G121" t="s">
         <v>36</v>
       </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
       <c r="K121">
         <v>2</v>
       </c>
@@ -11207,46 +11231,52 @@
         <v>3.6</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11271,6 +11301,15 @@
       <c r="G122" t="s">
         <v>38</v>
       </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>41</v>
+      </c>
       <c r="K122">
         <v>2.4</v>
       </c>
@@ -11281,46 +11320,52 @@
         <v>2.8</v>
       </c>
       <c r="N122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="S122">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>2</v>
-      </c>
       <c r="W122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="AB122">
+        <v>-0.5</v>
+      </c>
+      <c r="AC122">
+        <v>0.425</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11328,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7127387</v>
+        <v>7128012</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11337,49 +11382,49 @@
         <v>28</v>
       </c>
       <c r="E123" s="2">
-        <v>45360.32291666666</v>
+        <v>45361.125</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N123">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
+        <v>2.25</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.97</v>
+      </c>
+      <c r="S123">
+        <v>1.93</v>
+      </c>
+      <c r="T123">
         <v>3</v>
       </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.93</v>
-      </c>
-      <c r="S123">
-        <v>1.97</v>
-      </c>
-      <c r="T123">
-        <v>3.25</v>
-      </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
         <v>0</v>
@@ -11435,16 +11480,16 @@
         <v>5</v>
       </c>
       <c r="P124">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q124">
         <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T124">
         <v>3.5</v>
@@ -11476,7 +11521,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7662592</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11485,49 +11530,49 @@
         <v>28</v>
       </c>
       <c r="E125" s="2">
-        <v>45361.125</v>
+        <v>45363.20833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11542,6 +11587,154 @@
         <v>0</v>
       </c>
       <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7127392</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45365.20833333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" t="s">
+        <v>38</v>
+      </c>
+      <c r="K126">
+        <v>4.5</v>
+      </c>
+      <c r="L126">
+        <v>3.5</v>
+      </c>
+      <c r="M126">
+        <v>1.8</v>
+      </c>
+      <c r="N126">
+        <v>4.2</v>
+      </c>
+      <c r="O126">
+        <v>3.5</v>
+      </c>
+      <c r="P126">
+        <v>1.909</v>
+      </c>
+      <c r="Q126">
+        <v>0.5</v>
+      </c>
+      <c r="R126">
+        <v>1.95</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>2.025</v>
+      </c>
+      <c r="V126">
+        <v>1.825</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7127389</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45366.23958333334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127">
+        <v>2.25</v>
+      </c>
+      <c r="L127">
+        <v>3.5</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>2.45</v>
+      </c>
+      <c r="O127">
+        <v>3.5</v>
+      </c>
+      <c r="P127">
+        <v>2.75</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>1.83</v>
+      </c>
+      <c r="S127">
+        <v>2.07</v>
+      </c>
+      <c r="T127">
+        <v>3.25</v>
+      </c>
+      <c r="U127">
+        <v>1.85</v>
+      </c>
+      <c r="V127">
+        <v>2</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7128012</v>
+        <v>7127387</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11382,64 +11382,79 @@
         <v>28</v>
       </c>
       <c r="E123" s="2">
-        <v>45361.125</v>
+        <v>45360.32291666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O123">
         <v>3.5</v>
       </c>
       <c r="P123">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S123">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>0.46</v>
+      </c>
+      <c r="AB123">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC123">
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11447,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11459,61 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="s">
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.92</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.98</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>1.05</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.825</v>
+      </c>
+      <c r="AB124">
         <v>0</v>
       </c>
-      <c r="X124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-      <c r="Z124">
-        <v>0</v>
-      </c>
-      <c r="AA124">
-        <v>0</v>
+      <c r="AC124">
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11521,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7662592</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11530,64 +11560,79 @@
         <v>28</v>
       </c>
       <c r="E125" s="2">
-        <v>45363.20833333334</v>
+        <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N125">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P125">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11595,7 +11640,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7127392</v>
+        <v>7662592</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11604,49 +11649,49 @@
         <v>28</v>
       </c>
       <c r="E126" s="2">
-        <v>45365.20833333334</v>
+        <v>45363.20833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K126">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -11669,7 +11714,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7127389</v>
+        <v>7127392</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11678,49 +11723,49 @@
         <v>28</v>
       </c>
       <c r="E127" s="2">
-        <v>45366.23958333334</v>
+        <v>45365.20833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K127">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L127">
         <v>3.5</v>
       </c>
       <c r="M127">
+        <v>1.8</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>1.666</v>
+      </c>
+      <c r="Q127">
+        <v>0.75</v>
+      </c>
+      <c r="R127">
+        <v>2.03</v>
+      </c>
+      <c r="S127">
+        <v>1.87</v>
+      </c>
+      <c r="T127">
         <v>3</v>
       </c>
-      <c r="N127">
-        <v>2.45</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>2.75</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1.83</v>
-      </c>
-      <c r="S127">
-        <v>2.07</v>
-      </c>
-      <c r="T127">
-        <v>3.25</v>
-      </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>0</v>
@@ -11735,6 +11780,302 @@
         <v>0</v>
       </c>
       <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7127389</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45366.23958333334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128" t="s">
+        <v>30</v>
+      </c>
+      <c r="K128">
+        <v>2.25</v>
+      </c>
+      <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>2.3</v>
+      </c>
+      <c r="O128">
+        <v>3.6</v>
+      </c>
+      <c r="P128">
+        <v>2.75</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
+        <v>2.08</v>
+      </c>
+      <c r="S128">
+        <v>1.82</v>
+      </c>
+      <c r="T128">
+        <v>3.5</v>
+      </c>
+      <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
+        <v>1.875</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7127390</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45367.0625</v>
+      </c>
+      <c r="F129" t="s">
+        <v>36</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="K129">
+        <v>2.9</v>
+      </c>
+      <c r="L129">
+        <v>3.6</v>
+      </c>
+      <c r="M129">
+        <v>2.25</v>
+      </c>
+      <c r="N129">
+        <v>3.2</v>
+      </c>
+      <c r="O129">
+        <v>3.6</v>
+      </c>
+      <c r="P129">
+        <v>2.05</v>
+      </c>
+      <c r="Q129">
+        <v>0.25</v>
+      </c>
+      <c r="R129">
+        <v>2.02</v>
+      </c>
+      <c r="S129">
+        <v>1.88</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>1.85</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7940069</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45367.08333333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3.8</v>
+      </c>
+      <c r="M130">
+        <v>3.25</v>
+      </c>
+      <c r="N130">
+        <v>1.85</v>
+      </c>
+      <c r="O130">
+        <v>4</v>
+      </c>
+      <c r="P130">
+        <v>3.5</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.89</v>
+      </c>
+      <c r="S130">
+        <v>2.01</v>
+      </c>
+      <c r="T130">
+        <v>3.5</v>
+      </c>
+      <c r="U130">
+        <v>2.025</v>
+      </c>
+      <c r="V130">
+        <v>1.825</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7940070</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45367.23958333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131">
+        <v>2.75</v>
+      </c>
+      <c r="L131">
+        <v>3.5</v>
+      </c>
+      <c r="M131">
+        <v>2.375</v>
+      </c>
+      <c r="N131">
+        <v>2.8</v>
+      </c>
+      <c r="O131">
+        <v>3.5</v>
+      </c>
+      <c r="P131">
+        <v>2.3</v>
+      </c>
+      <c r="Q131">
+        <v>0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.81</v>
+      </c>
+      <c r="S131">
+        <v>2.09</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.533</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>1.05</v>
       </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11657,6 +11657,15 @@
       <c r="G126" t="s">
         <v>33</v>
       </c>
+      <c r="H126">
+        <v>7</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>42</v>
+      </c>
       <c r="K126">
         <v>2.1</v>
       </c>
@@ -11670,7 +11679,7 @@
         <v>1.85</v>
       </c>
       <c r="O126">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
         <v>3.8</v>
@@ -11679,34 +11688,40 @@
         <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>0.925</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11731,6 +11746,15 @@
       <c r="G127" t="s">
         <v>38</v>
       </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127" t="s">
+        <v>43</v>
+      </c>
       <c r="K127">
         <v>4.5</v>
       </c>
@@ -11741,22 +11765,22 @@
         <v>1.8</v>
       </c>
       <c r="N127">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
-        <v>2.03</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
         <v>3</v>
@@ -11768,19 +11792,25 @@
         <v>1.9</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.95</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11805,6 +11835,15 @@
       <c r="G128" t="s">
         <v>30</v>
       </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>41</v>
+      </c>
       <c r="K128">
         <v>2.25</v>
       </c>
@@ -11815,10 +11854,10 @@
         <v>3</v>
       </c>
       <c r="N128">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
         <v>2.75</v>
@@ -11827,37 +11866,43 @@
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
         <v>3.5</v>
       </c>
       <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="V128">
-        <v>1.875</v>
-      </c>
       <c r="W128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11879,6 +11924,15 @@
       <c r="G129" t="s">
         <v>32</v>
       </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>42</v>
+      </c>
       <c r="K129">
         <v>2.9</v>
       </c>
@@ -11889,49 +11943,55 @@
         <v>2.25</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q129">
         <v>0.25</v>
       </c>
       <c r="R129">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>0.4625</v>
+      </c>
+      <c r="AC129">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11953,6 +12013,15 @@
       <c r="G130" t="s">
         <v>31</v>
       </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" t="s">
+        <v>41</v>
+      </c>
       <c r="K130">
         <v>2</v>
       </c>
@@ -11963,49 +12032,55 @@
         <v>3.25</v>
       </c>
       <c r="N130">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>3.5</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12027,6 +12102,15 @@
       <c r="G131" t="s">
         <v>33</v>
       </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>41</v>
+      </c>
       <c r="K131">
         <v>2.75</v>
       </c>
@@ -12037,46 +12121,52 @@
         <v>2.375</v>
       </c>
       <c r="N131">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB131">
+        <v>-0.5</v>
+      </c>
+      <c r="AC131">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -12167,6 +12167,450 @@
       </c>
       <c r="AC131">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7127395</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45380.23958333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
+        <v>40</v>
+      </c>
+      <c r="K132">
+        <v>1.666</v>
+      </c>
+      <c r="L132">
+        <v>4.2</v>
+      </c>
+      <c r="M132">
+        <v>4.333</v>
+      </c>
+      <c r="N132">
+        <v>1.85</v>
+      </c>
+      <c r="O132">
+        <v>4.5</v>
+      </c>
+      <c r="P132">
+        <v>3.4</v>
+      </c>
+      <c r="Q132">
+        <v>-0.5</v>
+      </c>
+      <c r="R132">
+        <v>1.89</v>
+      </c>
+      <c r="S132">
+        <v>2.01</v>
+      </c>
+      <c r="T132">
+        <v>3.5</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7126793</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45381.14583333334</v>
+      </c>
+      <c r="F133" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K133">
+        <v>1.571</v>
+      </c>
+      <c r="L133">
+        <v>4.333</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>1.533</v>
+      </c>
+      <c r="O133">
+        <v>4.75</v>
+      </c>
+      <c r="P133">
+        <v>5.25</v>
+      </c>
+      <c r="Q133">
+        <v>-1</v>
+      </c>
+      <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
+        <v>1.875</v>
+      </c>
+      <c r="V133">
+        <v>1.975</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7127396</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45381.23958333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>37</v>
+      </c>
+      <c r="K134">
+        <v>2.15</v>
+      </c>
+      <c r="L134">
+        <v>3.6</v>
+      </c>
+      <c r="M134">
+        <v>3.1</v>
+      </c>
+      <c r="N134">
+        <v>2.15</v>
+      </c>
+      <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>3.1</v>
+      </c>
+      <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.93</v>
+      </c>
+      <c r="S134">
+        <v>1.97</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>1.8</v>
+      </c>
+      <c r="V134">
+        <v>2.05</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7127394</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45381.875</v>
+      </c>
+      <c r="F135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" t="s">
+        <v>35</v>
+      </c>
+      <c r="K135">
+        <v>1.8</v>
+      </c>
+      <c r="L135">
+        <v>3.8</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>3.6</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>2.06</v>
+      </c>
+      <c r="S135">
+        <v>1.84</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>1.925</v>
+      </c>
+      <c r="V135">
+        <v>1.925</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7127397</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45382.04166666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" t="s">
+        <v>34</v>
+      </c>
+      <c r="K136">
+        <v>1.4</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136">
+        <v>6.5</v>
+      </c>
+      <c r="N136">
+        <v>1.4</v>
+      </c>
+      <c r="O136">
+        <v>5.5</v>
+      </c>
+      <c r="P136">
+        <v>6.5</v>
+      </c>
+      <c r="Q136">
+        <v>-1.25</v>
+      </c>
+      <c r="R136">
+        <v>1.91</v>
+      </c>
+      <c r="S136">
+        <v>1.99</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
+        <v>1.925</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7127398</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45383.04166666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" t="s">
+        <v>33</v>
+      </c>
+      <c r="K137">
+        <v>2.5</v>
+      </c>
+      <c r="L137">
+        <v>3.5</v>
+      </c>
+      <c r="M137">
+        <v>2.625</v>
+      </c>
+      <c r="N137">
+        <v>2.625</v>
+      </c>
+      <c r="O137">
+        <v>3.75</v>
+      </c>
+      <c r="P137">
+        <v>2.45</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>2.03</v>
+      </c>
+      <c r="S137">
+        <v>1.87</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>1.95</v>
+      </c>
+      <c r="V137">
+        <v>1.9</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1.909</v>
+      </c>
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>2.45</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -12191,6 +12191,15 @@
       <c r="G132" t="s">
         <v>40</v>
       </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>42</v>
+      </c>
       <c r="K132">
         <v>1.666</v>
       </c>
@@ -12201,46 +12210,52 @@
         <v>4.333</v>
       </c>
       <c r="N132">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O132">
         <v>4.5</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q132">
         <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.89</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2.01</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,10 +12302,10 @@
         <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T133">
         <v>3.25</v>
@@ -12361,19 +12376,19 @@
         <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U134">
+        <v>2.05</v>
+      </c>
+      <c r="V134">
         <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2.05</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -12423,31 +12438,31 @@
         <v>4</v>
       </c>
       <c r="N135">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
         <v>3.6</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S135">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12497,22 +12512,22 @@
         <v>6.5</v>
       </c>
       <c r="N136">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
         <v>5.5</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q136">
         <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S136">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T136">
         <v>3.25</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.75</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1.05</v>
       </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12302,10 +12302,10 @@
         <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S133">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="T133">
         <v>3.25</v>
@@ -12364,22 +12364,22 @@
         <v>3.1</v>
       </c>
       <c r="N134">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
         <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q134">
         <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T134">
         <v>3</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1.909</v>
+      </c>
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>2.45</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7126793</v>
+        <v>7127394</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12272,49 +12272,49 @@
         <v>28</v>
       </c>
       <c r="E133" s="2">
-        <v>45381.14583333334</v>
+        <v>45381.875</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K133">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S133">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12337,7 +12337,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7127396</v>
+        <v>7127397</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12346,49 +12346,49 @@
         <v>28</v>
       </c>
       <c r="E134" s="2">
-        <v>45381.23958333334</v>
+        <v>45382.04166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K134">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M134">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P134">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R134">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7127394</v>
+        <v>7127398</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12420,49 +12420,49 @@
         <v>28</v>
       </c>
       <c r="E135" s="2">
-        <v>45381.875</v>
+        <v>45383.04166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K135">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>2.625</v>
+      </c>
+      <c r="N135">
+        <v>2.9</v>
+      </c>
+      <c r="O135">
         <v>3.8</v>
       </c>
-      <c r="M135">
-        <v>4</v>
-      </c>
-      <c r="N135">
-        <v>2.05</v>
-      </c>
-      <c r="O135">
-        <v>3.6</v>
-      </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="S135">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12485,7 +12485,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7127397</v>
+        <v>7898681</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12494,49 +12494,49 @@
         <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>45382.04166666666</v>
+        <v>45384.20833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K136">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O136">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="S136">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12551,80 +12551,6 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>7127398</v>
-      </c>
-      <c r="C137" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="2">
-        <v>45383.04166666666</v>
-      </c>
-      <c r="F137" t="s">
-        <v>31</v>
-      </c>
-      <c r="G137" t="s">
-        <v>33</v>
-      </c>
-      <c r="K137">
-        <v>2.5</v>
-      </c>
-      <c r="L137">
-        <v>3.5</v>
-      </c>
-      <c r="M137">
-        <v>2.625</v>
-      </c>
-      <c r="N137">
-        <v>2.625</v>
-      </c>
-      <c r="O137">
-        <v>3.75</v>
-      </c>
-      <c r="P137">
-        <v>2.45</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>2.03</v>
-      </c>
-      <c r="S137">
-        <v>1.87</v>
-      </c>
-      <c r="T137">
-        <v>3.25</v>
-      </c>
-      <c r="U137">
-        <v>1.95</v>
-      </c>
-      <c r="V137">
-        <v>1.9</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7127394</v>
+        <v>7126793</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12272,64 +12272,79 @@
         <v>28</v>
       </c>
       <c r="E133" s="2">
-        <v>45381.875</v>
+        <v>45381.14583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L133">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
+        <v>5.25</v>
+      </c>
+      <c r="P133">
+        <v>6.5</v>
+      </c>
+      <c r="Q133">
+        <v>-1.25</v>
+      </c>
+      <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
         <v>3.5</v>
       </c>
-      <c r="P133">
-        <v>3.2</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.98</v>
-      </c>
-      <c r="S133">
-        <v>1.92</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12337,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7127397</v>
+        <v>7127396</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12346,64 +12361,79 @@
         <v>28</v>
       </c>
       <c r="E134" s="2">
-        <v>45382.04166666666</v>
+        <v>45381.23958333334</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>42</v>
       </c>
       <c r="K134">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O134">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
+        <v>1.825</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
         <v>1.85</v>
       </c>
-      <c r="T134">
-        <v>3.25</v>
-      </c>
-      <c r="U134">
-        <v>1.875</v>
-      </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12438,22 +12468,22 @@
         <v>2.625</v>
       </c>
       <c r="N135">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O135">
         <v>3.8</v>
       </c>
       <c r="P135">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S135">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T135">
         <v>3.25</v>
@@ -12512,31 +12542,31 @@
         <v>3</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q136">
         <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>0</v>
@@ -12551,6 +12581,80 @@
         <v>0</v>
       </c>
       <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7661947</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45385.32291666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137">
+        <v>3.1</v>
+      </c>
+      <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
+        <v>2.2</v>
+      </c>
+      <c r="N137">
+        <v>3.8</v>
+      </c>
+      <c r="O137">
+        <v>4.2</v>
+      </c>
+      <c r="P137">
+        <v>1.8</v>
+      </c>
+      <c r="Q137">
+        <v>0.5</v>
+      </c>
+      <c r="R137">
+        <v>2.04</v>
+      </c>
+      <c r="S137">
+        <v>1.86</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
+        <v>1.975</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7127398</v>
+        <v>7127394</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12450,64 +12450,79 @@
         <v>28</v>
       </c>
       <c r="E135" s="2">
-        <v>45383.04166666666</v>
+        <v>45381.875</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
+        <v>3.8</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>2.2</v>
+      </c>
+      <c r="O135">
         <v>3.5</v>
       </c>
-      <c r="M135">
-        <v>2.625</v>
-      </c>
-      <c r="N135">
-        <v>2.625</v>
-      </c>
-      <c r="O135">
-        <v>3.8</v>
-      </c>
       <c r="P135">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2.02</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.88</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12515,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7898681</v>
+        <v>7127397</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12524,64 +12539,79 @@
         <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>45384.20833333334</v>
+        <v>45382.04166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12589,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7661947</v>
+        <v>7127398</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12598,63 +12628,670 @@
         <v>28</v>
       </c>
       <c r="E137" s="2">
-        <v>45385.32291666666</v>
+        <v>45383.04166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137" t="s">
+        <v>41</v>
       </c>
       <c r="K137">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="N137">
+        <v>2.6</v>
+      </c>
+      <c r="O137">
         <v>3.8</v>
       </c>
-      <c r="O137">
-        <v>4.2</v>
-      </c>
       <c r="P137">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S137">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T137">
         <v>3.25</v>
       </c>
       <c r="U137">
+        <v>1.9</v>
+      </c>
+      <c r="V137">
+        <v>1.95</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>1.45</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB137">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7898681</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45384.20833333334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="K138">
+        <v>2.1</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>2.2</v>
+      </c>
+      <c r="O138">
+        <v>3.8</v>
+      </c>
+      <c r="P138">
+        <v>3</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.95</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>1.85</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7661947</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45385.32291666666</v>
+      </c>
+      <c r="F139" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139">
+        <v>3.1</v>
+      </c>
+      <c r="L139">
+        <v>3.6</v>
+      </c>
+      <c r="M139">
+        <v>2.2</v>
+      </c>
+      <c r="N139">
+        <v>3.8</v>
+      </c>
+      <c r="O139">
+        <v>4.2</v>
+      </c>
+      <c r="P139">
+        <v>1.8</v>
+      </c>
+      <c r="Q139">
+        <v>0.75</v>
+      </c>
+      <c r="R139">
+        <v>1.84</v>
+      </c>
+      <c r="S139">
+        <v>2.06</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
         <v>1.875</v>
       </c>
-      <c r="V137">
+      <c r="V139">
         <v>1.975</v>
       </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-      <c r="Y137">
-        <v>0</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7127399</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45387.23958333334</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="K140">
+        <v>2.1</v>
+      </c>
+      <c r="L140">
+        <v>3.75</v>
+      </c>
+      <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>3.2</v>
+      </c>
+      <c r="Q140">
+        <v>-0.5</v>
+      </c>
+      <c r="R140">
+        <v>2.03</v>
+      </c>
+      <c r="S140">
+        <v>1.87</v>
+      </c>
+      <c r="T140">
+        <v>3.25</v>
+      </c>
+      <c r="U140">
+        <v>2.025</v>
+      </c>
+      <c r="V140">
+        <v>1.825</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>8034339</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45388.0625</v>
+      </c>
+      <c r="F141" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141">
+        <v>2.6</v>
+      </c>
+      <c r="L141">
+        <v>3.5</v>
+      </c>
+      <c r="M141">
+        <v>2.55</v>
+      </c>
+      <c r="N141">
+        <v>2.1</v>
+      </c>
+      <c r="O141">
+        <v>3.75</v>
+      </c>
+      <c r="P141">
+        <v>3.1</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>2.05</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>1.925</v>
+      </c>
+      <c r="V141">
+        <v>1.925</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>8005739</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45388.14583333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>36</v>
+      </c>
+      <c r="K142">
+        <v>1.8</v>
+      </c>
+      <c r="L142">
+        <v>3.6</v>
+      </c>
+      <c r="M142">
+        <v>4.333</v>
+      </c>
+      <c r="N142">
+        <v>1.727</v>
+      </c>
+      <c r="O142">
+        <v>3.6</v>
+      </c>
+      <c r="P142">
+        <v>4.75</v>
+      </c>
+      <c r="Q142">
+        <v>-0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.99</v>
+      </c>
+      <c r="S142">
+        <v>1.91</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>1.85</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7126794</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45388.23958333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>29</v>
+      </c>
+      <c r="K143">
+        <v>1.833</v>
+      </c>
+      <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>4.5</v>
+      </c>
+      <c r="N143">
+        <v>2.15</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>3</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
+        <v>1.95</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.8</v>
+      </c>
+      <c r="V143">
+        <v>2.05</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7127403</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144">
+        <v>3.6</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>1.952</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>1.85</v>
+      </c>
+      <c r="Q144">
+        <v>0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.98</v>
+      </c>
+      <c r="S144">
+        <v>1.92</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
+        <v>1.975</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7127402</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45389.16666666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="K145">
+        <v>2.25</v>
+      </c>
+      <c r="L145">
+        <v>3.5</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>2.6</v>
+      </c>
+      <c r="O145">
+        <v>3.5</v>
+      </c>
+      <c r="P145">
+        <v>2.6</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.95</v>
+      </c>
+      <c r="T145">
+        <v>3.25</v>
+      </c>
+      <c r="U145">
+        <v>1.925</v>
+      </c>
+      <c r="V145">
+        <v>1.925</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -12725,6 +12725,15 @@
       <c r="G138" t="s">
         <v>29</v>
       </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>42</v>
+      </c>
       <c r="K138">
         <v>2.1</v>
       </c>
@@ -12735,46 +12744,52 @@
         <v>3</v>
       </c>
       <c r="N138">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P138">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>0.5125</v>
+      </c>
+      <c r="AC138">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,31 +12824,31 @@
         <v>2.2</v>
       </c>
       <c r="N139">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O139">
         <v>4.2</v>
       </c>
       <c r="P139">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q139">
         <v>0.75</v>
       </c>
       <c r="R139">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S139">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T139">
         <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12904,10 +12919,10 @@
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12957,10 +12972,10 @@
         <v>2.55</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
         <v>3.1</v>
@@ -12969,19 +12984,19 @@
         <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T141">
         <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13031,31 +13046,31 @@
         <v>4.333</v>
       </c>
       <c r="N142">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q142">
         <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S142">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13105,7 +13120,7 @@
         <v>4.5</v>
       </c>
       <c r="N143">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O143">
         <v>3.75</v>
@@ -13117,19 +13132,19 @@
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13191,10 +13206,10 @@
         <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
         <v>3</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.533</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>1.05</v>
       </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7661947</v>
+        <v>7127399</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12806,49 +12806,49 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45385.32291666666</v>
+        <v>45387.23958333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K139">
+        <v>2.1</v>
+      </c>
+      <c r="L139">
+        <v>3.75</v>
+      </c>
+      <c r="M139">
         <v>3.1</v>
       </c>
-      <c r="L139">
-        <v>3.6</v>
-      </c>
-      <c r="M139">
-        <v>2.2</v>
-      </c>
       <c r="N139">
+        <v>1.95</v>
+      </c>
+      <c r="O139">
         <v>4</v>
       </c>
-      <c r="O139">
-        <v>4.2</v>
-      </c>
       <c r="P139">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S139">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="T139">
         <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7127399</v>
+        <v>8034339</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12880,49 +12880,49 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45387.23958333334</v>
+        <v>45388.0625</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
+        <v>2.55</v>
+      </c>
+      <c r="N140">
+        <v>2.05</v>
+      </c>
+      <c r="O140">
+        <v>3.8</v>
+      </c>
+      <c r="P140">
         <v>3.1</v>
       </c>
-      <c r="N140">
-        <v>2</v>
-      </c>
-      <c r="O140">
-        <v>4</v>
-      </c>
-      <c r="P140">
-        <v>3.2</v>
-      </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8034339</v>
+        <v>8005739</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12954,49 +12954,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45388.0625</v>
+        <v>45388.14583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N141">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="S141">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13019,7 +13019,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>8005739</v>
+        <v>7126794</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13028,49 +13028,49 @@
         <v>28</v>
       </c>
       <c r="E142" s="2">
-        <v>45388.14583333334</v>
+        <v>45388.23958333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K142">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N142">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O142">
         <v>3.75</v>
       </c>
       <c r="P142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S142">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13093,7 +13093,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7126794</v>
+        <v>7127403</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13102,49 +13102,49 @@
         <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>45388.23958333334</v>
+        <v>45389.08333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K143">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>4.5</v>
+        <v>1.952</v>
       </c>
       <c r="N143">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13167,7 +13167,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7127403</v>
+        <v>7127402</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13176,49 +13176,49 @@
         <v>28</v>
       </c>
       <c r="E144" s="2">
-        <v>45389.08333333334</v>
+        <v>45389.16666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>1.952</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -13233,80 +13233,6 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>7127402</v>
-      </c>
-      <c r="C145" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" s="2">
-        <v>45389.16666666666</v>
-      </c>
-      <c r="F145" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" t="s">
-        <v>30</v>
-      </c>
-      <c r="K145">
-        <v>2.25</v>
-      </c>
-      <c r="L145">
-        <v>3.5</v>
-      </c>
-      <c r="M145">
-        <v>3</v>
-      </c>
-      <c r="N145">
-        <v>2.6</v>
-      </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
-      <c r="P145">
-        <v>2.6</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.95</v>
-      </c>
-      <c r="T145">
-        <v>3.25</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.75</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1.05</v>
       </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12824,22 +12824,22 @@
         <v>3.1</v>
       </c>
       <c r="N139">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O139">
         <v>4</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S139">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
         <v>3.25</v>
@@ -12904,7 +12904,7 @@
         <v>3.8</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
@@ -12972,31 +12972,31 @@
         <v>4.333</v>
       </c>
       <c r="N141">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
         <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="S141">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13046,31 +13046,31 @@
         <v>4.5</v>
       </c>
       <c r="N142">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S142">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13120,31 +13120,31 @@
         <v>1.952</v>
       </c>
       <c r="N143">
+        <v>4.2</v>
+      </c>
+      <c r="O143">
         <v>4</v>
-      </c>
-      <c r="O143">
-        <v>3.8</v>
       </c>
       <c r="P143">
         <v>1.8</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="T143">
         <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13194,31 +13194,31 @@
         <v>3</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
         <v>3.5</v>
       </c>
       <c r="P144">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q144">
         <v>0</v>
       </c>
       <c r="R144">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S144">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T144">
         <v>3.5</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.533</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>1.05</v>
       </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12797,7 +12797,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7127399</v>
+        <v>7661947</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12806,64 +12806,79 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45387.23958333334</v>
+        <v>45385.32291666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>43</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L139">
+        <v>3.6</v>
+      </c>
+      <c r="M139">
+        <v>2.2</v>
+      </c>
+      <c r="N139">
+        <v>5</v>
+      </c>
+      <c r="O139">
+        <v>4.75</v>
+      </c>
+      <c r="P139">
+        <v>1.55</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
+        <v>1.875</v>
+      </c>
+      <c r="T139">
+        <v>3.5</v>
+      </c>
+      <c r="U139">
+        <v>1.925</v>
+      </c>
+      <c r="V139">
+        <v>1.925</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
         <v>3.75</v>
       </c>
-      <c r="M139">
-        <v>3.1</v>
-      </c>
-      <c r="N139">
-        <v>2.1</v>
-      </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <v>3.1</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.85</v>
-      </c>
-      <c r="S139">
-        <v>2.05</v>
-      </c>
-      <c r="T139">
-        <v>3.25</v>
-      </c>
-      <c r="U139">
-        <v>2</v>
-      </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
+        <v>0.925</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12871,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8034339</v>
+        <v>7127399</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12880,64 +12895,79 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45388.0625</v>
+        <v>45387.23958333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>41</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB140">
+        <v>-0.5</v>
+      </c>
+      <c r="AC140">
+        <v>0.425</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12945,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8005739</v>
+        <v>8034339</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12954,49 +12984,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45388.14583333334</v>
+        <v>45388.0625</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N141">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13019,7 +13049,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7126794</v>
+        <v>8005739</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13028,49 +13058,49 @@
         <v>28</v>
       </c>
       <c r="E142" s="2">
-        <v>45388.23958333334</v>
+        <v>45388.14583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K142">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13093,7 +13123,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7127403</v>
+        <v>7126794</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13102,49 +13132,49 @@
         <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>45389.08333333334</v>
+        <v>45388.23958333334</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K143">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>1.952</v>
+        <v>4.5</v>
       </c>
       <c r="N143">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P143">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="S143">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
+        <v>1.95</v>
+      </c>
+      <c r="V143">
         <v>1.9</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13167,7 +13197,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7127402</v>
+        <v>7127403</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13176,49 +13206,49 @@
         <v>28</v>
       </c>
       <c r="E144" s="2">
-        <v>45389.16666666666</v>
+        <v>45389.08333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>1.952</v>
       </c>
       <c r="N144">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R144">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="S144">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T144">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -13233,6 +13263,80 @@
         <v>0</v>
       </c>
       <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7127402</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45389.16666666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="K145">
+        <v>2.25</v>
+      </c>
+      <c r="L145">
+        <v>3.5</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>2.7</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>2.4</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>1.85</v>
+      </c>
+      <c r="T145">
+        <v>3.5</v>
+      </c>
+      <c r="U145">
+        <v>1.9</v>
+      </c>
+      <c r="V145">
+        <v>1.95</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1.909</v>
+      </c>
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>2.45</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.75</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1.05</v>
       </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8034339</v>
+        <v>7127403</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,49 +12984,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45388.0625</v>
+        <v>45389.08333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.55</v>
+        <v>1.952</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O141">
         <v>4.2</v>
       </c>
       <c r="P141">
+        <v>1.75</v>
+      </c>
+      <c r="Q141">
+        <v>0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
         <v>3.25</v>
       </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>2</v>
-      </c>
-      <c r="S141">
-        <v>1.9</v>
-      </c>
-      <c r="T141">
-        <v>3.5</v>
-      </c>
       <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
-      </c>
-      <c r="V141">
-        <v>1.875</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -13049,7 +13049,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>8005739</v>
+        <v>7127402</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13058,49 +13058,49 @@
         <v>28</v>
       </c>
       <c r="E142" s="2">
-        <v>45388.14583333334</v>
+        <v>45389.16666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K142">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P142">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13123,7 +13123,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7126794</v>
+        <v>7127408</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13132,49 +13132,49 @@
         <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>45388.23958333334</v>
+        <v>45395.10416666666</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K143">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M143">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="N143">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R143">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="S143">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13189,154 +13189,6 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>7127403</v>
-      </c>
-      <c r="C144" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" t="s">
-        <v>28</v>
-      </c>
-      <c r="E144" s="2">
-        <v>45389.08333333334</v>
-      </c>
-      <c r="F144" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
-      <c r="K144">
-        <v>3.6</v>
-      </c>
-      <c r="L144">
-        <v>3.6</v>
-      </c>
-      <c r="M144">
-        <v>1.952</v>
-      </c>
-      <c r="N144">
-        <v>4</v>
-      </c>
-      <c r="O144">
-        <v>4.2</v>
-      </c>
-      <c r="P144">
-        <v>1.75</v>
-      </c>
-      <c r="Q144">
-        <v>0.75</v>
-      </c>
-      <c r="R144">
-        <v>1.92</v>
-      </c>
-      <c r="S144">
-        <v>1.98</v>
-      </c>
-      <c r="T144">
-        <v>3.25</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
-      </c>
-      <c r="Y144">
-        <v>0</v>
-      </c>
-      <c r="Z144">
-        <v>0</v>
-      </c>
-      <c r="AA144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>7127402</v>
-      </c>
-      <c r="C145" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" s="2">
-        <v>45389.16666666666</v>
-      </c>
-      <c r="F145" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" t="s">
-        <v>30</v>
-      </c>
-      <c r="K145">
-        <v>2.25</v>
-      </c>
-      <c r="L145">
-        <v>3.5</v>
-      </c>
-      <c r="M145">
-        <v>3</v>
-      </c>
-      <c r="N145">
-        <v>2.7</v>
-      </c>
-      <c r="O145">
-        <v>3.75</v>
-      </c>
-      <c r="P145">
-        <v>2.4</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>2.05</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>3.5</v>
-      </c>
-      <c r="U145">
-        <v>1.9</v>
-      </c>
-      <c r="V145">
-        <v>1.95</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7127403</v>
+        <v>8034339</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12984,64 +12984,79 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45389.08333333334</v>
+        <v>45388.0625</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>1.952</v>
+        <v>2.55</v>
       </c>
       <c r="N141">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="O141">
         <v>4.2</v>
       </c>
       <c r="P141">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
         <v>1.875</v>
       </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
       <c r="W141">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC141">
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13049,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7127402</v>
+        <v>8005739</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13058,43 +13073,52 @@
         <v>28</v>
       </c>
       <c r="E142" s="2">
-        <v>45389.16666666666</v>
+        <v>45388.14583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N142">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O142">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>2.06</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>1.84</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
         <v>1.925</v>
@@ -13103,19 +13127,25 @@
         <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB142">
+        <v>0.925</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13123,72 +13153,709 @@
         <v>141</v>
       </c>
       <c r="B143">
+        <v>7126794</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45388.23958333334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>42</v>
+      </c>
+      <c r="K143">
+        <v>1.833</v>
+      </c>
+      <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>4.5</v>
+      </c>
+      <c r="N143">
+        <v>2.55</v>
+      </c>
+      <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
+        <v>2.75</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.925</v>
+      </c>
+      <c r="V143">
+        <v>1.925</v>
+      </c>
+      <c r="W143">
+        <v>1.55</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
+        <v>0.4625</v>
+      </c>
+      <c r="AC143">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7127403</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>42</v>
+      </c>
+      <c r="K144">
+        <v>3.6</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>1.952</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144">
+        <v>4.5</v>
+      </c>
+      <c r="P144">
+        <v>1.6</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+      <c r="R144">
+        <v>1.875</v>
+      </c>
+      <c r="S144">
+        <v>1.975</v>
+      </c>
+      <c r="T144">
+        <v>3.25</v>
+      </c>
+      <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
+        <v>1.975</v>
+      </c>
+      <c r="W144">
+        <v>4</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.875</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.875</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7127402</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45389.16666666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145" t="s">
+        <v>41</v>
+      </c>
+      <c r="K145">
+        <v>2.25</v>
+      </c>
+      <c r="L145">
+        <v>3.5</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145">
+        <v>3.8</v>
+      </c>
+      <c r="P145">
+        <v>2.2</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.975</v>
+      </c>
+      <c r="T145">
+        <v>3.75</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.85</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>1.2</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB145">
+        <v>1</v>
+      </c>
+      <c r="AC145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7127404</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45394.16666666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" t="s">
+        <v>38</v>
+      </c>
+      <c r="K146">
+        <v>3.1</v>
+      </c>
+      <c r="L146">
+        <v>3.4</v>
+      </c>
+      <c r="M146">
+        <v>2.25</v>
+      </c>
+      <c r="N146">
+        <v>3.4</v>
+      </c>
+      <c r="O146">
+        <v>3.5</v>
+      </c>
+      <c r="P146">
+        <v>2.1</v>
+      </c>
+      <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>2.01</v>
+      </c>
+      <c r="S146">
+        <v>1.89</v>
+      </c>
+      <c r="T146">
+        <v>2.75</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>1.85</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7127405</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45394.28125</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147">
+        <v>1.833</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>3.75</v>
+      </c>
+      <c r="N147">
+        <v>1.85</v>
+      </c>
+      <c r="O147">
+        <v>4</v>
+      </c>
+      <c r="P147">
+        <v>3.75</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.87</v>
+      </c>
+      <c r="S147">
+        <v>2.03</v>
+      </c>
+      <c r="T147">
+        <v>3.5</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
+        <v>1.9</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
         <v>7127408</v>
       </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="2">
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
         <v>45395.10416666666</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F148" t="s">
         <v>40</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G148" t="s">
         <v>37</v>
       </c>
-      <c r="K143">
+      <c r="K148">
         <v>3.5</v>
       </c>
-      <c r="L143">
+      <c r="L148">
         <v>3.8</v>
       </c>
-      <c r="M143">
+      <c r="M148">
         <v>1.909</v>
       </c>
-      <c r="N143">
+      <c r="N148">
         <v>3.4</v>
       </c>
-      <c r="O143">
+      <c r="O148">
         <v>3.8</v>
       </c>
-      <c r="P143">
+      <c r="P148">
         <v>1.95</v>
       </c>
-      <c r="Q143">
+      <c r="Q148">
         <v>0.5</v>
       </c>
-      <c r="R143">
-        <v>1.88</v>
-      </c>
-      <c r="S143">
-        <v>2.02</v>
-      </c>
-      <c r="T143">
+      <c r="R148">
+        <v>1.89</v>
+      </c>
+      <c r="S148">
+        <v>2.01</v>
+      </c>
+      <c r="T148">
         <v>3</v>
       </c>
-      <c r="U143">
+      <c r="U148">
         <v>1.975</v>
       </c>
-      <c r="V143">
+      <c r="V148">
         <v>1.875</v>
       </c>
-      <c r="W143">
+      <c r="W148">
         <v>0</v>
       </c>
-      <c r="X143">
+      <c r="X148">
         <v>0</v>
       </c>
-      <c r="Y143">
+      <c r="Y148">
         <v>0</v>
       </c>
-      <c r="Z143">
+      <c r="Z148">
         <v>0</v>
       </c>
-      <c r="AA143">
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7127407</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45395.1875</v>
+      </c>
+      <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s">
+        <v>39</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>3.25</v>
+      </c>
+      <c r="N149">
+        <v>1.833</v>
+      </c>
+      <c r="O149">
+        <v>3.75</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.86</v>
+      </c>
+      <c r="S149">
+        <v>2.04</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.925</v>
+      </c>
+      <c r="V149">
+        <v>1.925</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7127406</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45395.28125</v>
+      </c>
+      <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="K150">
+        <v>1.833</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>3.75</v>
+      </c>
+      <c r="N150">
+        <v>1.615</v>
+      </c>
+      <c r="O150">
+        <v>4.333</v>
+      </c>
+      <c r="P150">
+        <v>4.5</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
+        <v>2.05</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.925</v>
+      </c>
+      <c r="V150">
+        <v>1.925</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7127409</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45396.08333333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>34</v>
+      </c>
+      <c r="K151">
+        <v>1.571</v>
+      </c>
+      <c r="L151">
+        <v>4.5</v>
+      </c>
+      <c r="M151">
+        <v>4.75</v>
+      </c>
+      <c r="N151">
+        <v>1.444</v>
+      </c>
+      <c r="O151">
+        <v>5</v>
+      </c>
+      <c r="P151">
+        <v>6</v>
+      </c>
+      <c r="Q151">
+        <v>-1.25</v>
+      </c>
+      <c r="R151">
+        <v>1.91</v>
+      </c>
+      <c r="S151">
+        <v>1.99</v>
+      </c>
+      <c r="T151">
+        <v>3.5</v>
+      </c>
+      <c r="U151">
+        <v>2.025</v>
+      </c>
+      <c r="V151">
+        <v>1.825</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -13447,22 +13447,22 @@
         <v>2.25</v>
       </c>
       <c r="N146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O146">
         <v>3.5</v>
       </c>
       <c r="P146">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q146">
         <v>0.25</v>
       </c>
       <c r="R146">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="S146">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="T146">
         <v>2.75</v>
@@ -13521,31 +13521,31 @@
         <v>3.75</v>
       </c>
       <c r="N147">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
+        <v>2.03</v>
+      </c>
+      <c r="S147">
         <v>1.87</v>
-      </c>
-      <c r="S147">
-        <v>2.03</v>
       </c>
       <c r="T147">
         <v>3.5</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13669,31 +13669,31 @@
         <v>3.25</v>
       </c>
       <c r="N149">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
+        <v>2.04</v>
+      </c>
+      <c r="S149">
         <v>1.86</v>
-      </c>
-      <c r="S149">
-        <v>2.04</v>
       </c>
       <c r="T149">
         <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13755,10 +13755,10 @@
         <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T150">
         <v>3.25</v>
@@ -13817,31 +13817,31 @@
         <v>4.75</v>
       </c>
       <c r="N151">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O151">
         <v>5</v>
       </c>
       <c r="P151">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q151">
         <v>-1.25</v>
       </c>
       <c r="R151">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S151">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>2.25</v>
       </c>
       <c r="N146">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O146">
         <v>3.5</v>
@@ -13456,13 +13456,13 @@
         <v>2.05</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R146">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="S146">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T146">
         <v>2.75</v>
@@ -13524,28 +13524,28 @@
         <v>1.8</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q147">
         <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
         <v>3.5</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13681,10 +13681,10 @@
         <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S149">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T149">
         <v>3.25</v>
@@ -13752,13 +13752,13 @@
         <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="S150">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="T150">
         <v>3.25</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -13459,10 +13459,10 @@
         <v>0.5</v>
       </c>
       <c r="R146">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S146">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T146">
         <v>2.75</v>
@@ -13521,31 +13521,31 @@
         <v>3.75</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
         <v>4.333</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q147">
         <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13595,7 +13595,7 @@
         <v>1.909</v>
       </c>
       <c r="N148">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O148">
         <v>3.8</v>
@@ -13607,19 +13607,19 @@
         <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13669,22 +13669,22 @@
         <v>3.25</v>
       </c>
       <c r="N149">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O149">
+        <v>4.333</v>
+      </c>
+      <c r="P149">
         <v>4.2</v>
-      </c>
-      <c r="P149">
-        <v>3.8</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T149">
         <v>3.25</v>
@@ -13746,19 +13746,19 @@
         <v>1.615</v>
       </c>
       <c r="O150">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q150">
         <v>-1</v>
       </c>
       <c r="R150">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="S150">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T150">
         <v>3.25</v>
@@ -13823,25 +13823,25 @@
         <v>5</v>
       </c>
       <c r="P151">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q151">
         <v>-1.25</v>
       </c>
       <c r="R151">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S151">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1.909</v>
+      </c>
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>2.45</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.533</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>1.05</v>
       </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13447,31 +13447,31 @@
         <v>2.25</v>
       </c>
       <c r="N146">
+        <v>3.3</v>
+      </c>
+      <c r="O146">
         <v>3.6</v>
       </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
       <c r="P146">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S146">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13521,10 +13521,10 @@
         <v>3.75</v>
       </c>
       <c r="N147">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
         <v>4</v>
@@ -13533,19 +13533,19 @@
         <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T147">
         <v>3.75</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13616,10 +13616,10 @@
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13755,19 +13755,19 @@
         <v>-1</v>
       </c>
       <c r="R150">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S150">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T150">
         <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13826,22 +13826,22 @@
         <v>7</v>
       </c>
       <c r="Q151">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R151">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S151">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.75</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1.05</v>
       </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7127404</v>
+        <v>7127408</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,49 +13429,49 @@
         <v>28</v>
       </c>
       <c r="E146" s="2">
-        <v>45394.16666666666</v>
+        <v>45395.10416666666</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K146">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N146">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R146">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S146">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13494,7 +13494,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7127405</v>
+        <v>7127407</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13503,49 +13503,49 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45394.28125</v>
+        <v>45395.1875</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K147">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N147">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O147">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q147">
         <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S147">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T147">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13568,7 +13568,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7127408</v>
+        <v>7127406</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13577,49 +13577,49 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45395.10416666666</v>
+        <v>45395.28125</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K148">
+        <v>1.833</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>3.75</v>
+      </c>
+      <c r="N148">
+        <v>1.65</v>
+      </c>
+      <c r="O148">
+        <v>4.5</v>
+      </c>
+      <c r="P148">
+        <v>4.5</v>
+      </c>
+      <c r="Q148">
+        <v>-1</v>
+      </c>
+      <c r="R148">
+        <v>2.07</v>
+      </c>
+      <c r="S148">
+        <v>1.83</v>
+      </c>
+      <c r="T148">
         <v>3.5</v>
       </c>
-      <c r="L148">
-        <v>3.8</v>
-      </c>
-      <c r="M148">
-        <v>1.909</v>
-      </c>
-      <c r="N148">
-        <v>3.6</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
-      <c r="P148">
-        <v>1.95</v>
-      </c>
-      <c r="Q148">
-        <v>0.5</v>
-      </c>
-      <c r="R148">
-        <v>1.9</v>
-      </c>
-      <c r="S148">
-        <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13642,7 +13642,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7127407</v>
+        <v>7127409</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13651,49 +13651,49 @@
         <v>28</v>
       </c>
       <c r="E149" s="2">
-        <v>45395.1875</v>
+        <v>45396.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K149">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="N149">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O149">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13708,154 +13708,6 @@
         <v>0</v>
       </c>
       <c r="AA149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>7127406</v>
-      </c>
-      <c r="C150" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="2">
-        <v>45395.28125</v>
-      </c>
-      <c r="F150" t="s">
-        <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
-      <c r="K150">
-        <v>1.833</v>
-      </c>
-      <c r="L150">
-        <v>4</v>
-      </c>
-      <c r="M150">
-        <v>3.75</v>
-      </c>
-      <c r="N150">
-        <v>1.615</v>
-      </c>
-      <c r="O150">
-        <v>4.5</v>
-      </c>
-      <c r="P150">
-        <v>4.75</v>
-      </c>
-      <c r="Q150">
-        <v>-1</v>
-      </c>
-      <c r="R150">
-        <v>2.07</v>
-      </c>
-      <c r="S150">
-        <v>1.83</v>
-      </c>
-      <c r="T150">
-        <v>3.25</v>
-      </c>
-      <c r="U150">
-        <v>1.9</v>
-      </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
-      <c r="AA150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>7127409</v>
-      </c>
-      <c r="C151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="2">
-        <v>45396.08333333334</v>
-      </c>
-      <c r="F151" t="s">
-        <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>34</v>
-      </c>
-      <c r="K151">
-        <v>1.571</v>
-      </c>
-      <c r="L151">
-        <v>4.5</v>
-      </c>
-      <c r="M151">
-        <v>4.75</v>
-      </c>
-      <c r="N151">
-        <v>1.4</v>
-      </c>
-      <c r="O151">
-        <v>5</v>
-      </c>
-      <c r="P151">
-        <v>7</v>
-      </c>
-      <c r="Q151">
-        <v>-1.5</v>
-      </c>
-      <c r="R151">
-        <v>2.04</v>
-      </c>
-      <c r="S151">
-        <v>1.86</v>
-      </c>
-      <c r="T151">
-        <v>3.5</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
-      <c r="V151">
-        <v>1.9</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7127408</v>
+        <v>7127404</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13429,64 +13429,79 @@
         <v>28</v>
       </c>
       <c r="E146" s="2">
-        <v>45395.10416666666</v>
+        <v>45394.16666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>42</v>
       </c>
       <c r="K146">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M146">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N146">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="S146">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13494,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7127407</v>
+        <v>7127405</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13503,64 +13518,79 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45395.1875</v>
+        <v>45394.28125</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N147">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P147">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13568,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7127406</v>
+        <v>7127409</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13577,49 +13607,49 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45395.28125</v>
+        <v>45396.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K148">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N148">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="S148">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="T148">
         <v>3.5</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13634,80 +13664,6 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>7127409</v>
-      </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45396.08333333334</v>
-      </c>
-      <c r="F149" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" t="s">
-        <v>34</v>
-      </c>
-      <c r="K149">
-        <v>1.571</v>
-      </c>
-      <c r="L149">
-        <v>4.5</v>
-      </c>
-      <c r="M149">
-        <v>4.75</v>
-      </c>
-      <c r="N149">
-        <v>1.4</v>
-      </c>
-      <c r="O149">
-        <v>5</v>
-      </c>
-      <c r="P149">
-        <v>7</v>
-      </c>
-      <c r="Q149">
-        <v>-1.5</v>
-      </c>
-      <c r="R149">
-        <v>2.02</v>
-      </c>
-      <c r="S149">
-        <v>1.88</v>
-      </c>
-      <c r="T149">
-        <v>3.5</v>
-      </c>
-      <c r="U149">
-        <v>1.975</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7127409</v>
+        <v>7127408</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13607,63 +13607,626 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45396.08333333334</v>
+        <v>45395.10416666666</v>
       </c>
       <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
+        <v>37</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>41</v>
+      </c>
+      <c r="K148">
+        <v>3.5</v>
+      </c>
+      <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
+        <v>1.909</v>
+      </c>
+      <c r="N148">
+        <v>3.5</v>
+      </c>
+      <c r="O148">
+        <v>4</v>
+      </c>
+      <c r="P148">
+        <v>1.95</v>
+      </c>
+      <c r="Q148">
+        <v>0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
+        <v>1.8</v>
+      </c>
+      <c r="V148">
+        <v>2.05</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>0.95</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7127407</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45395.1875</v>
+      </c>
+      <c r="F149" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149" t="s">
+        <v>39</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>41</v>
+      </c>
+      <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>3.25</v>
+      </c>
+      <c r="N149">
+        <v>1.75</v>
+      </c>
+      <c r="O149">
+        <v>4.333</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.925</v>
+      </c>
+      <c r="T149">
+        <v>3.5</v>
+      </c>
+      <c r="U149">
+        <v>2.025</v>
+      </c>
+      <c r="V149">
+        <v>1.825</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>3</v>
+      </c>
+      <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>0.925</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7127406</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45395.28125</v>
+      </c>
+      <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>42</v>
+      </c>
+      <c r="K150">
+        <v>1.833</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>3.75</v>
+      </c>
+      <c r="N150">
+        <v>1.666</v>
+      </c>
+      <c r="O150">
+        <v>4.333</v>
+      </c>
+      <c r="P150">
+        <v>4.5</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>2.025</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
+        <v>1.9</v>
+      </c>
+      <c r="W150">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>0.4125</v>
+      </c>
+      <c r="AA150">
+        <v>-0.5</v>
+      </c>
+      <c r="AB150">
+        <v>-0.5</v>
+      </c>
+      <c r="AC150">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7702377</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45398.25</v>
+      </c>
+      <c r="F151" t="s">
+        <v>40</v>
+      </c>
+      <c r="G151" t="s">
+        <v>30</v>
+      </c>
+      <c r="K151">
+        <v>2.4</v>
+      </c>
+      <c r="L151">
+        <v>3.75</v>
+      </c>
+      <c r="M151">
+        <v>2.5</v>
+      </c>
+      <c r="N151">
+        <v>2.5</v>
+      </c>
+      <c r="O151">
+        <v>3.75</v>
+      </c>
+      <c r="P151">
+        <v>2.5</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.98</v>
+      </c>
+      <c r="S151">
+        <v>1.92</v>
+      </c>
+      <c r="T151">
+        <v>3.5</v>
+      </c>
+      <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
+        <v>1.975</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7127410</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45401.28125</v>
+      </c>
+      <c r="F152" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" t="s">
+        <v>36</v>
+      </c>
+      <c r="K152">
+        <v>2.8</v>
+      </c>
+      <c r="L152">
+        <v>3.4</v>
+      </c>
+      <c r="M152">
+        <v>2.45</v>
+      </c>
+      <c r="N152">
+        <v>2.8</v>
+      </c>
+      <c r="O152">
+        <v>3.4</v>
+      </c>
+      <c r="P152">
+        <v>2.45</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>2.04</v>
+      </c>
+      <c r="S152">
+        <v>1.86</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>1.825</v>
+      </c>
+      <c r="V152">
+        <v>2.025</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>8096897</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45402.10416666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+      <c r="G153" t="s">
         <v>29</v>
       </c>
-      <c r="G148" t="s">
-        <v>34</v>
-      </c>
-      <c r="K148">
-        <v>1.571</v>
-      </c>
-      <c r="L148">
-        <v>4.5</v>
-      </c>
-      <c r="M148">
+      <c r="K153">
+        <v>3.25</v>
+      </c>
+      <c r="L153">
+        <v>3.8</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>3.25</v>
+      </c>
+      <c r="O153">
+        <v>3.8</v>
+      </c>
+      <c r="P153">
+        <v>2</v>
+      </c>
+      <c r="Q153">
+        <v>0.5</v>
+      </c>
+      <c r="R153">
+        <v>1.84</v>
+      </c>
+      <c r="S153">
+        <v>2.06</v>
+      </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
+      <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
+        <v>1.975</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7127411</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45402.1875</v>
+      </c>
+      <c r="F154" t="s">
+        <v>38</v>
+      </c>
+      <c r="G154" t="s">
+        <v>35</v>
+      </c>
+      <c r="K154">
+        <v>1.65</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
         <v>4.75</v>
       </c>
-      <c r="N148">
-        <v>1.4</v>
-      </c>
-      <c r="O148">
-        <v>5</v>
-      </c>
-      <c r="P148">
-        <v>7</v>
-      </c>
-      <c r="Q148">
-        <v>-1.5</v>
-      </c>
-      <c r="R148">
-        <v>2.01</v>
-      </c>
-      <c r="S148">
-        <v>1.89</v>
-      </c>
-      <c r="T148">
+      <c r="N154">
+        <v>1.65</v>
+      </c>
+      <c r="O154">
+        <v>4</v>
+      </c>
+      <c r="P154">
+        <v>4.75</v>
+      </c>
+      <c r="Q154">
+        <v>-0.75</v>
+      </c>
+      <c r="R154">
+        <v>1.84</v>
+      </c>
+      <c r="S154">
+        <v>2.06</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>1.875</v>
+      </c>
+      <c r="V154">
+        <v>1.975</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7127415</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45402.28125</v>
+      </c>
+      <c r="F155" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>32</v>
+      </c>
+      <c r="K155">
+        <v>3.8</v>
+      </c>
+      <c r="L155">
+        <v>4.2</v>
+      </c>
+      <c r="M155">
+        <v>1.8</v>
+      </c>
+      <c r="N155">
+        <v>3.8</v>
+      </c>
+      <c r="O155">
+        <v>4.2</v>
+      </c>
+      <c r="P155">
+        <v>1.8</v>
+      </c>
+      <c r="Q155">
+        <v>0.75</v>
+      </c>
+      <c r="R155">
+        <v>1.92</v>
+      </c>
+      <c r="S155">
+        <v>1.98</v>
+      </c>
+      <c r="T155">
         <v>3.5</v>
       </c>
-      <c r="U148">
-        <v>1.85</v>
-      </c>
-      <c r="V148">
-        <v>2</v>
-      </c>
-      <c r="W148">
+      <c r="U155">
+        <v>1.925</v>
+      </c>
+      <c r="V155">
+        <v>1.925</v>
+      </c>
+      <c r="W155">
         <v>0</v>
       </c>
-      <c r="X148">
+      <c r="X155">
         <v>0</v>
       </c>
-      <c r="Y148">
+      <c r="Y155">
         <v>0</v>
       </c>
-      <c r="Z148">
+      <c r="Z155">
         <v>0</v>
       </c>
-      <c r="AA148">
+      <c r="AA155">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.533</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>1.05</v>
       </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7702377</v>
+        <v>7127409</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13874,64 +13874,79 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45398.25</v>
+        <v>45396.08333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="H151">
+        <v>8</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>42</v>
       </c>
       <c r="K151">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L151">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N151">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P151">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R151">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>3.5</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13939,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7127410</v>
+        <v>7702377</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13948,49 +13963,49 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45401.28125</v>
+        <v>45398.25</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K152">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N152">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="S152">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -14013,7 +14028,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>8096897</v>
+        <v>7127410</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14022,49 +14037,49 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45402.10416666666</v>
+        <v>45401.28125</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K153">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S153">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14087,7 +14102,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7127411</v>
+        <v>8096897</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14096,34 +14111,34 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45402.1875</v>
+        <v>45402.10416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K154">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M154">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N154">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
         <v>1.84</v>
@@ -14161,7 +14176,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7127415</v>
+        <v>7127411</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14170,49 +14185,49 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45402.28125</v>
+        <v>45402.1875</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K155">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="L155">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="N155">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P155">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q155">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="S155">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14227,6 +14242,80 @@
         <v>0</v>
       </c>
       <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7127415</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45402.28125</v>
+      </c>
+      <c r="F156" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>32</v>
+      </c>
+      <c r="K156">
+        <v>3.8</v>
+      </c>
+      <c r="L156">
+        <v>4.2</v>
+      </c>
+      <c r="M156">
+        <v>1.8</v>
+      </c>
+      <c r="N156">
+        <v>4.2</v>
+      </c>
+      <c r="O156">
+        <v>4.2</v>
+      </c>
+      <c r="P156">
+        <v>1.727</v>
+      </c>
+      <c r="Q156">
+        <v>0.75</v>
+      </c>
+      <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
+        <v>3.5</v>
+      </c>
+      <c r="U156">
+        <v>1.925</v>
+      </c>
+      <c r="V156">
+        <v>1.925</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.75</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1.05</v>
       </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -13971,6 +13971,15 @@
       <c r="G152" t="s">
         <v>30</v>
       </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152" t="s">
+        <v>43</v>
+      </c>
       <c r="K152">
         <v>2.4</v>
       </c>
@@ -13981,46 +13990,52 @@
         <v>2.5</v>
       </c>
       <c r="N152">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O152">
         <v>4.2</v>
       </c>
       <c r="P152">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T152">
         <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB152">
+        <v>0.925</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,10 +14070,10 @@
         <v>2.45</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
         <v>2.25</v>
@@ -14067,19 +14082,19 @@
         <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S153">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14129,22 +14144,22 @@
         <v>2</v>
       </c>
       <c r="N154">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O154">
         <v>3.8</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S154">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="T154">
         <v>3</v>
@@ -14206,7 +14221,7 @@
         <v>1.65</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
         <v>4.75</v>
@@ -14215,19 +14230,19 @@
         <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S155">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14283,16 +14298,16 @@
         <v>4.2</v>
       </c>
       <c r="P156">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="Q156">
         <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T156">
         <v>3.5</v>
@@ -14316,6 +14331,154 @@
         <v>0</v>
       </c>
       <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7127413</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45403.08333333334</v>
+      </c>
+      <c r="F157" t="s">
+        <v>37</v>
+      </c>
+      <c r="G157" t="s">
+        <v>30</v>
+      </c>
+      <c r="K157">
+        <v>1.75</v>
+      </c>
+      <c r="L157">
+        <v>4</v>
+      </c>
+      <c r="M157">
+        <v>4</v>
+      </c>
+      <c r="N157">
+        <v>1.8</v>
+      </c>
+      <c r="O157">
+        <v>4</v>
+      </c>
+      <c r="P157">
+        <v>3.8</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
+        <v>2.06</v>
+      </c>
+      <c r="S157">
+        <v>1.84</v>
+      </c>
+      <c r="T157">
+        <v>3.25</v>
+      </c>
+      <c r="U157">
+        <v>1.925</v>
+      </c>
+      <c r="V157">
+        <v>1.925</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7127414</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45403.16666666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="K158">
+        <v>2.4</v>
+      </c>
+      <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
+        <v>2.625</v>
+      </c>
+      <c r="N158">
+        <v>2.375</v>
+      </c>
+      <c r="O158">
+        <v>3.6</v>
+      </c>
+      <c r="P158">
+        <v>2.625</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>1.82</v>
+      </c>
+      <c r="S158">
+        <v>2.08</v>
+      </c>
+      <c r="T158">
+        <v>3.25</v>
+      </c>
+      <c r="U158">
+        <v>1.9</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
+        <v>3.25</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.86</v>
+      </c>
+      <c r="S105">
+        <v>2.04</v>
+      </c>
+      <c r="T105">
         <v>2.75</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>3</v>
-      </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.533</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>1.05</v>
       </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -14070,31 +14070,31 @@
         <v>2.45</v>
       </c>
       <c r="N153">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q153">
         <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14156,19 +14156,19 @@
         <v>0.25</v>
       </c>
       <c r="R154">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S154">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14239,10 +14239,10 @@
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14304,19 +14304,19 @@
         <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S156">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14339,7 +14339,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7127413</v>
+        <v>7127414</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14348,49 +14348,49 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45403.08333333334</v>
+        <v>45403.16666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K157">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S157">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14405,80 +14405,6 @@
         <v>0</v>
       </c>
       <c r="AA157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>7127414</v>
-      </c>
-      <c r="C158" t="s">
-        <v>28</v>
-      </c>
-      <c r="D158" t="s">
-        <v>28</v>
-      </c>
-      <c r="E158" s="2">
-        <v>45403.16666666666</v>
-      </c>
-      <c r="F158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" t="s">
-        <v>40</v>
-      </c>
-      <c r="K158">
-        <v>2.4</v>
-      </c>
-      <c r="L158">
-        <v>3.6</v>
-      </c>
-      <c r="M158">
-        <v>2.625</v>
-      </c>
-      <c r="N158">
-        <v>2.375</v>
-      </c>
-      <c r="O158">
-        <v>3.6</v>
-      </c>
-      <c r="P158">
-        <v>2.625</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.82</v>
-      </c>
-      <c r="S158">
-        <v>2.08</v>
-      </c>
-      <c r="T158">
-        <v>3.25</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.75</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1.05</v>
       </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7127410</v>
+        <v>8096897</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14052,49 +14052,49 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45401.28125</v>
+        <v>45402.10416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K153">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M153">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14117,7 +14117,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8096897</v>
+        <v>7127411</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14126,49 +14126,49 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45402.10416666666</v>
+        <v>45402.1875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K154">
+        <v>1.65</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>4.75</v>
+      </c>
+      <c r="N154">
+        <v>1.6</v>
+      </c>
+      <c r="O154">
+        <v>4.333</v>
+      </c>
+      <c r="P154">
+        <v>5</v>
+      </c>
+      <c r="Q154">
+        <v>-1</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
         <v>3.25</v>
       </c>
-      <c r="L154">
-        <v>3.8</v>
-      </c>
-      <c r="M154">
-        <v>2</v>
-      </c>
-      <c r="N154">
-        <v>3.2</v>
-      </c>
-      <c r="O154">
-        <v>3.8</v>
-      </c>
-      <c r="P154">
-        <v>2.1</v>
-      </c>
-      <c r="Q154">
-        <v>0.25</v>
-      </c>
-      <c r="R154">
-        <v>2.04</v>
-      </c>
-      <c r="S154">
-        <v>1.86</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7127411</v>
+        <v>7127415</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14200,49 +14200,49 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45402.1875</v>
+        <v>45402.28125</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K155">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="N155">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="O155">
         <v>4.2</v>
       </c>
       <c r="P155">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R155">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="S155">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14265,7 +14265,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7127415</v>
+        <v>7127414</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14274,49 +14274,49 @@
         <v>28</v>
       </c>
       <c r="E156" s="2">
-        <v>45402.28125</v>
+        <v>45403.16666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K156">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="L156">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N156">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S156">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
+        <v>1.975</v>
+      </c>
+      <c r="V156">
         <v>1.875</v>
-      </c>
-      <c r="V156">
-        <v>1.975</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14331,80 +14331,6 @@
         <v>0</v>
       </c>
       <c r="AA156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>7127414</v>
-      </c>
-      <c r="C157" t="s">
-        <v>28</v>
-      </c>
-      <c r="D157" t="s">
-        <v>28</v>
-      </c>
-      <c r="E157" s="2">
-        <v>45403.16666666666</v>
-      </c>
-      <c r="F157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G157" t="s">
-        <v>40</v>
-      </c>
-      <c r="K157">
-        <v>2.4</v>
-      </c>
-      <c r="L157">
-        <v>3.6</v>
-      </c>
-      <c r="M157">
-        <v>2.625</v>
-      </c>
-      <c r="N157">
-        <v>2.3</v>
-      </c>
-      <c r="O157">
-        <v>3.75</v>
-      </c>
-      <c r="P157">
-        <v>2.6</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
-        <v>1.83</v>
-      </c>
-      <c r="S157">
-        <v>2.07</v>
-      </c>
-      <c r="T157">
-        <v>3.5</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-      <c r="X157">
-        <v>0</v>
-      </c>
-      <c r="Y157">
-        <v>0</v>
-      </c>
-      <c r="Z157">
-        <v>0</v>
-      </c>
-      <c r="AA157">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>1.909</v>
+      </c>
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="J73" t="s">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>2.45</v>
-      </c>
-      <c r="L73">
-        <v>3.75</v>
-      </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
+        <v>4.2</v>
+      </c>
+      <c r="P113">
         <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>1.89</v>
+      </c>
+      <c r="S113">
+        <v>2.01</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
         <v>1.9</v>
       </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
+        <v>1.01</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.533</v>
+      </c>
+      <c r="O124">
+        <v>5.25</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-1</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.75</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
         <v>1.05</v>
       </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.825</v>
-      </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -14043,7 +14043,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>8096897</v>
+        <v>7127410</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14052,64 +14052,79 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45402.10416666666</v>
+        <v>45401.28125</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>43</v>
       </c>
       <c r="K153">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N153">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O153">
         <v>4</v>
       </c>
       <c r="P153">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14117,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7127411</v>
+        <v>8096897</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14126,49 +14141,49 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45402.1875</v>
+        <v>45402.10416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K154">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="L154">
+        <v>3.8</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>3.3</v>
+      </c>
+      <c r="O154">
         <v>4</v>
       </c>
-      <c r="M154">
-        <v>4.75</v>
-      </c>
-      <c r="N154">
-        <v>1.6</v>
-      </c>
-      <c r="O154">
-        <v>4.333</v>
-      </c>
       <c r="P154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T154">
         <v>3.25</v>
       </c>
       <c r="U154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14191,7 +14206,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7127415</v>
+        <v>7127411</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14200,49 +14215,49 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45402.28125</v>
+        <v>45402.1875</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K155">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="L155">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M155">
+        <v>4.75</v>
+      </c>
+      <c r="N155">
+        <v>1.6</v>
+      </c>
+      <c r="O155">
+        <v>4.333</v>
+      </c>
+      <c r="P155">
+        <v>5</v>
+      </c>
+      <c r="Q155">
+        <v>-1</v>
+      </c>
+      <c r="R155">
+        <v>2.04</v>
+      </c>
+      <c r="S155">
+        <v>1.86</v>
+      </c>
+      <c r="T155">
+        <v>3.25</v>
+      </c>
+      <c r="U155">
+        <v>2.05</v>
+      </c>
+      <c r="V155">
         <v>1.8</v>
-      </c>
-      <c r="N155">
-        <v>4.333</v>
-      </c>
-      <c r="O155">
-        <v>4.2</v>
-      </c>
-      <c r="P155">
-        <v>1.666</v>
-      </c>
-      <c r="Q155">
-        <v>0.75</v>
-      </c>
-      <c r="R155">
-        <v>2.02</v>
-      </c>
-      <c r="S155">
-        <v>1.88</v>
-      </c>
-      <c r="T155">
-        <v>3.5</v>
-      </c>
-      <c r="U155">
-        <v>1.925</v>
-      </c>
-      <c r="V155">
-        <v>1.925</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14265,7 +14280,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7127414</v>
+        <v>7127415</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14274,49 +14289,49 @@
         <v>28</v>
       </c>
       <c r="E156" s="2">
-        <v>45403.16666666666</v>
+        <v>45402.28125</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K156">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M156">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N156">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R156">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S156">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14331,6 +14346,80 @@
         <v>0</v>
       </c>
       <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7127414</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45403.16666666666</v>
+      </c>
+      <c r="F157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" t="s">
+        <v>40</v>
+      </c>
+      <c r="K157">
+        <v>2.4</v>
+      </c>
+      <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>2.625</v>
+      </c>
+      <c r="N157">
+        <v>2.4</v>
+      </c>
+      <c r="O157">
+        <v>3.75</v>
+      </c>
+      <c r="P157">
+        <v>2.7</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.84</v>
+      </c>
+      <c r="S157">
+        <v>2.06</v>
+      </c>
+      <c r="T157">
+        <v>3.5</v>
+      </c>
+      <c r="U157">
+        <v>1.975</v>
+      </c>
+      <c r="V157">
+        <v>1.875</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>1.909</v>
+      </c>
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="J74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K74">
-        <v>2.45</v>
-      </c>
-      <c r="L74">
-        <v>3.75</v>
-      </c>
       <c r="M74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,76 +9694,76 @@
         <v>45340.125</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
         <v>3.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
+        <v>3.25</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.86</v>
+      </c>
+      <c r="S104">
+        <v>2.04</v>
+      </c>
+      <c r="T104">
         <v>2.75</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>1.8</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3</v>
-      </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45340.125</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
         <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45361.125</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.05</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45361.125</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>5.25</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2.05</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.75</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.75</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>2.025</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
       <c r="U125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
         <v>1.05</v>
       </c>
-      <c r="Z125">
-        <v>-1</v>
-      </c>
-      <c r="AA125">
-        <v>0.825</v>
-      </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8096897</v>
+        <v>7127416</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,49 +14141,49 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45402.10416666666</v>
+        <v>45408.28125</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K154">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N154">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="S154">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14206,7 +14206,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7127411</v>
+        <v>7127418</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14215,49 +14215,49 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45402.1875</v>
+        <v>45409.17708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K155">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O155">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="S155">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="T155">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14280,7 +14280,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7127415</v>
+        <v>7127419</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14289,49 +14289,49 @@
         <v>28</v>
       </c>
       <c r="E156" s="2">
-        <v>45402.28125</v>
+        <v>45409.17708333334</v>
       </c>
       <c r="F156" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" t="s">
         <v>31</v>
       </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
       <c r="K156">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>3.9</v>
+      </c>
+      <c r="N156">
+        <v>1.75</v>
+      </c>
+      <c r="O156">
+        <v>3.6</v>
+      </c>
+      <c r="P156">
         <v>4.2</v>
       </c>
-      <c r="M156">
-        <v>1.8</v>
-      </c>
-      <c r="N156">
-        <v>4.333</v>
-      </c>
-      <c r="O156">
-        <v>4.2</v>
-      </c>
-      <c r="P156">
-        <v>1.666</v>
-      </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S156">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
         <v>0</v>
@@ -14354,7 +14354,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7127414</v>
+        <v>7127417</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14363,49 +14363,49 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45403.16666666666</v>
+        <v>45409.28125</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K157">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M157">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S157">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14420,6 +14420,154 @@
         <v>0</v>
       </c>
       <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>8109525</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>34</v>
+      </c>
+      <c r="K158">
+        <v>1.5</v>
+      </c>
+      <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
+        <v>7</v>
+      </c>
+      <c r="N158">
+        <v>1.444</v>
+      </c>
+      <c r="O158">
+        <v>4</v>
+      </c>
+      <c r="P158">
+        <v>7.5</v>
+      </c>
+      <c r="Q158">
+        <v>-1.25</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>3.5</v>
+      </c>
+      <c r="U158">
+        <v>1.875</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7127421</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45410.16666666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>29</v>
+      </c>
+      <c r="G159" t="s">
+        <v>40</v>
+      </c>
+      <c r="K159">
+        <v>1.65</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>4.333</v>
+      </c>
+      <c r="N159">
+        <v>1.4</v>
+      </c>
+      <c r="O159">
+        <v>4.2</v>
+      </c>
+      <c r="P159">
+        <v>7</v>
+      </c>
+      <c r="Q159">
+        <v>-1.25</v>
+      </c>
+      <c r="R159">
+        <v>1.89</v>
+      </c>
+      <c r="S159">
+        <v>2.01</v>
+      </c>
+      <c r="T159">
+        <v>3.5</v>
+      </c>
+      <c r="U159">
+        <v>2.025</v>
+      </c>
+      <c r="V159">
+        <v>1.825</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45347.125</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
+        <v>4.2</v>
+      </c>
+      <c r="P112">
         <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>4</v>
       </c>
       <c r="Q112">
         <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>1.89</v>
+      </c>
+      <c r="S112">
+        <v>2.01</v>
+      </c>
+      <c r="T112">
+        <v>3.5</v>
+      </c>
+      <c r="U112">
+        <v>1.95</v>
+      </c>
+      <c r="V112">
         <v>1.9</v>
       </c>
-      <c r="S112">
-        <v>1.95</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>1.01</v>
+      </c>
+      <c r="AB112">
         <v>0.95</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45347.125</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.95</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q113">
         <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7127416</v>
+        <v>8096897</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14141,64 +14141,79 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45408.28125</v>
+        <v>45402.10416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>41</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M154">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O154">
         <v>4</v>
       </c>
       <c r="P154">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R154">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB154">
+        <v>-0.5</v>
+      </c>
+      <c r="AC154">
+        <v>0.4625</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14206,7 +14221,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7127418</v>
+        <v>7127411</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14215,64 +14230,79 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45409.17708333334</v>
+        <v>45402.1875</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L155">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N155">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.93</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.97</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
+        <v>1.025</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14280,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7127419</v>
+        <v>7127415</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14289,64 +14319,79 @@
         <v>28</v>
       </c>
       <c r="E156" s="2">
-        <v>45409.17708333334</v>
+        <v>45402.28125</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>42</v>
       </c>
       <c r="K156">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="L156">
+        <v>4.2</v>
+      </c>
+      <c r="M156">
+        <v>1.8</v>
+      </c>
+      <c r="N156">
+        <v>4.333</v>
+      </c>
+      <c r="O156">
+        <v>4.5</v>
+      </c>
+      <c r="P156">
+        <v>1.666</v>
+      </c>
+      <c r="Q156">
+        <v>0.75</v>
+      </c>
+      <c r="R156">
+        <v>2.02</v>
+      </c>
+      <c r="S156">
+        <v>1.88</v>
+      </c>
+      <c r="T156">
         <v>3.5</v>
       </c>
-      <c r="M156">
-        <v>3.9</v>
-      </c>
-      <c r="N156">
-        <v>1.75</v>
-      </c>
-      <c r="O156">
-        <v>3.6</v>
-      </c>
-      <c r="P156">
-        <v>4.2</v>
-      </c>
-      <c r="Q156">
-        <v>-0.75</v>
-      </c>
-      <c r="R156">
-        <v>2.03</v>
-      </c>
-      <c r="S156">
-        <v>1.87</v>
-      </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
       <c r="U156">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14354,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7127417</v>
+        <v>7127414</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14363,64 +14408,79 @@
         <v>28</v>
       </c>
       <c r="E157" s="2">
-        <v>45409.28125</v>
+        <v>45403.16666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157" t="s">
+        <v>41</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L157">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O157">
+        <v>3.75</v>
+      </c>
+      <c r="P157">
+        <v>2.875</v>
+      </c>
+      <c r="Q157">
+        <v>-0.25</v>
+      </c>
+      <c r="R157">
+        <v>2.04</v>
+      </c>
+      <c r="S157">
+        <v>1.86</v>
+      </c>
+      <c r="T157">
         <v>3.5</v>
       </c>
-      <c r="P157">
-        <v>4</v>
-      </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.86</v>
-      </c>
-      <c r="S157">
-        <v>2.04</v>
-      </c>
-      <c r="T157">
-        <v>3</v>
-      </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB157">
+        <v>1</v>
+      </c>
+      <c r="AC157">
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14428,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>8109525</v>
+        <v>7127416</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14437,49 +14497,49 @@
         <v>28</v>
       </c>
       <c r="E158" s="2">
-        <v>45410.08333333334</v>
+        <v>45408.28125</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O158">
         <v>4</v>
       </c>
       <c r="P158">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -14502,7 +14562,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127421</v>
+        <v>7127418</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14511,49 +14571,49 @@
         <v>28</v>
       </c>
       <c r="E159" s="2">
-        <v>45410.16666666666</v>
+        <v>45409.17708333334</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K159">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N159">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q159">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R159">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S159">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T159">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
         <v>0</v>
@@ -14568,6 +14628,302 @@
         <v>0</v>
       </c>
       <c r="AA159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7127419</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45409.17708333334</v>
+      </c>
+      <c r="F160" t="s">
+        <v>36</v>
+      </c>
+      <c r="G160" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160">
+        <v>1.85</v>
+      </c>
+      <c r="L160">
+        <v>3.5</v>
+      </c>
+      <c r="M160">
+        <v>3.9</v>
+      </c>
+      <c r="N160">
+        <v>1.75</v>
+      </c>
+      <c r="O160">
+        <v>3.6</v>
+      </c>
+      <c r="P160">
+        <v>4.2</v>
+      </c>
+      <c r="Q160">
+        <v>-0.75</v>
+      </c>
+      <c r="R160">
+        <v>2.03</v>
+      </c>
+      <c r="S160">
+        <v>1.87</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
+        <v>1.975</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7127417</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45409.28125</v>
+      </c>
+      <c r="F161" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" t="s">
+        <v>33</v>
+      </c>
+      <c r="K161">
+        <v>2.05</v>
+      </c>
+      <c r="L161">
+        <v>3.3</v>
+      </c>
+      <c r="M161">
+        <v>3.4</v>
+      </c>
+      <c r="N161">
+        <v>1.833</v>
+      </c>
+      <c r="O161">
+        <v>3.5</v>
+      </c>
+      <c r="P161">
+        <v>4</v>
+      </c>
+      <c r="Q161">
+        <v>-0.5</v>
+      </c>
+      <c r="R161">
+        <v>1.86</v>
+      </c>
+      <c r="S161">
+        <v>2.04</v>
+      </c>
+      <c r="T161">
+        <v>3</v>
+      </c>
+      <c r="U161">
+        <v>1.925</v>
+      </c>
+      <c r="V161">
+        <v>1.925</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>8109525</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F162" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162" t="s">
+        <v>34</v>
+      </c>
+      <c r="K162">
+        <v>1.5</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>7</v>
+      </c>
+      <c r="N162">
+        <v>1.444</v>
+      </c>
+      <c r="O162">
+        <v>4</v>
+      </c>
+      <c r="P162">
+        <v>7.5</v>
+      </c>
+      <c r="Q162">
+        <v>-1.25</v>
+      </c>
+      <c r="R162">
+        <v>1.9</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>3.5</v>
+      </c>
+      <c r="U162">
+        <v>1.875</v>
+      </c>
+      <c r="V162">
+        <v>1.975</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7127421</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45410.16666666666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>29</v>
+      </c>
+      <c r="G163" t="s">
+        <v>40</v>
+      </c>
+      <c r="K163">
+        <v>1.65</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163">
+        <v>4.333</v>
+      </c>
+      <c r="N163">
+        <v>1.4</v>
+      </c>
+      <c r="O163">
+        <v>4.2</v>
+      </c>
+      <c r="P163">
+        <v>7</v>
+      </c>
+      <c r="Q163">
+        <v>-1.25</v>
+      </c>
+      <c r="R163">
+        <v>1.89</v>
+      </c>
+      <c r="S163">
+        <v>2.01</v>
+      </c>
+      <c r="T163">
+        <v>3.5</v>
+      </c>
+      <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
+        <v>1.825</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7127416</t>
+  </si>
+  <si>
+    <t>7127418</t>
+  </si>
+  <si>
+    <t>7127419</t>
+  </si>
+  <si>
+    <t>7127417</t>
+  </si>
+  <si>
+    <t>8109525</t>
+  </si>
+  <si>
+    <t>7127421</t>
   </si>
   <si>
     <t>Australia ALeague</t>
@@ -601,16 +619,16 @@
         <v>6675262</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45080.28125</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -619,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -667,10 +685,10 @@
         <v>2.2</v>
       </c>
       <c r="Y2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA2">
         <v>0.8500000000000001</v>
@@ -687,16 +705,16 @@
         <v>7127284</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45219.23958333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -705,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -753,10 +771,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>-0.5</v>
@@ -773,16 +791,16 @@
         <v>7126254</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45220.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -791,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -859,16 +877,16 @@
         <v>7126770</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45220.14583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>1.533</v>
@@ -925,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -945,16 +963,16 @@
         <v>7127285</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45220.23958333334</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -963,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1011,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1031,16 +1049,16 @@
         <v>7127286</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1049,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1117,16 +1135,16 @@
         <v>7127287</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1135,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1203,16 +1221,16 @@
         <v>7127288</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45226.23958333334</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1269,10 +1287,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1289,16 +1307,16 @@
         <v>7127289</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45227.0625</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1355,10 +1373,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>0.475</v>
@@ -1375,16 +1393,16 @@
         <v>7127290</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45227.23958333334</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1393,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1441,10 +1459,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>0.825</v>
@@ -1461,16 +1479,16 @@
         <v>7128011</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45228.04166666666</v>
       </c>
       <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1479,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1527,10 +1545,10 @@
         <v>4.5</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
         <v>-0.5</v>
@@ -1547,16 +1565,16 @@
         <v>7127291</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1565,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1613,10 +1631,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>0.925</v>
@@ -1633,16 +1651,16 @@
         <v>7126771</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45228.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1651,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -1699,10 +1717,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>0.925</v>
@@ -1719,16 +1737,16 @@
         <v>7126772</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45233.23958333334</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1737,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1785,10 +1803,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1805,16 +1823,16 @@
         <v>7127292</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45234.0625</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1823,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1871,10 +1889,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>0.8</v>
@@ -1891,16 +1909,16 @@
         <v>7127293</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1957,10 +1975,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="Z17">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -1977,16 +1995,16 @@
         <v>7127294</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>1.95</v>
@@ -2063,16 +2081,16 @@
         <v>7127295</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2081,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2129,10 +2147,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2149,17 +2167,17 @@
         <v>7127296</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45235.04166666666</v>
       </c>
       <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
       <c r="G20">
         <v>2</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>2.7</v>
@@ -2235,16 +2253,16 @@
         <v>7127297</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2253,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>1.833</v>
@@ -2321,16 +2339,16 @@
         <v>7127298</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45241.0625</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2387,10 +2405,10 @@
         <v>2.4</v>
       </c>
       <c r="Y22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2407,16 +2425,16 @@
         <v>7127300</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2425,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2473,10 +2491,10 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2493,16 +2511,16 @@
         <v>7127299</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45241.23958333334</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2511,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2559,10 +2577,10 @@
         <v>1.875</v>
       </c>
       <c r="Y24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>0.95</v>
@@ -2579,16 +2597,16 @@
         <v>7126773</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45242.04166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2597,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2665,16 +2683,16 @@
         <v>7127308</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45242.125</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2683,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>1.833</v>
@@ -2731,10 +2749,10 @@
         <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-0.5</v>
@@ -2751,16 +2769,16 @@
         <v>7127309</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2769,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.9</v>
@@ -2837,16 +2855,16 @@
         <v>7126774</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45255.02083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2855,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>3.1</v>
@@ -2903,10 +2921,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -2923,16 +2941,16 @@
         <v>7127311</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45255.23958333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2941,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -2989,10 +3007,10 @@
         <v>1.875</v>
       </c>
       <c r="Y29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3009,16 +3027,16 @@
         <v>7127312</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45256.04166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3027,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3075,10 +3093,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -3095,16 +3113,16 @@
         <v>7127313</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45256.125</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3131,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J31">
         <v>2.7</v>
@@ -3161,10 +3179,10 @@
         <v>1.5</v>
       </c>
       <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
         <v>0.925</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
       </c>
       <c r="AA31">
         <v>0.875</v>
@@ -3181,16 +3199,16 @@
         <v>7127314</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45261.23958333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3199,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3267,16 +3285,16 @@
         <v>7127315</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45262.14583333334</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3285,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>2.55</v>
@@ -3333,10 +3351,10 @@
         <v>2.2</v>
       </c>
       <c r="Y33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3353,16 +3371,16 @@
         <v>7127316</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45262.23958333334</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3371,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3419,10 +3437,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3439,16 +3457,16 @@
         <v>7127317</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45263.04166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3457,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3525,16 +3543,16 @@
         <v>7126775</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45263.125</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3543,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3591,10 +3609,10 @@
         <v>0.95</v>
       </c>
       <c r="Y36">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3611,16 +3629,16 @@
         <v>7479668</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3629,7 +3647,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.4</v>
@@ -3677,10 +3695,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>0.9750000000000001</v>
@@ -3697,16 +3715,16 @@
         <v>7127319</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45268.23958333334</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3715,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3763,10 +3781,10 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>0.9750000000000001</v>
@@ -3783,16 +3801,16 @@
         <v>7126776</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45268.32291666666</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3849,10 +3867,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y39">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -3869,16 +3887,16 @@
         <v>7127320</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3887,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3935,10 +3953,10 @@
         <v>3</v>
       </c>
       <c r="Y40">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA40">
         <v>0.45</v>
@@ -3955,16 +3973,16 @@
         <v>7127321</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3973,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4021,10 +4039,10 @@
         <v>3.5</v>
       </c>
       <c r="Y41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4041,16 +4059,16 @@
         <v>7127322</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45270.04166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4059,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4107,10 +4125,10 @@
         <v>1.9</v>
       </c>
       <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
         <v>0.925</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-1</v>
@@ -4127,16 +4145,16 @@
         <v>7127323</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45270.125</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4145,7 +4163,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J43">
         <v>2.1</v>
@@ -4193,10 +4211,10 @@
         <v>1.55</v>
       </c>
       <c r="Y43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>0.9750000000000001</v>
@@ -4213,16 +4231,16 @@
         <v>7557607</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4231,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>2.6</v>
@@ -4279,10 +4297,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -4299,16 +4317,16 @@
         <v>7127324</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4317,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4365,10 +4383,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4385,16 +4403,16 @@
         <v>7127326</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45276.16666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4471,16 +4489,16 @@
         <v>7127327</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45276.23958333334</v>
       </c>
       <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
         <v>37</v>
-      </c>
-      <c r="F47" t="s">
-        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4489,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4537,10 +4555,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="Z47">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -4557,16 +4575,16 @@
         <v>7126777</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45277.125</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4575,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4643,16 +4661,16 @@
         <v>7127328</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4661,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <v>2.2</v>
@@ -4709,10 +4727,10 @@
         <v>2.4</v>
       </c>
       <c r="Y49">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AA49">
         <v>0.4</v>
@@ -4729,16 +4747,16 @@
         <v>7127329</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45281.23958333334</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4747,7 +4765,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4795,10 +4813,10 @@
         <v>1.3</v>
       </c>
       <c r="Y50">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA50">
         <v>-0.5</v>
@@ -4815,16 +4833,16 @@
         <v>7127330</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45282.23958333334</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4833,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>1.727</v>
@@ -4881,10 +4899,10 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
         <v>0.825</v>
@@ -4901,16 +4919,16 @@
         <v>7127331</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45283.0625</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4919,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -4967,10 +4985,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="Z52">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -4987,16 +5005,16 @@
         <v>7127332</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5005,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5053,10 +5071,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>0.925</v>
@@ -5073,16 +5091,16 @@
         <v>7126778</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5091,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>2.75</v>
@@ -5159,16 +5177,16 @@
         <v>7127333</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5177,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>2.7</v>
@@ -5225,10 +5243,10 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
         <v>1.025</v>
@@ -5245,16 +5263,16 @@
         <v>7126781</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45288.23958333334</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -5263,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5311,10 +5329,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="Z56">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>0.8500000000000001</v>
@@ -5331,16 +5349,16 @@
         <v>7127334</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5349,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5397,10 +5415,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>0.8500000000000001</v>
@@ -5417,16 +5435,16 @@
         <v>7127335</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5435,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5483,10 +5501,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="Z58">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5503,16 +5521,16 @@
         <v>7127336</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5569,10 +5587,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5589,16 +5607,16 @@
         <v>7127337</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5607,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5655,10 +5673,10 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>0.8999999999999999</v>
@@ -5675,16 +5693,16 @@
         <v>7127338</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5693,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5741,10 +5759,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z61">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>1.025</v>
@@ -5761,16 +5779,16 @@
         <v>7127339</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45295.23958333334</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5779,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5847,16 +5865,16 @@
         <v>7127340</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J63">
         <v>1.95</v>
@@ -5933,16 +5951,16 @@
         <v>7127341</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5951,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -5999,10 +6017,10 @@
         <v>1.4</v>
       </c>
       <c r="Y64">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6019,16 +6037,16 @@
         <v>7127342</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6037,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6085,10 +6103,10 @@
         <v>1.1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6105,16 +6123,16 @@
         <v>7127343</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6123,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>3.8</v>
@@ -6171,10 +6189,10 @@
         <v>0.8</v>
       </c>
       <c r="Y66">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AA66">
         <v>0.8999999999999999</v>
@@ -6191,16 +6209,16 @@
         <v>7126782</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45298.125</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6209,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>3.4</v>
@@ -6257,10 +6275,10 @@
         <v>0.833</v>
       </c>
       <c r="Y67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA67">
         <v>0</v>
@@ -6277,16 +6295,16 @@
         <v>7127349</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45299.23958333334</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6295,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6363,16 +6381,16 @@
         <v>7646746</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45303.14583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6381,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6449,16 +6467,16 @@
         <v>7126783</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45303.26041666666</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6467,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J70">
         <v>2.8</v>
@@ -6515,10 +6533,10 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6535,16 +6553,16 @@
         <v>7646747</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6621,16 +6639,16 @@
         <v>7646748</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6639,7 +6657,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6687,10 +6705,10 @@
         <v>2.5</v>
       </c>
       <c r="Y72">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA72">
         <v>0.925</v>
@@ -6707,16 +6725,16 @@
         <v>7646750</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6725,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>2.45</v>
@@ -6773,10 +6791,10 @@
         <v>1.05</v>
       </c>
       <c r="Y73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>0.925</v>
@@ -6793,16 +6811,16 @@
         <v>7646749</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6811,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>1.909</v>
@@ -6859,10 +6877,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z74">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>0.8999999999999999</v>
@@ -6879,16 +6897,16 @@
         <v>7127350</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45309.23958333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6897,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>1.909</v>
@@ -6945,10 +6963,10 @@
         <v>2.1</v>
       </c>
       <c r="Y75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA75">
         <v>1.025</v>
@@ -6965,16 +6983,16 @@
         <v>7127351</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45310.125</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6983,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>2.625</v>
@@ -7051,16 +7069,16 @@
         <v>7127352</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7069,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7117,10 +7135,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>0.4625</v>
@@ -7137,16 +7155,16 @@
         <v>7127354</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7173,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>1.475</v>
@@ -7203,10 +7221,10 @@
         <v>5.5</v>
       </c>
       <c r="Y78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7223,16 +7241,16 @@
         <v>7126784</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7241,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7289,10 +7307,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>-0.5</v>
@@ -7309,16 +7327,16 @@
         <v>7385383</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45314.20833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7327,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7375,10 +7393,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>0.925</v>
@@ -7395,16 +7413,16 @@
         <v>7126785</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45316.23958333334</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -7461,10 +7479,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7481,16 +7499,16 @@
         <v>7127355</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
         <v>37</v>
-      </c>
-      <c r="F82" t="s">
-        <v>31</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7499,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7567,16 +7585,16 @@
         <v>7127356</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7585,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7633,10 +7651,10 @@
         <v>1.15</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.925</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7653,16 +7671,16 @@
         <v>7127357</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45318.16666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7671,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>2.55</v>
@@ -7719,10 +7737,10 @@
         <v>1.9</v>
       </c>
       <c r="Y84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
         <v>0</v>
@@ -7739,16 +7757,16 @@
         <v>7127358</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7805,10 +7823,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -7825,16 +7843,16 @@
         <v>7127359</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7843,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>1.869</v>
@@ -7911,16 +7929,16 @@
         <v>7127360</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45324.23958333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7929,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -7997,16 +8015,16 @@
         <v>7126786</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45324.32291666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8015,7 +8033,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>3.8</v>
@@ -8063,10 +8081,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z88">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>0.8999999999999999</v>
@@ -8083,16 +8101,16 @@
         <v>7127361</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45325.125</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8169,16 +8187,16 @@
         <v>7127362</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45325.16666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8187,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>3.75</v>
@@ -8255,16 +8273,16 @@
         <v>7127363</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45325.23958333334</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8273,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>2.375</v>
@@ -8321,10 +8339,10 @@
         <v>1.45</v>
       </c>
       <c r="Y91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
         <v>0.8999999999999999</v>
@@ -8341,16 +8359,16 @@
         <v>7127364</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8359,7 +8377,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8407,10 +8425,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>1.05</v>
@@ -8427,16 +8445,16 @@
         <v>7760137</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45328</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8445,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J93">
         <v>2.2</v>
@@ -8513,16 +8531,16 @@
         <v>7127365</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45331.23958333334</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8531,7 +8549,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8599,16 +8617,16 @@
         <v>7127366</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45332.0625</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8617,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J95">
         <v>1.5</v>
@@ -8665,10 +8683,10 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z95">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
         <v>-1</v>
@@ -8685,16 +8703,16 @@
         <v>7127367</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45332.14583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8703,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8771,16 +8789,16 @@
         <v>7126787</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45332.16666666666</v>
       </c>
       <c r="E97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
         <v>34</v>
-      </c>
-      <c r="F97" t="s">
-        <v>28</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -8789,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J97">
         <v>4.5</v>
@@ -8837,10 +8855,10 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
         <v>0.8999999999999999</v>
@@ -8857,16 +8875,16 @@
         <v>7127368</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45332.23958333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8893,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>1.95</v>
@@ -8923,10 +8941,10 @@
         <v>2.4</v>
       </c>
       <c r="Y98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
         <v>0.8999999999999999</v>
@@ -8943,16 +8961,16 @@
         <v>7127369</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8961,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9029,16 +9047,16 @@
         <v>7127371</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45338.23958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9047,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9095,10 +9113,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9115,16 +9133,16 @@
         <v>7127372</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9133,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>1.727</v>
@@ -9181,10 +9199,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
         <v>-1</v>
@@ -9201,16 +9219,16 @@
         <v>7126788</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45339.23958333334</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9219,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>2.625</v>
@@ -9287,16 +9305,16 @@
         <v>7127373</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45339.32291666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9305,7 +9323,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9353,10 +9371,10 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>0.95</v>
@@ -9373,16 +9391,16 @@
         <v>7127370</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9391,7 +9409,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J104">
         <v>2.4</v>
@@ -9439,10 +9457,10 @@
         <v>1.75</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
         <v>0</v>
@@ -9459,16 +9477,16 @@
         <v>7127374</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>1.909</v>
@@ -9525,10 +9543,10 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z105">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9545,16 +9563,16 @@
         <v>7661946</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9563,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>1.45</v>
@@ -9611,10 +9629,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z106">
-        <v>0.9299999999999999</v>
+        <v>0.465</v>
       </c>
       <c r="AA106">
         <v>-0.5</v>
@@ -9631,16 +9649,16 @@
         <v>7127375</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45345.23958333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9649,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9717,16 +9735,16 @@
         <v>7875268</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45345.38194444445</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9735,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9803,16 +9821,16 @@
         <v>7126789</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9821,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>1.833</v>
@@ -9889,16 +9907,16 @@
         <v>7127377</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45346.23958333334</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9907,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9955,10 +9973,10 @@
         <v>1.55</v>
       </c>
       <c r="Y110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
         <v>-0.5</v>
@@ -9975,16 +9993,16 @@
         <v>7127378</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9993,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J111">
         <v>2.375</v>
@@ -10061,16 +10079,16 @@
         <v>7127376</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10079,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>1.95</v>
@@ -10147,16 +10165,16 @@
         <v>7127379</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10165,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>1.95</v>
@@ -10213,10 +10231,10 @@
         <v>3</v>
       </c>
       <c r="Y113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10233,16 +10251,16 @@
         <v>7126790</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10251,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -10299,10 +10317,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10319,16 +10337,16 @@
         <v>7127380</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45353.125</v>
       </c>
       <c r="E115" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" t="s">
         <v>39</v>
-      </c>
-      <c r="F115" t="s">
-        <v>33</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10337,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J115">
         <v>2.375</v>
@@ -10385,10 +10403,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10405,16 +10423,16 @@
         <v>7127381</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45353.16666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10423,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J116">
         <v>3.5</v>
@@ -10471,10 +10489,10 @@
         <v>1.05</v>
       </c>
       <c r="Y116">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10491,16 +10509,16 @@
         <v>7127382</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45353.23958333334</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10509,7 +10527,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J117">
         <v>2.5</v>
@@ -10557,10 +10575,10 @@
         <v>1.25</v>
       </c>
       <c r="Y117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA117">
         <v>0.825</v>
@@ -10577,16 +10595,16 @@
         <v>7127383</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45354.04166666666</v>
       </c>
       <c r="E118" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" t="s">
         <v>35</v>
-      </c>
-      <c r="F118" t="s">
-        <v>29</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10595,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10643,10 +10661,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>0.825</v>
@@ -10663,16 +10681,16 @@
         <v>7127384</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45354.125</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10681,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10729,10 +10747,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>1</v>
@@ -10749,16 +10767,16 @@
         <v>7127385</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10767,7 +10785,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>1.615</v>
@@ -10815,10 +10833,10 @@
         <v>3</v>
       </c>
       <c r="Y120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
         <v>0.9750000000000001</v>
@@ -10835,16 +10853,16 @@
         <v>7126791</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10853,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10901,10 +10919,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -10921,16 +10939,16 @@
         <v>7127386</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45360.26041666666</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10939,7 +10957,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J122">
         <v>2.4</v>
@@ -10987,10 +11005,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y122">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA122">
         <v>-0.5</v>
@@ -11007,16 +11025,16 @@
         <v>7127387</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45360.32291666666</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11043,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11093,16 +11111,16 @@
         <v>7128012</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11111,7 +11129,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>2.4</v>
@@ -11159,10 +11177,10 @@
         <v>1.05</v>
       </c>
       <c r="Y124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>0</v>
@@ -11179,16 +11197,16 @@
         <v>7127388</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>1.5</v>
@@ -11265,16 +11283,16 @@
         <v>7662592</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45363.20833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11283,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11331,10 +11349,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>0.925</v>
@@ -11351,16 +11369,16 @@
         <v>7127392</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45365.20833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11369,7 +11387,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>4.5</v>
@@ -11437,16 +11455,16 @@
         <v>7127389</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45366.23958333334</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11503,10 +11521,10 @@
         <v>1.75</v>
       </c>
       <c r="Y128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11523,16 +11541,16 @@
         <v>7127390</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45367.0625</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>2.9</v>
@@ -11589,10 +11607,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>0.4625</v>
@@ -11609,16 +11627,16 @@
         <v>7940069</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45367.08333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11627,7 +11645,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -11675,10 +11693,10 @@
         <v>2.75</v>
       </c>
       <c r="Y130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -11695,16 +11713,16 @@
         <v>7940070</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11713,7 +11731,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11761,10 +11779,10 @@
         <v>1.45</v>
       </c>
       <c r="Y131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
         <v>-0.5</v>
@@ -11781,16 +11799,16 @@
         <v>7127395</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45380.23958333334</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11799,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.666</v>
@@ -11847,10 +11865,10 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>0.9750000000000001</v>
@@ -11867,16 +11885,16 @@
         <v>7126793</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45381.14583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11885,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11953,16 +11971,16 @@
         <v>7127396</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11971,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>2.15</v>
@@ -12019,10 +12037,10 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
         <v>-1</v>
@@ -12039,16 +12057,16 @@
         <v>7127394</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45381.875</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12057,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J135">
         <v>1.8</v>
@@ -12105,10 +12123,10 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>-1</v>
@@ -12125,16 +12143,16 @@
         <v>7127397</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12143,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12211,16 +12229,16 @@
         <v>7127398</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12229,7 +12247,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J137">
         <v>2.5</v>
@@ -12277,10 +12295,10 @@
         <v>1.45</v>
       </c>
       <c r="Y137">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA137">
         <v>0.8999999999999999</v>
@@ -12297,16 +12315,16 @@
         <v>7898681</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12315,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12363,10 +12381,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z138">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.5125</v>
@@ -12383,16 +12401,16 @@
         <v>7661947</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12401,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12469,16 +12487,16 @@
         <v>7127399</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12505,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12535,10 +12553,10 @@
         <v>1.7</v>
       </c>
       <c r="Y140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
         <v>-0.5</v>
@@ -12555,16 +12573,16 @@
         <v>8034339</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45388.0625</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12573,7 +12591,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J141">
         <v>2.6</v>
@@ -12621,10 +12639,10 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
         <v>0.9750000000000001</v>
@@ -12641,16 +12659,16 @@
         <v>8005739</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12659,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>1.8</v>
@@ -12707,10 +12725,10 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z142">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
         <v>0.925</v>
@@ -12727,16 +12745,16 @@
         <v>7126794</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45388.23958333334</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12745,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12793,10 +12811,10 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>0.4625</v>
@@ -12813,16 +12831,16 @@
         <v>7127403</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45389.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12831,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>3.6</v>
@@ -12879,10 +12897,10 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>0.875</v>
@@ -12899,16 +12917,16 @@
         <v>7127402</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45389.16666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12917,7 +12935,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -12965,10 +12983,10 @@
         <v>1.2</v>
       </c>
       <c r="Y145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
         <v>1</v>
@@ -12985,16 +13003,16 @@
         <v>7127404</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45394.16666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13003,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>3.1</v>
@@ -13051,10 +13069,10 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z146">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13071,16 +13089,16 @@
         <v>7127405</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45394.28125</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13089,7 +13107,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13137,10 +13155,10 @@
         <v>4</v>
       </c>
       <c r="Y147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
@@ -13157,16 +13175,16 @@
         <v>7127408</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45395.10416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13175,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13223,10 +13241,10 @@
         <v>0.95</v>
       </c>
       <c r="Y148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13243,16 +13261,16 @@
         <v>7127407</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45395.1875</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13261,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13309,10 +13327,10 @@
         <v>3</v>
       </c>
       <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
         <v>0.925</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13329,16 +13347,16 @@
         <v>7127406</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13347,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J150">
         <v>1.833</v>
@@ -13395,10 +13413,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z150">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
         <v>-0.5</v>
@@ -13415,16 +13433,16 @@
         <v>7127409</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45396.08333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13433,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>1.571</v>
@@ -13481,10 +13499,10 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
         <v>0.8500000000000001</v>
@@ -13501,16 +13519,16 @@
         <v>7702377</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45398.25</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13519,7 +13537,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13587,16 +13605,16 @@
         <v>7127410</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45401.28125</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13605,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>2.8</v>
@@ -13673,16 +13691,16 @@
         <v>8096897</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13691,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J154">
         <v>3.25</v>
@@ -13739,10 +13757,10 @@
         <v>0.95</v>
       </c>
       <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
         <v>0.95</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
       </c>
       <c r="AA154">
         <v>-0.5</v>
@@ -13759,16 +13777,16 @@
         <v>7127411</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13777,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>1.65</v>
@@ -13845,16 +13863,16 @@
         <v>7127415</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13863,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>3.8</v>
@@ -13911,10 +13929,10 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="Z156">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
         <v>-1</v>
@@ -13931,16 +13949,16 @@
         <v>7127414</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13949,7 +13967,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -13997,10 +14015,10 @@
         <v>1.875</v>
       </c>
       <c r="Y157">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA157">
         <v>1</v>
@@ -14013,20 +14031,20 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158">
-        <v>7127416</v>
+      <c r="B158" t="s">
+        <v>27</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45408.28125</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J158">
         <v>2.3</v>
@@ -14038,13 +14056,13 @@
         <v>2.5</v>
       </c>
       <c r="M158">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N158">
         <v>4</v>
       </c>
       <c r="O158">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
         <v>-0.25</v>
@@ -14056,13 +14074,13 @@
         <v>1.93</v>
       </c>
       <c r="S158">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T158">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V158">
         <v>0</v>
@@ -14078,20 +14096,20 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159">
-        <v>7127418</v>
+      <c r="B159" t="s">
+        <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>3.6</v>
@@ -14103,10 +14121,10 @@
         <v>2</v>
       </c>
       <c r="M159">
+        <v>3.75</v>
+      </c>
+      <c r="N159">
         <v>3.8</v>
-      </c>
-      <c r="N159">
-        <v>3.3</v>
       </c>
       <c r="O159">
         <v>1.909</v>
@@ -14115,10 +14133,10 @@
         <v>0.5</v>
       </c>
       <c r="Q159">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="R159">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S159">
         <v>3</v>
@@ -14143,20 +14161,20 @@
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160">
-        <v>7127419</v>
+      <c r="B160" t="s">
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J160">
         <v>1.85</v>
@@ -14168,22 +14186,22 @@
         <v>3.9</v>
       </c>
       <c r="M160">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N160">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P160">
         <v>-0.75</v>
       </c>
       <c r="Q160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S160">
         <v>3</v>
@@ -14208,20 +14226,20 @@
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161">
-        <v>7127417</v>
+      <c r="B161" t="s">
+        <v>30</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45409.28125</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J161">
         <v>2.05</v>
@@ -14233,7 +14251,7 @@
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N161">
         <v>3.5</v>
@@ -14245,10 +14263,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q161">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="R161">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="S161">
         <v>3</v>
@@ -14273,20 +14291,20 @@
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162">
-        <v>8109525</v>
+      <c r="B162" t="s">
+        <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45410.08333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J162">
         <v>1.5</v>
@@ -14298,31 +14316,31 @@
         <v>7</v>
       </c>
       <c r="M162">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N162">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O162">
         <v>7.5</v>
       </c>
       <c r="P162">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q162">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="R162">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S162">
         <v>3.5</v>
       </c>
       <c r="T162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -14338,20 +14356,20 @@
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163">
-        <v>7127421</v>
+      <c r="B163" t="s">
+        <v>32</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45410.16666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>1.65</v>
@@ -14363,22 +14381,22 @@
         <v>4.333</v>
       </c>
       <c r="M163">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N163">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O163">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P163">
         <v>-1.25</v>
       </c>
       <c r="Q163">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R163">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S163">
         <v>3.5</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -6722,7 +6722,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
@@ -6731,73 +6731,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73">
+        <v>1.909</v>
+      </c>
+      <c r="K73">
         <v>4</v>
       </c>
-      <c r="I73" t="s">
-        <v>46</v>
-      </c>
-      <c r="J73">
-        <v>2.45</v>
-      </c>
-      <c r="K73">
-        <v>3.75</v>
-      </c>
       <c r="L73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6808,7 +6808,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>33</v>
@@ -6817,73 +6817,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -10076,7 +10076,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>33</v>
@@ -10085,76 +10085,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10162,7 +10162,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>33</v>
@@ -10171,76 +10171,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>4.2</v>
+      </c>
+      <c r="O113">
         <v>3.6</v>
-      </c>
-      <c r="O113">
-        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
+        <v>1.89</v>
+      </c>
+      <c r="R113">
+        <v>2.01</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
         <v>1.9</v>
       </c>
-      <c r="R113">
-        <v>1.95</v>
-      </c>
-      <c r="S113">
-        <v>2.75</v>
-      </c>
-      <c r="T113">
-        <v>1.925</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>1.01</v>
+      </c>
+      <c r="AA113">
         <v>0.95</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -14056,31 +14056,31 @@
         <v>2.5</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N158">
         <v>4</v>
       </c>
       <c r="O158">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P158">
         <v>-0.25</v>
       </c>
       <c r="Q158">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="R158">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T158">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
         <v>0</v>
@@ -14121,31 +14121,31 @@
         <v>2</v>
       </c>
       <c r="M159">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O159">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="P159">
         <v>0.5</v>
       </c>
       <c r="Q159">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R159">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S159">
         <v>3</v>
       </c>
       <c r="T159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -14186,31 +14186,31 @@
         <v>3.9</v>
       </c>
       <c r="M160">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O160">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
         <v>-0.75</v>
       </c>
       <c r="Q160">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T160">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -14251,31 +14251,31 @@
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N161">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
         <v>-0.5</v>
       </c>
       <c r="Q161">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R161">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S161">
         <v>3</v>
       </c>
       <c r="T161">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
         <v>0</v>
@@ -14319,28 +14319,28 @@
         <v>1.4</v>
       </c>
       <c r="N162">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O162">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="P162">
         <v>-1.5</v>
       </c>
       <c r="Q162">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="R162">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="S162">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -14384,10 +14384,10 @@
         <v>1.444</v>
       </c>
       <c r="N163">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="O163">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="P163">
         <v>-1.25</v>
@@ -14402,10 +14402,10 @@
         <v>3.5</v>
       </c>
       <c r="T163">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7127416</t>
   </si>
   <si>
     <t>7127418</t>
@@ -522,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB163"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +616,16 @@
         <v>6675262</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45080.28125</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -637,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -705,16 +702,16 @@
         <v>7127284</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45219.23958333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -723,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -791,16 +788,16 @@
         <v>7126254</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45220.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -877,16 +874,16 @@
         <v>7126770</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45220.14583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -895,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>1.533</v>
@@ -963,16 +960,16 @@
         <v>7127285</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45220.23958333334</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -981,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1049,16 +1046,16 @@
         <v>7127286</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1067,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1135,16 +1132,16 @@
         <v>7127287</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1153,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1221,16 +1218,16 @@
         <v>7127288</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45226.23958333334</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1307,16 +1304,16 @@
         <v>7127289</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45227.0625</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1325,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1393,16 +1390,16 @@
         <v>7127290</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45227.23958333334</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1411,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1479,16 +1476,16 @@
         <v>7128011</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45228.04166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1497,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1565,16 +1562,16 @@
         <v>7127291</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1583,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1651,16 +1648,16 @@
         <v>7126771</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45228.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1669,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -1737,16 +1734,16 @@
         <v>7126772</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45233.23958333334</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1755,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1823,16 +1820,16 @@
         <v>7127292</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45234.0625</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1841,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1909,16 +1906,16 @@
         <v>7127293</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1927,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1995,16 +1992,16 @@
         <v>7127294</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2013,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>1.95</v>
@@ -2081,16 +2078,16 @@
         <v>7127295</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2099,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2167,16 +2164,16 @@
         <v>7127296</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45235.04166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2185,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20">
         <v>2.7</v>
@@ -2253,16 +2250,16 @@
         <v>7127297</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2271,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>1.833</v>
@@ -2339,16 +2336,16 @@
         <v>7127298</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45241.0625</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2357,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2425,16 +2422,16 @@
         <v>7127300</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
         <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2443,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2511,16 +2508,16 @@
         <v>7127299</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45241.23958333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2529,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2597,16 +2594,16 @@
         <v>7126773</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45242.04166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2615,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2683,16 +2680,16 @@
         <v>7127308</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45242.125</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2701,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>1.833</v>
@@ -2769,16 +2766,16 @@
         <v>7127309</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2787,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>2.9</v>
@@ -2855,16 +2852,16 @@
         <v>7126774</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45255.02083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2873,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28">
         <v>3.1</v>
@@ -2941,16 +2938,16 @@
         <v>7127311</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45255.23958333334</v>
       </c>
       <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
         <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2959,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3027,16 +3024,16 @@
         <v>7127312</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45256.04166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3045,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3113,16 +3110,16 @@
         <v>7127313</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45256.125</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3131,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>2.7</v>
@@ -3199,16 +3196,16 @@
         <v>7127314</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45261.23958333334</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3217,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3285,16 +3282,16 @@
         <v>7127315</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45262.14583333334</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3303,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>2.55</v>
@@ -3371,16 +3368,16 @@
         <v>7127316</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45262.23958333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3389,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3457,17 +3454,17 @@
         <v>7127317</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45263.04166666666</v>
       </c>
       <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="s">
-        <v>43</v>
-      </c>
       <c r="G35">
         <v>2</v>
       </c>
@@ -3475,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3543,16 +3540,16 @@
         <v>7126775</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45263.125</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3561,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3629,16 +3626,16 @@
         <v>7479668</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3647,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>2.4</v>
@@ -3715,16 +3712,16 @@
         <v>7127319</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45268.23958333334</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3733,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3801,16 +3798,16 @@
         <v>7126776</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45268.32291666666</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3819,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3887,16 +3884,16 @@
         <v>7127320</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3905,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3973,16 +3970,16 @@
         <v>7127321</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3991,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4059,16 +4056,16 @@
         <v>7127322</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45270.04166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4077,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4145,16 +4142,16 @@
         <v>7127323</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45270.125</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4163,7 +4160,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>2.1</v>
@@ -4231,16 +4228,16 @@
         <v>7557607</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4249,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J44">
         <v>2.6</v>
@@ -4317,16 +4314,16 @@
         <v>7127324</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4335,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4403,16 +4400,16 @@
         <v>7127326</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45276.16666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4421,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4489,16 +4486,16 @@
         <v>7127327</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45276.23958333334</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4507,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4575,16 +4572,16 @@
         <v>7126777</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45277.125</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4593,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4661,16 +4658,16 @@
         <v>7127328</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4679,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>2.2</v>
@@ -4747,16 +4744,16 @@
         <v>7127329</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45281.23958333334</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4765,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4833,16 +4830,16 @@
         <v>7127330</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45282.23958333334</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4851,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>1.727</v>
@@ -4919,16 +4916,16 @@
         <v>7127331</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45283.0625</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4937,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5005,16 +5002,16 @@
         <v>7127332</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5023,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5091,16 +5088,16 @@
         <v>7126778</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5109,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J54">
         <v>2.75</v>
@@ -5177,16 +5174,16 @@
         <v>7127333</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5195,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J55">
         <v>2.7</v>
@@ -5263,16 +5260,16 @@
         <v>7126781</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45288.23958333334</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -5281,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5349,16 +5346,16 @@
         <v>7127334</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5367,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5435,16 +5432,16 @@
         <v>7127335</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
         <v>44</v>
-      </c>
-      <c r="F58" t="s">
-        <v>45</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5453,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5521,16 +5518,16 @@
         <v>7127336</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5539,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5607,16 +5604,16 @@
         <v>7127337</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5625,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5693,16 +5690,16 @@
         <v>7127338</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5711,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5779,16 +5776,16 @@
         <v>7127339</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45295.23958333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5797,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5865,16 +5862,16 @@
         <v>7127340</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5883,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>1.95</v>
@@ -5951,16 +5948,16 @@
         <v>7127341</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5969,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6037,16 +6034,16 @@
         <v>7127342</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6055,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6123,16 +6120,16 @@
         <v>7127343</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6141,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>3.8</v>
@@ -6209,16 +6206,16 @@
         <v>7126782</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45298.125</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6227,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>3.4</v>
@@ -6295,16 +6292,16 @@
         <v>7127349</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45299.23958333334</v>
       </c>
       <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
         <v>35</v>
-      </c>
-      <c r="F68" t="s">
-        <v>36</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6313,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6381,16 +6378,16 @@
         <v>7646746</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45303.14583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6399,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6467,16 +6464,16 @@
         <v>7126783</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45303.26041666666</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6485,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>2.8</v>
@@ -6553,16 +6550,16 @@
         <v>7646747</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s">
         <v>42</v>
-      </c>
-      <c r="F71" t="s">
-        <v>43</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6571,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6639,16 +6636,16 @@
         <v>7646748</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6657,7 +6654,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6725,16 +6722,16 @@
         <v>7646749</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6743,7 +6740,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>1.909</v>
@@ -6811,16 +6808,16 @@
         <v>7646750</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6829,7 +6826,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6897,16 +6894,16 @@
         <v>7127350</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45309.23958333334</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6915,7 +6912,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>1.909</v>
@@ -6983,16 +6980,16 @@
         <v>7127351</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45310.125</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7001,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>2.625</v>
@@ -7069,16 +7066,16 @@
         <v>7127352</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7087,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7155,16 +7152,16 @@
         <v>7127354</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
         <v>38</v>
-      </c>
-      <c r="F78" t="s">
-        <v>39</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7173,7 +7170,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>1.475</v>
@@ -7241,16 +7238,16 @@
         <v>7126784</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7259,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7327,16 +7324,16 @@
         <v>7385383</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45314.20833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7345,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7413,16 +7410,16 @@
         <v>7126785</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45316.23958333334</v>
       </c>
       <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
         <v>34</v>
-      </c>
-      <c r="F81" t="s">
-        <v>35</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7431,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -7499,16 +7496,16 @@
         <v>7127355</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7517,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7585,16 +7582,16 @@
         <v>7127356</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7603,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7671,16 +7668,16 @@
         <v>7127357</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45318.16666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7689,7 +7686,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>2.55</v>
@@ -7757,16 +7754,16 @@
         <v>7127358</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7775,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7843,16 +7840,16 @@
         <v>7127359</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7861,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J86">
         <v>1.869</v>
@@ -7929,16 +7926,16 @@
         <v>7127360</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45324.23958333334</v>
       </c>
       <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" t="s">
         <v>40</v>
-      </c>
-      <c r="F87" t="s">
-        <v>41</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7947,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8015,16 +8012,16 @@
         <v>7126786</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45324.32291666666</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8033,7 +8030,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J88">
         <v>3.8</v>
@@ -8101,16 +8098,16 @@
         <v>7127361</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45325.125</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8119,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8187,16 +8184,16 @@
         <v>7127362</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45325.16666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8205,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J90">
         <v>3.75</v>
@@ -8273,16 +8270,16 @@
         <v>7127363</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45325.23958333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8291,7 +8288,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>2.375</v>
@@ -8359,16 +8356,16 @@
         <v>7127364</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8377,7 +8374,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8445,16 +8442,16 @@
         <v>7760137</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45328</v>
       </c>
       <c r="E93" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" t="s">
         <v>41</v>
-      </c>
-      <c r="F93" t="s">
-        <v>42</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8463,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J93">
         <v>2.2</v>
@@ -8531,16 +8528,16 @@
         <v>7127365</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45331.23958333334</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8549,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8617,16 +8614,16 @@
         <v>7127366</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45332.0625</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8635,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>1.5</v>
@@ -8703,16 +8700,16 @@
         <v>7127367</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45332.14583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8721,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8789,16 +8786,16 @@
         <v>7126787</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45332.16666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -8807,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J97">
         <v>4.5</v>
@@ -8875,16 +8872,16 @@
         <v>7127368</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45332.23958333334</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8893,7 +8890,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>1.95</v>
@@ -8961,16 +8958,16 @@
         <v>7127369</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8979,7 +8976,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9047,16 +9044,16 @@
         <v>7127371</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45338.23958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9065,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9133,16 +9130,16 @@
         <v>7127372</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9151,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J101">
         <v>1.727</v>
@@ -9219,16 +9216,16 @@
         <v>7126788</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45339.23958333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9237,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102">
         <v>2.625</v>
@@ -9305,16 +9302,16 @@
         <v>7127373</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45339.32291666666</v>
       </c>
       <c r="E103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" t="s">
         <v>39</v>
-      </c>
-      <c r="F103" t="s">
-        <v>40</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9323,7 +9320,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9391,16 +9388,16 @@
         <v>7127370</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9409,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>2.4</v>
@@ -9477,16 +9474,16 @@
         <v>7127374</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9495,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J105">
         <v>1.909</v>
@@ -9563,16 +9560,16 @@
         <v>7661946</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9581,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J106">
         <v>1.45</v>
@@ -9649,16 +9646,16 @@
         <v>7127375</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45345.23958333334</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9667,7 +9664,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9735,16 +9732,16 @@
         <v>7875268</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45345.38194444445</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9753,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9821,16 +9818,16 @@
         <v>7126789</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9839,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J109">
         <v>1.833</v>
@@ -9907,16 +9904,16 @@
         <v>7127377</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45346.23958333334</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9925,7 +9922,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9993,16 +9990,16 @@
         <v>7127378</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10011,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.375</v>
@@ -10076,10 +10073,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45347.125</v>
@@ -10088,73 +10085,73 @@
         <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>4.2</v>
+      </c>
+      <c r="O112">
         <v>3.6</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
+        <v>1.89</v>
+      </c>
+      <c r="R112">
+        <v>2.01</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.95</v>
+      </c>
+      <c r="U112">
         <v>1.9</v>
       </c>
-      <c r="R112">
-        <v>1.95</v>
-      </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>1.01</v>
+      </c>
+      <c r="AA112">
         <v>0.95</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10162,85 +10159,85 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10251,16 +10248,16 @@
         <v>7126790</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10269,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -10337,16 +10334,16 @@
         <v>7127380</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45353.125</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10355,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>2.375</v>
@@ -10423,16 +10420,16 @@
         <v>7127381</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45353.16666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10441,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>3.5</v>
@@ -10509,16 +10506,16 @@
         <v>7127382</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45353.23958333334</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10527,7 +10524,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>2.5</v>
@@ -10595,16 +10592,16 @@
         <v>7127383</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45354.04166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10613,7 +10610,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10681,16 +10678,16 @@
         <v>7127384</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45354.125</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10699,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10767,16 +10764,16 @@
         <v>7127385</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10785,7 +10782,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J120">
         <v>1.615</v>
@@ -10853,16 +10850,16 @@
         <v>7126791</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10871,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10939,16 +10936,16 @@
         <v>7127386</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45360.26041666666</v>
       </c>
       <c r="E122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10957,7 +10954,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J122">
         <v>2.4</v>
@@ -11025,16 +11022,16 @@
         <v>7127387</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45360.32291666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11043,7 +11040,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11111,16 +11108,16 @@
         <v>7128012</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11129,7 +11126,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>2.4</v>
@@ -11197,16 +11194,16 @@
         <v>7127388</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11215,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J125">
         <v>1.5</v>
@@ -11283,16 +11280,16 @@
         <v>7662592</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45363.20833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11301,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11369,16 +11366,16 @@
         <v>7127392</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45365.20833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11387,7 +11384,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>4.5</v>
@@ -11455,16 +11452,16 @@
         <v>7127389</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45366.23958333334</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11473,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11541,16 +11538,16 @@
         <v>7127390</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45367.0625</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11559,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>2.9</v>
@@ -11627,16 +11624,16 @@
         <v>7940069</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45367.08333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11645,7 +11642,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -11713,16 +11710,16 @@
         <v>7940070</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11731,7 +11728,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11799,16 +11796,16 @@
         <v>7127395</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45380.23958333334</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11817,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J132">
         <v>1.666</v>
@@ -11885,16 +11882,16 @@
         <v>7126793</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45381.14583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11903,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11971,16 +11968,16 @@
         <v>7127396</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11989,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>2.15</v>
@@ -12057,16 +12054,16 @@
         <v>7127394</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45381.875</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12075,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J135">
         <v>1.8</v>
@@ -12143,16 +12140,16 @@
         <v>7127397</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12161,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12229,16 +12226,16 @@
         <v>7127398</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12247,7 +12244,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>2.5</v>
@@ -12315,16 +12312,16 @@
         <v>7898681</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12333,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12401,16 +12398,16 @@
         <v>7661947</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12419,7 +12416,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12487,16 +12484,16 @@
         <v>7127399</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12505,7 +12502,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12573,16 +12570,16 @@
         <v>8034339</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45388.0625</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12591,7 +12588,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J141">
         <v>2.6</v>
@@ -12659,16 +12656,16 @@
         <v>8005739</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12677,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J142">
         <v>1.8</v>
@@ -12745,16 +12742,16 @@
         <v>7126794</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45388.23958333334</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12763,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12831,16 +12828,16 @@
         <v>7127403</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45389.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12849,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>3.6</v>
@@ -12917,16 +12914,16 @@
         <v>7127402</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45389.16666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12935,7 +12932,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -13003,16 +13000,16 @@
         <v>7127404</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45394.16666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13021,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>3.1</v>
@@ -13089,16 +13086,16 @@
         <v>7127405</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45394.28125</v>
       </c>
       <c r="E147" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" t="s">
         <v>35</v>
-      </c>
-      <c r="F147" t="s">
-        <v>36</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13107,7 +13104,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13175,16 +13172,16 @@
         <v>7127408</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45395.10416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13193,7 +13190,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13261,16 +13258,16 @@
         <v>7127407</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45395.1875</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13279,7 +13276,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13347,16 +13344,16 @@
         <v>7127406</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" t="s">
         <v>37</v>
-      </c>
-      <c r="F150" t="s">
-        <v>38</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13365,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>1.833</v>
@@ -13433,16 +13430,16 @@
         <v>7127409</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45396.08333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13451,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J151">
         <v>1.571</v>
@@ -13519,16 +13516,16 @@
         <v>7702377</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45398.25</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13537,7 +13534,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13605,16 +13602,16 @@
         <v>7127410</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45401.28125</v>
       </c>
       <c r="E153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13623,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>2.8</v>
@@ -13691,16 +13688,16 @@
         <v>8096897</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13709,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>3.25</v>
@@ -13777,16 +13774,16 @@
         <v>7127411</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13795,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>1.65</v>
@@ -13863,16 +13860,16 @@
         <v>7127415</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" t="s">
         <v>36</v>
-      </c>
-      <c r="F156" t="s">
-        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13881,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>3.8</v>
@@ -13949,16 +13946,16 @@
         <v>7127414</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13967,7 +13964,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14035,52 +14032,52 @@
         <v>27</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
-        <v>45408.28125</v>
+        <v>45409.17708333334</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J158">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K158">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L158">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M158">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N158">
         <v>4</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P158">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q158">
+        <v>2</v>
+      </c>
+      <c r="R158">
         <v>1.9</v>
       </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
       <c r="S158">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T158">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
         <v>0</v>
@@ -14100,52 +14097,52 @@
         <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J159">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="K159">
+        <v>3.5</v>
+      </c>
+      <c r="L159">
+        <v>3.9</v>
+      </c>
+      <c r="M159">
+        <v>1.65</v>
+      </c>
+      <c r="N159">
+        <v>4.2</v>
+      </c>
+      <c r="O159">
+        <v>4.75</v>
+      </c>
+      <c r="P159">
+        <v>-0.75</v>
+      </c>
+      <c r="Q159">
+        <v>1.84</v>
+      </c>
+      <c r="R159">
+        <v>2.06</v>
+      </c>
+      <c r="S159">
         <v>3.25</v>
       </c>
-      <c r="L159">
-        <v>2</v>
-      </c>
-      <c r="M159">
-        <v>3.8</v>
-      </c>
-      <c r="N159">
-        <v>4</v>
-      </c>
-      <c r="O159">
+      <c r="T159">
+        <v>2</v>
+      </c>
+      <c r="U159">
         <v>1.85</v>
-      </c>
-      <c r="P159">
-        <v>0.5</v>
-      </c>
-      <c r="Q159">
-        <v>2.02</v>
-      </c>
-      <c r="R159">
-        <v>1.88</v>
-      </c>
-      <c r="S159">
-        <v>3</v>
-      </c>
-      <c r="T159">
-        <v>1.95</v>
-      </c>
-      <c r="U159">
-        <v>1.9</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -14165,52 +14162,52 @@
         <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
-        <v>45409.17708333334</v>
+        <v>45409.28125</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J160">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="K160">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L160">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="N160">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R160">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S160">
         <v>3.25</v>
       </c>
       <c r="T160">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -14230,46 +14227,46 @@
         <v>30</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
-        <v>45409.28125</v>
+        <v>45410.08333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
         <v>38</v>
       </c>
       <c r="J161">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="K161">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M161">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="N161">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P161">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q161">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R161">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="S161">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T161">
         <v>1.9</v>
@@ -14295,52 +14292,52 @@
         <v>31</v>
       </c>
       <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45410.16666666666</v>
+      </c>
+      <c r="E162" t="s">
         <v>33</v>
       </c>
-      <c r="D162" s="2">
-        <v>45410.08333333334</v>
-      </c>
-      <c r="E162" t="s">
-        <v>37</v>
-      </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J162">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L162">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="M162">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N162">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O162">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P162">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q162">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="R162">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -14349,71 +14346,6 @@
         <v>0</v>
       </c>
       <c r="X162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>32</v>
-      </c>
-      <c r="C163" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="2">
-        <v>45410.16666666666</v>
-      </c>
-      <c r="E163" t="s">
-        <v>34</v>
-      </c>
-      <c r="F163" t="s">
-        <v>45</v>
-      </c>
-      <c r="J163">
-        <v>1.65</v>
-      </c>
-      <c r="K163">
-        <v>4</v>
-      </c>
-      <c r="L163">
-        <v>4.333</v>
-      </c>
-      <c r="M163">
-        <v>1.444</v>
-      </c>
-      <c r="N163">
-        <v>5.25</v>
-      </c>
-      <c r="O163">
-        <v>6</v>
-      </c>
-      <c r="P163">
-        <v>-1.25</v>
-      </c>
-      <c r="Q163">
-        <v>1.9</v>
-      </c>
-      <c r="R163">
-        <v>2</v>
-      </c>
-      <c r="S163">
-        <v>3.5</v>
-      </c>
-      <c r="T163">
-        <v>1.975</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>0</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-      <c r="X163">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7127418</t>
-  </si>
-  <si>
-    <t>7127419</t>
-  </si>
-  <si>
-    <t>7127417</t>
   </si>
   <si>
     <t>8109525</t>
@@ -519,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,16 +607,16 @@
         <v>6675262</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45080.28125</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -634,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -702,16 +693,16 @@
         <v>7127284</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45219.23958333334</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -720,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -788,16 +779,16 @@
         <v>7126254</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45220.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -806,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -874,16 +865,16 @@
         <v>7126770</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45220.14583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -892,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1.533</v>
@@ -960,16 +951,16 @@
         <v>7127285</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45220.23958333334</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -978,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1046,16 +1037,16 @@
         <v>7127286</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1064,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1132,16 +1123,16 @@
         <v>7127287</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1150,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1218,16 +1209,16 @@
         <v>7127288</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45226.23958333334</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1236,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1304,16 +1295,16 @@
         <v>7127289</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45227.0625</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1322,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1390,16 +1381,16 @@
         <v>7127290</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45227.23958333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1408,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1476,16 +1467,16 @@
         <v>7128011</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45228.04166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1494,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1562,16 +1553,16 @@
         <v>7127291</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1580,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1648,16 +1639,16 @@
         <v>7126771</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45228.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1666,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -1734,16 +1725,16 @@
         <v>7126772</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45233.23958333334</v>
       </c>
       <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1752,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1820,16 +1811,16 @@
         <v>7127292</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45234.0625</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1838,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1906,16 +1897,16 @@
         <v>7127293</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1924,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1992,16 +1983,16 @@
         <v>7127294</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2010,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.95</v>
@@ -2078,16 +2069,16 @@
         <v>7127295</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2096,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2164,16 +2155,16 @@
         <v>7127296</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45235.04166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2182,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>2.7</v>
@@ -2250,16 +2241,16 @@
         <v>7127297</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2268,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>1.833</v>
@@ -2336,16 +2327,16 @@
         <v>7127298</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45241.0625</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2354,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2422,16 +2413,16 @@
         <v>7127300</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2440,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2508,16 +2499,16 @@
         <v>7127299</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45241.23958333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2526,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2594,16 +2585,16 @@
         <v>7126773</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45242.04166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2612,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2680,16 +2671,16 @@
         <v>7127308</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45242.125</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2698,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.833</v>
@@ -2766,16 +2757,16 @@
         <v>7127309</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2784,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>2.9</v>
@@ -2852,16 +2843,16 @@
         <v>7126774</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45255.02083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2870,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J28">
         <v>3.1</v>
@@ -2938,16 +2929,16 @@
         <v>7127311</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45255.23958333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2956,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3024,16 +3015,16 @@
         <v>7127312</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45256.04166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3042,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3110,16 +3101,16 @@
         <v>7127313</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45256.125</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3128,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2.7</v>
@@ -3196,16 +3187,16 @@
         <v>7127314</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45261.23958333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3214,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3282,16 +3273,16 @@
         <v>7127315</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45262.14583333334</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3300,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.55</v>
@@ -3368,16 +3359,16 @@
         <v>7127316</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45262.23958333334</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3386,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3454,16 +3445,16 @@
         <v>7127317</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45263.04166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3472,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3540,16 +3531,16 @@
         <v>7126775</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45263.125</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3558,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3626,16 +3617,16 @@
         <v>7479668</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3644,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>2.4</v>
@@ -3712,16 +3703,16 @@
         <v>7127319</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45268.23958333334</v>
       </c>
       <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
         <v>41</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3730,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3798,16 +3789,16 @@
         <v>7126776</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45268.32291666666</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3816,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3884,16 +3875,16 @@
         <v>7127320</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
         <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3902,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3970,16 +3961,16 @@
         <v>7127321</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3988,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4056,16 +4047,16 @@
         <v>7127322</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45270.04166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4074,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4142,16 +4133,16 @@
         <v>7127323</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45270.125</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4160,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2.1</v>
@@ -4228,16 +4219,16 @@
         <v>7557607</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4246,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>2.6</v>
@@ -4314,16 +4305,16 @@
         <v>7127324</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4332,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4400,16 +4391,16 @@
         <v>7127326</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45276.16666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4418,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4486,16 +4477,16 @@
         <v>7127327</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45276.23958333334</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4504,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4572,16 +4563,16 @@
         <v>7126777</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45277.125</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4590,7 +4581,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4658,16 +4649,16 @@
         <v>7127328</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4676,7 +4667,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>2.2</v>
@@ -4744,16 +4735,16 @@
         <v>7127329</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45281.23958333334</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4762,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4830,16 +4821,16 @@
         <v>7127330</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45282.23958333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4848,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>1.727</v>
@@ -4916,16 +4907,16 @@
         <v>7127331</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45283.0625</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4934,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5002,16 +4993,16 @@
         <v>7127332</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5020,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5088,16 +5079,16 @@
         <v>7126778</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5106,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>2.75</v>
@@ -5174,16 +5165,16 @@
         <v>7127333</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5192,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>2.7</v>
@@ -5260,16 +5251,16 @@
         <v>7126781</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45288.23958333334</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -5278,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5346,16 +5337,16 @@
         <v>7127334</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5364,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5432,16 +5423,16 @@
         <v>7127335</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5450,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5518,16 +5509,16 @@
         <v>7127336</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5536,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5604,16 +5595,16 @@
         <v>7127337</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5622,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5690,16 +5681,16 @@
         <v>7127338</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5708,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5776,16 +5767,16 @@
         <v>7127339</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45295.23958333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5794,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5862,16 +5853,16 @@
         <v>7127340</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5880,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.95</v>
@@ -5948,16 +5939,16 @@
         <v>7127341</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5966,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6034,16 +6025,16 @@
         <v>7127342</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6052,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6120,16 +6111,16 @@
         <v>7127343</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6138,7 +6129,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>3.8</v>
@@ -6206,16 +6197,16 @@
         <v>7126782</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45298.125</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6224,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>3.4</v>
@@ -6292,16 +6283,16 @@
         <v>7127349</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45299.23958333334</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6310,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6378,16 +6369,16 @@
         <v>7646746</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45303.14583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6396,7 +6387,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6464,16 +6455,16 @@
         <v>7126783</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45303.26041666666</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6482,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.8</v>
@@ -6550,16 +6541,16 @@
         <v>7646747</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6568,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6636,16 +6627,16 @@
         <v>7646748</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6654,7 +6645,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6719,82 +6710,82 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6805,16 +6796,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
         <v>40</v>
@@ -6823,64 +6814,64 @@
         <v>3</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74">
+        <v>1.909</v>
+      </c>
+      <c r="K74">
         <v>4</v>
       </c>
-      <c r="I74" t="s">
-        <v>45</v>
-      </c>
-      <c r="J74">
-        <v>2.45</v>
-      </c>
-      <c r="K74">
-        <v>3.75</v>
-      </c>
       <c r="L74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6894,16 +6885,16 @@
         <v>7127350</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45309.23958333334</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6912,7 +6903,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.909</v>
@@ -6980,16 +6971,16 @@
         <v>7127351</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45310.125</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6998,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>2.625</v>
@@ -7066,16 +7057,16 @@
         <v>7127352</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7084,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7152,16 +7143,16 @@
         <v>7127354</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7170,7 +7161,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>1.475</v>
@@ -7238,16 +7229,16 @@
         <v>7126784</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7256,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7324,16 +7315,16 @@
         <v>7385383</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45314.20833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7342,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7410,16 +7401,16 @@
         <v>7126785</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45316.23958333334</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7428,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -7496,16 +7487,16 @@
         <v>7127355</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7514,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7582,16 +7573,16 @@
         <v>7127356</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7600,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7668,16 +7659,16 @@
         <v>7127357</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45318.16666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7686,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>2.55</v>
@@ -7754,16 +7745,16 @@
         <v>7127358</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7772,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7840,17 +7831,17 @@
         <v>7127359</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" t="s">
         <v>35</v>
       </c>
-      <c r="F86" t="s">
-        <v>38</v>
-      </c>
       <c r="G86">
         <v>2</v>
       </c>
@@ -7858,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>1.869</v>
@@ -7926,16 +7917,16 @@
         <v>7127360</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45324.23958333334</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7944,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8012,16 +8003,16 @@
         <v>7126786</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45324.32291666666</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8030,7 +8021,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>3.8</v>
@@ -8098,25 +8089,25 @@
         <v>7127361</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45325.125</v>
       </c>
       <c r="E89" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
         <v>44</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89">
-        <v>2</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
-      </c>
-      <c r="I89" t="s">
-        <v>47</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8184,16 +8175,16 @@
         <v>7127362</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45325.16666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8202,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>3.75</v>
@@ -8270,16 +8261,16 @@
         <v>7127363</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45325.23958333334</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8288,7 +8279,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>2.375</v>
@@ -8356,16 +8347,16 @@
         <v>7127364</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8374,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8442,16 +8433,16 @@
         <v>7760137</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45328</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8460,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>2.2</v>
@@ -8528,16 +8519,16 @@
         <v>7127365</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45331.23958333334</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8546,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8614,16 +8605,16 @@
         <v>7127366</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45332.0625</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8632,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>1.5</v>
@@ -8700,16 +8691,16 @@
         <v>7127367</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45332.14583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8718,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8786,16 +8777,16 @@
         <v>7126787</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45332.16666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -8804,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>4.5</v>
@@ -8872,16 +8863,16 @@
         <v>7127368</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45332.23958333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8890,7 +8881,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.95</v>
@@ -8958,16 +8949,16 @@
         <v>7127369</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8976,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9044,16 +9035,16 @@
         <v>7127371</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45338.23958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9062,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9130,16 +9121,16 @@
         <v>7127372</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9148,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>1.727</v>
@@ -9216,16 +9207,16 @@
         <v>7126788</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45339.23958333334</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9234,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>2.625</v>
@@ -9302,16 +9293,16 @@
         <v>7127373</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45339.32291666666</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9320,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9388,16 +9379,16 @@
         <v>7127370</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9406,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>2.4</v>
@@ -9474,16 +9465,16 @@
         <v>7127374</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9492,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>1.909</v>
@@ -9560,16 +9551,16 @@
         <v>7661946</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9578,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>1.45</v>
@@ -9646,25 +9637,25 @@
         <v>7127375</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45345.23958333334</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
         <v>44</v>
-      </c>
-      <c r="G107">
-        <v>2</v>
-      </c>
-      <c r="H107">
-        <v>2</v>
-      </c>
-      <c r="I107" t="s">
-        <v>47</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9732,16 +9723,16 @@
         <v>7875268</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45345.38194444445</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9750,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9818,16 +9809,16 @@
         <v>7126789</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9836,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>1.833</v>
@@ -9904,16 +9895,16 @@
         <v>7127377</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45346.23958333334</v>
       </c>
       <c r="E110" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" t="s">
         <v>34</v>
-      </c>
-      <c r="F110" t="s">
-        <v>37</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9922,7 +9913,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9990,16 +9981,16 @@
         <v>7127378</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10008,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>2.375</v>
@@ -10073,85 +10064,85 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10159,85 +10150,85 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>4.2</v>
+      </c>
+      <c r="O113">
         <v>3.6</v>
-      </c>
-      <c r="O113">
-        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
+        <v>1.89</v>
+      </c>
+      <c r="R113">
+        <v>2.01</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
         <v>1.9</v>
       </c>
-      <c r="R113">
-        <v>1.95</v>
-      </c>
-      <c r="S113">
-        <v>2.75</v>
-      </c>
-      <c r="T113">
-        <v>1.925</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>1.01</v>
+      </c>
+      <c r="AA113">
         <v>0.95</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10248,16 +10239,16 @@
         <v>7126790</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10266,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -10334,16 +10325,16 @@
         <v>7127380</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45353.125</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10352,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>2.375</v>
@@ -10420,16 +10411,16 @@
         <v>7127381</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45353.16666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10438,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>3.5</v>
@@ -10506,16 +10497,16 @@
         <v>7127382</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45353.23958333334</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10524,7 +10515,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>2.5</v>
@@ -10592,16 +10583,16 @@
         <v>7127383</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45354.04166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10610,7 +10601,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10678,16 +10669,16 @@
         <v>7127384</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45354.125</v>
       </c>
       <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
         <v>39</v>
-      </c>
-      <c r="F119" t="s">
-        <v>42</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10696,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10764,16 +10755,16 @@
         <v>7127385</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10782,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>1.615</v>
@@ -10850,16 +10841,16 @@
         <v>7126791</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10868,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10936,16 +10927,16 @@
         <v>7127386</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45360.26041666666</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10954,7 +10945,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>2.4</v>
@@ -11022,16 +11013,16 @@
         <v>7127387</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45360.32291666666</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11040,7 +11031,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11105,85 +11096,85 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>1.533</v>
+      </c>
+      <c r="N124">
+        <v>5.25</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>-1</v>
+      </c>
+      <c r="Q124">
+        <v>1.8</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>3.5</v>
       </c>
-      <c r="L124">
-        <v>2.75</v>
-      </c>
-      <c r="M124">
-        <v>3.4</v>
-      </c>
-      <c r="N124">
-        <v>3.75</v>
-      </c>
-      <c r="O124">
-        <v>2.05</v>
-      </c>
-      <c r="P124">
-        <v>0.25</v>
-      </c>
-      <c r="Q124">
-        <v>2.025</v>
-      </c>
-      <c r="R124">
-        <v>1.825</v>
-      </c>
-      <c r="S124">
-        <v>3</v>
-      </c>
       <c r="T124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>1.05</v>
       </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.825</v>
-      </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11191,85 +11182,85 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q125">
+        <v>2.025</v>
+      </c>
+      <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
         <v>1.8</v>
       </c>
-      <c r="R125">
-        <v>2.05</v>
-      </c>
-      <c r="S125">
-        <v>3.5</v>
-      </c>
-      <c r="T125">
-        <v>1.925</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11280,16 +11271,16 @@
         <v>7662592</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45363.20833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11298,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11366,25 +11357,25 @@
         <v>7127392</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45365.20833333334</v>
       </c>
       <c r="E127" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127" t="s">
         <v>44</v>
-      </c>
-      <c r="F127" t="s">
-        <v>42</v>
-      </c>
-      <c r="G127">
-        <v>2</v>
-      </c>
-      <c r="H127">
-        <v>2</v>
-      </c>
-      <c r="I127" t="s">
-        <v>47</v>
       </c>
       <c r="J127">
         <v>4.5</v>
@@ -11452,16 +11443,16 @@
         <v>7127389</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45366.23958333334</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11470,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11538,16 +11529,16 @@
         <v>7127390</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45367.0625</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11556,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>2.9</v>
@@ -11624,16 +11615,16 @@
         <v>7940069</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45367.08333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11642,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -11710,16 +11701,16 @@
         <v>7940070</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11728,7 +11719,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11796,16 +11787,16 @@
         <v>7127395</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45380.23958333334</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11814,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>1.666</v>
@@ -11882,16 +11873,16 @@
         <v>7126793</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45381.14583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11900,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11968,16 +11959,16 @@
         <v>7127396</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11986,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2.15</v>
@@ -12054,16 +12045,16 @@
         <v>7127394</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45381.875</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12072,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.8</v>
@@ -12140,16 +12131,16 @@
         <v>7127397</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12158,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12226,16 +12217,16 @@
         <v>7127398</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12244,7 +12235,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>2.5</v>
@@ -12312,16 +12303,16 @@
         <v>7898681</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12330,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12398,16 +12389,16 @@
         <v>7661947</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12416,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12484,16 +12475,16 @@
         <v>7127399</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12502,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12570,16 +12561,16 @@
         <v>8034339</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45388.0625</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12588,7 +12579,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>2.6</v>
@@ -12656,16 +12647,16 @@
         <v>8005739</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12674,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>1.8</v>
@@ -12742,16 +12733,16 @@
         <v>7126794</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45388.23958333334</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12760,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12828,16 +12819,16 @@
         <v>7127403</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45389.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12846,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>3.6</v>
@@ -12914,16 +12905,16 @@
         <v>7127402</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45389.16666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12932,7 +12923,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -13000,16 +12991,16 @@
         <v>7127404</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45394.16666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13018,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>3.1</v>
@@ -13086,16 +13077,16 @@
         <v>7127405</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45394.28125</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13104,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13172,16 +13163,16 @@
         <v>7127408</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45395.10416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13190,7 +13181,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13258,16 +13249,16 @@
         <v>7127407</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45395.1875</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13276,7 +13267,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13344,16 +13335,16 @@
         <v>7127406</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13362,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>1.833</v>
@@ -13430,16 +13421,16 @@
         <v>7127409</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45396.08333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13448,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J151">
         <v>1.571</v>
@@ -13516,16 +13507,16 @@
         <v>7702377</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45398.25</v>
       </c>
       <c r="E152" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13534,7 +13525,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13602,16 +13593,16 @@
         <v>7127410</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45401.28125</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13620,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>2.8</v>
@@ -13688,16 +13679,16 @@
         <v>8096897</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13706,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J154">
         <v>3.25</v>
@@ -13774,16 +13765,16 @@
         <v>7127411</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13792,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>1.65</v>
@@ -13860,16 +13851,16 @@
         <v>7127415</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13878,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>3.8</v>
@@ -13946,16 +13937,16 @@
         <v>7127414</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13964,7 +13955,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14028,65 +14019,86 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>27</v>
+      <c r="B158">
+        <v>7127416</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
-        <v>45409.17708333334</v>
+        <v>45408.28125</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158" t="s">
+        <v>42</v>
       </c>
       <c r="J158">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K158">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M158">
+        <v>2.1</v>
+      </c>
+      <c r="N158">
+        <v>4.2</v>
+      </c>
+      <c r="O158">
+        <v>2.9</v>
+      </c>
+      <c r="P158">
+        <v>-0.25</v>
+      </c>
+      <c r="Q158">
+        <v>1.9</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
         <v>3.75</v>
       </c>
-      <c r="N158">
-        <v>4</v>
-      </c>
-      <c r="O158">
-        <v>1.909</v>
-      </c>
-      <c r="P158">
-        <v>0.5</v>
-      </c>
-      <c r="Q158">
-        <v>2</v>
-      </c>
-      <c r="R158">
+      <c r="T158">
+        <v>1.95</v>
+      </c>
+      <c r="U158">
         <v>1.9</v>
       </c>
-      <c r="S158">
-        <v>3.25</v>
-      </c>
-      <c r="T158">
-        <v>2.025</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
       <c r="V158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>1.9</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>1</v>
+      </c>
+      <c r="AA158">
+        <v>0.95</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14094,55 +14106,55 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
-        <v>45409.17708333334</v>
+        <v>45410.08333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
         <v>35</v>
       </c>
       <c r="J159">
+        <v>1.5</v>
+      </c>
+      <c r="K159">
+        <v>3.6</v>
+      </c>
+      <c r="L159">
+        <v>7</v>
+      </c>
+      <c r="M159">
+        <v>1.333</v>
+      </c>
+      <c r="N159">
+        <v>5.75</v>
+      </c>
+      <c r="O159">
+        <v>7.5</v>
+      </c>
+      <c r="P159">
+        <v>-1.75</v>
+      </c>
+      <c r="Q159">
+        <v>2.05</v>
+      </c>
+      <c r="R159">
         <v>1.85</v>
       </c>
-      <c r="K159">
-        <v>3.5</v>
-      </c>
-      <c r="L159">
-        <v>3.9</v>
-      </c>
-      <c r="M159">
-        <v>1.65</v>
-      </c>
-      <c r="N159">
-        <v>4.2</v>
-      </c>
-      <c r="O159">
-        <v>4.75</v>
-      </c>
-      <c r="P159">
-        <v>-0.75</v>
-      </c>
-      <c r="Q159">
-        <v>1.84</v>
-      </c>
-      <c r="R159">
-        <v>2.06</v>
-      </c>
       <c r="S159">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -14159,55 +14171,55 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
-        <v>45409.28125</v>
+        <v>45410.16666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J160">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="K160">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P160">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q160">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R160">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T160">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -14216,136 +14228,6 @@
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>30</v>
-      </c>
-      <c r="C161" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" s="2">
-        <v>45410.08333333334</v>
-      </c>
-      <c r="E161" t="s">
-        <v>36</v>
-      </c>
-      <c r="F161" t="s">
-        <v>38</v>
-      </c>
-      <c r="J161">
-        <v>1.5</v>
-      </c>
-      <c r="K161">
-        <v>3.6</v>
-      </c>
-      <c r="L161">
-        <v>7</v>
-      </c>
-      <c r="M161">
-        <v>1.363</v>
-      </c>
-      <c r="N161">
-        <v>5.25</v>
-      </c>
-      <c r="O161">
-        <v>7.5</v>
-      </c>
-      <c r="P161">
-        <v>-1.5</v>
-      </c>
-      <c r="Q161">
-        <v>1.98</v>
-      </c>
-      <c r="R161">
-        <v>1.92</v>
-      </c>
-      <c r="S161">
-        <v>3.75</v>
-      </c>
-      <c r="T161">
-        <v>1.9</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>0</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>31</v>
-      </c>
-      <c r="C162" t="s">
-        <v>32</v>
-      </c>
-      <c r="D162" s="2">
-        <v>45410.16666666666</v>
-      </c>
-      <c r="E162" t="s">
-        <v>33</v>
-      </c>
-      <c r="F162" t="s">
-        <v>44</v>
-      </c>
-      <c r="J162">
-        <v>1.65</v>
-      </c>
-      <c r="K162">
-        <v>4</v>
-      </c>
-      <c r="L162">
-        <v>4.333</v>
-      </c>
-      <c r="M162">
-        <v>1.444</v>
-      </c>
-      <c r="N162">
-        <v>5.25</v>
-      </c>
-      <c r="O162">
-        <v>6</v>
-      </c>
-      <c r="P162">
-        <v>-1.25</v>
-      </c>
-      <c r="Q162">
-        <v>1.9</v>
-      </c>
-      <c r="R162">
-        <v>2</v>
-      </c>
-      <c r="S162">
-        <v>3.5</v>
-      </c>
-      <c r="T162">
-        <v>1.925</v>
-      </c>
-      <c r="U162">
-        <v>1.925</v>
-      </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="X162">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB160"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6710,7 +6710,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -6719,73 +6719,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73">
+        <v>1.909</v>
+      </c>
+      <c r="K73">
         <v>4</v>
       </c>
-      <c r="I73" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73">
-        <v>2.45</v>
-      </c>
-      <c r="K73">
-        <v>3.75</v>
-      </c>
       <c r="L73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6796,7 +6796,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -6805,73 +6805,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -14105,129 +14105,301 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>27</v>
+      <c r="B159">
+        <v>7127419</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
       </c>
       <c r="D159" s="2">
-        <v>45410.08333333334</v>
+        <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>43</v>
       </c>
       <c r="J159">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="K159">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L159">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M159">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="N159">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="O159">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="P159">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q159">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S159">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T159">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>0.95</v>
       </c>
     </row>
     <row r="160" spans="1:28">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160">
+        <v>7127418</v>
+      </c>
+      <c r="C160" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45409.17708333334</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160" t="s">
+        <v>42</v>
+      </c>
+      <c r="J160">
+        <v>3.6</v>
+      </c>
+      <c r="K160">
+        <v>3.25</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>4.2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160">
+        <v>1.75</v>
+      </c>
+      <c r="P160">
+        <v>0.75</v>
+      </c>
+      <c r="Q160">
+        <v>1.85</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>3</v>
+      </c>
+      <c r="T160">
+        <v>1.975</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
+        <v>-1</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>0.75</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s">
+        <v>35</v>
+      </c>
+      <c r="J161">
+        <v>1.5</v>
+      </c>
+      <c r="K161">
+        <v>3.6</v>
+      </c>
+      <c r="L161">
+        <v>7</v>
+      </c>
+      <c r="M161">
+        <v>1.333</v>
+      </c>
+      <c r="N161">
+        <v>5.75</v>
+      </c>
+      <c r="O161">
+        <v>7.5</v>
+      </c>
+      <c r="P161">
+        <v>-1.5</v>
+      </c>
+      <c r="Q161">
+        <v>1.85</v>
+      </c>
+      <c r="R161">
+        <v>2.05</v>
+      </c>
+      <c r="S161">
+        <v>3.75</v>
+      </c>
+      <c r="T161">
+        <v>1.85</v>
+      </c>
+      <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
         <v>28</v>
       </c>
-      <c r="C160" t="s">
-        <v>29</v>
-      </c>
-      <c r="D160" s="2">
+      <c r="C162" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="2">
         <v>45410.16666666666</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E162" t="s">
         <v>30</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F162" t="s">
         <v>41</v>
       </c>
-      <c r="J160">
+      <c r="J162">
         <v>1.65</v>
       </c>
-      <c r="K160">
+      <c r="K162">
         <v>4</v>
       </c>
-      <c r="L160">
+      <c r="L162">
         <v>4.333</v>
       </c>
-      <c r="M160">
-        <v>1.444</v>
-      </c>
-      <c r="N160">
-        <v>5.25</v>
-      </c>
-      <c r="O160">
-        <v>6</v>
-      </c>
-      <c r="P160">
-        <v>-1.25</v>
-      </c>
-      <c r="Q160">
-        <v>1.9</v>
-      </c>
-      <c r="R160">
-        <v>2</v>
-      </c>
-      <c r="S160">
+      <c r="M162">
+        <v>1.363</v>
+      </c>
+      <c r="N162">
+        <v>5.75</v>
+      </c>
+      <c r="O162">
+        <v>7</v>
+      </c>
+      <c r="P162">
+        <v>-1.5</v>
+      </c>
+      <c r="Q162">
+        <v>2.02</v>
+      </c>
+      <c r="R162">
+        <v>1.88</v>
+      </c>
+      <c r="S162">
         <v>3.5</v>
       </c>
-      <c r="T160">
-        <v>1.925</v>
-      </c>
-      <c r="U160">
-        <v>1.925</v>
-      </c>
-      <c r="V160">
+      <c r="T162">
+        <v>1.85</v>
+      </c>
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
         <v>0</v>
       </c>
-      <c r="W160">
+      <c r="W162">
         <v>0</v>
       </c>
-      <c r="X160">
+      <c r="X162">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,7 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8109525</t>
-  </si>
-  <si>
-    <t>7127421</t>
+    <t>8135264</t>
   </si>
   <si>
     <t>Australia ALeague</t>
@@ -510,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +604,16 @@
         <v>6675262</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45080.28125</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -625,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -693,16 +690,16 @@
         <v>7127284</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45219.23958333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -779,16 +776,16 @@
         <v>7126254</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45220.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -797,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -865,16 +862,16 @@
         <v>7126770</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45220.14583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>1.533</v>
@@ -951,16 +948,16 @@
         <v>7127285</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45220.23958333334</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -969,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1037,16 +1034,16 @@
         <v>7127286</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1055,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1123,16 +1120,16 @@
         <v>7127287</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1141,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1209,16 +1206,16 @@
         <v>7127288</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45226.23958333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1295,16 +1292,16 @@
         <v>7127289</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45227.0625</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1313,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1381,16 +1378,16 @@
         <v>7127290</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45227.23958333334</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1467,16 +1464,16 @@
         <v>7128011</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45228.04166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1485,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1553,16 +1550,16 @@
         <v>7127291</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1571,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1639,16 +1636,16 @@
         <v>7126771</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45228.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1657,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -1725,16 +1722,16 @@
         <v>7126772</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45233.23958333334</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1811,16 +1808,16 @@
         <v>7127292</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45234.0625</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1829,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1897,16 +1894,16 @@
         <v>7127293</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1983,16 +1980,16 @@
         <v>7127294</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.95</v>
@@ -2069,16 +2066,16 @@
         <v>7127295</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2087,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2155,16 +2152,16 @@
         <v>7127296</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45235.04166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2173,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>2.7</v>
@@ -2241,16 +2238,16 @@
         <v>7127297</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2259,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.833</v>
@@ -2327,16 +2324,16 @@
         <v>7127298</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45241.0625</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2345,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2413,16 +2410,16 @@
         <v>7127300</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
         <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2431,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2499,16 +2496,16 @@
         <v>7127299</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45241.23958333334</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2517,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2585,16 +2582,16 @@
         <v>7126773</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45242.04166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2603,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2671,16 +2668,16 @@
         <v>7127308</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45242.125</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2689,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1.833</v>
@@ -2757,16 +2754,16 @@
         <v>7127309</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2775,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.9</v>
@@ -2843,16 +2840,16 @@
         <v>7126774</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45255.02083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2861,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>3.1</v>
@@ -2929,16 +2926,16 @@
         <v>7127311</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45255.23958333334</v>
       </c>
       <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>33</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2947,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3015,16 +3012,16 @@
         <v>7127312</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45256.04166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3033,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3101,16 +3098,16 @@
         <v>7127313</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45256.125</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3119,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.7</v>
@@ -3187,16 +3184,16 @@
         <v>7127314</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45261.23958333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3205,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3273,16 +3270,16 @@
         <v>7127315</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45262.14583333334</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3291,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.55</v>
@@ -3359,16 +3356,16 @@
         <v>7127316</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45262.23958333334</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3377,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3445,17 +3442,17 @@
         <v>7127317</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45263.04166666666</v>
       </c>
       <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
       <c r="G35">
         <v>2</v>
       </c>
@@ -3463,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3531,16 +3528,16 @@
         <v>7126775</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45263.125</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3549,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3617,16 +3614,16 @@
         <v>7479668</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3635,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2.4</v>
@@ -3703,16 +3700,16 @@
         <v>7127319</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45268.23958333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3721,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3789,16 +3786,16 @@
         <v>7126776</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45268.32291666666</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3875,16 +3872,16 @@
         <v>7127320</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3893,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3961,16 +3958,16 @@
         <v>7127321</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3979,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4047,16 +4044,16 @@
         <v>7127322</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45270.04166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4065,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4133,16 +4130,16 @@
         <v>7127323</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45270.125</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4151,7 +4148,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>2.1</v>
@@ -4219,16 +4216,16 @@
         <v>7557607</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4237,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>2.6</v>
@@ -4305,16 +4302,16 @@
         <v>7127324</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4323,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4391,16 +4388,16 @@
         <v>7127326</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45276.16666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4409,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4477,16 +4474,16 @@
         <v>7127327</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45276.23958333334</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4495,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4563,16 +4560,16 @@
         <v>7126777</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45277.125</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4581,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4649,16 +4646,16 @@
         <v>7127328</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4667,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>2.2</v>
@@ -4735,16 +4732,16 @@
         <v>7127329</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45281.23958333334</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4753,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4821,16 +4818,16 @@
         <v>7127330</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45282.23958333334</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4839,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>1.727</v>
@@ -4907,16 +4904,16 @@
         <v>7127331</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45283.0625</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4925,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -4993,16 +4990,16 @@
         <v>7127332</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5011,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5079,16 +5076,16 @@
         <v>7126778</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5097,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J54">
         <v>2.75</v>
@@ -5165,16 +5162,16 @@
         <v>7127333</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5183,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>2.7</v>
@@ -5251,16 +5248,16 @@
         <v>7126781</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45288.23958333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -5269,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5337,16 +5334,16 @@
         <v>7127334</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5355,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5423,16 +5420,16 @@
         <v>7127335</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
         <v>40</v>
-      </c>
-      <c r="F58" t="s">
-        <v>41</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5441,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5509,16 +5506,16 @@
         <v>7127336</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5527,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5595,16 +5592,16 @@
         <v>7127337</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5613,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5681,16 +5678,16 @@
         <v>7127338</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5699,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5767,16 +5764,16 @@
         <v>7127339</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45295.23958333334</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5785,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5853,16 +5850,16 @@
         <v>7127340</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.95</v>
@@ -5939,16 +5936,16 @@
         <v>7127341</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5957,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6025,16 +6022,16 @@
         <v>7127342</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6043,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6111,16 +6108,16 @@
         <v>7127343</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6129,7 +6126,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>3.8</v>
@@ -6197,16 +6194,16 @@
         <v>7126782</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45298.125</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6215,7 +6212,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>3.4</v>
@@ -6283,16 +6280,16 @@
         <v>7127349</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45299.23958333334</v>
       </c>
       <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
         <v>31</v>
-      </c>
-      <c r="F68" t="s">
-        <v>32</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6301,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6369,16 +6366,16 @@
         <v>7646746</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45303.14583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6387,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6455,16 +6452,16 @@
         <v>7126783</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45303.26041666666</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6473,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>2.8</v>
@@ -6541,16 +6538,16 @@
         <v>7646747</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
         <v>38</v>
-      </c>
-      <c r="F71" t="s">
-        <v>39</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6559,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6627,16 +6624,16 @@
         <v>7646748</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6645,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6710,82 +6707,82 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>36</v>
-      </c>
-      <c r="F73" t="s">
-        <v>40</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6796,10 +6793,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45305.23958333334</v>
@@ -6808,70 +6805,70 @@
         <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
         <v>42</v>
       </c>
       <c r="J74">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="K74">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6885,16 +6882,16 @@
         <v>7127350</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45309.23958333334</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.909</v>
@@ -6971,16 +6968,16 @@
         <v>7127351</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45310.125</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6989,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>2.625</v>
@@ -7057,16 +7054,16 @@
         <v>7127352</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7075,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7143,16 +7140,16 @@
         <v>7127354</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
         <v>34</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7161,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.475</v>
@@ -7229,16 +7226,16 @@
         <v>7126784</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7247,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7315,16 +7312,16 @@
         <v>7385383</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45314.20833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7333,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7401,16 +7398,16 @@
         <v>7126785</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45316.23958333334</v>
       </c>
       <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
         <v>30</v>
-      </c>
-      <c r="F81" t="s">
-        <v>31</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7419,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -7487,16 +7484,16 @@
         <v>7127355</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7505,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7573,16 +7570,16 @@
         <v>7127356</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7591,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7659,16 +7656,16 @@
         <v>7127357</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45318.16666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7677,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>2.55</v>
@@ -7745,16 +7742,16 @@
         <v>7127358</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7763,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7831,16 +7828,16 @@
         <v>7127359</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7849,7 +7846,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>1.869</v>
@@ -7917,16 +7914,16 @@
         <v>7127360</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45324.23958333334</v>
       </c>
       <c r="E87" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" t="s">
         <v>36</v>
-      </c>
-      <c r="F87" t="s">
-        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7935,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8003,16 +8000,16 @@
         <v>7126786</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45324.32291666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8021,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>3.8</v>
@@ -8089,16 +8086,16 @@
         <v>7127361</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45325.125</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8107,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8175,16 +8172,16 @@
         <v>7127362</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45325.16666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8193,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>3.75</v>
@@ -8261,16 +8258,16 @@
         <v>7127363</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45325.23958333334</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8279,7 +8276,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.375</v>
@@ -8347,16 +8344,16 @@
         <v>7127364</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8365,7 +8362,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8433,16 +8430,16 @@
         <v>7760137</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45328</v>
       </c>
       <c r="E93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" t="s">
         <v>37</v>
-      </c>
-      <c r="F93" t="s">
-        <v>38</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8451,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>2.2</v>
@@ -8519,16 +8516,16 @@
         <v>7127365</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45331.23958333334</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8537,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8605,16 +8602,16 @@
         <v>7127366</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45332.0625</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8623,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>1.5</v>
@@ -8691,16 +8688,16 @@
         <v>7127367</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45332.14583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8709,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8777,16 +8774,16 @@
         <v>7126787</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45332.16666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -8795,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>4.5</v>
@@ -8863,16 +8860,16 @@
         <v>7127368</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45332.23958333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8881,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>1.95</v>
@@ -8949,16 +8946,16 @@
         <v>7127369</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8967,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9035,16 +9032,16 @@
         <v>7127371</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45338.23958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9053,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9121,16 +9118,16 @@
         <v>7127372</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9139,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>1.727</v>
@@ -9207,16 +9204,16 @@
         <v>7126788</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45339.23958333334</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9225,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>2.625</v>
@@ -9293,16 +9290,16 @@
         <v>7127373</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45339.32291666666</v>
       </c>
       <c r="E103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" t="s">
         <v>35</v>
-      </c>
-      <c r="F103" t="s">
-        <v>36</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9311,7 +9308,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9379,16 +9376,16 @@
         <v>7127370</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9397,7 +9394,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>2.4</v>
@@ -9465,16 +9462,16 @@
         <v>7127374</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9483,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>1.909</v>
@@ -9551,16 +9548,16 @@
         <v>7661946</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9569,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.45</v>
@@ -9637,16 +9634,16 @@
         <v>7127375</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45345.23958333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9655,7 +9652,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9723,16 +9720,16 @@
         <v>7875268</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45345.38194444445</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9741,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9809,16 +9806,16 @@
         <v>7126789</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9827,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.833</v>
@@ -9895,16 +9892,16 @@
         <v>7127377</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45346.23958333334</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9913,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9981,16 +9978,16 @@
         <v>7127378</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9999,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2.375</v>
@@ -10064,10 +10061,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45347.125</v>
@@ -10076,73 +10073,73 @@
         <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>4.2</v>
+      </c>
+      <c r="O112">
         <v>3.6</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
+        <v>1.89</v>
+      </c>
+      <c r="R112">
+        <v>2.01</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.95</v>
+      </c>
+      <c r="U112">
         <v>1.9</v>
       </c>
-      <c r="R112">
-        <v>1.95</v>
-      </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>1.01</v>
+      </c>
+      <c r="AA112">
         <v>0.95</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10150,85 +10147,85 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10239,16 +10236,16 @@
         <v>7126790</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10257,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -10325,16 +10322,16 @@
         <v>7127380</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45353.125</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10343,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2.375</v>
@@ -10411,16 +10408,16 @@
         <v>7127381</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45353.16666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10429,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>3.5</v>
@@ -10497,16 +10494,16 @@
         <v>7127382</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45353.23958333334</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10515,7 +10512,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>2.5</v>
@@ -10583,16 +10580,16 @@
         <v>7127383</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45354.04166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10601,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10669,16 +10666,16 @@
         <v>7127384</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45354.125</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10687,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10755,16 +10752,16 @@
         <v>7127385</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10773,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>1.615</v>
@@ -10841,16 +10838,16 @@
         <v>7126791</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10859,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10927,16 +10924,16 @@
         <v>7127386</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45360.26041666666</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10945,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>2.4</v>
@@ -11013,16 +11010,16 @@
         <v>7127387</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45360.32291666666</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11031,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11096,85 +11093,85 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q124">
+        <v>2.025</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>2.05</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="R124">
-        <v>2.05</v>
-      </c>
-      <c r="S124">
-        <v>3.5</v>
-      </c>
-      <c r="T124">
-        <v>1.925</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11182,10 +11179,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45361.125</v>
@@ -11194,73 +11191,73 @@
         <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>1.533</v>
+      </c>
+      <c r="N125">
+        <v>5.25</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>-1</v>
+      </c>
+      <c r="Q125">
+        <v>1.8</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
         <v>3.5</v>
       </c>
-      <c r="L125">
-        <v>2.75</v>
-      </c>
-      <c r="M125">
-        <v>3.4</v>
-      </c>
-      <c r="N125">
-        <v>3.75</v>
-      </c>
-      <c r="O125">
-        <v>2.05</v>
-      </c>
-      <c r="P125">
-        <v>0.25</v>
-      </c>
-      <c r="Q125">
-        <v>2.025</v>
-      </c>
-      <c r="R125">
-        <v>1.825</v>
-      </c>
-      <c r="S125">
-        <v>3</v>
-      </c>
       <c r="T125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>1.05</v>
       </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.825</v>
-      </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11271,16 +11268,16 @@
         <v>7662592</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45363.20833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11289,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11357,16 +11354,16 @@
         <v>7127392</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45365.20833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11375,7 +11372,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>4.5</v>
@@ -11443,16 +11440,16 @@
         <v>7127389</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45366.23958333334</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11461,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11529,16 +11526,16 @@
         <v>7127390</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45367.0625</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11547,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>2.9</v>
@@ -11615,16 +11612,16 @@
         <v>7940069</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45367.08333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11633,7 +11630,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -11701,16 +11698,16 @@
         <v>7940070</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11719,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11787,16 +11784,16 @@
         <v>7127395</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45380.23958333334</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11805,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.666</v>
@@ -11873,16 +11870,16 @@
         <v>7126793</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45381.14583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11891,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11959,16 +11956,16 @@
         <v>7127396</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11977,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2.15</v>
@@ -12045,16 +12042,16 @@
         <v>7127394</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45381.875</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12063,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>1.8</v>
@@ -12131,16 +12128,16 @@
         <v>7127397</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12149,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12217,16 +12214,16 @@
         <v>7127398</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12235,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>2.5</v>
@@ -12303,16 +12300,16 @@
         <v>7898681</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12321,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12389,16 +12386,16 @@
         <v>7661947</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12407,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12475,16 +12472,16 @@
         <v>7127399</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12493,7 +12490,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12561,16 +12558,16 @@
         <v>8034339</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45388.0625</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12579,7 +12576,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>2.6</v>
@@ -12647,16 +12644,16 @@
         <v>8005739</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12665,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>1.8</v>
@@ -12733,16 +12730,16 @@
         <v>7126794</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45388.23958333334</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12751,7 +12748,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12819,16 +12816,16 @@
         <v>7127403</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45389.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12837,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>3.6</v>
@@ -12905,16 +12902,16 @@
         <v>7127402</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45389.16666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12923,7 +12920,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -12991,16 +12988,16 @@
         <v>7127404</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45394.16666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13009,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>3.1</v>
@@ -13077,16 +13074,16 @@
         <v>7127405</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45394.28125</v>
       </c>
       <c r="E147" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" t="s">
         <v>31</v>
-      </c>
-      <c r="F147" t="s">
-        <v>32</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13095,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13163,16 +13160,16 @@
         <v>7127408</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45395.10416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13181,7 +13178,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13249,16 +13246,16 @@
         <v>7127407</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45395.1875</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13267,7 +13264,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13335,16 +13332,16 @@
         <v>7127406</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" t="s">
         <v>33</v>
-      </c>
-      <c r="F150" t="s">
-        <v>34</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13353,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>1.833</v>
@@ -13421,16 +13418,16 @@
         <v>7127409</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45396.08333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13439,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>1.571</v>
@@ -13507,16 +13504,16 @@
         <v>7702377</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45398.25</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13525,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13593,16 +13590,16 @@
         <v>7127410</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45401.28125</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13611,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>2.8</v>
@@ -13679,16 +13676,16 @@
         <v>8096897</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J154">
         <v>3.25</v>
@@ -13765,16 +13762,16 @@
         <v>7127411</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13783,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.65</v>
@@ -13851,16 +13848,16 @@
         <v>7127415</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" t="s">
         <v>32</v>
-      </c>
-      <c r="F156" t="s">
-        <v>33</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13869,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J156">
         <v>3.8</v>
@@ -13937,16 +13934,16 @@
         <v>7127414</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13955,7 +13952,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14023,16 +14020,16 @@
         <v>7127416</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45408.28125</v>
       </c>
       <c r="E158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14041,7 +14038,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J158">
         <v>2.3</v>
@@ -14109,16 +14106,16 @@
         <v>7127419</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14127,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>1.85</v>
@@ -14195,16 +14192,16 @@
         <v>7127418</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14213,7 +14210,7 @@
         <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J160">
         <v>3.6</v>
@@ -14281,52 +14278,52 @@
         <v>27</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
-        <v>45410.08333333334</v>
+        <v>45413.25</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J161">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="K161">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L161">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M161">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="N161">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="O161">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q161">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S161">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
         <v>0</v>
@@ -14335,71 +14332,6 @@
         <v>0</v>
       </c>
       <c r="X161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" t="s">
-        <v>29</v>
-      </c>
-      <c r="D162" s="2">
-        <v>45410.16666666666</v>
-      </c>
-      <c r="E162" t="s">
-        <v>30</v>
-      </c>
-      <c r="F162" t="s">
-        <v>41</v>
-      </c>
-      <c r="J162">
-        <v>1.65</v>
-      </c>
-      <c r="K162">
-        <v>4</v>
-      </c>
-      <c r="L162">
-        <v>4.333</v>
-      </c>
-      <c r="M162">
-        <v>1.363</v>
-      </c>
-      <c r="N162">
-        <v>5.75</v>
-      </c>
-      <c r="O162">
-        <v>7</v>
-      </c>
-      <c r="P162">
-        <v>-1.5</v>
-      </c>
-      <c r="Q162">
-        <v>2.02</v>
-      </c>
-      <c r="R162">
-        <v>1.88</v>
-      </c>
-      <c r="S162">
-        <v>3.5</v>
-      </c>
-      <c r="T162">
-        <v>1.85</v>
-      </c>
-      <c r="U162">
-        <v>2</v>
-      </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="X162">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Adelaide United</t>
   </si>
   <si>
-    <t>Macarthur FC</t>
+    <t>Sydney FC</t>
   </si>
   <si>
-    <t>Sydney FC</t>
+    <t>Macarthur FC</t>
   </si>
   <si>
     <t>Western Sydney Wanderers</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB161"/>
+  <dimension ref="A1:AB164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -773,85 +773,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7126254</v>
+        <v>7127285</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>45220.0625</v>
+        <v>45220.23958333334</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>3.6</v>
       </c>
       <c r="L4">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
+        <v>1.909</v>
+      </c>
+      <c r="N4">
+        <v>3.75</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>-0.5</v>
+      </c>
+      <c r="Q4">
+        <v>1.9</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>2.5</v>
+      </c>
+      <c r="T4">
+        <v>1.95</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>3.6</v>
-      </c>
-      <c r="O4">
-        <v>2.3</v>
-      </c>
-      <c r="P4">
-        <v>0.25</v>
-      </c>
-      <c r="Q4">
-        <v>1.875</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>2.75</v>
-      </c>
-      <c r="T4">
-        <v>1.875</v>
-      </c>
-      <c r="U4">
-        <v>1.975</v>
-      </c>
-      <c r="V4">
-        <v>-1</v>
-      </c>
-      <c r="W4">
-        <v>2.6</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -945,85 +945,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7127285</v>
+        <v>7126254</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="2">
-        <v>45220.23958333334</v>
+        <v>45220.0625</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K6">
         <v>3.6</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P6">
+        <v>0.25</v>
+      </c>
+      <c r="Q6">
+        <v>1.875</v>
+      </c>
+      <c r="R6">
+        <v>1.975</v>
+      </c>
+      <c r="S6">
+        <v>2.75</v>
+      </c>
+      <c r="T6">
+        <v>1.875</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>2.6</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>0.4375</v>
+      </c>
+      <c r="Z6">
         <v>-0.5</v>
       </c>
-      <c r="Q6">
-        <v>1.9</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>2.5</v>
-      </c>
-      <c r="T6">
-        <v>1.95</v>
-      </c>
-      <c r="U6">
-        <v>1.9</v>
-      </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.95</v>
-      </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1215,7 +1215,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1473,7 +1473,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1547,58 +1547,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7127291</v>
+        <v>7126771</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>45228.125</v>
+        <v>45228.20833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>42</v>
       </c>
       <c r="J13">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="K13">
+        <v>3.6</v>
+      </c>
+      <c r="L13">
+        <v>2.1</v>
+      </c>
+      <c r="M13">
+        <v>2.5</v>
+      </c>
+      <c r="N13">
         <v>3.8</v>
       </c>
-      <c r="L13">
+      <c r="O13">
+        <v>2.55</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.95</v>
+      </c>
+      <c r="R13">
+        <v>1.9</v>
+      </c>
+      <c r="S13">
         <v>3.25</v>
-      </c>
-      <c r="M13">
-        <v>1.55</v>
-      </c>
-      <c r="N13">
-        <v>4.75</v>
-      </c>
-      <c r="O13">
-        <v>5.25</v>
-      </c>
-      <c r="P13">
-        <v>-1</v>
-      </c>
-      <c r="Q13">
-        <v>1.9</v>
-      </c>
-      <c r="R13">
-        <v>1.95</v>
-      </c>
-      <c r="S13">
-        <v>3</v>
       </c>
       <c r="T13">
         <v>1.925</v>
@@ -1607,7 +1607,7 @@
         <v>1.925</v>
       </c>
       <c r="V13">
-        <v>0.55</v>
+        <v>1.5</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1616,7 +1616,7 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1633,58 +1633,58 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7126771</v>
+        <v>7127291</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>45228.20833333334</v>
+        <v>45228.125</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>42</v>
       </c>
       <c r="J14">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L14">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N14">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O14">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q14">
+        <v>1.9</v>
+      </c>
+      <c r="R14">
         <v>1.95</v>
       </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
       <c r="S14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>1.925</v>
@@ -1693,7 +1693,7 @@
         <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.5</v>
+        <v>0.55</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1702,7 +1702,7 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1731,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1805,49 +1805,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7127292</v>
+        <v>7127295</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>45234.0625</v>
+        <v>45234.32291666666</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
         <v>42</v>
       </c>
       <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3.6</v>
+      </c>
+      <c r="L16">
         <v>2.1</v>
       </c>
-      <c r="K16">
-        <v>3.5</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
         <v>3.1</v>
-      </c>
-      <c r="M16">
-        <v>2.55</v>
       </c>
       <c r="N16">
         <v>3.6</v>
       </c>
       <c r="O16">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q16">
         <v>1.95</v>
@@ -1856,16 +1856,16 @@
         <v>1.9</v>
       </c>
       <c r="S16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T16">
+        <v>2.05</v>
+      </c>
+      <c r="U16">
         <v>1.8</v>
       </c>
-      <c r="U16">
-        <v>2.05</v>
-      </c>
       <c r="V16">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1880,10 +1880,10 @@
         <v>-1</v>
       </c>
       <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.8</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1891,85 +1891,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7127293</v>
+        <v>7127294</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2">
-        <v>45234.14583333334</v>
+        <v>45234.23958333334</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K17">
         <v>3.5</v>
       </c>
       <c r="L17">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="N17">
+        <v>3.8</v>
+      </c>
+      <c r="O17">
         <v>3.5</v>
       </c>
-      <c r="O17">
-        <v>2.9</v>
-      </c>
       <c r="P17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q17">
-        <v>1.79</v>
+        <v>2.025</v>
       </c>
       <c r="R17">
-        <v>2.11</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T17">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1977,85 +1977,85 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7127294</v>
+        <v>7127292</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="2">
-        <v>45234.23958333334</v>
+        <v>45234.0625</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K18">
         <v>3.5</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="N18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="P18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W18">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2063,22 +2063,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7127295</v>
+        <v>7127293</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="2">
-        <v>45234.32291666666</v>
+        <v>45234.14583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2087,43 +2087,43 @@
         <v>42</v>
       </c>
       <c r="J19">
+        <v>2.4</v>
+      </c>
+      <c r="K19">
+        <v>3.5</v>
+      </c>
+      <c r="L19">
+        <v>2.625</v>
+      </c>
+      <c r="M19">
+        <v>2.45</v>
+      </c>
+      <c r="N19">
+        <v>3.5</v>
+      </c>
+      <c r="O19">
+        <v>2.9</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.79</v>
+      </c>
+      <c r="R19">
+        <v>2.11</v>
+      </c>
+      <c r="S19">
         <v>3</v>
       </c>
-      <c r="K19">
-        <v>3.6</v>
-      </c>
-      <c r="L19">
-        <v>2.1</v>
-      </c>
-      <c r="M19">
-        <v>3.1</v>
-      </c>
-      <c r="N19">
-        <v>3.6</v>
-      </c>
-      <c r="O19">
-        <v>2.15</v>
-      </c>
-      <c r="P19">
-        <v>0.25</v>
-      </c>
-      <c r="Q19">
-        <v>1.95</v>
-      </c>
-      <c r="R19">
-        <v>1.9</v>
-      </c>
-      <c r="S19">
-        <v>3.25</v>
-      </c>
       <c r="T19">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2132,7 +2132,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2321,64 +2321,64 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7127298</v>
+        <v>7127299</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="2">
-        <v>45241.0625</v>
+        <v>45241.23958333334</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
         <v>41</v>
       </c>
       <c r="J22">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q22">
+        <v>1.875</v>
+      </c>
+      <c r="R22">
         <v>1.975</v>
-      </c>
-      <c r="R22">
-        <v>1.875</v>
       </c>
       <c r="S22">
         <v>3.25</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
         <v>-1</v>
@@ -2387,19 +2387,19 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2493,64 +2493,64 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7127299</v>
+        <v>7127298</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="2">
-        <v>45241.23958333334</v>
+        <v>45241.0625</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>1</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
       </c>
       <c r="I24" t="s">
         <v>41</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K24">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O24">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
+        <v>1.975</v>
+      </c>
+      <c r="R24">
         <v>1.875</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
       </c>
       <c r="S24">
         <v>3.25</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -2559,19 +2559,19 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2579,85 +2579,85 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7126773</v>
+        <v>7127308</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>45242.04166666666</v>
+        <v>45242.125</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K25">
+        <v>3.75</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
         <v>4</v>
       </c>
-      <c r="L25">
-        <v>4.2</v>
-      </c>
-      <c r="M25">
-        <v>1.571</v>
-      </c>
-      <c r="N25">
-        <v>4.2</v>
-      </c>
       <c r="O25">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q25">
+        <v>2.05</v>
+      </c>
+      <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>3.25</v>
+      </c>
+      <c r="T25">
         <v>1.975</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>1.875</v>
       </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
-        <v>1.925</v>
-      </c>
-      <c r="U25">
-        <v>1.925</v>
-      </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2665,85 +2665,85 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7127308</v>
+        <v>7126773</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="2">
-        <v>45242.125</v>
+        <v>45242.04166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J26">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K26">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q26">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2760,7 +2760,7 @@
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -2837,85 +2837,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7126774</v>
+        <v>7127311</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="2">
-        <v>45255.02083333334</v>
+        <v>45255.23958333334</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K28">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M28">
+        <v>2.25</v>
+      </c>
+      <c r="N28">
         <v>3.6</v>
       </c>
-      <c r="N28">
-        <v>4</v>
-      </c>
       <c r="O28">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="P28">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2923,85 +2923,85 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7127311</v>
+        <v>7126774</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>45255.23958333334</v>
+        <v>45255.02083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J29">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L29">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M29">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O29">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q29">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z29">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3267,85 +3267,85 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7127315</v>
+        <v>7127316</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="2">
-        <v>45262.14583333334</v>
+        <v>45262.23958333334</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33">
+        <v>1.615</v>
+      </c>
+      <c r="K33">
+        <v>3.75</v>
+      </c>
+      <c r="L33">
+        <v>4.5</v>
+      </c>
+      <c r="M33">
+        <v>1.615</v>
+      </c>
+      <c r="N33">
+        <v>4.333</v>
+      </c>
+      <c r="O33">
+        <v>4.75</v>
+      </c>
+      <c r="P33">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>2.025</v>
+      </c>
+      <c r="R33">
+        <v>1.825</v>
+      </c>
+      <c r="S33">
+        <v>3.25</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
+        <v>0.615</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
         <v>0</v>
       </c>
-      <c r="H33">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <v>1</v>
       </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33">
-        <v>2.55</v>
-      </c>
-      <c r="K33">
-        <v>3.4</v>
-      </c>
-      <c r="L33">
-        <v>2.375</v>
-      </c>
-      <c r="M33">
-        <v>2.1</v>
-      </c>
-      <c r="N33">
-        <v>3.75</v>
-      </c>
-      <c r="O33">
-        <v>3.2</v>
-      </c>
-      <c r="P33">
-        <v>-0.25</v>
-      </c>
-      <c r="Q33">
-        <v>1.875</v>
-      </c>
-      <c r="R33">
-        <v>1.975</v>
-      </c>
-      <c r="S33">
-        <v>2.75</v>
-      </c>
-      <c r="T33">
-        <v>1.875</v>
-      </c>
-      <c r="U33">
-        <v>1.975</v>
-      </c>
-      <c r="V33">
-        <v>-1</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>2.2</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
-      <c r="Z33">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3353,85 +3353,85 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7127316</v>
+        <v>7127315</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="2">
-        <v>45262.23958333334</v>
+        <v>45262.14583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="K34">
+        <v>3.4</v>
+      </c>
+      <c r="L34">
+        <v>2.375</v>
+      </c>
+      <c r="M34">
+        <v>2.1</v>
+      </c>
+      <c r="N34">
         <v>3.75</v>
       </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
-      <c r="M34">
-        <v>1.615</v>
-      </c>
-      <c r="N34">
-        <v>4.333</v>
-      </c>
       <c r="O34">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3620,7 +3620,7 @@
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -3869,64 +3869,64 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7127320</v>
+        <v>7127321</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="2">
-        <v>45269.14583333334</v>
+        <v>45269.23958333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="s">
         <v>41</v>
       </c>
       <c r="J40">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="K40">
+        <v>4.2</v>
+      </c>
+      <c r="L40">
         <v>3.6</v>
       </c>
-      <c r="L40">
-        <v>3.2</v>
-      </c>
       <c r="M40">
+        <v>1.571</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>4.5</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>1.9</v>
+      </c>
+      <c r="R40">
+        <v>1.95</v>
+      </c>
+      <c r="S40">
+        <v>3.5</v>
+      </c>
+      <c r="T40">
         <v>1.8</v>
       </c>
-      <c r="N40">
-        <v>4</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>-0.75</v>
-      </c>
-      <c r="Q40">
-        <v>2.06</v>
-      </c>
-      <c r="R40">
-        <v>1.84</v>
-      </c>
-      <c r="S40">
-        <v>2.75</v>
-      </c>
-      <c r="T40">
-        <v>1.9</v>
-      </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V40">
         <v>-1</v>
@@ -3935,19 +3935,19 @@
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3955,65 +3955,65 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7127321</v>
+        <v>7127320</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="2">
-        <v>45269.23958333334</v>
+        <v>45269.14583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="s">
         <v>41</v>
       </c>
       <c r="J41">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="K41">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q41">
+        <v>2.06</v>
+      </c>
+      <c r="R41">
+        <v>1.84</v>
+      </c>
+      <c r="S41">
+        <v>2.75</v>
+      </c>
+      <c r="T41">
         <v>1.9</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>1.95</v>
       </c>
-      <c r="S41">
-        <v>3.5</v>
-      </c>
-      <c r="T41">
-        <v>1.8</v>
-      </c>
-      <c r="U41">
-        <v>2</v>
-      </c>
       <c r="V41">
         <v>-1</v>
       </c>
@@ -4021,19 +4021,19 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4213,67 +4213,67 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7557607</v>
+        <v>7127324</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="2">
-        <v>45275.16666666666</v>
+        <v>45275.23958333334</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>42</v>
       </c>
       <c r="J44">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="K44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N44">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4282,16 +4282,16 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4299,67 +4299,67 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7127324</v>
+        <v>7557607</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="2">
-        <v>45275.23958333334</v>
+        <v>45275.16666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
         <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>42</v>
       </c>
       <c r="J45">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="M45">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P45">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4368,16 +4368,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4483,7 +4483,7 @@
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4652,7 +4652,7 @@
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
@@ -4901,58 +4901,58 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7127331</v>
+        <v>7127333</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="2">
-        <v>45283.0625</v>
+        <v>45283.35416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
         <v>42</v>
       </c>
       <c r="J52">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K52">
         <v>3.4</v>
       </c>
       <c r="L52">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O52">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P52">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="R52">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T52">
         <v>2.025</v>
@@ -4961,7 +4961,7 @@
         <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -4970,16 +4970,16 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.97</v>
+        <v>0.875</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4987,85 +4987,85 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7127332</v>
+        <v>7126778</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="2">
-        <v>45283.14583333334</v>
+        <v>45283.23958333334</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="K53">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="M53">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="N53">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1.875</v>
+        <v>1.84</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>2.06</v>
       </c>
       <c r="S53">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5073,85 +5073,85 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7126778</v>
+        <v>7127332</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="2">
-        <v>45283.23958333334</v>
+        <v>45283.14583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J54">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="K54">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="L54">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="M54">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O54">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q54">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="R54">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W54">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5159,58 +5159,58 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7127333</v>
+        <v>7127331</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="2">
-        <v>45283.35416666666</v>
+        <v>45283.0625</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>42</v>
       </c>
       <c r="J55">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K55">
         <v>3.4</v>
       </c>
       <c r="L55">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N55">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O55">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.875</v>
+        <v>1.97</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>1.93</v>
       </c>
       <c r="S55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T55">
         <v>2.025</v>
@@ -5219,7 +5219,7 @@
         <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5228,16 +5228,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.875</v>
+        <v>0.97</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5340,7 +5340,7 @@
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
         <v>36</v>
@@ -5417,19 +5417,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7127335</v>
+        <v>7127336</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="2">
-        <v>45290.14583333334</v>
+        <v>45290.23958333334</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5441,43 +5441,43 @@
         <v>42</v>
       </c>
       <c r="J58">
+        <v>1.909</v>
+      </c>
+      <c r="K58">
+        <v>3.25</v>
+      </c>
+      <c r="L58">
+        <v>3.5</v>
+      </c>
+      <c r="M58">
+        <v>1.65</v>
+      </c>
+      <c r="N58">
+        <v>4.5</v>
+      </c>
+      <c r="O58">
+        <v>4.5</v>
+      </c>
+      <c r="P58">
+        <v>-0.75</v>
+      </c>
+      <c r="Q58">
         <v>1.8</v>
       </c>
-      <c r="K58">
-        <v>3.4</v>
-      </c>
-      <c r="L58">
-        <v>3.75</v>
-      </c>
-      <c r="M58">
-        <v>2.25</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
-      </c>
-      <c r="O58">
-        <v>2.8</v>
-      </c>
-      <c r="P58">
-        <v>-0.25</v>
-      </c>
-      <c r="Q58">
-        <v>2.03</v>
-      </c>
       <c r="R58">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T58">
+        <v>1.975</v>
+      </c>
+      <c r="U58">
         <v>1.875</v>
       </c>
-      <c r="U58">
-        <v>1.975</v>
-      </c>
       <c r="V58">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5486,7 +5486,7 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="Z58">
         <v>-1</v>
@@ -5495,7 +5495,7 @@
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5503,19 +5503,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7127336</v>
+        <v>7127335</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="2">
-        <v>45290.23958333334</v>
+        <v>45290.14583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5527,43 +5527,43 @@
         <v>42</v>
       </c>
       <c r="J59">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K59">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="P59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S59">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T59">
+        <v>1.875</v>
+      </c>
+      <c r="U59">
         <v>1.975</v>
       </c>
-      <c r="U59">
-        <v>1.875</v>
-      </c>
       <c r="V59">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5572,7 +5572,7 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="Z59">
         <v>-1</v>
@@ -5581,7 +5581,7 @@
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5687,7 +5687,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5856,7 +5856,7 @@
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -6031,7 +6031,7 @@
         <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6289,7 +6289,7 @@
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6363,58 +6363,58 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7646746</v>
+        <v>7126783</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="2">
-        <v>45303.14583333334</v>
+        <v>45303.26041666666</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J69">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="K69">
         <v>4</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O69">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q69">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T69">
         <v>1.925</v>
@@ -6423,25 +6423,25 @@
         <v>1.925</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.925</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6449,58 +6449,58 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7126783</v>
+        <v>7646746</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="2">
-        <v>45303.26041666666</v>
+        <v>45303.14583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="K70">
         <v>4</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="N70">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O70">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T70">
         <v>1.925</v>
@@ -6509,25 +6509,25 @@
         <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6630,7 +6630,7 @@
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
         <v>30</v>
@@ -6891,7 +6891,7 @@
         <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6965,85 +6965,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7127351</v>
+        <v>7127352</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="2">
-        <v>45310.125</v>
+        <v>45310.23958333334</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76">
+        <v>1.7</v>
+      </c>
+      <c r="K76">
+        <v>3.9</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>1.5</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76">
+        <v>5.25</v>
+      </c>
+      <c r="P76">
+        <v>-1.25</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>1.85</v>
+      </c>
+      <c r="S76">
+        <v>3.75</v>
+      </c>
+      <c r="T76">
+        <v>1.925</v>
+      </c>
+      <c r="U76">
+        <v>1.925</v>
+      </c>
+      <c r="V76">
+        <v>0.5</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
-        <v>43</v>
-      </c>
-      <c r="J76">
-        <v>2.625</v>
-      </c>
-      <c r="K76">
-        <v>3.6</v>
-      </c>
-      <c r="L76">
-        <v>2.3</v>
-      </c>
-      <c r="M76">
-        <v>3.1</v>
-      </c>
-      <c r="N76">
-        <v>3.75</v>
-      </c>
-      <c r="O76">
-        <v>2.2</v>
-      </c>
-      <c r="P76">
-        <v>0.25</v>
-      </c>
-      <c r="Q76">
-        <v>1.9</v>
-      </c>
-      <c r="R76">
-        <v>1.95</v>
-      </c>
-      <c r="S76">
-        <v>2.75</v>
-      </c>
-      <c r="T76">
-        <v>1.9</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>-1</v>
-      </c>
-      <c r="W76">
-        <v>2.75</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>0.45</v>
-      </c>
       <c r="Z76">
+        <v>-1</v>
+      </c>
+      <c r="AA76">
+        <v>0.4625</v>
+      </c>
+      <c r="AB76">
         <v>-0.5</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7051,85 +7051,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7127352</v>
+        <v>7127351</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="2">
-        <v>45310.23958333334</v>
+        <v>45310.125</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J77">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="K77">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M77">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="P77">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7493,7 +7493,7 @@
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
         <v>34</v>
@@ -7911,85 +7911,85 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7127360</v>
+        <v>7126786</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
       </c>
       <c r="D87" s="2">
-        <v>45324.23958333334</v>
+        <v>45324.32291666666</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J87">
+        <v>3.8</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>1.727</v>
+      </c>
+      <c r="M87">
+        <v>2.8</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
         <v>2.25</v>
       </c>
-      <c r="K87">
-        <v>3.5</v>
-      </c>
-      <c r="L87">
-        <v>2.75</v>
-      </c>
-      <c r="M87">
+      <c r="P87">
+        <v>0.25</v>
+      </c>
+      <c r="Q87">
+        <v>1.89</v>
+      </c>
+      <c r="R87">
+        <v>2.01</v>
+      </c>
+      <c r="S87">
+        <v>3.25</v>
+      </c>
+      <c r="T87">
+        <v>1.9</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="N87">
-        <v>3.8</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.975</v>
-      </c>
-      <c r="R87">
-        <v>1.875</v>
-      </c>
-      <c r="S87">
-        <v>3</v>
-      </c>
-      <c r="T87">
-        <v>1.875</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
       <c r="V87">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -7997,85 +7997,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7126786</v>
+        <v>7127360</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="2">
-        <v>45324.32291666666</v>
+        <v>45324.23958333334</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J88">
+        <v>2.25</v>
+      </c>
+      <c r="K88">
+        <v>3.5</v>
+      </c>
+      <c r="L88">
+        <v>2.75</v>
+      </c>
+      <c r="M88">
+        <v>1.95</v>
+      </c>
+      <c r="N88">
         <v>3.8</v>
       </c>
-      <c r="K88">
-        <v>4</v>
-      </c>
-      <c r="L88">
-        <v>1.727</v>
-      </c>
-      <c r="M88">
+      <c r="O88">
+        <v>3.4</v>
+      </c>
+      <c r="P88">
+        <v>-0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.975</v>
+      </c>
+      <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>1.875</v>
+      </c>
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
+        <v>-1</v>
+      </c>
+      <c r="W88">
         <v>2.8</v>
       </c>
-      <c r="N88">
-        <v>4</v>
-      </c>
-      <c r="O88">
-        <v>2.25</v>
-      </c>
-      <c r="P88">
-        <v>0.25</v>
-      </c>
-      <c r="Q88">
-        <v>1.89</v>
-      </c>
-      <c r="R88">
-        <v>2.01</v>
-      </c>
-      <c r="S88">
-        <v>3.25</v>
-      </c>
-      <c r="T88">
-        <v>1.9</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.8</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8083,85 +8083,85 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7127361</v>
+        <v>7127362</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="2">
-        <v>45325.125</v>
+        <v>45325.16666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
         <v>43</v>
       </c>
       <c r="J89">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K89">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N89">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O89">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="P89">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S89">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>3.333</v>
+        <v>2.75</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8169,85 +8169,85 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7127362</v>
+        <v>7127361</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2">
-        <v>45325.16666666666</v>
+        <v>45325.125</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
         <v>43</v>
       </c>
       <c r="J90">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K90">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L90">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="M90">
+        <v>3.6</v>
+      </c>
+      <c r="N90">
         <v>4.333</v>
       </c>
-      <c r="N90">
-        <v>3.75</v>
-      </c>
       <c r="O90">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="P90">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>2.75</v>
+        <v>3.333</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8350,7 +8350,7 @@
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
         <v>33</v>
@@ -8599,58 +8599,58 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7127366</v>
+        <v>7127368</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
       </c>
       <c r="D95" s="2">
-        <v>45332.0625</v>
+        <v>45332.23958333334</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J95">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="K95">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q95">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="R95">
-        <v>2.01</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T95">
         <v>1.9</v>
@@ -8659,25 +8659,25 @@
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8697,7 +8697,7 @@
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8857,58 +8857,58 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7127368</v>
+        <v>7127366</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
       </c>
       <c r="D98" s="2">
-        <v>45332.23958333334</v>
+        <v>45332.0625</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J98">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="K98">
+        <v>4.5</v>
+      </c>
+      <c r="L98">
+        <v>5.25</v>
+      </c>
+      <c r="M98">
+        <v>2.1</v>
+      </c>
+      <c r="N98">
         <v>3.75</v>
       </c>
-      <c r="L98">
-        <v>3.5</v>
-      </c>
-      <c r="M98">
-        <v>1.95</v>
-      </c>
-      <c r="N98">
-        <v>4.2</v>
-      </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q98">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>2.01</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T98">
         <v>1.9</v>
@@ -8917,25 +8917,25 @@
         <v>1.95</v>
       </c>
       <c r="V98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -9124,7 +9124,7 @@
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
         <v>30</v>
@@ -9382,7 +9382,7 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
         <v>36</v>
@@ -9631,70 +9631,70 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7127375</v>
+        <v>7875268</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="2">
-        <v>45345.23958333334</v>
+        <v>45345.38194444445</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="s">
         <v>43</v>
       </c>
       <c r="J107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N107">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
         <v>3.25</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -9703,13 +9703,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9717,70 +9717,70 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7875268</v>
+        <v>7127375</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="2">
-        <v>45345.38194444445</v>
+        <v>45345.23958333334</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="s">
         <v>43</v>
       </c>
       <c r="J108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K108">
+        <v>3.75</v>
+      </c>
+      <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
+        <v>1.727</v>
+      </c>
+      <c r="N108">
+        <v>4.333</v>
+      </c>
+      <c r="O108">
         <v>4</v>
       </c>
-      <c r="L108">
-        <v>3.4</v>
-      </c>
-      <c r="M108">
-        <v>1.75</v>
-      </c>
-      <c r="N108">
-        <v>4</v>
-      </c>
-      <c r="O108">
-        <v>3.4</v>
-      </c>
       <c r="P108">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
         <v>3.25</v>
       </c>
       <c r="T108">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -9789,13 +9789,13 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9803,85 +9803,85 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7126789</v>
+        <v>7127377</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
       </c>
       <c r="D109" s="2">
-        <v>45346.14583333334</v>
+        <v>45346.23958333334</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J109">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="K109">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="M109">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="P109">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S109">
         <v>3.25</v>
       </c>
       <c r="T109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9889,85 +9889,85 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7127377</v>
+        <v>7127378</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
       </c>
       <c r="D110" s="2">
-        <v>45346.23958333334</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J110">
+        <v>2.375</v>
+      </c>
+      <c r="K110">
+        <v>3.5</v>
+      </c>
+      <c r="L110">
+        <v>2.875</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>3.4</v>
+      </c>
+      <c r="O110">
+        <v>3.75</v>
+      </c>
+      <c r="P110">
+        <v>-0.5</v>
+      </c>
+      <c r="Q110">
+        <v>1.975</v>
+      </c>
+      <c r="R110">
+        <v>1.875</v>
+      </c>
+      <c r="S110">
+        <v>2.75</v>
+      </c>
+      <c r="T110">
+        <v>1.925</v>
+      </c>
+      <c r="U110">
+        <v>1.925</v>
+      </c>
+      <c r="V110">
+        <v>-1</v>
+      </c>
+      <c r="W110">
         <v>2.4</v>
       </c>
-      <c r="K110">
-        <v>4</v>
-      </c>
-      <c r="L110">
-        <v>2.6</v>
-      </c>
-      <c r="M110">
-        <v>2.45</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>2.55</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>1.9</v>
-      </c>
-      <c r="R110">
-        <v>1.95</v>
-      </c>
-      <c r="S110">
-        <v>3.25</v>
-      </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.85</v>
-      </c>
-      <c r="V110">
-        <v>-1</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
       <c r="X110">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9975,43 +9975,43 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7127378</v>
+        <v>7126789</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
       </c>
       <c r="D111" s="2">
-        <v>45346.32291666666</v>
+        <v>45346.14583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="s">
         <v>43</v>
       </c>
       <c r="J111">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L111">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N111">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O111">
         <v>3.75</v>
@@ -10020,25 +10020,25 @@
         <v>-0.5</v>
       </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U111">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10047,13 +10047,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10061,7 +10061,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10070,76 +10070,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10147,7 +10147,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10156,76 +10156,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>4.2</v>
+      </c>
+      <c r="O113">
         <v>3.6</v>
-      </c>
-      <c r="O113">
-        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
+        <v>1.89</v>
+      </c>
+      <c r="R113">
+        <v>2.01</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
         <v>1.9</v>
       </c>
-      <c r="R113">
-        <v>1.95</v>
-      </c>
-      <c r="S113">
-        <v>2.75</v>
-      </c>
-      <c r="T113">
-        <v>1.925</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>1.01</v>
+      </c>
+      <c r="AA113">
         <v>0.95</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10242,7 +10242,7 @@
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
         <v>29</v>
@@ -10319,85 +10319,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7127380</v>
+        <v>7127382</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
       </c>
       <c r="D115" s="2">
-        <v>45353.125</v>
+        <v>45353.23958333334</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J115">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="K115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L115">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M115">
+        <v>2.875</v>
+      </c>
+      <c r="N115">
+        <v>3.8</v>
+      </c>
+      <c r="O115">
         <v>2.25</v>
       </c>
-      <c r="N115">
-        <v>3.6</v>
-      </c>
-      <c r="O115">
-        <v>3</v>
-      </c>
       <c r="P115">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S115">
         <v>3</v>
       </c>
       <c r="T115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U115">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
+        <v>-1</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
         <v>1.25</v>
       </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
       <c r="Y115">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10491,85 +10491,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7127382</v>
+        <v>7127380</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
       </c>
       <c r="D117" s="2">
-        <v>45353.23958333334</v>
+        <v>45353.125</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J117">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L117">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M117">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O117">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
         <v>3</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V117">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -11102,7 +11102,7 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
         <v>37</v>
@@ -11188,7 +11188,7 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
         <v>35</v>
@@ -11523,85 +11523,85 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7127390</v>
+        <v>7940070</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
       </c>
       <c r="D129" s="2">
-        <v>45367.0625</v>
+        <v>45367.23958333334</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J129">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M129">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N129">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11609,85 +11609,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7940069</v>
+        <v>7127390</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
       </c>
       <c r="D130" s="2">
-        <v>45367.08333333334</v>
+        <v>45367.0625</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
         <v>31</v>
       </c>
       <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
         <v>1</v>
       </c>
-      <c r="H130">
-        <v>2</v>
-      </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J130">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K130">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="M130">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="P130">
+        <v>0.25</v>
+      </c>
+      <c r="Q130">
+        <v>1.95</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>2.75</v>
+      </c>
+      <c r="T130">
+        <v>1.925</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>2.1</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>0.95</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.4625</v>
+      </c>
+      <c r="AB130">
         <v>-0.5</v>
-      </c>
-      <c r="Q130">
-        <v>1.825</v>
-      </c>
-      <c r="R130">
-        <v>2.025</v>
-      </c>
-      <c r="S130">
-        <v>3.5</v>
-      </c>
-      <c r="T130">
-        <v>1.975</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>-1</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>2.75</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>1.025</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11695,19 +11695,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7940070</v>
+        <v>7940069</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
       </c>
       <c r="D131" s="2">
-        <v>45367.23958333334</v>
+        <v>45367.08333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11719,61 +11719,61 @@
         <v>41</v>
       </c>
       <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>3.8</v>
+      </c>
+      <c r="L131">
+        <v>3.25</v>
+      </c>
+      <c r="M131">
+        <v>1.833</v>
+      </c>
+      <c r="N131">
+        <v>4.333</v>
+      </c>
+      <c r="O131">
+        <v>3.75</v>
+      </c>
+      <c r="P131">
+        <v>-0.5</v>
+      </c>
+      <c r="Q131">
+        <v>1.825</v>
+      </c>
+      <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
+        <v>3.5</v>
+      </c>
+      <c r="T131">
+        <v>1.975</v>
+      </c>
+      <c r="U131">
+        <v>1.875</v>
+      </c>
+      <c r="V131">
+        <v>-1</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
         <v>2.75</v>
       </c>
-      <c r="K131">
-        <v>3.5</v>
-      </c>
-      <c r="L131">
-        <v>2.375</v>
-      </c>
-      <c r="M131">
-        <v>2.55</v>
-      </c>
-      <c r="N131">
-        <v>4</v>
-      </c>
-      <c r="O131">
-        <v>2.45</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>2</v>
-      </c>
-      <c r="R131">
-        <v>1.85</v>
-      </c>
-      <c r="S131">
-        <v>3.25</v>
-      </c>
-      <c r="T131">
-        <v>1.85</v>
-      </c>
-      <c r="U131">
-        <v>2</v>
-      </c>
-      <c r="V131">
-        <v>-1</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>1.45</v>
-      </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11867,85 +11867,85 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7126793</v>
+        <v>7127394</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
       </c>
       <c r="D133" s="2">
-        <v>45381.14583333334</v>
+        <v>45381.875</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J133">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="K133">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="L133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N133">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O133">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q133">
+        <v>1.925</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>2.75</v>
+      </c>
+      <c r="T133">
         <v>1.825</v>
       </c>
-      <c r="R133">
+      <c r="U133">
         <v>2.025</v>
       </c>
-      <c r="S133">
-        <v>3.5</v>
-      </c>
-      <c r="T133">
-        <v>1.975</v>
-      </c>
-      <c r="U133">
-        <v>1.875</v>
-      </c>
       <c r="V133">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W133">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
         <v>1.025</v>
-      </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
-      <c r="AB133">
-        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11962,7 +11962,7 @@
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -12039,85 +12039,85 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7127394</v>
+        <v>7126793</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="2">
-        <v>45381.875</v>
+        <v>45381.14583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J135">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="K135">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M135">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="N135">
+        <v>5.25</v>
+      </c>
+      <c r="O135">
+        <v>6.5</v>
+      </c>
+      <c r="P135">
+        <v>-1.25</v>
+      </c>
+      <c r="Q135">
+        <v>1.825</v>
+      </c>
+      <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>3.5</v>
       </c>
-      <c r="O135">
-        <v>3.2</v>
-      </c>
-      <c r="P135">
-        <v>-0.25</v>
-      </c>
-      <c r="Q135">
-        <v>1.925</v>
-      </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>2.75</v>
-      </c>
       <c r="T135">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12220,7 +12220,7 @@
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
         <v>33</v>
@@ -12395,7 +12395,7 @@
         <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12555,85 +12555,85 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>8034339</v>
+        <v>7126794</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="2">
-        <v>45388.0625</v>
+        <v>45388.23958333334</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="s">
         <v>42</v>
       </c>
       <c r="J141">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="K141">
         <v>3.5</v>
       </c>
       <c r="L141">
+        <v>4.5</v>
+      </c>
+      <c r="M141">
         <v>2.55</v>
       </c>
-      <c r="M141">
-        <v>1.95</v>
-      </c>
       <c r="N141">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>1.85</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>2.75</v>
+      </c>
+      <c r="T141">
+        <v>1.925</v>
+      </c>
+      <c r="U141">
+        <v>1.925</v>
+      </c>
+      <c r="V141">
+        <v>1.55</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.4625</v>
+      </c>
+      <c r="AB141">
         <v>-0.5</v>
-      </c>
-      <c r="Q141">
-        <v>1.975</v>
-      </c>
-      <c r="R141">
-        <v>1.875</v>
-      </c>
-      <c r="S141">
-        <v>3.5</v>
-      </c>
-      <c r="T141">
-        <v>1.975</v>
-      </c>
-      <c r="U141">
-        <v>1.875</v>
-      </c>
-      <c r="V141">
-        <v>0.95</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z141">
-        <v>-1</v>
-      </c>
-      <c r="AA141">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12727,67 +12727,67 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7126794</v>
+        <v>8034339</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
       </c>
       <c r="D143" s="2">
-        <v>45388.23958333334</v>
+        <v>45388.0625</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="s">
         <v>42</v>
       </c>
       <c r="J143">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="K143">
         <v>3.5</v>
       </c>
       <c r="L143">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="M143">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O143">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -12796,16 +12796,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12813,49 +12813,49 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7127403</v>
+        <v>7127402</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
       </c>
       <c r="D144" s="2">
-        <v>45389.08333333334</v>
+        <v>45389.16666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144" t="s">
+        <v>41</v>
+      </c>
+      <c r="J144">
+        <v>2.25</v>
+      </c>
+      <c r="K144">
+        <v>3.5</v>
+      </c>
+      <c r="L144">
         <v>3</v>
       </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144" t="s">
-        <v>42</v>
-      </c>
-      <c r="J144">
-        <v>3.6</v>
-      </c>
-      <c r="K144">
-        <v>3.6</v>
-      </c>
-      <c r="L144">
-        <v>1.952</v>
-      </c>
       <c r="M144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O144">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P144">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q144">
         <v>1.875</v>
@@ -12864,31 +12864,31 @@
         <v>1.975</v>
       </c>
       <c r="S144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -12899,49 +12899,49 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7127402</v>
+        <v>7127403</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
       </c>
       <c r="D145" s="2">
-        <v>45389.16666666666</v>
+        <v>45389.08333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J145">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="K145">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>1.952</v>
       </c>
       <c r="M145">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O145">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="P145">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q145">
         <v>1.875</v>
@@ -12950,31 +12950,31 @@
         <v>1.975</v>
       </c>
       <c r="S145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB145">
         <v>-1</v>
@@ -12985,58 +12985,58 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7127404</v>
+        <v>7127405</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="2">
-        <v>45394.16666666666</v>
+        <v>45394.28125</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J146">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="K146">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O146">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P146">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q146">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R146">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T146">
         <v>1.925</v>
@@ -13045,19 +13045,19 @@
         <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y146">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13071,58 +13071,58 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7127405</v>
+        <v>7127404</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
       </c>
       <c r="D147" s="2">
-        <v>45394.28125</v>
+        <v>45394.16666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J147">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="K147">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M147">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N147">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="P147">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q147">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S147">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T147">
         <v>1.925</v>
@@ -13131,19 +13131,19 @@
         <v>1.925</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
         <v>-1</v>
@@ -13157,85 +13157,85 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7127408</v>
+        <v>7127406</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="2">
-        <v>45395.10416666666</v>
+        <v>45395.28125</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J148">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="K148">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L148">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N148">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O148">
+        <v>4.5</v>
+      </c>
+      <c r="P148">
+        <v>-0.75</v>
+      </c>
+      <c r="Q148">
+        <v>1.825</v>
+      </c>
+      <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>3.25</v>
+      </c>
+      <c r="T148">
         <v>1.95</v>
       </c>
-      <c r="P148">
-        <v>0.5</v>
-      </c>
-      <c r="Q148">
-        <v>1.875</v>
-      </c>
-      <c r="R148">
-        <v>1.975</v>
-      </c>
-      <c r="S148">
-        <v>2.75</v>
-      </c>
-      <c r="T148">
-        <v>1.8</v>
-      </c>
       <c r="U148">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13329,85 +13329,85 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7127406</v>
+        <v>7127408</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="2">
-        <v>45395.28125</v>
+        <v>45395.10416666666</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J150">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="K150">
+        <v>3.8</v>
+      </c>
+      <c r="L150">
+        <v>1.909</v>
+      </c>
+      <c r="M150">
+        <v>3.5</v>
+      </c>
+      <c r="N150">
         <v>4</v>
       </c>
-      <c r="L150">
-        <v>3.75</v>
-      </c>
-      <c r="M150">
-        <v>1.666</v>
-      </c>
-      <c r="N150">
-        <v>4.333</v>
-      </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="P150">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q150">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R150">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T150">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V150">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y150">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13759,85 +13759,85 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7127411</v>
+        <v>7127415</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="2">
-        <v>45402.1875</v>
+        <v>45402.28125</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J155">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="K155">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L155">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="M155">
+        <v>4.333</v>
+      </c>
+      <c r="N155">
+        <v>4.5</v>
+      </c>
+      <c r="O155">
         <v>1.666</v>
       </c>
-      <c r="N155">
-        <v>4.2</v>
-      </c>
-      <c r="O155">
-        <v>4.5</v>
-      </c>
       <c r="P155">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q155">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S155">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T155">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U155">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="W155">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="Z155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13845,85 +13845,85 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7127415</v>
+        <v>7127411</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
       </c>
       <c r="D156" s="2">
-        <v>45402.28125</v>
+        <v>45402.1875</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J156">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="K156">
+        <v>4</v>
+      </c>
+      <c r="L156">
+        <v>4.75</v>
+      </c>
+      <c r="M156">
+        <v>1.666</v>
+      </c>
+      <c r="N156">
         <v>4.2</v>
       </c>
-      <c r="L156">
-        <v>1.8</v>
-      </c>
-      <c r="M156">
-        <v>4.333</v>
-      </c>
-      <c r="N156">
+      <c r="O156">
         <v>4.5</v>
       </c>
-      <c r="O156">
-        <v>1.666</v>
-      </c>
       <c r="P156">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q156">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="R156">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T156">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -14103,85 +14103,85 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127419</v>
+        <v>7127417</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
       </c>
       <c r="D159" s="2">
-        <v>45409.17708333334</v>
+        <v>45409.28125</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>3</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J159">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="K159">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L159">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="N159">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O159">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q159">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="R159">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y159">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14189,7 +14189,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7127418</v>
+        <v>7127419</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14198,140 +14198,398 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J160">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="K160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M160">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="N160">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O160">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q160">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161">
+        <v>7127418</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45409.17708333334</v>
+      </c>
+      <c r="E161" t="s">
+        <v>39</v>
+      </c>
+      <c r="F161" t="s">
+        <v>37</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161" t="s">
+        <v>41</v>
+      </c>
+      <c r="J161">
+        <v>3.6</v>
+      </c>
+      <c r="K161">
+        <v>3.25</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>4.2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1.75</v>
+      </c>
+      <c r="P161">
+        <v>0.75</v>
+      </c>
+      <c r="Q161">
+        <v>1.85</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>3</v>
+      </c>
+      <c r="T161">
+        <v>1.975</v>
+      </c>
+      <c r="U161">
+        <v>1.875</v>
+      </c>
+      <c r="V161">
+        <v>-1</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>0.75</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>8109525</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="E162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162">
+        <v>7</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>42</v>
+      </c>
+      <c r="J162">
+        <v>1.5</v>
+      </c>
+      <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>7</v>
+      </c>
+      <c r="M162">
+        <v>1.333</v>
+      </c>
+      <c r="N162">
+        <v>6</v>
+      </c>
+      <c r="O162">
+        <v>7.5</v>
+      </c>
+      <c r="P162">
+        <v>-1.5</v>
+      </c>
+      <c r="Q162">
+        <v>1.85</v>
+      </c>
+      <c r="R162">
+        <v>2.05</v>
+      </c>
+      <c r="S162">
+        <v>3.75</v>
+      </c>
+      <c r="T162">
+        <v>1.85</v>
+      </c>
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
+        <v>0.333</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7127421</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45410.16666666666</v>
+      </c>
+      <c r="E163" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>42</v>
+      </c>
+      <c r="J163">
+        <v>1.65</v>
+      </c>
+      <c r="K163">
+        <v>4</v>
+      </c>
+      <c r="L163">
+        <v>4.333</v>
+      </c>
+      <c r="M163">
+        <v>1.363</v>
+      </c>
+      <c r="N163">
+        <v>5.75</v>
+      </c>
+      <c r="O163">
+        <v>7</v>
+      </c>
+      <c r="P163">
+        <v>-1.25</v>
+      </c>
+      <c r="Q163">
+        <v>1.825</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>3.75</v>
+      </c>
+      <c r="T163">
+        <v>1.95</v>
+      </c>
+      <c r="U163">
+        <v>1.9</v>
+      </c>
+      <c r="V163">
+        <v>0.363</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>-1</v>
+      </c>
+      <c r="Y163">
+        <v>-0.5</v>
+      </c>
+      <c r="Z163">
+        <v>0.5125</v>
+      </c>
+      <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
         <v>27</v>
       </c>
-      <c r="C161" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="2">
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="2">
         <v>45413.25</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E164" t="s">
         <v>37</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F164" t="s">
         <v>30</v>
       </c>
-      <c r="J161">
+      <c r="J164">
         <v>1.666</v>
       </c>
-      <c r="K161">
+      <c r="K164">
         <v>3.75</v>
       </c>
-      <c r="L161">
+      <c r="L164">
         <v>5</v>
       </c>
-      <c r="M161">
+      <c r="M164">
         <v>1.75</v>
       </c>
-      <c r="N161">
+      <c r="N164">
         <v>3.75</v>
       </c>
-      <c r="O161">
+      <c r="O164">
         <v>4.333</v>
       </c>
-      <c r="P161">
+      <c r="P164">
         <v>-0.75</v>
       </c>
-      <c r="Q161">
-        <v>1.99</v>
-      </c>
-      <c r="R161">
-        <v>1.91</v>
-      </c>
-      <c r="S161">
+      <c r="Q164">
+        <v>1.95</v>
+      </c>
+      <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
         <v>3.5</v>
       </c>
-      <c r="T161">
+      <c r="T164">
+        <v>1.9</v>
+      </c>
+      <c r="U164">
         <v>1.95</v>
       </c>
-      <c r="U161">
-        <v>1.9</v>
-      </c>
-      <c r="V161">
+      <c r="V164">
         <v>0</v>
       </c>
-      <c r="W161">
+      <c r="W164">
         <v>0</v>
       </c>
-      <c r="X161">
+      <c r="X164">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -115,16 +115,16 @@
     <t>Adelaide United</t>
   </si>
   <si>
+    <t>Sydney FC</t>
+  </si>
+  <si>
     <t>Macarthur FC</t>
   </si>
   <si>
-    <t>Sydney FC</t>
+    <t>Western Sydney Wanderers</t>
   </si>
   <si>
     <t>Perth Glory</t>
-  </si>
-  <si>
-    <t>Western Sydney Wanderers</t>
   </si>
   <si>
     <t>Brisbane Roar</t>
@@ -133,10 +133,10 @@
     <t>Wellington Phoenix</t>
   </si>
   <si>
-    <t>Central Coast Mariners</t>
+    <t>Melbourne Victory</t>
   </si>
   <si>
-    <t>Melbourne Victory</t>
+    <t>Central Coast Mariners</t>
   </si>
   <si>
     <t>Newcastle Jets</t>
@@ -619,7 +619,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -779,85 +779,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7126254</v>
+        <v>7127285</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2">
-        <v>45220.0625</v>
+        <v>45220.23958333334</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>3.6</v>
       </c>
       <c r="L4">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
+        <v>1.909</v>
+      </c>
+      <c r="N4">
+        <v>3.75</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>-0.5</v>
+      </c>
+      <c r="Q4">
+        <v>1.9</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>2.5</v>
+      </c>
+      <c r="T4">
+        <v>1.95</v>
+      </c>
+      <c r="U4">
+        <v>1.9</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>3.6</v>
-      </c>
-      <c r="O4">
-        <v>2.3</v>
-      </c>
-      <c r="P4">
-        <v>0.25</v>
-      </c>
-      <c r="Q4">
-        <v>1.875</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>2.75</v>
-      </c>
-      <c r="T4">
-        <v>1.875</v>
-      </c>
-      <c r="U4">
-        <v>1.975</v>
-      </c>
-      <c r="V4">
-        <v>-1</v>
-      </c>
-      <c r="W4">
-        <v>2.6</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -951,85 +951,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7127285</v>
+        <v>7126254</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>45220.23958333334</v>
+        <v>45220.0625</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K6">
         <v>3.6</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P6">
+        <v>0.25</v>
+      </c>
+      <c r="Q6">
+        <v>1.875</v>
+      </c>
+      <c r="R6">
+        <v>1.975</v>
+      </c>
+      <c r="S6">
+        <v>2.75</v>
+      </c>
+      <c r="T6">
+        <v>1.875</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>2.6</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>0.4375</v>
+      </c>
+      <c r="Z6">
         <v>-0.5</v>
       </c>
-      <c r="Q6">
-        <v>1.9</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>2.5</v>
-      </c>
-      <c r="T6">
-        <v>1.95</v>
-      </c>
-      <c r="U6">
-        <v>1.9</v>
-      </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.95</v>
-      </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1037,85 +1037,85 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7127287</v>
+        <v>7127286</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="2">
-        <v>45221.23958333334</v>
+        <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>45</v>
       </c>
       <c r="J7">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L7">
+        <v>4.25</v>
+      </c>
+      <c r="M7">
+        <v>1.65</v>
+      </c>
+      <c r="N7">
+        <v>4.333</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>2.025</v>
+      </c>
+      <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
         <v>3</v>
       </c>
-      <c r="M7">
-        <v>2.3</v>
-      </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>-0.25</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>1.9</v>
-      </c>
-      <c r="S7">
-        <v>2.75</v>
-      </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>3.333</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1123,85 +1123,85 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7127286</v>
+        <v>7127287</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2">
-        <v>45221.04166666666</v>
+        <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
         <v>45</v>
       </c>
       <c r="J8">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q8">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
         <v>-1</v>
       </c>
       <c r="W8">
-        <v>3.333</v>
+        <v>2.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1221,7 +1221,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1295,67 +1295,67 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7127289</v>
+        <v>7127290</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="2">
-        <v>45227.0625</v>
+        <v>45227.23958333334</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>44</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
         <v>3.8</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>2.05</v>
-      </c>
-      <c r="N10">
-        <v>3.75</v>
-      </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
         <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
         <v>2.75</v>
       </c>
       <c r="T10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1364,16 +1364,16 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1381,67 +1381,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7127290</v>
+        <v>7127289</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2">
-        <v>45227.23958333334</v>
+        <v>45227.0625</v>
       </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
       <c r="G11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
       </c>
       <c r="J11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
         <v>-0.5</v>
       </c>
       <c r="Q11">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
         <v>2.75</v>
       </c>
       <c r="T11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1450,16 +1450,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1467,85 +1467,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7128011</v>
+        <v>7126771</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>45228.04166666666</v>
+        <v>45228.20833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="K12">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="M12">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
         <v>3.25</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1562,7 +1562,7 @@
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
@@ -1639,85 +1639,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7126771</v>
+        <v>7128011</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>45228.20833333334</v>
+        <v>45228.04166666666</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="K14">
+        <v>4.2</v>
+      </c>
+      <c r="L14">
         <v>3.6</v>
       </c>
-      <c r="L14">
-        <v>2.1</v>
-      </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="N14">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O14">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
         <v>3.25</v>
       </c>
       <c r="T14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1737,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1906,7 +1906,7 @@
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>42</v>
@@ -1992,7 +1992,7 @@
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -2078,10 +2078,10 @@
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2167,7 +2167,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
@@ -2339,7 +2339,7 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2413,85 +2413,85 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7127298</v>
+        <v>7127300</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2">
-        <v>45241.0625</v>
+        <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="N23">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q23">
+        <v>1.875</v>
+      </c>
+      <c r="R23">
         <v>1.975</v>
       </c>
-      <c r="R23">
-        <v>1.875</v>
-      </c>
       <c r="S23">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2499,85 +2499,85 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7127300</v>
+        <v>7127298</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="2">
-        <v>45241.14583333334</v>
+        <v>45241.0625</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O24">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
+        <v>1.975</v>
+      </c>
+      <c r="R24">
         <v>1.875</v>
       </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
       <c r="S24">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
         <v>0.875</v>
       </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2585,85 +2585,85 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7126773</v>
+        <v>7127308</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="2">
-        <v>45242.04166666666</v>
+        <v>45242.125</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J25">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K25">
+        <v>3.75</v>
+      </c>
+      <c r="L25">
+        <v>3.6</v>
+      </c>
+      <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
         <v>4</v>
       </c>
-      <c r="L25">
-        <v>4.2</v>
-      </c>
-      <c r="M25">
-        <v>1.571</v>
-      </c>
-      <c r="N25">
-        <v>4.2</v>
-      </c>
       <c r="O25">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q25">
+        <v>2.05</v>
+      </c>
+      <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>3.25</v>
+      </c>
+      <c r="T25">
         <v>1.975</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>1.875</v>
       </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
-        <v>1.925</v>
-      </c>
-      <c r="U25">
-        <v>1.925</v>
-      </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2671,85 +2671,85 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7127308</v>
+        <v>7126773</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="2">
-        <v>45242.125</v>
+        <v>45242.04166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J26">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K26">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q26">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2766,10 +2766,10 @@
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2852,10 +2852,10 @@
         <v>45255.23958333334</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3199,7 +3199,7 @@
         <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3282,10 +3282,10 @@
         <v>45262.23958333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -3445,85 +3445,85 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7127317</v>
+        <v>7126775</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="2">
-        <v>45263.04166666666</v>
+        <v>45263.125</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="M35">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O35">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S35">
         <v>3</v>
       </c>
       <c r="T35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3531,85 +3531,85 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7126775</v>
+        <v>7127317</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="2">
-        <v>45263.125</v>
+        <v>45263.04166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3.4</v>
+      </c>
+      <c r="L36">
+        <v>3.2</v>
+      </c>
+      <c r="M36">
+        <v>2.375</v>
+      </c>
+      <c r="N36">
+        <v>3.75</v>
+      </c>
+      <c r="O36">
+        <v>2.7</v>
+      </c>
+      <c r="P36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36">
-        <v>3.6</v>
-      </c>
-      <c r="K36">
-        <v>3.75</v>
-      </c>
-      <c r="L36">
+      <c r="Q36">
         <v>1.8</v>
       </c>
-      <c r="M36">
-        <v>3.6</v>
-      </c>
-      <c r="N36">
-        <v>3.8</v>
-      </c>
-      <c r="O36">
-        <v>1.95</v>
-      </c>
-      <c r="P36">
-        <v>0.5</v>
-      </c>
-      <c r="Q36">
-        <v>1.91</v>
-      </c>
       <c r="R36">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S36">
         <v>3</v>
       </c>
       <c r="T36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3626,7 +3626,7 @@
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>32</v>
@@ -3703,85 +3703,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7127319</v>
+        <v>7126776</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="2">
-        <v>45268.23958333334</v>
+        <v>45268.32291666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38">
+        <v>3.5</v>
+      </c>
+      <c r="K38">
         <v>4</v>
       </c>
-      <c r="H38">
+      <c r="L38">
+        <v>1.727</v>
+      </c>
+      <c r="M38">
+        <v>4.5</v>
+      </c>
+      <c r="N38">
+        <v>4.5</v>
+      </c>
+      <c r="O38">
+        <v>1.666</v>
+      </c>
+      <c r="P38">
+        <v>0.75</v>
+      </c>
+      <c r="Q38">
+        <v>2.03</v>
+      </c>
+      <c r="R38">
+        <v>1.87</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>1.9</v>
+      </c>
+      <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
+        <v>-1</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>-0.5</v>
+      </c>
+      <c r="Z38">
+        <v>0.4350000000000001</v>
+      </c>
+      <c r="AA38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>3.75</v>
-      </c>
-      <c r="L38">
-        <v>2.9</v>
-      </c>
-      <c r="M38">
-        <v>1.75</v>
-      </c>
-      <c r="N38">
-        <v>4.333</v>
-      </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>-0.75</v>
-      </c>
-      <c r="Q38">
-        <v>1.95</v>
-      </c>
-      <c r="R38">
-        <v>1.9</v>
-      </c>
-      <c r="S38">
-        <v>3.25</v>
-      </c>
-      <c r="T38">
-        <v>1.975</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>0.75</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>0.95</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3789,85 +3789,85 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7126776</v>
+        <v>7127319</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="2">
-        <v>45268.32291666666</v>
+        <v>45268.23958333334</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K39">
+        <v>3.75</v>
+      </c>
+      <c r="L39">
+        <v>2.9</v>
+      </c>
+      <c r="M39">
+        <v>1.75</v>
+      </c>
+      <c r="N39">
+        <v>4.333</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="L39">
-        <v>1.727</v>
-      </c>
-      <c r="M39">
-        <v>4.5</v>
-      </c>
-      <c r="N39">
-        <v>4.5</v>
-      </c>
-      <c r="O39">
-        <v>1.666</v>
-      </c>
       <c r="P39">
+        <v>-0.75</v>
+      </c>
+      <c r="Q39">
+        <v>1.95</v>
+      </c>
+      <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>3.25</v>
+      </c>
+      <c r="T39">
+        <v>1.975</v>
+      </c>
+      <c r="U39">
+        <v>1.875</v>
+      </c>
+      <c r="V39">
         <v>0.75</v>
       </c>
-      <c r="Q39">
-        <v>2.03</v>
-      </c>
-      <c r="R39">
-        <v>1.87</v>
-      </c>
-      <c r="S39">
-        <v>3</v>
-      </c>
-      <c r="T39">
-        <v>1.9</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>-1</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3875,65 +3875,65 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7127321</v>
+        <v>7127320</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="2">
-        <v>45269.23958333334</v>
+        <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
         <v>43</v>
       </c>
       <c r="J40">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="K40">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q40">
+        <v>2.06</v>
+      </c>
+      <c r="R40">
+        <v>1.84</v>
+      </c>
+      <c r="S40">
+        <v>2.75</v>
+      </c>
+      <c r="T40">
         <v>1.9</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>1.95</v>
       </c>
-      <c r="S40">
-        <v>3.5</v>
-      </c>
-      <c r="T40">
-        <v>1.8</v>
-      </c>
-      <c r="U40">
-        <v>2</v>
-      </c>
       <c r="V40">
         <v>-1</v>
       </c>
@@ -3941,19 +3941,19 @@
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3961,64 +3961,64 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7127320</v>
+        <v>7127321</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="2">
-        <v>45269.14583333334</v>
+        <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
         <v>43</v>
       </c>
       <c r="J41">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="K41">
+        <v>4.2</v>
+      </c>
+      <c r="L41">
         <v>3.6</v>
       </c>
-      <c r="L41">
-        <v>3.2</v>
-      </c>
       <c r="M41">
+        <v>1.571</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>4.5</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>1.9</v>
+      </c>
+      <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
+        <v>3.5</v>
+      </c>
+      <c r="T41">
         <v>1.8</v>
       </c>
-      <c r="N41">
-        <v>4</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>-0.75</v>
-      </c>
-      <c r="Q41">
-        <v>2.06</v>
-      </c>
-      <c r="R41">
-        <v>1.84</v>
-      </c>
-      <c r="S41">
-        <v>2.75</v>
-      </c>
-      <c r="T41">
-        <v>1.9</v>
-      </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V41">
         <v>-1</v>
@@ -4027,19 +4027,19 @@
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4056,10 +4056,10 @@
         <v>45270.125</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4219,67 +4219,67 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7127324</v>
+        <v>7557607</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="2">
-        <v>45275.23958333334</v>
+        <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
         <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>44</v>
       </c>
       <c r="J44">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="M44">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4288,16 +4288,16 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4305,67 +4305,67 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7557607</v>
+        <v>7127324</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="2">
-        <v>45275.16666666666</v>
+        <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>44</v>
       </c>
       <c r="J45">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="K45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
-        <v>2.35</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N45">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O45">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4374,16 +4374,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4400,10 +4400,10 @@
         <v>45276.23958333334</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4489,7 +4489,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4575,7 +4575,7 @@
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4658,7 +4658,7 @@
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
         <v>38</v>
@@ -4747,7 +4747,7 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5002,7 +5002,7 @@
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -5079,85 +5079,85 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7127333</v>
+        <v>7126778</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="2">
-        <v>45283.35416666666</v>
+        <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J54">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K54">
+        <v>3.5</v>
+      </c>
+      <c r="L54">
+        <v>2.3</v>
+      </c>
+      <c r="M54">
+        <v>2.55</v>
+      </c>
+      <c r="N54">
         <v>3.4</v>
       </c>
-      <c r="L54">
-        <v>2.4</v>
-      </c>
-      <c r="M54">
-        <v>2.5</v>
-      </c>
-      <c r="N54">
-        <v>3.75</v>
-      </c>
       <c r="O54">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>1.875</v>
+        <v>1.84</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>2.06</v>
       </c>
       <c r="S54">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T54">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5165,85 +5165,85 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7126778</v>
+        <v>7127333</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="2">
-        <v>45283.23958333334</v>
+        <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J55">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K55">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L55">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M55">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O55">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="R55">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5346,7 +5346,7 @@
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
@@ -5423,19 +5423,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7127336</v>
+        <v>7127335</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="2">
-        <v>45290.23958333334</v>
+        <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5447,43 +5447,43 @@
         <v>44</v>
       </c>
       <c r="J58">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K58">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="P58">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S58">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T58">
+        <v>1.875</v>
+      </c>
+      <c r="U58">
         <v>1.975</v>
       </c>
-      <c r="U58">
-        <v>1.875</v>
-      </c>
       <c r="V58">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5492,7 +5492,7 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="Z58">
         <v>-1</v>
@@ -5501,7 +5501,7 @@
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5509,19 +5509,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7127335</v>
+        <v>7127336</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2">
-        <v>45290.14583333334</v>
+        <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5533,43 +5533,43 @@
         <v>44</v>
       </c>
       <c r="J59">
+        <v>1.909</v>
+      </c>
+      <c r="K59">
+        <v>3.25</v>
+      </c>
+      <c r="L59">
+        <v>3.5</v>
+      </c>
+      <c r="M59">
+        <v>1.65</v>
+      </c>
+      <c r="N59">
+        <v>4.5</v>
+      </c>
+      <c r="O59">
+        <v>4.5</v>
+      </c>
+      <c r="P59">
+        <v>-0.75</v>
+      </c>
+      <c r="Q59">
         <v>1.8</v>
       </c>
-      <c r="K59">
-        <v>3.4</v>
-      </c>
-      <c r="L59">
-        <v>3.75</v>
-      </c>
-      <c r="M59">
-        <v>2.25</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
-      </c>
-      <c r="O59">
-        <v>2.8</v>
-      </c>
-      <c r="P59">
-        <v>-0.25</v>
-      </c>
-      <c r="Q59">
-        <v>2.03</v>
-      </c>
       <c r="R59">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T59">
+        <v>1.975</v>
+      </c>
+      <c r="U59">
         <v>1.875</v>
       </c>
-      <c r="U59">
-        <v>1.975</v>
-      </c>
       <c r="V59">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5578,7 +5578,7 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="Z59">
         <v>-1</v>
@@ -5587,7 +5587,7 @@
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5604,10 +5604,10 @@
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5690,10 +5690,10 @@
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5862,7 +5862,7 @@
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -5939,13 +5939,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7127343</v>
+        <v>7127341</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="2">
-        <v>45297.32291666666</v>
+        <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
         <v>35</v>
@@ -5954,49 +5954,49 @@
         <v>40</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>43</v>
       </c>
       <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>3.6</v>
+      </c>
+      <c r="L64">
+        <v>3.25</v>
+      </c>
+      <c r="M64">
+        <v>2.7</v>
+      </c>
+      <c r="N64">
         <v>3.8</v>
       </c>
-      <c r="K64">
-        <v>4.2</v>
-      </c>
-      <c r="L64">
-        <v>1.727</v>
-      </c>
-      <c r="M64">
-        <v>4</v>
-      </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
       <c r="O64">
+        <v>2.4</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>2.05</v>
+      </c>
+      <c r="R64">
         <v>1.8</v>
       </c>
-      <c r="P64">
-        <v>0.75</v>
-      </c>
-      <c r="Q64">
-        <v>1.84</v>
-      </c>
-      <c r="R64">
-        <v>2.06</v>
-      </c>
       <c r="S64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
         <v>-1</v>
@@ -6005,19 +6005,19 @@
         <v>-1</v>
       </c>
       <c r="X64">
+        <v>1.4</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
         <v>0.8</v>
       </c>
-      <c r="Y64">
-        <v>-0.5</v>
-      </c>
-      <c r="Z64">
-        <v>0.53</v>
-      </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6025,64 +6025,64 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7127341</v>
+        <v>7127342</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="2">
-        <v>45297.14583333334</v>
+        <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
         <v>43</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="M65">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N65">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O65">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q65">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
         <v>-1</v>
@@ -6091,19 +6091,19 @@
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6111,64 +6111,64 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7127342</v>
+        <v>7127343</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="2">
-        <v>45297.23958333334</v>
+        <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
         <v>43</v>
       </c>
       <c r="J66">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L66">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="M66">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="S66">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
         <v>-1</v>
@@ -6177,19 +6177,19 @@
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6295,7 +6295,7 @@
         <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6369,58 +6369,58 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7646746</v>
+        <v>7126783</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="2">
-        <v>45303.14583333334</v>
+        <v>45303.26041666666</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J69">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="K69">
         <v>4</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O69">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q69">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T69">
         <v>1.925</v>
@@ -6429,25 +6429,25 @@
         <v>1.925</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
         <v>0.925</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6455,58 +6455,58 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7126783</v>
+        <v>7646746</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="2">
-        <v>45303.26041666666</v>
+        <v>45303.14583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J70">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="K70">
         <v>4</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="N70">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O70">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T70">
         <v>1.925</v>
@@ -6515,25 +6515,25 @@
         <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6550,10 +6550,10 @@
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
         <v>39</v>
-      </c>
-      <c r="F71" t="s">
-        <v>40</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6636,7 +6636,7 @@
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
         <v>32</v>
@@ -6713,7 +6713,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -6722,73 +6722,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6799,7 +6799,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -6808,73 +6808,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74">
+        <v>1.909</v>
+      </c>
+      <c r="K74">
         <v>4</v>
       </c>
-      <c r="I74" t="s">
-        <v>43</v>
-      </c>
-      <c r="J74">
-        <v>2.45</v>
-      </c>
-      <c r="K74">
-        <v>3.75</v>
-      </c>
       <c r="L74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6897,7 +6897,7 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6971,85 +6971,85 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7127352</v>
+        <v>7127351</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="2">
-        <v>45310.23958333334</v>
+        <v>45310.125</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J76">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="K76">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M76">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="P76">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7057,85 +7057,85 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7127351</v>
+        <v>7127352</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="2">
-        <v>45310.125</v>
+        <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77">
+        <v>1.7</v>
+      </c>
+      <c r="K77">
+        <v>3.9</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>1.5</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
+        <v>5.25</v>
+      </c>
+      <c r="P77">
+        <v>-1.25</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>1.85</v>
+      </c>
+      <c r="S77">
+        <v>3.75</v>
+      </c>
+      <c r="T77">
+        <v>1.925</v>
+      </c>
+      <c r="U77">
+        <v>1.925</v>
+      </c>
+      <c r="V77">
+        <v>0.5</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
         <v>1</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
-        <v>45</v>
-      </c>
-      <c r="J77">
-        <v>2.625</v>
-      </c>
-      <c r="K77">
-        <v>3.6</v>
-      </c>
-      <c r="L77">
-        <v>2.3</v>
-      </c>
-      <c r="M77">
-        <v>3.1</v>
-      </c>
-      <c r="N77">
-        <v>3.75</v>
-      </c>
-      <c r="O77">
-        <v>2.2</v>
-      </c>
-      <c r="P77">
-        <v>0.25</v>
-      </c>
-      <c r="Q77">
-        <v>1.9</v>
-      </c>
-      <c r="R77">
-        <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>2.75</v>
-      </c>
-      <c r="T77">
-        <v>1.9</v>
-      </c>
-      <c r="U77">
-        <v>1.95</v>
-      </c>
-      <c r="V77">
-        <v>-1</v>
-      </c>
-      <c r="W77">
-        <v>2.75</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
-      <c r="Y77">
-        <v>0.45</v>
-      </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
+        <v>0.4625</v>
+      </c>
+      <c r="AB77">
         <v>-0.5</v>
-      </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
-      <c r="AB77">
-        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7152,10 +7152,10 @@
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
         <v>36</v>
-      </c>
-      <c r="F78" t="s">
-        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
         <v>31</v>
@@ -7496,10 +7496,10 @@
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7573,49 +7573,49 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7127358</v>
+        <v>7127356</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="2">
-        <v>45318.23958333334</v>
+        <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J83">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="K83">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L83">
-        <v>4.25</v>
+        <v>2.1</v>
       </c>
       <c r="M83">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O83">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P83">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q83">
         <v>1.925</v>
@@ -7624,34 +7624,34 @@
         <v>1.925</v>
       </c>
       <c r="S83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T83">
+        <v>1.825</v>
+      </c>
+      <c r="U83">
         <v>2.025</v>
       </c>
-      <c r="U83">
-        <v>1.825</v>
-      </c>
       <c r="V83">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.925</v>
       </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7745,49 +7745,49 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7127356</v>
+        <v>7127358</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="2">
-        <v>45318.125</v>
+        <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J85">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="K85">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L85">
-        <v>2.1</v>
+        <v>4.25</v>
       </c>
       <c r="M85">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="N85">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O85">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P85">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q85">
         <v>1.925</v>
@@ -7796,34 +7796,34 @@
         <v>1.925</v>
       </c>
       <c r="S85">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T85">
+        <v>2.025</v>
+      </c>
+      <c r="U85">
         <v>1.825</v>
       </c>
-      <c r="U85">
-        <v>2.025</v>
-      </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7840,10 +7840,10 @@
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7917,85 +7917,85 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7127360</v>
+        <v>7126786</v>
       </c>
       <c r="C87" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="2">
-        <v>45324.23958333334</v>
+        <v>45324.32291666666</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87">
+        <v>3.8</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>1.727</v>
+      </c>
+      <c r="M87">
+        <v>2.8</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
         <v>2.25</v>
       </c>
-      <c r="K87">
-        <v>3.5</v>
-      </c>
-      <c r="L87">
-        <v>2.75</v>
-      </c>
-      <c r="M87">
+      <c r="P87">
+        <v>0.25</v>
+      </c>
+      <c r="Q87">
+        <v>1.89</v>
+      </c>
+      <c r="R87">
+        <v>2.01</v>
+      </c>
+      <c r="S87">
+        <v>3.25</v>
+      </c>
+      <c r="T87">
+        <v>1.9</v>
+      </c>
+      <c r="U87">
         <v>1.95</v>
       </c>
-      <c r="N87">
-        <v>3.8</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.975</v>
-      </c>
-      <c r="R87">
-        <v>1.875</v>
-      </c>
-      <c r="S87">
-        <v>3</v>
-      </c>
-      <c r="T87">
-        <v>1.875</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
       <c r="V87">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8003,85 +8003,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7126786</v>
+        <v>7127360</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="2">
-        <v>45324.32291666666</v>
+        <v>45324.23958333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J88">
+        <v>2.25</v>
+      </c>
+      <c r="K88">
+        <v>3.5</v>
+      </c>
+      <c r="L88">
+        <v>2.75</v>
+      </c>
+      <c r="M88">
+        <v>1.95</v>
+      </c>
+      <c r="N88">
         <v>3.8</v>
       </c>
-      <c r="K88">
-        <v>4</v>
-      </c>
-      <c r="L88">
-        <v>1.727</v>
-      </c>
-      <c r="M88">
+      <c r="O88">
+        <v>3.4</v>
+      </c>
+      <c r="P88">
+        <v>-0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.975</v>
+      </c>
+      <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>1.875</v>
+      </c>
+      <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
+        <v>-1</v>
+      </c>
+      <c r="W88">
         <v>2.8</v>
       </c>
-      <c r="N88">
-        <v>4</v>
-      </c>
-      <c r="O88">
-        <v>2.25</v>
-      </c>
-      <c r="P88">
-        <v>0.25</v>
-      </c>
-      <c r="Q88">
-        <v>1.89</v>
-      </c>
-      <c r="R88">
-        <v>2.01</v>
-      </c>
-      <c r="S88">
-        <v>3.25</v>
-      </c>
-      <c r="T88">
-        <v>1.9</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
-      <c r="V88">
-        <v>1.8</v>
-      </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8089,82 +8089,82 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7127361</v>
+        <v>7127363</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
       </c>
       <c r="D89" s="2">
-        <v>45325.125</v>
+        <v>45325.23958333334</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J89">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="K89">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O89">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="P89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
         <v>3.25</v>
       </c>
       <c r="T89">
+        <v>1.9</v>
+      </c>
+      <c r="U89">
         <v>1.95</v>
       </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
       <c r="V89">
         <v>-1</v>
       </c>
       <c r="W89">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
         <v>-1</v>
@@ -8175,85 +8175,85 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7127362</v>
+        <v>7127361</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="2">
-        <v>45325.16666666666</v>
+        <v>45325.125</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
         <v>45</v>
       </c>
       <c r="J90">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K90">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L90">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="M90">
+        <v>3.6</v>
+      </c>
+      <c r="N90">
         <v>4.333</v>
       </c>
-      <c r="N90">
-        <v>3.75</v>
-      </c>
       <c r="O90">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="P90">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
         <v>-1</v>
       </c>
       <c r="W90">
-        <v>2.75</v>
+        <v>3.333</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8261,85 +8261,85 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7127363</v>
+        <v>7127362</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="2">
-        <v>45325.23958333334</v>
+        <v>45325.16666666666</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J91">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="K91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L91">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="M91">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N91">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O91">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q91">
+        <v>1.825</v>
+      </c>
+      <c r="R91">
         <v>2.025</v>
       </c>
-      <c r="R91">
-        <v>1.825</v>
-      </c>
       <c r="S91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
         <v>-1</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X91">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8356,10 +8356,10 @@
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8445,7 +8445,7 @@
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8614,10 +8614,10 @@
         <v>45332.23958333334</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8691,58 +8691,58 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7127366</v>
+        <v>7126787</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="2">
-        <v>45332.0625</v>
+        <v>45332.16666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="s">
         <v>44</v>
       </c>
       <c r="J96">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K96">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L96">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="M96">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
         <v>3.75</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P96">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="R96">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T96">
         <v>1.9</v>
@@ -8751,7 +8751,7 @@
         <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -8760,16 +8760,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8777,58 +8777,58 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7126787</v>
+        <v>7127366</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="2">
-        <v>45332.16666666666</v>
+        <v>45332.0625</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
         <v>44</v>
       </c>
       <c r="J97">
+        <v>1.5</v>
+      </c>
+      <c r="K97">
         <v>4.5</v>
       </c>
-      <c r="K97">
-        <v>4.333</v>
-      </c>
       <c r="L97">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="M97">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N97">
         <v>3.75</v>
       </c>
       <c r="O97">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q97">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S97">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T97">
         <v>1.9</v>
@@ -8837,7 +8837,7 @@
         <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -8846,16 +8846,16 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.05</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8872,10 +8872,10 @@
         <v>45332.14583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
@@ -9130,7 +9130,7 @@
         <v>45339.32291666666</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
         <v>37</v>
@@ -9219,7 +9219,7 @@
         <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>45339.16666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
         <v>32</v>
@@ -9388,10 +9388,10 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9474,7 +9474,7 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
         <v>38</v>
@@ -9560,7 +9560,7 @@
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -9646,10 +9646,10 @@
         <v>45345.38194444445</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9809,43 +9809,43 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7127378</v>
+        <v>7126789</v>
       </c>
       <c r="C109" t="s">
         <v>30</v>
       </c>
       <c r="D109" s="2">
-        <v>45346.32291666666</v>
+        <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="s">
         <v>45</v>
       </c>
       <c r="J109">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="K109">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N109">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O109">
         <v>3.75</v>
@@ -9854,25 +9854,25 @@
         <v>-0.5</v>
       </c>
       <c r="Q109">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T109">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V109">
         <v>-1</v>
       </c>
       <c r="W109">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -9881,13 +9881,13 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9907,7 +9907,7 @@
         <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9981,43 +9981,43 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7126789</v>
+        <v>7127378</v>
       </c>
       <c r="C111" t="s">
         <v>30</v>
       </c>
       <c r="D111" s="2">
-        <v>45346.14583333334</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>45</v>
       </c>
       <c r="J111">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="K111">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M111">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O111">
         <v>3.75</v>
@@ -10026,25 +10026,25 @@
         <v>-0.5</v>
       </c>
       <c r="Q111">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U111">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10053,13 +10053,13 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10067,7 +10067,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>30</v>
@@ -10076,76 +10076,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>4.2</v>
+      </c>
+      <c r="O112">
         <v>3.6</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
+        <v>1.89</v>
+      </c>
+      <c r="R112">
+        <v>2.01</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.95</v>
+      </c>
+      <c r="U112">
         <v>1.9</v>
       </c>
-      <c r="R112">
-        <v>1.95</v>
-      </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>1.01</v>
+      </c>
+      <c r="AA112">
         <v>0.95</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10153,7 +10153,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
@@ -10162,76 +10162,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10248,7 +10248,7 @@
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
         <v>31</v>
@@ -10325,85 +10325,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7127382</v>
+        <v>7127380</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
       </c>
       <c r="D115" s="2">
-        <v>45353.23958333334</v>
+        <v>45353.125</v>
       </c>
       <c r="E115" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s">
         <v>36</v>
-      </c>
-      <c r="F115" t="s">
-        <v>34</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J115">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L115">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M115">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="N115">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O115">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
         <v>3</v>
       </c>
       <c r="T115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10411,58 +10411,58 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7127381</v>
+        <v>7127382</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
       </c>
       <c r="D116" s="2">
-        <v>45353.16666666666</v>
+        <v>45353.23958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I116" t="s">
         <v>43</v>
       </c>
       <c r="J116">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K116">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="M116">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N116">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O116">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P116">
         <v>0.25</v>
       </c>
       <c r="Q116">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="R116">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T116">
         <v>1.825</v>
@@ -10477,19 +10477,19 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8400000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10497,85 +10497,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7127380</v>
+        <v>7127381</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
       </c>
       <c r="D117" s="2">
-        <v>45353.125</v>
+        <v>45353.16666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>1</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J117">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L117">
+        <v>1.95</v>
+      </c>
+      <c r="M117">
+        <v>3.25</v>
+      </c>
+      <c r="N117">
+        <v>3.75</v>
+      </c>
+      <c r="O117">
+        <v>2.05</v>
+      </c>
+      <c r="P117">
+        <v>0.25</v>
+      </c>
+      <c r="Q117">
+        <v>2.06</v>
+      </c>
+      <c r="R117">
+        <v>1.84</v>
+      </c>
+      <c r="S117">
         <v>2.75</v>
       </c>
-      <c r="M117">
-        <v>2.25</v>
-      </c>
-      <c r="N117">
-        <v>3.6</v>
-      </c>
-      <c r="O117">
-        <v>3</v>
-      </c>
-      <c r="P117">
-        <v>-0.25</v>
-      </c>
-      <c r="Q117">
+      <c r="T117">
+        <v>1.825</v>
+      </c>
+      <c r="U117">
         <v>2.025</v>
       </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>3</v>
-      </c>
-      <c r="T117">
-        <v>1.8</v>
-      </c>
-      <c r="U117">
-        <v>2.05</v>
-      </c>
       <c r="V117">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
         <v>1.025</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>1.05</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10681,7 +10681,7 @@
         <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10764,7 +10764,7 @@
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
@@ -10841,85 +10841,85 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7127387</v>
+        <v>7126791</v>
       </c>
       <c r="C121" t="s">
         <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>45360.32291666666</v>
+        <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
         <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N121">
+        <v>3.75</v>
+      </c>
+      <c r="O121">
         <v>3.5</v>
       </c>
-      <c r="O121">
-        <v>3.2</v>
-      </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q121">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="R121">
-        <v>1.92</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T121">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W121">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z121">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10927,85 +10927,85 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7126791</v>
+        <v>7127387</v>
       </c>
       <c r="C122" t="s">
         <v>30</v>
       </c>
       <c r="D122" s="2">
-        <v>45360.20833333334</v>
+        <v>45360.32291666666</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K122">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L122">
         <v>3.6</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N122">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
+        <v>-0.25</v>
+      </c>
+      <c r="Q122">
+        <v>1.98</v>
+      </c>
+      <c r="R122">
+        <v>1.92</v>
+      </c>
+      <c r="S122">
+        <v>3.25</v>
+      </c>
+      <c r="T122">
+        <v>1.9</v>
+      </c>
+      <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
+        <v>-1</v>
+      </c>
+      <c r="W122">
+        <v>2.5</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
         <v>-0.5</v>
       </c>
-      <c r="Q122">
-        <v>2.025</v>
-      </c>
-      <c r="R122">
-        <v>1.825</v>
-      </c>
-      <c r="S122">
-        <v>2.75</v>
-      </c>
-      <c r="T122">
-        <v>1.975</v>
-      </c>
-      <c r="U122">
-        <v>1.875</v>
-      </c>
-      <c r="V122">
-        <v>1</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>1.025</v>
-      </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11025,7 +11025,7 @@
         <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11099,7 +11099,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
@@ -11111,73 +11111,73 @@
         <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q124">
+        <v>2.025</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>2.05</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="R124">
-        <v>2.05</v>
-      </c>
-      <c r="S124">
-        <v>3.5</v>
-      </c>
-      <c r="T124">
-        <v>1.925</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11185,7 +11185,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>30</v>
@@ -11197,73 +11197,73 @@
         <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>1.533</v>
+      </c>
+      <c r="N125">
+        <v>5.25</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>-1</v>
+      </c>
+      <c r="Q125">
+        <v>1.8</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
         <v>3.5</v>
       </c>
-      <c r="L125">
-        <v>2.75</v>
-      </c>
-      <c r="M125">
-        <v>3.4</v>
-      </c>
-      <c r="N125">
-        <v>3.75</v>
-      </c>
-      <c r="O125">
-        <v>2.05</v>
-      </c>
-      <c r="P125">
-        <v>0.25</v>
-      </c>
-      <c r="Q125">
-        <v>2.025</v>
-      </c>
-      <c r="R125">
-        <v>1.825</v>
-      </c>
-      <c r="S125">
-        <v>3</v>
-      </c>
       <c r="T125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>1.05</v>
       </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.825</v>
-      </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11283,7 +11283,7 @@
         <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11369,7 +11369,7 @@
         <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11529,85 +11529,85 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7127390</v>
+        <v>7940069</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
       </c>
       <c r="D129" s="2">
-        <v>45367.0625</v>
+        <v>45367.08333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
         <v>34</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J129">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L129">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="N129">
+        <v>4.333</v>
+      </c>
+      <c r="O129">
+        <v>3.75</v>
+      </c>
+      <c r="P129">
+        <v>-0.5</v>
+      </c>
+      <c r="Q129">
+        <v>1.825</v>
+      </c>
+      <c r="R129">
+        <v>2.025</v>
+      </c>
+      <c r="S129">
         <v>3.5</v>
       </c>
-      <c r="O129">
-        <v>2.2</v>
-      </c>
-      <c r="P129">
-        <v>0.25</v>
-      </c>
-      <c r="Q129">
-        <v>1.95</v>
-      </c>
-      <c r="R129">
-        <v>1.95</v>
-      </c>
-      <c r="S129">
+      <c r="T129">
+        <v>1.975</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
+        <v>-1</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
         <v>2.75</v>
       </c>
-      <c r="T129">
-        <v>1.925</v>
-      </c>
-      <c r="U129">
-        <v>1.925</v>
-      </c>
-      <c r="V129">
-        <v>2.1</v>
-      </c>
-      <c r="W129">
-        <v>-1</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
       <c r="Y129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11615,85 +11615,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7940069</v>
+        <v>7127390</v>
       </c>
       <c r="C130" t="s">
         <v>30</v>
       </c>
       <c r="D130" s="2">
-        <v>45367.08333333334</v>
+        <v>45367.0625</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
         <v>33</v>
       </c>
       <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
         <v>1</v>
       </c>
-      <c r="H130">
-        <v>2</v>
-      </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J130">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K130">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="M130">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="N130">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="P130">
+        <v>0.25</v>
+      </c>
+      <c r="Q130">
+        <v>1.95</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>2.75</v>
+      </c>
+      <c r="T130">
+        <v>1.925</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>2.1</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>0.95</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.4625</v>
+      </c>
+      <c r="AB130">
         <v>-0.5</v>
-      </c>
-      <c r="Q130">
-        <v>1.825</v>
-      </c>
-      <c r="R130">
-        <v>2.025</v>
-      </c>
-      <c r="S130">
-        <v>3.5</v>
-      </c>
-      <c r="T130">
-        <v>1.975</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>-1</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>2.75</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>1.025</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11710,10 +11710,10 @@
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" t="s">
         <v>35</v>
-      </c>
-      <c r="F131" t="s">
-        <v>36</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11968,10 +11968,10 @@
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12140,10 +12140,10 @@
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12226,10 +12226,10 @@
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12312,7 +12312,7 @@
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
         <v>31</v>
@@ -12398,10 +12398,10 @@
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12484,7 +12484,7 @@
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
         <v>37</v>
@@ -12570,7 +12570,7 @@
         <v>45388.23958333334</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
         <v>31</v>
@@ -12656,7 +12656,7 @@
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
         <v>38</v>
@@ -12745,7 +12745,7 @@
         <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -12828,7 +12828,7 @@
         <v>45389.16666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
         <v>32</v>
@@ -12917,7 +12917,7 @@
         <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -12991,58 +12991,58 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7127404</v>
+        <v>7127405</v>
       </c>
       <c r="C146" t="s">
         <v>30</v>
       </c>
       <c r="D146" s="2">
-        <v>45394.16666666666</v>
+        <v>45394.28125</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J146">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="K146">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N146">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O146">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P146">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q146">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R146">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T146">
         <v>1.925</v>
@@ -13051,19 +13051,19 @@
         <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y146">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13077,58 +13077,58 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7127405</v>
+        <v>7127404</v>
       </c>
       <c r="C147" t="s">
         <v>30</v>
       </c>
       <c r="D147" s="2">
-        <v>45394.28125</v>
+        <v>45394.16666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J147">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="K147">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M147">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="N147">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O147">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="P147">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q147">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R147">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S147">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T147">
         <v>1.925</v>
@@ -13137,19 +13137,19 @@
         <v>1.925</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
         <v>-1</v>
@@ -13163,19 +13163,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7127408</v>
+        <v>7127407</v>
       </c>
       <c r="C148" t="s">
         <v>30</v>
       </c>
       <c r="D148" s="2">
-        <v>45395.10416666666</v>
+        <v>45395.1875</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13187,40 +13187,40 @@
         <v>43</v>
       </c>
       <c r="J148">
+        <v>2.1</v>
+      </c>
+      <c r="K148">
+        <v>3.6</v>
+      </c>
+      <c r="L148">
+        <v>3.25</v>
+      </c>
+      <c r="M148">
+        <v>1.75</v>
+      </c>
+      <c r="N148">
+        <v>4.333</v>
+      </c>
+      <c r="O148">
+        <v>4</v>
+      </c>
+      <c r="P148">
+        <v>-0.75</v>
+      </c>
+      <c r="Q148">
+        <v>1.925</v>
+      </c>
+      <c r="R148">
+        <v>1.925</v>
+      </c>
+      <c r="S148">
         <v>3.5</v>
       </c>
-      <c r="K148">
-        <v>3.8</v>
-      </c>
-      <c r="L148">
-        <v>1.909</v>
-      </c>
-      <c r="M148">
-        <v>3.5</v>
-      </c>
-      <c r="N148">
-        <v>4</v>
-      </c>
-      <c r="O148">
-        <v>1.95</v>
-      </c>
-      <c r="P148">
-        <v>0.5</v>
-      </c>
-      <c r="Q148">
-        <v>1.875</v>
-      </c>
-      <c r="R148">
-        <v>1.975</v>
-      </c>
-      <c r="S148">
-        <v>2.75</v>
-      </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U148">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
         <v>-1</v>
@@ -13229,19 +13229,19 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>0.95</v>
+        <v>3</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13249,19 +13249,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7127407</v>
+        <v>7127408</v>
       </c>
       <c r="C149" t="s">
         <v>30</v>
       </c>
       <c r="D149" s="2">
-        <v>45395.1875</v>
+        <v>45395.10416666666</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13273,40 +13273,40 @@
         <v>43</v>
       </c>
       <c r="J149">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K149">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="M149">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N149">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P149">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q149">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V149">
         <v>-1</v>
@@ -13315,19 +13315,19 @@
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13344,10 +13344,10 @@
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13433,7 +13433,7 @@
         <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13688,7 +13688,7 @@
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
         <v>31</v>
@@ -13774,7 +13774,7 @@
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
         <v>37</v>
@@ -13860,10 +13860,10 @@
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" t="s">
         <v>33</v>
-      </c>
-      <c r="F156" t="s">
-        <v>34</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13946,7 +13946,7 @@
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
         <v>42</v>
@@ -14109,64 +14109,64 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127418</v>
+        <v>7127417</v>
       </c>
       <c r="C159" t="s">
         <v>30</v>
       </c>
       <c r="D159" s="2">
-        <v>45409.17708333334</v>
+        <v>45409.28125</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I159" t="s">
         <v>43</v>
       </c>
       <c r="J159">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="K159">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N159">
         <v>4</v>
       </c>
       <c r="O159">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q159">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T159">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
         <v>-1</v>
@@ -14175,16 +14175,16 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>0.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
         <v>-1</v>
@@ -14207,7 +14207,7 @@
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14281,64 +14281,64 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7127417</v>
+        <v>7127418</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
       </c>
       <c r="D161" s="2">
-        <v>45409.28125</v>
+        <v>45409.17708333334</v>
       </c>
       <c r="E161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s">
         <v>40</v>
       </c>
-      <c r="F161" t="s">
-        <v>36</v>
-      </c>
       <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
         <v>3</v>
-      </c>
-      <c r="H161">
-        <v>4</v>
       </c>
       <c r="I161" t="s">
         <v>43</v>
       </c>
       <c r="J161">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="K161">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="M161">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N161">
         <v>4</v>
       </c>
       <c r="O161">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="P161">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T161">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
         <v>-1</v>
@@ -14347,16 +14347,16 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.8</v>
+        <v>0.75</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14367,67 +14367,67 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>8109525</v>
+        <v>7127421</v>
       </c>
       <c r="C162" t="s">
         <v>30</v>
       </c>
       <c r="D162" s="2">
-        <v>45410.08333333334</v>
+        <v>45410.16666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
         <v>44</v>
       </c>
       <c r="J162">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L162">
+        <v>4.333</v>
+      </c>
+      <c r="M162">
+        <v>1.363</v>
+      </c>
+      <c r="N162">
+        <v>5.75</v>
+      </c>
+      <c r="O162">
         <v>7</v>
       </c>
-      <c r="M162">
-        <v>1.333</v>
-      </c>
-      <c r="N162">
-        <v>6</v>
-      </c>
-      <c r="O162">
-        <v>7.5</v>
-      </c>
       <c r="P162">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q162">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
         <v>3.75</v>
       </c>
       <c r="T162">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>0.333</v>
+        <v>0.363</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14436,16 +14436,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14453,67 +14453,67 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7127421</v>
+        <v>8109525</v>
       </c>
       <c r="C163" t="s">
         <v>30</v>
       </c>
       <c r="D163" s="2">
-        <v>45410.16666666666</v>
+        <v>45410.08333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G163">
+        <v>7</v>
+      </c>
+      <c r="H163">
         <v>1</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
       </c>
       <c r="I163" t="s">
         <v>44</v>
       </c>
       <c r="J163">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="K163">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L163">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="M163">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="N163">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="O163">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="P163">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q163">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R163">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S163">
         <v>3.75</v>
       </c>
       <c r="T163">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -14522,16 +14522,16 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z163">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14548,7 +14548,7 @@
         <v>45413.25</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
         <v>32</v>
@@ -14563,31 +14563,31 @@
         <v>5</v>
       </c>
       <c r="M164">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="N164">
         <v>4.2</v>
       </c>
       <c r="O164">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P164">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q164">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S164">
         <v>3.5</v>
       </c>
       <c r="T164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
         <v>0</v>
@@ -14613,10 +14613,10 @@
         <v>45416.28125</v>
       </c>
       <c r="E165" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" t="s">
         <v>34</v>
-      </c>
-      <c r="F165" t="s">
-        <v>33</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14678,7 +14678,7 @@
         <v>45417.16666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
         <v>31</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14106,7 +14106,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127419</v>
+        <v>7127418</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -14115,76 +14115,76 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
         <v>3</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J159">
+        <v>3.6</v>
+      </c>
+      <c r="K159">
+        <v>3.25</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>4.2</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159">
+        <v>1.75</v>
+      </c>
+      <c r="P159">
+        <v>0.75</v>
+      </c>
+      <c r="Q159">
         <v>1.85</v>
       </c>
-      <c r="K159">
-        <v>3.5</v>
-      </c>
-      <c r="L159">
-        <v>3.9</v>
-      </c>
-      <c r="M159">
-        <v>1.55</v>
-      </c>
-      <c r="N159">
-        <v>4.5</v>
-      </c>
-      <c r="O159">
-        <v>5.25</v>
-      </c>
-      <c r="P159">
-        <v>-1</v>
-      </c>
-      <c r="Q159">
-        <v>1.89</v>
-      </c>
       <c r="R159">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y159">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14192,7 +14192,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7127418</v>
+        <v>7127419</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -14201,76 +14201,76 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J160">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="K160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M160">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="N160">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O160">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q160">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14563,7 +14563,7 @@
         <v>1.45</v>
       </c>
       <c r="N164">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O164">
         <v>6.5</v>
@@ -14572,19 +14572,19 @@
         <v>-1.25</v>
       </c>
       <c r="Q164">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S164">
         <v>3.5</v>
       </c>
       <c r="T164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
         <v>0</v>
@@ -14625,31 +14625,31 @@
         <v>3.5</v>
       </c>
       <c r="M165">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N165">
         <v>3.6</v>
       </c>
       <c r="O165">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P165">
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R165">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
         <v>2.75</v>
       </c>
       <c r="T165">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V165">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14560,7 +14560,7 @@
         <v>4</v>
       </c>
       <c r="M164">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="N164">
         <v>5</v>
@@ -14572,10 +14572,10 @@
         <v>-1.25</v>
       </c>
       <c r="Q164">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R164">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S164">
         <v>3.5</v>
@@ -14646,10 +14646,10 @@
         <v>2.75</v>
       </c>
       <c r="T165">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U165">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8155621</t>
+    <t>8182788</t>
   </si>
   <si>
-    <t>8158306</t>
+    <t>8182787</t>
   </si>
   <si>
     <t>Australia ALeague</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10064,7 +10064,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10073,76 +10073,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10150,7 +10150,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10159,76 +10159,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>4.2</v>
+      </c>
+      <c r="O113">
         <v>3.6</v>
-      </c>
-      <c r="O113">
-        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
+        <v>1.89</v>
+      </c>
+      <c r="R113">
+        <v>2.01</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
         <v>1.9</v>
       </c>
-      <c r="R113">
-        <v>1.95</v>
-      </c>
-      <c r="S113">
-        <v>2.75</v>
-      </c>
-      <c r="T113">
-        <v>1.925</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>1.01</v>
+      </c>
+      <c r="AA113">
         <v>0.95</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -14535,129 +14535,387 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>27</v>
+      <c r="B164">
+        <v>8135264</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
       </c>
       <c r="D164" s="2">
-        <v>45416.28125</v>
+        <v>45413.25</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>43</v>
       </c>
       <c r="J164">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="K164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M164">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="N164">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O164">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P164">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q164">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R164">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T164">
+        <v>1.975</v>
+      </c>
+      <c r="U164">
         <v>1.875</v>
       </c>
-      <c r="U164">
-        <v>1.975</v>
-      </c>
       <c r="V164">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:28">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165">
+        <v>8155621</v>
+      </c>
+      <c r="C165" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45416.28125</v>
+      </c>
+      <c r="E165" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165">
+        <v>4</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>43</v>
+      </c>
+      <c r="J165">
+        <v>1.909</v>
+      </c>
+      <c r="K165">
+        <v>3.5</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>1.5</v>
+      </c>
+      <c r="N165">
+        <v>4.5</v>
+      </c>
+      <c r="O165">
+        <v>5.5</v>
+      </c>
+      <c r="P165">
+        <v>-1.25</v>
+      </c>
+      <c r="Q165">
+        <v>2.06</v>
+      </c>
+      <c r="R165">
+        <v>1.84</v>
+      </c>
+      <c r="S165">
+        <v>3.5</v>
+      </c>
+      <c r="T165">
+        <v>1.975</v>
+      </c>
+      <c r="U165">
+        <v>1.875</v>
+      </c>
+      <c r="V165">
+        <v>0.5</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>1.06</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>8158306</v>
+      </c>
+      <c r="C166" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45417.16666666666</v>
+      </c>
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166">
+        <v>4</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166" t="s">
+        <v>43</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>3.6</v>
+      </c>
+      <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>2.6</v>
+      </c>
+      <c r="N166">
+        <v>3.5</v>
+      </c>
+      <c r="O166">
+        <v>2.55</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>1.925</v>
+      </c>
+      <c r="R166">
+        <v>1.925</v>
+      </c>
+      <c r="S166">
+        <v>2.75</v>
+      </c>
+      <c r="T166">
+        <v>1.95</v>
+      </c>
+      <c r="U166">
+        <v>1.9</v>
+      </c>
+      <c r="V166">
+        <v>1.6</v>
+      </c>
+      <c r="W166">
+        <v>-1</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>0.925</v>
+      </c>
+      <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.95</v>
+      </c>
+      <c r="AB166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45422.28125</v>
+      </c>
+      <c r="E167" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" t="s">
+        <v>38</v>
+      </c>
+      <c r="J167">
+        <v>2.2</v>
+      </c>
+      <c r="K167">
+        <v>3.5</v>
+      </c>
+      <c r="L167">
+        <v>3.1</v>
+      </c>
+      <c r="M167">
+        <v>2.05</v>
+      </c>
+      <c r="N167">
+        <v>3.75</v>
+      </c>
+      <c r="O167">
+        <v>3.3</v>
+      </c>
+      <c r="P167">
+        <v>-0.25</v>
+      </c>
+      <c r="Q167">
+        <v>1.84</v>
+      </c>
+      <c r="R167">
+        <v>2.06</v>
+      </c>
+      <c r="S167">
+        <v>2.75</v>
+      </c>
+      <c r="T167">
+        <v>1.825</v>
+      </c>
+      <c r="U167">
+        <v>2.025</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
         <v>28</v>
       </c>
-      <c r="C165" t="s">
-        <v>29</v>
-      </c>
-      <c r="D165" s="2">
-        <v>45417.16666666666</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45424.125</v>
+      </c>
+      <c r="E168" t="s">
         <v>39</v>
       </c>
-      <c r="F165" t="s">
-        <v>30</v>
-      </c>
-      <c r="J165">
-        <v>2</v>
-      </c>
-      <c r="K165">
+      <c r="F168" t="s">
+        <v>37</v>
+      </c>
+      <c r="J168">
+        <v>1.909</v>
+      </c>
+      <c r="K168">
         <v>3.6</v>
       </c>
-      <c r="L165">
-        <v>3.5</v>
-      </c>
-      <c r="M165">
-        <v>2.45</v>
-      </c>
-      <c r="N165">
-        <v>3.6</v>
-      </c>
-      <c r="O165">
-        <v>2.7</v>
-      </c>
-      <c r="P165">
+      <c r="L168">
+        <v>3.8</v>
+      </c>
+      <c r="M168">
+        <v>1.75</v>
+      </c>
+      <c r="N168">
+        <v>3.75</v>
+      </c>
+      <c r="O168">
+        <v>4.5</v>
+      </c>
+      <c r="P168">
+        <v>-0.75</v>
+      </c>
+      <c r="Q168">
+        <v>2.02</v>
+      </c>
+      <c r="R168">
+        <v>1.88</v>
+      </c>
+      <c r="S168">
+        <v>2.75</v>
+      </c>
+      <c r="T168">
+        <v>1.875</v>
+      </c>
+      <c r="U168">
+        <v>1.975</v>
+      </c>
+      <c r="V168">
         <v>0</v>
       </c>
-      <c r="Q165">
-        <v>1.85</v>
-      </c>
-      <c r="R165">
-        <v>2.05</v>
-      </c>
-      <c r="S165">
-        <v>2.75</v>
-      </c>
-      <c r="T165">
-        <v>1.825</v>
-      </c>
-      <c r="U165">
-        <v>2.025</v>
-      </c>
-      <c r="V165">
+      <c r="W168">
         <v>0</v>
       </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
+      <c r="X168">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14818,22 +14818,22 @@
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N167">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q167">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="R167">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="S167">
         <v>2.75</v>
@@ -14886,10 +14886,10 @@
         <v>1.75</v>
       </c>
       <c r="N168">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O168">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
         <v>-0.75</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9376,7 +9376,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9385,76 +9385,76 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9462,7 +9462,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -9471,76 +9471,76 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
+        <v>3.25</v>
+      </c>
+      <c r="P105">
+        <v>-0.25</v>
+      </c>
+      <c r="Q105">
+        <v>1.86</v>
+      </c>
+      <c r="R105">
+        <v>2.04</v>
+      </c>
+      <c r="S105">
         <v>2.75</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>1.8</v>
-      </c>
-      <c r="R105">
-        <v>2.05</v>
-      </c>
-      <c r="S105">
-        <v>3</v>
-      </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10064,7 +10064,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10073,76 +10073,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>4.2</v>
+      </c>
+      <c r="O112">
         <v>3.6</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
+        <v>1.89</v>
+      </c>
+      <c r="R112">
+        <v>2.01</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.95</v>
+      </c>
+      <c r="U112">
         <v>1.9</v>
       </c>
-      <c r="R112">
-        <v>1.95</v>
-      </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>1.01</v>
+      </c>
+      <c r="AA112">
         <v>0.95</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10150,7 +10150,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10159,76 +10159,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -11096,7 +11096,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11105,76 +11105,76 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>1.533</v>
+      </c>
+      <c r="N124">
+        <v>5.25</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>-1</v>
+      </c>
+      <c r="Q124">
+        <v>1.8</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>3.5</v>
       </c>
-      <c r="L124">
-        <v>2.75</v>
-      </c>
-      <c r="M124">
-        <v>3.4</v>
-      </c>
-      <c r="N124">
-        <v>3.75</v>
-      </c>
-      <c r="O124">
-        <v>2.05</v>
-      </c>
-      <c r="P124">
-        <v>0.25</v>
-      </c>
-      <c r="Q124">
-        <v>2.025</v>
-      </c>
-      <c r="R124">
-        <v>1.825</v>
-      </c>
-      <c r="S124">
-        <v>3</v>
-      </c>
       <c r="T124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>1.05</v>
       </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.825</v>
-      </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11182,7 +11182,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11191,76 +11191,76 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q125">
+        <v>2.025</v>
+      </c>
+      <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
         <v>1.8</v>
       </c>
-      <c r="R125">
-        <v>2.05</v>
-      </c>
-      <c r="S125">
-        <v>3.5</v>
-      </c>
-      <c r="T125">
-        <v>1.925</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -14818,31 +14818,31 @@
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N167">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
         <v>-0.5</v>
       </c>
       <c r="Q167">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R167">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S167">
         <v>2.75</v>
       </c>
       <c r="T167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
         <v>0</v>
@@ -14895,19 +14895,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q168">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R168">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
         <v>2.75</v>
       </c>
       <c r="T168">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8182788</t>
+    <t>8182994</t>
   </si>
   <si>
-    <t>8182787</t>
+    <t>8182995</t>
   </si>
   <si>
     <t>Australia ALeague</t>
@@ -9376,7 +9376,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9385,76 +9385,76 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
+        <v>3.25</v>
+      </c>
+      <c r="P104">
+        <v>-0.25</v>
+      </c>
+      <c r="Q104">
+        <v>1.86</v>
+      </c>
+      <c r="R104">
+        <v>2.04</v>
+      </c>
+      <c r="S104">
         <v>2.75</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>1.8</v>
-      </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9462,7 +9462,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -9471,76 +9471,76 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10064,7 +10064,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10073,76 +10073,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10150,7 +10150,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10159,76 +10159,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>4.2</v>
+      </c>
+      <c r="O113">
         <v>3.6</v>
-      </c>
-      <c r="O113">
-        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
+        <v>1.89</v>
+      </c>
+      <c r="R113">
+        <v>2.01</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
         <v>1.9</v>
       </c>
-      <c r="R113">
-        <v>1.95</v>
-      </c>
-      <c r="S113">
-        <v>2.75</v>
-      </c>
-      <c r="T113">
-        <v>1.925</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>1.01</v>
+      </c>
+      <c r="AA113">
         <v>0.95</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -11096,7 +11096,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11105,76 +11105,76 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q124">
+        <v>2.025</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>2.05</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="R124">
-        <v>2.05</v>
-      </c>
-      <c r="S124">
-        <v>3.5</v>
-      </c>
-      <c r="T124">
-        <v>1.925</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11182,7 +11182,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11191,76 +11191,76 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>1.533</v>
+      </c>
+      <c r="N125">
+        <v>5.25</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>-1</v>
+      </c>
+      <c r="Q125">
+        <v>1.8</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
         <v>3.5</v>
       </c>
-      <c r="L125">
-        <v>2.75</v>
-      </c>
-      <c r="M125">
-        <v>3.4</v>
-      </c>
-      <c r="N125">
-        <v>3.75</v>
-      </c>
-      <c r="O125">
-        <v>2.05</v>
-      </c>
-      <c r="P125">
-        <v>0.25</v>
-      </c>
-      <c r="Q125">
-        <v>2.025</v>
-      </c>
-      <c r="R125">
-        <v>1.825</v>
-      </c>
-      <c r="S125">
-        <v>3</v>
-      </c>
       <c r="T125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>1.05</v>
       </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.825</v>
-      </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -14106,7 +14106,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127418</v>
+        <v>7127419</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -14115,76 +14115,76 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J159">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="K159">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M159">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O159">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q159">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S159">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14192,7 +14192,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7127419</v>
+        <v>7127418</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -14201,76 +14201,76 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
         <v>3</v>
       </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
       <c r="I160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J160">
+        <v>3.6</v>
+      </c>
+      <c r="K160">
+        <v>3.25</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>4.2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160">
+        <v>1.75</v>
+      </c>
+      <c r="P160">
+        <v>0.75</v>
+      </c>
+      <c r="Q160">
         <v>1.85</v>
       </c>
-      <c r="K160">
-        <v>3.5</v>
-      </c>
-      <c r="L160">
-        <v>3.9</v>
-      </c>
-      <c r="M160">
-        <v>1.55</v>
-      </c>
-      <c r="N160">
-        <v>4.5</v>
-      </c>
-      <c r="O160">
-        <v>5.25</v>
-      </c>
-      <c r="P160">
-        <v>-1</v>
-      </c>
-      <c r="Q160">
-        <v>1.89</v>
-      </c>
       <c r="R160">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T160">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y160">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14800,49 +14800,49 @@
         <v>29</v>
       </c>
       <c r="D167" s="2">
-        <v>45422.28125</v>
+        <v>45430.14583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J167">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L167">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="M167">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N167">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="P167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="R167">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T167">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V167">
         <v>0</v>
@@ -14865,49 +14865,49 @@
         <v>29</v>
       </c>
       <c r="D168" s="2">
-        <v>45424.125</v>
+        <v>45430.28125</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J168">
         <v>1.909</v>
       </c>
       <c r="K168">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L168">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="N168">
         <v>3.8</v>
       </c>
       <c r="O168">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P168">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q168">
+        <v>2.02</v>
+      </c>
+      <c r="R168">
+        <v>1.88</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168">
         <v>2.05</v>
       </c>
-      <c r="R168">
-        <v>1.85</v>
-      </c>
-      <c r="S168">
-        <v>2.75</v>
-      </c>
-      <c r="T168">
-        <v>1.925</v>
-      </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6710,7 +6710,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -6719,73 +6719,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6796,7 +6796,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -6805,73 +6805,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74">
+        <v>1.909</v>
+      </c>
+      <c r="K74">
         <v>4</v>
       </c>
-      <c r="I74" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74">
-        <v>2.45</v>
-      </c>
-      <c r="K74">
-        <v>3.75</v>
-      </c>
       <c r="L74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -11096,7 +11096,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11105,76 +11105,76 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>1.533</v>
+      </c>
+      <c r="N124">
+        <v>5.25</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>-1</v>
+      </c>
+      <c r="Q124">
+        <v>1.8</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>3.5</v>
       </c>
-      <c r="L124">
-        <v>2.75</v>
-      </c>
-      <c r="M124">
-        <v>3.4</v>
-      </c>
-      <c r="N124">
-        <v>3.75</v>
-      </c>
-      <c r="O124">
-        <v>2.05</v>
-      </c>
-      <c r="P124">
-        <v>0.25</v>
-      </c>
-      <c r="Q124">
-        <v>2.025</v>
-      </c>
-      <c r="R124">
-        <v>1.825</v>
-      </c>
-      <c r="S124">
-        <v>3</v>
-      </c>
       <c r="T124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>1.05</v>
       </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.825</v>
-      </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11182,7 +11182,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11191,76 +11191,76 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q125">
+        <v>2.025</v>
+      </c>
+      <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
         <v>1.8</v>
       </c>
-      <c r="R125">
-        <v>2.05</v>
-      </c>
-      <c r="S125">
-        <v>3.5</v>
-      </c>
-      <c r="T125">
-        <v>1.925</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -14793,129 +14793,301 @@
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>27</v>
+      <c r="B167">
+        <v>8182788</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
       </c>
       <c r="D167" s="2">
-        <v>45430.14583333334</v>
+        <v>45422.28125</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167" t="s">
+        <v>42</v>
       </c>
       <c r="J167">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="K167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L167">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O167">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q167">
-        <v>2.03</v>
+        <v>1.925</v>
       </c>
       <c r="R167">
-        <v>1.87</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
         <v>2.5</v>
       </c>
       <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
         <v>1.85</v>
       </c>
-      <c r="U167">
-        <v>2</v>
-      </c>
       <c r="V167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>2.2</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0.925</v>
+      </c>
+      <c r="AA167">
+        <v>1</v>
+      </c>
+      <c r="AB167">
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:28">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>28</v>
+      <c r="B168">
+        <v>8182787</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
       </c>
       <c r="D168" s="2">
-        <v>45430.28125</v>
+        <v>45424.125</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>44</v>
       </c>
       <c r="J168">
         <v>1.909</v>
       </c>
       <c r="K168">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L168">
+        <v>3.8</v>
+      </c>
+      <c r="M168">
+        <v>2.05</v>
+      </c>
+      <c r="N168">
         <v>3.5</v>
       </c>
-      <c r="M168">
-        <v>2.3</v>
-      </c>
-      <c r="N168">
-        <v>3.8</v>
-      </c>
       <c r="O168">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P168">
         <v>-0.25</v>
       </c>
       <c r="Q168">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="R168">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="S168">
+        <v>2.5</v>
+      </c>
+      <c r="T168">
+        <v>1.9</v>
+      </c>
+      <c r="U168">
+        <v>1.95</v>
+      </c>
+      <c r="V168">
+        <v>-1</v>
+      </c>
+      <c r="W168">
+        <v>2.5</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>-0.5</v>
+      </c>
+      <c r="Z168">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45430.14583333334</v>
+      </c>
+      <c r="E169" t="s">
+        <v>37</v>
+      </c>
+      <c r="F169" t="s">
+        <v>39</v>
+      </c>
+      <c r="J169">
+        <v>2.875</v>
+      </c>
+      <c r="K169">
+        <v>3.4</v>
+      </c>
+      <c r="L169">
+        <v>2.375</v>
+      </c>
+      <c r="M169">
+        <v>2.8</v>
+      </c>
+      <c r="N169">
+        <v>3.4</v>
+      </c>
+      <c r="O169">
+        <v>2.5</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>2.04</v>
+      </c>
+      <c r="R169">
+        <v>1.86</v>
+      </c>
+      <c r="S169">
+        <v>2.5</v>
+      </c>
+      <c r="T169">
+        <v>1.85</v>
+      </c>
+      <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45430.28125</v>
+      </c>
+      <c r="E170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170">
+        <v>1.909</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>3.5</v>
+      </c>
+      <c r="M170">
+        <v>2.25</v>
+      </c>
+      <c r="N170">
+        <v>3.8</v>
+      </c>
+      <c r="O170">
+        <v>2.875</v>
+      </c>
+      <c r="P170">
+        <v>-0.25</v>
+      </c>
+      <c r="Q170">
+        <v>2.01</v>
+      </c>
+      <c r="R170">
+        <v>1.89</v>
+      </c>
+      <c r="S170">
         <v>3</v>
       </c>
-      <c r="T168">
+      <c r="T170">
         <v>2.05</v>
       </c>
-      <c r="U168">
+      <c r="U170">
         <v>1.8</v>
       </c>
-      <c r="V168">
+      <c r="V170">
         <v>0</v>
       </c>
-      <c r="W168">
+      <c r="W170">
         <v>0</v>
       </c>
-      <c r="X168">
+      <c r="X170">
         <v>0</v>
       </c>
     </row>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -6710,7 +6710,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -6719,73 +6719,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>43</v>
+      </c>
+      <c r="J73">
+        <v>1.909</v>
+      </c>
+      <c r="K73">
         <v>4</v>
       </c>
-      <c r="I73" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73">
-        <v>2.45</v>
-      </c>
-      <c r="K73">
-        <v>3.75</v>
-      </c>
       <c r="L73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6796,7 +6796,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -6805,73 +6805,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -9376,7 +9376,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9385,76 +9385,76 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9462,7 +9462,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -9471,76 +9471,76 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
+        <v>3.25</v>
+      </c>
+      <c r="P105">
+        <v>-0.25</v>
+      </c>
+      <c r="Q105">
+        <v>1.86</v>
+      </c>
+      <c r="R105">
+        <v>2.04</v>
+      </c>
+      <c r="S105">
         <v>2.75</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>1.8</v>
-      </c>
-      <c r="R105">
-        <v>2.05</v>
-      </c>
-      <c r="S105">
-        <v>3</v>
-      </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -14990,22 +14990,22 @@
         <v>2.375</v>
       </c>
       <c r="M169">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N169">
         <v>3.4</v>
       </c>
       <c r="O169">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="P169">
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="R169">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
         <v>2.5</v>
@@ -15061,25 +15061,25 @@
         <v>3.8</v>
       </c>
       <c r="O170">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P170">
         <v>-0.25</v>
       </c>
       <c r="Q170">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="R170">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T170">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V170">
         <v>0</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9376,7 +9376,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9385,76 +9385,76 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
+        <v>3.25</v>
+      </c>
+      <c r="P104">
+        <v>-0.25</v>
+      </c>
+      <c r="Q104">
+        <v>1.86</v>
+      </c>
+      <c r="R104">
+        <v>2.04</v>
+      </c>
+      <c r="S104">
         <v>2.75</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>1.8</v>
-      </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9462,7 +9462,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -9471,76 +9471,76 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10064,7 +10064,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10073,76 +10073,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>4.2</v>
+      </c>
+      <c r="O112">
         <v>3.6</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
+        <v>1.89</v>
+      </c>
+      <c r="R112">
+        <v>2.01</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.95</v>
+      </c>
+      <c r="U112">
         <v>1.9</v>
       </c>
-      <c r="R112">
-        <v>1.95</v>
-      </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>1.01</v>
+      </c>
+      <c r="AA112">
         <v>0.95</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10150,7 +10150,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10159,76 +10159,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -15067,10 +15067,10 @@
         <v>-0.25</v>
       </c>
       <c r="Q170">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R170">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S170">
         <v>2.75</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8182994</t>
-  </si>
-  <si>
-    <t>8182995</t>
   </si>
   <si>
     <t>Australia ALeague</t>
@@ -510,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,16 +601,16 @@
         <v>6675262</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45080.28125</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -625,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -693,16 +687,16 @@
         <v>7127284</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45219.23958333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -711,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -779,16 +773,16 @@
         <v>7126254</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45220.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -797,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -865,16 +859,16 @@
         <v>7126770</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45220.14583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -883,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>1.533</v>
@@ -951,16 +945,16 @@
         <v>7127285</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45220.23958333334</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -969,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1037,16 +1031,16 @@
         <v>7127286</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1055,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1123,16 +1117,16 @@
         <v>7127287</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1141,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1209,16 +1203,16 @@
         <v>7127288</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45226.23958333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1227,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1295,16 +1289,16 @@
         <v>7127289</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45227.0625</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1313,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1381,16 +1375,16 @@
         <v>7127290</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45227.23958333334</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1399,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1467,16 +1461,16 @@
         <v>7128011</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45228.04166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1485,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1553,16 +1547,16 @@
         <v>7127291</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1571,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1639,16 +1633,16 @@
         <v>7126771</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45228.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1657,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -1725,16 +1719,16 @@
         <v>7126772</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45233.23958333334</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1743,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1811,16 +1805,16 @@
         <v>7127292</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45234.0625</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1829,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1897,16 +1891,16 @@
         <v>7127293</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1983,16 +1977,16 @@
         <v>7127294</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.95</v>
@@ -2069,16 +2063,16 @@
         <v>7127295</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2087,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2155,16 +2149,16 @@
         <v>7127296</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45235.04166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2173,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>2.7</v>
@@ -2241,16 +2235,16 @@
         <v>7127297</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2259,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.833</v>
@@ -2327,16 +2321,16 @@
         <v>7127298</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45241.0625</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2345,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2413,16 +2407,16 @@
         <v>7127300</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2431,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2499,16 +2493,16 @@
         <v>7127299</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45241.23958333334</v>
       </c>
       <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
         <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2517,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2585,16 +2579,16 @@
         <v>7126773</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45242.04166666666</v>
       </c>
       <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2603,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2671,16 +2665,16 @@
         <v>7127308</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45242.125</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2689,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.833</v>
@@ -2757,16 +2751,16 @@
         <v>7127309</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2775,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2.9</v>
@@ -2843,16 +2837,16 @@
         <v>7126774</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45255.02083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2861,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>3.1</v>
@@ -2929,16 +2923,16 @@
         <v>7127311</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45255.23958333334</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2947,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3015,16 +3009,16 @@
         <v>7127312</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45256.04166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3033,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3101,16 +3095,16 @@
         <v>7127313</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45256.125</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3119,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.7</v>
@@ -3187,16 +3181,16 @@
         <v>7127314</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45261.23958333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3205,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3273,16 +3267,16 @@
         <v>7127315</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45262.14583333334</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3291,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.55</v>
@@ -3359,16 +3353,16 @@
         <v>7127316</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45262.23958333334</v>
       </c>
       <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
         <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>35</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3377,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3445,16 +3439,16 @@
         <v>7127317</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45263.04166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3463,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3531,16 +3525,16 @@
         <v>7126775</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45263.125</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3549,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3617,16 +3611,16 @@
         <v>7479668</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3635,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.4</v>
@@ -3703,16 +3697,16 @@
         <v>7127319</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45268.23958333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3721,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3789,16 +3783,16 @@
         <v>7126776</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45268.32291666666</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3807,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3875,16 +3869,16 @@
         <v>7127320</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3893,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3961,16 +3955,16 @@
         <v>7127321</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3979,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4047,16 +4041,16 @@
         <v>7127322</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45270.04166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4065,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4133,16 +4127,16 @@
         <v>7127323</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45270.125</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4151,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>2.1</v>
@@ -4219,16 +4213,16 @@
         <v>7557607</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4237,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>2.6</v>
@@ -4305,16 +4299,16 @@
         <v>7127324</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4323,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4391,16 +4385,16 @@
         <v>7127326</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45276.16666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4409,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4477,16 +4471,16 @@
         <v>7127327</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45276.23958333334</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4495,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4563,16 +4557,16 @@
         <v>7126777</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45277.125</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4581,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4649,16 +4643,16 @@
         <v>7127328</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4667,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>2.2</v>
@@ -4735,16 +4729,16 @@
         <v>7127329</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45281.23958333334</v>
       </c>
       <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
         <v>36</v>
-      </c>
-      <c r="F50" t="s">
-        <v>38</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4753,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4821,16 +4815,16 @@
         <v>7127330</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45282.23958333334</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4839,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>1.727</v>
@@ -4907,16 +4901,16 @@
         <v>7127331</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45283.0625</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4925,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -4993,16 +4987,16 @@
         <v>7127332</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5011,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5079,16 +5073,16 @@
         <v>7126778</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5097,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>2.75</v>
@@ -5165,16 +5159,16 @@
         <v>7127333</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5183,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>2.7</v>
@@ -5251,16 +5245,16 @@
         <v>7126781</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45288.23958333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -5269,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5337,16 +5331,16 @@
         <v>7127334</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5355,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5423,16 +5417,16 @@
         <v>7127335</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5441,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5509,16 +5503,16 @@
         <v>7127336</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5527,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5595,16 +5589,16 @@
         <v>7127337</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5613,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5681,16 +5675,16 @@
         <v>7127338</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5699,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5767,16 +5761,16 @@
         <v>7127339</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45295.23958333334</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5785,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5853,16 +5847,16 @@
         <v>7127340</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.95</v>
@@ -5939,16 +5933,16 @@
         <v>7127341</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5957,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6025,16 +6019,16 @@
         <v>7127342</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6043,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6111,16 +6105,16 @@
         <v>7127343</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6129,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>3.8</v>
@@ -6197,16 +6191,16 @@
         <v>7126782</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45298.125</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6215,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>3.4</v>
@@ -6283,16 +6277,16 @@
         <v>7127349</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45299.23958333334</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6301,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6369,16 +6363,16 @@
         <v>7646746</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45303.14583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6387,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6455,16 +6449,16 @@
         <v>7126783</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45303.26041666666</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6473,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>2.8</v>
@@ -6541,16 +6535,16 @@
         <v>7646747</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6559,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6627,16 +6621,16 @@
         <v>7646748</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6645,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6713,16 +6707,16 @@
         <v>7646749</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6731,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>1.909</v>
@@ -6799,16 +6793,16 @@
         <v>7646750</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
         <v>35</v>
-      </c>
-      <c r="F74" t="s">
-        <v>37</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6817,7 +6811,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6885,16 +6879,16 @@
         <v>7127350</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45309.23958333334</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.909</v>
@@ -6971,16 +6965,16 @@
         <v>7127351</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45310.125</v>
       </c>
       <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s">
         <v>37</v>
-      </c>
-      <c r="F76" t="s">
-        <v>39</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6989,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>2.625</v>
@@ -7057,16 +7051,16 @@
         <v>7127352</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7075,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7143,16 +7137,16 @@
         <v>7127354</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7161,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>1.475</v>
@@ -7229,16 +7223,16 @@
         <v>7126784</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7247,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7315,16 +7309,16 @@
         <v>7385383</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45314.20833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7333,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7401,16 +7395,16 @@
         <v>7126785</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45316.23958333334</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7419,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -7487,16 +7481,16 @@
         <v>7127355</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7505,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7573,16 +7567,16 @@
         <v>7127356</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7591,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7659,16 +7653,16 @@
         <v>7127357</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45318.16666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7677,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>2.55</v>
@@ -7745,16 +7739,16 @@
         <v>7127358</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7763,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7831,16 +7825,16 @@
         <v>7127359</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7849,7 +7843,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>1.869</v>
@@ -7917,16 +7911,16 @@
         <v>7127360</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45324.23958333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7935,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8003,16 +7997,16 @@
         <v>7126786</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45324.32291666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8021,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>3.8</v>
@@ -8089,16 +8083,16 @@
         <v>7127361</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45325.125</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8107,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8175,16 +8169,16 @@
         <v>7127362</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45325.16666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8193,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>3.75</v>
@@ -8261,16 +8255,16 @@
         <v>7127363</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45325.23958333334</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8279,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.375</v>
@@ -8347,16 +8341,16 @@
         <v>7127364</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
         <v>32</v>
-      </c>
-      <c r="F92" t="s">
-        <v>34</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8365,7 +8359,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8433,16 +8427,16 @@
         <v>7760137</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45328</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8451,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>2.2</v>
@@ -8519,16 +8513,16 @@
         <v>7127365</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45331.23958333334</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8537,7 +8531,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8605,16 +8599,16 @@
         <v>7127366</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45332.0625</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8623,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>1.5</v>
@@ -8691,16 +8685,16 @@
         <v>7127367</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45332.14583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8709,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8777,16 +8771,16 @@
         <v>7126787</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45332.16666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -8795,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>4.5</v>
@@ -8863,16 +8857,16 @@
         <v>7127368</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45332.23958333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8881,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J98">
         <v>1.95</v>
@@ -8949,16 +8943,16 @@
         <v>7127369</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8967,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9035,16 +9029,16 @@
         <v>7127371</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45338.23958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9053,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9121,16 +9115,16 @@
         <v>7127372</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9139,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>1.727</v>
@@ -9207,16 +9201,16 @@
         <v>7126788</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45339.23958333334</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9225,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>2.625</v>
@@ -9293,16 +9287,16 @@
         <v>7127373</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45339.32291666666</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9311,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9376,85 +9370,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9462,85 +9456,85 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" t="s">
         <v>32</v>
-      </c>
-      <c r="F105" t="s">
-        <v>37</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
+        <v>3.25</v>
+      </c>
+      <c r="P105">
+        <v>-0.25</v>
+      </c>
+      <c r="Q105">
+        <v>1.86</v>
+      </c>
+      <c r="R105">
+        <v>2.04</v>
+      </c>
+      <c r="S105">
         <v>2.75</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>1.8</v>
-      </c>
-      <c r="R105">
-        <v>2.05</v>
-      </c>
-      <c r="S105">
-        <v>3</v>
-      </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9551,16 +9545,16 @@
         <v>7661946</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" t="s">
         <v>39</v>
-      </c>
-      <c r="F106" t="s">
-        <v>41</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9569,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.45</v>
@@ -9637,16 +9631,16 @@
         <v>7127375</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45345.23958333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9655,7 +9649,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9723,16 +9717,16 @@
         <v>7875268</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45345.38194444445</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9741,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9809,16 +9803,16 @@
         <v>7126789</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9827,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.833</v>
@@ -9895,16 +9889,16 @@
         <v>7127377</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45346.23958333334</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9913,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9981,16 +9975,16 @@
         <v>7127378</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
         <v>35</v>
-      </c>
-      <c r="F111" t="s">
-        <v>37</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9999,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>2.375</v>
@@ -10064,85 +10058,85 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
         <v>40</v>
-      </c>
-      <c r="F112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>2</v>
-      </c>
-      <c r="I112" t="s">
-        <v>44</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10150,25 +10144,25 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
         <v>42</v>
@@ -10177,58 +10171,58 @@
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
+        <v>4.2</v>
+      </c>
+      <c r="O113">
         <v>3.6</v>
-      </c>
-      <c r="O113">
-        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
+        <v>1.89</v>
+      </c>
+      <c r="R113">
+        <v>2.01</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.95</v>
+      </c>
+      <c r="U113">
         <v>1.9</v>
       </c>
-      <c r="R113">
-        <v>1.95</v>
-      </c>
-      <c r="S113">
-        <v>2.75</v>
-      </c>
-      <c r="T113">
-        <v>1.925</v>
-      </c>
-      <c r="U113">
-        <v>1.925</v>
-      </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>1.01</v>
+      </c>
+      <c r="AA113">
         <v>0.95</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10239,16 +10233,16 @@
         <v>7126790</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10257,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -10325,16 +10319,16 @@
         <v>7127380</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45353.125</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10343,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>2.375</v>
@@ -10411,16 +10405,16 @@
         <v>7127381</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45353.16666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10429,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>3.5</v>
@@ -10497,16 +10491,16 @@
         <v>7127382</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45353.23958333334</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10515,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>2.5</v>
@@ -10583,16 +10577,16 @@
         <v>7127383</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45354.04166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10601,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10669,16 +10663,16 @@
         <v>7127384</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45354.125</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10687,7 +10681,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10755,16 +10749,16 @@
         <v>7127385</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10773,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>1.615</v>
@@ -10841,16 +10835,16 @@
         <v>7126791</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10859,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10927,16 +10921,16 @@
         <v>7127386</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45360.26041666666</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10945,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2.4</v>
@@ -11013,16 +11007,16 @@
         <v>7127387</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45360.32291666666</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11031,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11099,16 +11093,16 @@
         <v>7127388</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11117,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>1.5</v>
@@ -11185,16 +11179,16 @@
         <v>7128012</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11203,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>2.4</v>
@@ -11271,16 +11265,16 @@
         <v>7662592</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45363.20833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11289,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11357,16 +11351,16 @@
         <v>7127392</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45365.20833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11375,7 +11369,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>4.5</v>
@@ -11443,16 +11437,16 @@
         <v>7127389</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45366.23958333334</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11461,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11529,16 +11523,16 @@
         <v>7127390</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45367.0625</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11547,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>2.9</v>
@@ -11615,16 +11609,16 @@
         <v>7940069</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45367.08333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11633,7 +11627,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -11701,16 +11695,16 @@
         <v>7940070</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11719,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11787,16 +11781,16 @@
         <v>7127395</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45380.23958333334</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11805,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.666</v>
@@ -11873,16 +11867,16 @@
         <v>7126793</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45381.14583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11891,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11959,16 +11953,16 @@
         <v>7127396</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11977,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>2.15</v>
@@ -12045,16 +12039,16 @@
         <v>7127394</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45381.875</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12063,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.8</v>
@@ -12131,16 +12125,16 @@
         <v>7127397</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12149,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12217,16 +12211,16 @@
         <v>7127398</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" t="s">
         <v>32</v>
-      </c>
-      <c r="F137" t="s">
-        <v>34</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12235,7 +12229,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>2.5</v>
@@ -12303,16 +12297,16 @@
         <v>7898681</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12321,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12389,16 +12383,16 @@
         <v>7661947</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12407,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12475,16 +12469,16 @@
         <v>7127399</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" t="s">
         <v>34</v>
-      </c>
-      <c r="F140" t="s">
-        <v>36</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12493,7 +12487,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12561,16 +12555,16 @@
         <v>8034339</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45388.0625</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12579,7 +12573,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>2.6</v>
@@ -12647,16 +12641,16 @@
         <v>8005739</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12665,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>1.8</v>
@@ -12733,16 +12727,16 @@
         <v>7126794</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45388.23958333334</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12751,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12819,16 +12813,16 @@
         <v>7127403</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45389.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12837,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>3.6</v>
@@ -12905,16 +12899,16 @@
         <v>7127402</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45389.16666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12923,7 +12917,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -12991,16 +12985,16 @@
         <v>7127404</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45394.16666666666</v>
       </c>
       <c r="E146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146" t="s">
         <v>37</v>
-      </c>
-      <c r="F146" t="s">
-        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13009,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>3.1</v>
@@ -13077,16 +13071,16 @@
         <v>7127405</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45394.28125</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13095,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13163,16 +13157,16 @@
         <v>7127408</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45395.10416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13181,7 +13175,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13249,16 +13243,16 @@
         <v>7127407</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45395.1875</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13267,7 +13261,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13335,16 +13329,16 @@
         <v>7127406</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13353,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>1.833</v>
@@ -13421,16 +13415,16 @@
         <v>7127409</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45396.08333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13439,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>1.571</v>
@@ -13507,16 +13501,16 @@
         <v>7702377</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45398.25</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13525,7 +13519,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13593,16 +13587,16 @@
         <v>7127410</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45401.28125</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13611,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>2.8</v>
@@ -13679,16 +13673,16 @@
         <v>8096897</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13691,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J154">
         <v>3.25</v>
@@ -13765,16 +13759,16 @@
         <v>7127411</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13783,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J155">
         <v>1.65</v>
@@ -13851,16 +13845,16 @@
         <v>7127415</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13869,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>3.8</v>
@@ -13937,16 +13931,16 @@
         <v>7127414</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13955,7 +13949,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14023,16 +14017,16 @@
         <v>7127416</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45408.28125</v>
       </c>
       <c r="E158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14041,7 +14035,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J158">
         <v>2.3</v>
@@ -14109,16 +14103,16 @@
         <v>7127419</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14127,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J159">
         <v>1.85</v>
@@ -14195,16 +14189,16 @@
         <v>7127418</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14213,7 +14207,7 @@
         <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J160">
         <v>3.6</v>
@@ -14281,16 +14275,16 @@
         <v>7127417</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45409.28125</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14299,7 +14293,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>2.05</v>
@@ -14367,16 +14361,16 @@
         <v>8109525</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45410.08333333334</v>
       </c>
       <c r="E162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" t="s">
         <v>33</v>
-      </c>
-      <c r="F162" t="s">
-        <v>35</v>
       </c>
       <c r="G162">
         <v>7</v>
@@ -14385,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J162">
         <v>1.5</v>
@@ -14453,16 +14447,16 @@
         <v>7127421</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45410.16666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14471,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J163">
         <v>1.65</v>
@@ -14539,16 +14533,16 @@
         <v>8135264</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45413.25</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14557,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J164">
         <v>1.666</v>
@@ -14625,16 +14619,16 @@
         <v>8155621</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45416.28125</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G165">
         <v>4</v>
@@ -14643,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14711,16 +14705,16 @@
         <v>8158306</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45417.16666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14729,7 +14723,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J166">
         <v>2</v>
@@ -14797,16 +14791,16 @@
         <v>8182788</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45422.28125</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14815,7 +14809,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14883,16 +14877,16 @@
         <v>8182787</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45424.125</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14901,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J168">
         <v>1.909</v>
@@ -14959,136 +14953,6 @@
       </c>
       <c r="AB168">
         <v>0.95</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>27</v>
-      </c>
-      <c r="C169" t="s">
-        <v>29</v>
-      </c>
-      <c r="D169" s="2">
-        <v>45430.14583333334</v>
-      </c>
-      <c r="E169" t="s">
-        <v>37</v>
-      </c>
-      <c r="F169" t="s">
-        <v>39</v>
-      </c>
-      <c r="J169">
-        <v>2.875</v>
-      </c>
-      <c r="K169">
-        <v>3.4</v>
-      </c>
-      <c r="L169">
-        <v>2.375</v>
-      </c>
-      <c r="M169">
-        <v>2.625</v>
-      </c>
-      <c r="N169">
-        <v>3.4</v>
-      </c>
-      <c r="O169">
-        <v>2.625</v>
-      </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-      <c r="Q169">
-        <v>1.95</v>
-      </c>
-      <c r="R169">
-        <v>1.95</v>
-      </c>
-      <c r="S169">
-        <v>2.5</v>
-      </c>
-      <c r="T169">
-        <v>1.85</v>
-      </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-      <c r="V169">
-        <v>0</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="2">
-        <v>45430.28125</v>
-      </c>
-      <c r="E170" t="s">
-        <v>38</v>
-      </c>
-      <c r="F170" t="s">
-        <v>33</v>
-      </c>
-      <c r="J170">
-        <v>1.909</v>
-      </c>
-      <c r="K170">
-        <v>4</v>
-      </c>
-      <c r="L170">
-        <v>3.5</v>
-      </c>
-      <c r="M170">
-        <v>2.25</v>
-      </c>
-      <c r="N170">
-        <v>3.8</v>
-      </c>
-      <c r="O170">
-        <v>2.9</v>
-      </c>
-      <c r="P170">
-        <v>-0.25</v>
-      </c>
-      <c r="Q170">
-        <v>2.02</v>
-      </c>
-      <c r="R170">
-        <v>1.88</v>
-      </c>
-      <c r="S170">
-        <v>2.75</v>
-      </c>
-      <c r="T170">
-        <v>1.85</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>0</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8233998</t>
   </si>
   <si>
     <t>Australia ALeague</t>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +604,16 @@
         <v>6675262</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45080.28125</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -619,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -687,16 +690,16 @@
         <v>7127284</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45219.23958333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -705,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -773,16 +776,16 @@
         <v>7126254</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45220.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -859,16 +862,16 @@
         <v>7126770</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45220.14583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>1.533</v>
@@ -945,16 +948,16 @@
         <v>7127285</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45220.23958333334</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -963,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1031,16 +1034,16 @@
         <v>7127286</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1117,16 +1120,16 @@
         <v>7127287</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1135,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1203,16 +1206,16 @@
         <v>7127288</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45226.23958333334</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1289,16 +1292,16 @@
         <v>7127289</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45227.0625</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1375,16 +1378,16 @@
         <v>7127290</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45227.23958333334</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1461,16 +1464,16 @@
         <v>7128011</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45228.04166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1479,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1547,16 +1550,16 @@
         <v>7127291</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1565,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1633,16 +1636,16 @@
         <v>7126771</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45228.20833333334</v>
       </c>
       <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -1719,16 +1722,16 @@
         <v>7126772</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45233.23958333334</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1737,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1805,16 +1808,16 @@
         <v>7127292</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45234.0625</v>
       </c>
       <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1823,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1891,16 +1894,16 @@
         <v>7127293</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1909,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1977,16 +1980,16 @@
         <v>7127294</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1995,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.95</v>
@@ -2063,16 +2066,16 @@
         <v>7127295</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2081,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2149,16 +2152,16 @@
         <v>7127296</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45235.04166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2167,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>2.7</v>
@@ -2235,16 +2238,16 @@
         <v>7127297</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2253,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>1.833</v>
@@ -2321,16 +2324,16 @@
         <v>7127298</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45241.0625</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2407,16 +2410,16 @@
         <v>7127300</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2425,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2493,16 +2496,16 @@
         <v>7127299</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45241.23958333334</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2511,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2579,16 +2582,16 @@
         <v>7126773</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45242.04166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2597,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2665,16 +2668,16 @@
         <v>7127308</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45242.125</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2683,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1.833</v>
@@ -2751,16 +2754,16 @@
         <v>7127309</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2769,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.9</v>
@@ -2837,16 +2840,16 @@
         <v>7126774</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45255.02083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2855,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>3.1</v>
@@ -2923,16 +2926,16 @@
         <v>7127311</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45255.23958333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2941,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3009,16 +3012,16 @@
         <v>7127312</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45256.04166666666</v>
       </c>
       <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
         <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3027,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3095,16 +3098,16 @@
         <v>7127313</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45256.125</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.7</v>
@@ -3181,16 +3184,16 @@
         <v>7127314</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45261.23958333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3199,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3267,16 +3270,16 @@
         <v>7127315</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45262.14583333334</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.55</v>
@@ -3353,16 +3356,16 @@
         <v>7127316</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45262.23958333334</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3371,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3439,16 +3442,16 @@
         <v>7127317</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45263.04166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3457,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3525,16 +3528,16 @@
         <v>7126775</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45263.125</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3543,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3611,16 +3614,16 @@
         <v>7479668</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
         <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3629,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2.4</v>
@@ -3697,16 +3700,16 @@
         <v>7127319</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45268.23958333334</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3715,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3783,16 +3786,16 @@
         <v>7126776</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45268.32291666666</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3869,16 +3872,16 @@
         <v>7127320</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3887,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3955,16 +3958,16 @@
         <v>7127321</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
         <v>31</v>
-      </c>
-      <c r="F41" t="s">
-        <v>30</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3973,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4041,16 +4044,16 @@
         <v>7127322</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45270.04166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4059,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4127,16 +4130,16 @@
         <v>7127323</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45270.125</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4145,7 +4148,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>2.1</v>
@@ -4213,16 +4216,16 @@
         <v>7557607</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4231,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>2.6</v>
@@ -4299,16 +4302,16 @@
         <v>7127324</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4317,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4385,16 +4388,16 @@
         <v>7127326</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45276.16666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4403,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4471,16 +4474,16 @@
         <v>7127327</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45276.23958333334</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4489,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4557,16 +4560,16 @@
         <v>7126777</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45277.125</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4575,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4643,16 +4646,16 @@
         <v>7127328</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4661,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>2.2</v>
@@ -4729,16 +4732,16 @@
         <v>7127329</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45281.23958333334</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4747,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4815,16 +4818,16 @@
         <v>7127330</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45282.23958333334</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4833,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>1.727</v>
@@ -4901,16 +4904,16 @@
         <v>7127331</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45283.0625</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4919,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -4987,16 +4990,16 @@
         <v>7127332</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5005,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5073,16 +5076,16 @@
         <v>7126778</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5091,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J54">
         <v>2.75</v>
@@ -5159,16 +5162,16 @@
         <v>7127333</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5177,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>2.7</v>
@@ -5245,16 +5248,16 @@
         <v>7126781</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45288.23958333334</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -5263,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5331,16 +5334,16 @@
         <v>7127334</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5349,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5417,16 +5420,16 @@
         <v>7127335</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5435,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5503,16 +5506,16 @@
         <v>7127336</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5521,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5589,16 +5592,16 @@
         <v>7127337</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5607,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5675,16 +5678,16 @@
         <v>7127338</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5693,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5761,16 +5764,16 @@
         <v>7127339</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45295.23958333334</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5779,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5847,16 +5850,16 @@
         <v>7127340</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5865,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.95</v>
@@ -5933,16 +5936,16 @@
         <v>7127341</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5951,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6019,16 +6022,16 @@
         <v>7127342</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6037,7 +6040,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6105,16 +6108,16 @@
         <v>7127343</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6123,7 +6126,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>3.8</v>
@@ -6191,16 +6194,16 @@
         <v>7126782</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45298.125</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6209,7 +6212,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>3.4</v>
@@ -6277,16 +6280,16 @@
         <v>7127349</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45299.23958333334</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6295,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6363,16 +6366,16 @@
         <v>7646746</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45303.14583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6381,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6449,16 +6452,16 @@
         <v>7126783</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45303.26041666666</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6467,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>2.8</v>
@@ -6535,16 +6538,16 @@
         <v>7646747</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6621,16 +6624,16 @@
         <v>7646748</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6639,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6707,16 +6710,16 @@
         <v>7646749</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6725,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>1.909</v>
@@ -6793,16 +6796,16 @@
         <v>7646750</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6811,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6879,16 +6882,16 @@
         <v>7127350</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45309.23958333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6897,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.909</v>
@@ -6965,16 +6968,16 @@
         <v>7127351</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45310.125</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6983,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>2.625</v>
@@ -7051,16 +7054,16 @@
         <v>7127352</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7069,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7137,16 +7140,16 @@
         <v>7127354</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7155,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <v>1.475</v>
@@ -7223,16 +7226,16 @@
         <v>7126784</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7241,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7309,16 +7312,16 @@
         <v>7385383</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45314.20833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7327,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7395,16 +7398,16 @@
         <v>7126785</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45316.23958333334</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7413,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -7481,16 +7484,16 @@
         <v>7127355</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7499,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7567,16 +7570,16 @@
         <v>7127356</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7585,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7653,16 +7656,16 @@
         <v>7127357</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45318.16666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7671,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>2.55</v>
@@ -7739,16 +7742,16 @@
         <v>7127358</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7757,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7825,16 +7828,16 @@
         <v>7127359</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7843,7 +7846,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>1.869</v>
@@ -7911,16 +7914,16 @@
         <v>7127360</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45324.23958333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7929,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -7997,16 +8000,16 @@
         <v>7126786</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45324.32291666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8015,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>3.8</v>
@@ -8083,16 +8086,16 @@
         <v>7127361</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45325.125</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8101,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8169,16 +8172,16 @@
         <v>7127362</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45325.16666666666</v>
       </c>
       <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s">
         <v>38</v>
-      </c>
-      <c r="F90" t="s">
-        <v>37</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8187,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>3.75</v>
@@ -8255,16 +8258,16 @@
         <v>7127363</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45325.23958333334</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8273,7 +8276,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.375</v>
@@ -8341,16 +8344,16 @@
         <v>7127364</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8359,7 +8362,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8427,16 +8430,16 @@
         <v>7760137</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45328</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>2.2</v>
@@ -8513,16 +8516,16 @@
         <v>7127365</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45331.23958333334</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8531,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8599,16 +8602,16 @@
         <v>7127366</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45332.0625</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8617,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J95">
         <v>1.5</v>
@@ -8685,16 +8688,16 @@
         <v>7127367</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45332.14583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8703,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8771,16 +8774,16 @@
         <v>7126787</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45332.16666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -8789,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>4.5</v>
@@ -8857,16 +8860,16 @@
         <v>7127368</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45332.23958333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8875,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>1.95</v>
@@ -8943,16 +8946,16 @@
         <v>7127369</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8961,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9029,16 +9032,16 @@
         <v>7127371</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45338.23958333334</v>
       </c>
       <c r="E100" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" t="s">
         <v>39</v>
-      </c>
-      <c r="F100" t="s">
-        <v>38</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9047,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9115,16 +9118,16 @@
         <v>7127372</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9133,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>1.727</v>
@@ -9201,16 +9204,16 @@
         <v>7126788</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45339.23958333334</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9219,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>2.625</v>
@@ -9287,16 +9290,16 @@
         <v>7127373</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45339.32291666666</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9305,7 +9308,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9373,16 +9376,16 @@
         <v>7127370</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9391,7 +9394,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>2.4</v>
@@ -9459,16 +9462,16 @@
         <v>7127374</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>1.909</v>
@@ -9545,16 +9548,16 @@
         <v>7661946</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9563,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.45</v>
@@ -9631,16 +9634,16 @@
         <v>7127375</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45345.23958333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9649,7 +9652,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9717,16 +9720,16 @@
         <v>7875268</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45345.38194444445</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9803,16 +9806,16 @@
         <v>7126789</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9821,7 +9824,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>1.833</v>
@@ -9889,16 +9892,16 @@
         <v>7127377</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45346.23958333334</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9907,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9975,16 +9978,16 @@
         <v>7127378</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9993,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2.375</v>
@@ -10061,16 +10064,16 @@
         <v>7127379</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
         <v>37</v>
-      </c>
-      <c r="F112" t="s">
-        <v>36</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10079,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>1.95</v>
@@ -10147,16 +10150,16 @@
         <v>7127376</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10165,7 +10168,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>1.95</v>
@@ -10233,16 +10236,16 @@
         <v>7126790</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10251,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -10319,16 +10322,16 @@
         <v>7127380</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45353.125</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10337,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>2.375</v>
@@ -10405,16 +10408,16 @@
         <v>7127381</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45353.16666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10423,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>3.5</v>
@@ -10491,16 +10494,16 @@
         <v>7127382</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45353.23958333334</v>
       </c>
       <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
         <v>32</v>
-      </c>
-      <c r="F117" t="s">
-        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10509,7 +10512,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>2.5</v>
@@ -10577,16 +10580,16 @@
         <v>7127383</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45354.04166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10595,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10663,16 +10666,16 @@
         <v>7127384</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45354.125</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10681,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10749,16 +10752,16 @@
         <v>7127385</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10767,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>1.615</v>
@@ -10835,16 +10838,16 @@
         <v>7126791</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10853,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10921,16 +10924,16 @@
         <v>7127386</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45360.26041666666</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10939,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>2.4</v>
@@ -11007,16 +11010,16 @@
         <v>7127387</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45360.32291666666</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11025,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11090,10 +11093,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45361.125</v>
@@ -11102,73 +11105,73 @@
         <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q124">
+        <v>2.025</v>
+      </c>
+      <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>2.05</v>
+      </c>
+      <c r="U124">
         <v>1.8</v>
       </c>
-      <c r="R124">
-        <v>2.05</v>
-      </c>
-      <c r="S124">
-        <v>3.5</v>
-      </c>
-      <c r="T124">
-        <v>1.925</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11176,85 +11179,85 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+      <c r="M125">
+        <v>1.533</v>
+      </c>
+      <c r="N125">
+        <v>5.25</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>-1</v>
+      </c>
+      <c r="Q125">
+        <v>1.8</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
         <v>3.5</v>
       </c>
-      <c r="L125">
-        <v>2.75</v>
-      </c>
-      <c r="M125">
-        <v>3.4</v>
-      </c>
-      <c r="N125">
-        <v>3.75</v>
-      </c>
-      <c r="O125">
-        <v>2.05</v>
-      </c>
-      <c r="P125">
-        <v>0.25</v>
-      </c>
-      <c r="Q125">
-        <v>2.025</v>
-      </c>
-      <c r="R125">
-        <v>1.825</v>
-      </c>
-      <c r="S125">
-        <v>3</v>
-      </c>
       <c r="T125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>1.05</v>
       </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.825</v>
-      </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11265,16 +11268,16 @@
         <v>7662592</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45363.20833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11283,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11351,16 +11354,16 @@
         <v>7127392</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45365.20833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11369,7 +11372,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>4.5</v>
@@ -11437,16 +11440,16 @@
         <v>7127389</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45366.23958333334</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11523,16 +11526,16 @@
         <v>7127390</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45367.0625</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>2.9</v>
@@ -11609,16 +11612,16 @@
         <v>7940069</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45367.08333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11627,7 +11630,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -11695,16 +11698,16 @@
         <v>7940070</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" t="s">
         <v>33</v>
-      </c>
-      <c r="F131" t="s">
-        <v>32</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11713,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11781,16 +11784,16 @@
         <v>7127395</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45380.23958333334</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11799,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>1.666</v>
@@ -11867,16 +11870,16 @@
         <v>7126793</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45381.14583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11885,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11953,16 +11956,16 @@
         <v>7127396</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11971,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2.15</v>
@@ -12039,16 +12042,16 @@
         <v>7127394</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45381.875</v>
       </c>
       <c r="E135" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" t="s">
         <v>35</v>
-      </c>
-      <c r="F135" t="s">
-        <v>34</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12057,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>1.8</v>
@@ -12125,16 +12128,16 @@
         <v>7127397</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12143,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12211,16 +12214,16 @@
         <v>7127398</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12229,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>2.5</v>
@@ -12297,16 +12300,16 @@
         <v>7898681</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12315,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12383,16 +12386,16 @@
         <v>7661947</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12401,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12469,16 +12472,16 @@
         <v>7127399</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12490,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12555,16 +12558,16 @@
         <v>8034339</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45388.0625</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12573,7 +12576,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>2.6</v>
@@ -12641,16 +12644,16 @@
         <v>8005739</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
+        <v>37</v>
+      </c>
+      <c r="F142" t="s">
         <v>36</v>
-      </c>
-      <c r="F142" t="s">
-        <v>35</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12659,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>1.8</v>
@@ -12727,16 +12730,16 @@
         <v>7126794</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45388.23958333334</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12745,7 +12748,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12813,16 +12816,16 @@
         <v>7127403</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45389.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12831,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>3.6</v>
@@ -12899,16 +12902,16 @@
         <v>7127402</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45389.16666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12917,7 +12920,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -12985,16 +12988,16 @@
         <v>7127404</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45394.16666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13003,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>3.1</v>
@@ -13071,16 +13074,16 @@
         <v>7127405</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45394.28125</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13089,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13157,16 +13160,16 @@
         <v>7127408</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45395.10416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13175,7 +13178,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13243,16 +13246,16 @@
         <v>7127407</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45395.1875</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13261,7 +13264,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13329,16 +13332,16 @@
         <v>7127406</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13347,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>1.833</v>
@@ -13415,16 +13418,16 @@
         <v>7127409</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45396.08333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13433,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>1.571</v>
@@ -13501,16 +13504,16 @@
         <v>7702377</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45398.25</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13519,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13587,16 +13590,16 @@
         <v>7127410</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45401.28125</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13605,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>2.8</v>
@@ -13673,16 +13676,16 @@
         <v>8096897</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13691,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J154">
         <v>3.25</v>
@@ -13759,16 +13762,16 @@
         <v>7127411</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13777,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.65</v>
@@ -13845,16 +13848,16 @@
         <v>7127415</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13863,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J156">
         <v>3.8</v>
@@ -13931,16 +13934,16 @@
         <v>7127414</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13949,7 +13952,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14017,16 +14020,16 @@
         <v>7127416</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45408.28125</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14035,7 +14038,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J158">
         <v>2.3</v>
@@ -14100,85 +14103,85 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127419</v>
+        <v>7127418</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
         <v>3</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
       </c>
       <c r="I159" t="s">
         <v>41</v>
       </c>
       <c r="J159">
+        <v>3.6</v>
+      </c>
+      <c r="K159">
+        <v>3.25</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>4.2</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159">
+        <v>1.75</v>
+      </c>
+      <c r="P159">
+        <v>0.75</v>
+      </c>
+      <c r="Q159">
         <v>1.85</v>
       </c>
-      <c r="K159">
-        <v>3.5</v>
-      </c>
-      <c r="L159">
-        <v>3.9</v>
-      </c>
-      <c r="M159">
-        <v>1.55</v>
-      </c>
-      <c r="N159">
-        <v>4.5</v>
-      </c>
-      <c r="O159">
-        <v>5.25</v>
-      </c>
-      <c r="P159">
-        <v>-1</v>
-      </c>
-      <c r="Q159">
-        <v>1.89</v>
-      </c>
       <c r="R159">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y159">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14186,85 +14189,85 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7127418</v>
+        <v>7127419</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J160">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="K160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M160">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="N160">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O160">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q160">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14275,16 +14278,16 @@
         <v>7127417</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45409.28125</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14293,7 +14296,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J161">
         <v>2.05</v>
@@ -14361,16 +14364,16 @@
         <v>8109525</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45410.08333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>7</v>
@@ -14379,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J162">
         <v>1.5</v>
@@ -14447,16 +14450,16 @@
         <v>7127421</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45410.16666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14465,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J163">
         <v>1.65</v>
@@ -14533,16 +14536,16 @@
         <v>8135264</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45413.25</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14551,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J164">
         <v>1.666</v>
@@ -14619,16 +14622,16 @@
         <v>8155621</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45416.28125</v>
       </c>
       <c r="E165" t="s">
+        <v>32</v>
+      </c>
+      <c r="F165" t="s">
         <v>31</v>
-      </c>
-      <c r="F165" t="s">
-        <v>30</v>
       </c>
       <c r="G165">
         <v>4</v>
@@ -14637,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14705,16 +14708,16 @@
         <v>8158306</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45417.16666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14723,7 +14726,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J166">
         <v>2</v>
@@ -14791,16 +14794,16 @@
         <v>8182788</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45422.28125</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14809,7 +14812,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14877,16 +14880,16 @@
         <v>8182787</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45424.125</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14895,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>1.909</v>
@@ -14953,6 +14956,243 @@
       </c>
       <c r="AB168">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>8182994</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45430.14583333334</v>
+      </c>
+      <c r="E169" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169" t="s">
+        <v>38</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169" t="s">
+        <v>41</v>
+      </c>
+      <c r="J169">
+        <v>2.875</v>
+      </c>
+      <c r="K169">
+        <v>3.4</v>
+      </c>
+      <c r="L169">
+        <v>2.375</v>
+      </c>
+      <c r="M169">
+        <v>2.55</v>
+      </c>
+      <c r="N169">
+        <v>3.25</v>
+      </c>
+      <c r="O169">
+        <v>2.9</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>1.825</v>
+      </c>
+      <c r="R169">
+        <v>2.025</v>
+      </c>
+      <c r="S169">
+        <v>2.25</v>
+      </c>
+      <c r="T169">
+        <v>1.9</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
+        <v>-1</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>1.9</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>1.025</v>
+      </c>
+      <c r="AA169">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB169">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>8182995</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45430.28125</v>
+      </c>
+      <c r="E170" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>43</v>
+      </c>
+      <c r="J170">
+        <v>1.909</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>3.5</v>
+      </c>
+      <c r="M170">
+        <v>2.2</v>
+      </c>
+      <c r="N170">
+        <v>3.7</v>
+      </c>
+      <c r="O170">
+        <v>3.1</v>
+      </c>
+      <c r="P170">
+        <v>-0.25</v>
+      </c>
+      <c r="Q170">
+        <v>1.925</v>
+      </c>
+      <c r="R170">
+        <v>1.925</v>
+      </c>
+      <c r="S170">
+        <v>2.5</v>
+      </c>
+      <c r="T170">
+        <v>1.85</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
+        <v>-1</v>
+      </c>
+      <c r="W170">
+        <v>2.7</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-0.5</v>
+      </c>
+      <c r="Z170">
+        <v>0.4625</v>
+      </c>
+      <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45437.28125</v>
+      </c>
+      <c r="E171" t="s">
+        <v>37</v>
+      </c>
+      <c r="F171" t="s">
+        <v>38</v>
+      </c>
+      <c r="J171">
+        <v>2.3</v>
+      </c>
+      <c r="K171">
+        <v>3.4</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>2.15</v>
+      </c>
+      <c r="N171">
+        <v>3.4</v>
+      </c>
+      <c r="O171">
+        <v>3.3</v>
+      </c>
+      <c r="P171">
+        <v>-0.25</v>
+      </c>
+      <c r="Q171">
+        <v>1.9</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>2.5</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
+        <v>1.85</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9373,7 +9373,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9382,76 +9382,76 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
+        <v>3.25</v>
+      </c>
+      <c r="P104">
+        <v>-0.25</v>
+      </c>
+      <c r="Q104">
+        <v>1.86</v>
+      </c>
+      <c r="R104">
+        <v>2.04</v>
+      </c>
+      <c r="S104">
         <v>2.75</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>1.8</v>
-      </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9459,7 +9459,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9468,76 +9468,76 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10061,7 +10061,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10070,76 +10070,76 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>1.95</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
         <v>1.909</v>
       </c>
       <c r="N112">
+        <v>4.2</v>
+      </c>
+      <c r="O112">
         <v>3.6</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
       </c>
       <c r="P112">
         <v>-0.5</v>
       </c>
       <c r="Q112">
+        <v>1.89</v>
+      </c>
+      <c r="R112">
+        <v>2.01</v>
+      </c>
+      <c r="S112">
+        <v>3.5</v>
+      </c>
+      <c r="T112">
+        <v>1.95</v>
+      </c>
+      <c r="U112">
         <v>1.9</v>
       </c>
-      <c r="R112">
-        <v>1.95</v>
-      </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.925</v>
-      </c>
-      <c r="U112">
-        <v>1.925</v>
-      </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>1.01</v>
+      </c>
+      <c r="AA112">
         <v>0.95</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10147,7 +10147,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10156,76 +10156,76 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>1.95</v>
       </c>
       <c r="K113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
         <v>1.909</v>
       </c>
       <c r="N113">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P113">
         <v>-0.5</v>
       </c>
       <c r="Q113">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -11093,7 +11093,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11102,76 +11102,76 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>1.533</v>
+      </c>
+      <c r="N124">
+        <v>5.25</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>-1</v>
+      </c>
+      <c r="Q124">
+        <v>1.8</v>
+      </c>
+      <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>3.5</v>
       </c>
-      <c r="L124">
-        <v>2.75</v>
-      </c>
-      <c r="M124">
-        <v>3.4</v>
-      </c>
-      <c r="N124">
-        <v>3.75</v>
-      </c>
-      <c r="O124">
-        <v>2.05</v>
-      </c>
-      <c r="P124">
-        <v>0.25</v>
-      </c>
-      <c r="Q124">
-        <v>2.025</v>
-      </c>
-      <c r="R124">
-        <v>1.825</v>
-      </c>
-      <c r="S124">
-        <v>3</v>
-      </c>
       <c r="T124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
         <v>-1</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>1.05</v>
       </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.825</v>
-      </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11179,7 +11179,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11188,76 +11188,76 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q125">
+        <v>2.025</v>
+      </c>
+      <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>3</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
         <v>1.8</v>
       </c>
-      <c r="R125">
-        <v>2.05</v>
-      </c>
-      <c r="S125">
-        <v>3.5</v>
-      </c>
-      <c r="T125">
-        <v>1.925</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
       <c r="V125">
         <v>-1</v>
       </c>
       <c r="W125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -15171,10 +15171,10 @@
         <v>-0.25</v>
       </c>
       <c r="Q171">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S171">
         <v>2.5</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9373,7 +9373,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9382,76 +9382,76 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9459,7 +9459,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9468,76 +9468,76 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
+        <v>3.25</v>
+      </c>
+      <c r="P105">
+        <v>-0.25</v>
+      </c>
+      <c r="Q105">
+        <v>1.86</v>
+      </c>
+      <c r="R105">
+        <v>2.04</v>
+      </c>
+      <c r="S105">
         <v>2.75</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>1.8</v>
-      </c>
-      <c r="R105">
-        <v>2.05</v>
-      </c>
-      <c r="S105">
-        <v>3</v>
-      </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -14103,7 +14103,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127418</v>
+        <v>7127419</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14112,76 +14112,76 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J159">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="K159">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M159">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="N159">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O159">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q159">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S159">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14189,7 +14189,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7127419</v>
+        <v>7127418</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14198,76 +14198,76 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
         <v>3</v>
       </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J160">
+        <v>3.6</v>
+      </c>
+      <c r="K160">
+        <v>3.25</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>4.2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160">
+        <v>1.75</v>
+      </c>
+      <c r="P160">
+        <v>0.75</v>
+      </c>
+      <c r="Q160">
         <v>1.85</v>
       </c>
-      <c r="K160">
-        <v>3.5</v>
-      </c>
-      <c r="L160">
-        <v>3.9</v>
-      </c>
-      <c r="M160">
-        <v>1.55</v>
-      </c>
-      <c r="N160">
-        <v>4.5</v>
-      </c>
-      <c r="O160">
-        <v>5.25</v>
-      </c>
-      <c r="P160">
-        <v>-1</v>
-      </c>
-      <c r="Q160">
-        <v>1.89</v>
-      </c>
       <c r="R160">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T160">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y160">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -15159,7 +15159,7 @@
         <v>3</v>
       </c>
       <c r="M171">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N171">
         <v>3.4</v>
@@ -15171,10 +15171,10 @@
         <v>-0.25</v>
       </c>
       <c r="Q171">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R171">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="S171">
         <v>2.5</v>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8233998</t>
   </si>
   <si>
     <t>Australia ALeague</t>
@@ -507,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB171"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +601,16 @@
         <v>6675262</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45080.28125</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -622,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>1.95</v>
@@ -690,16 +687,16 @@
         <v>7127284</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45219.23958333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -776,16 +773,16 @@
         <v>7126254</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45220.0625</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -794,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>2.25</v>
@@ -862,16 +859,16 @@
         <v>7126770</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45220.14583333334</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>1.533</v>
@@ -948,16 +945,16 @@
         <v>7127285</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45220.23958333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -966,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1034,16 +1031,16 @@
         <v>7127286</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45221.04166666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1052,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1.666</v>
@@ -1120,16 +1117,16 @@
         <v>7127287</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45221.23958333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1138,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>2.15</v>
@@ -1206,16 +1203,16 @@
         <v>7127288</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45226.23958333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1292,16 +1289,16 @@
         <v>7127289</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45227.0625</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1310,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1378,16 +1375,16 @@
         <v>7127290</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45227.23958333334</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.8</v>
@@ -1464,16 +1461,16 @@
         <v>7128011</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45228.04166666666</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1482,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1550,16 +1547,16 @@
         <v>7127291</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45228.125</v>
       </c>
       <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1568,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>1.909</v>
@@ -1636,16 +1633,16 @@
         <v>7126771</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45228.20833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1654,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>2.9</v>
@@ -1722,16 +1719,16 @@
         <v>7126772</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45233.23958333334</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1740,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1808,16 +1805,16 @@
         <v>7127292</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45234.0625</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1826,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>2.1</v>
@@ -1894,16 +1891,16 @@
         <v>7127293</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45234.14583333334</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1912,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -1980,16 +1977,16 @@
         <v>7127294</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45234.23958333334</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1998,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.95</v>
@@ -2066,16 +2063,16 @@
         <v>7127295</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45234.32291666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2084,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2152,16 +2149,16 @@
         <v>7127296</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45235.04166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2170,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>2.7</v>
@@ -2238,16 +2235,16 @@
         <v>7127297</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45240.23958333334</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2256,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1.833</v>
@@ -2324,16 +2321,16 @@
         <v>7127298</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45241.0625</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2342,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>1.909</v>
@@ -2410,16 +2407,16 @@
         <v>7127300</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45241.14583333334</v>
       </c>
       <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
         <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2428,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2496,16 +2493,16 @@
         <v>7127299</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45241.23958333334</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2514,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2582,16 +2579,16 @@
         <v>7126773</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45242.04166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2600,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2668,16 +2665,16 @@
         <v>7127308</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45242.125</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2686,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.833</v>
@@ -2754,16 +2751,16 @@
         <v>7127309</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45254.23958333334</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2772,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2.9</v>
@@ -2840,16 +2837,16 @@
         <v>7126774</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45255.02083333334</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2858,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>3.1</v>
@@ -2926,16 +2923,16 @@
         <v>7127311</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45255.23958333334</v>
       </c>
       <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
         <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2944,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3012,16 +3009,16 @@
         <v>7127312</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45256.04166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3030,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3098,16 +3095,16 @@
         <v>7127313</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45256.125</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3116,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.7</v>
@@ -3184,16 +3181,16 @@
         <v>7127314</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45261.23958333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3202,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3270,16 +3267,16 @@
         <v>7127315</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45262.14583333334</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3288,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.55</v>
@@ -3356,16 +3353,16 @@
         <v>7127316</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45262.23958333334</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3374,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>1.615</v>
@@ -3442,17 +3439,17 @@
         <v>7127317</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45263.04166666666</v>
       </c>
       <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
         <v>37</v>
       </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
       <c r="G35">
         <v>2</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3528,16 +3525,16 @@
         <v>7126775</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45263.125</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3546,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3614,16 +3611,16 @@
         <v>7479668</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45264.20833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3632,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.4</v>
@@ -3700,16 +3697,16 @@
         <v>7127319</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45268.23958333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3718,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -3786,16 +3783,16 @@
         <v>7126776</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45268.32291666666</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3872,16 +3869,16 @@
         <v>7127320</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45269.14583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3890,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>1.909</v>
@@ -3958,16 +3955,16 @@
         <v>7127321</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45269.23958333334</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3976,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>1.666</v>
@@ -4044,16 +4041,16 @@
         <v>7127322</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45270.04166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4062,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4130,16 +4127,16 @@
         <v>7127323</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45270.125</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4148,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>2.1</v>
@@ -4216,16 +4213,16 @@
         <v>7557607</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45275.16666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4234,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>2.6</v>
@@ -4302,16 +4299,16 @@
         <v>7127324</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45275.23958333334</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4320,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4388,16 +4385,16 @@
         <v>7127326</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45276.16666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4474,16 +4471,16 @@
         <v>7127327</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45276.23958333334</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4492,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4560,16 +4557,16 @@
         <v>7126777</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45277.125</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4578,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4646,16 +4643,16 @@
         <v>7127328</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45278.20833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4664,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>2.2</v>
@@ -4732,16 +4729,16 @@
         <v>7127329</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45281.23958333334</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4750,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4818,16 +4815,16 @@
         <v>7127330</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45282.23958333334</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4836,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <v>1.727</v>
@@ -4904,16 +4901,16 @@
         <v>7127331</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45283.0625</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4922,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -4990,16 +4987,16 @@
         <v>7127332</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45283.14583333334</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5008,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.533</v>
@@ -5076,16 +5073,16 @@
         <v>7126778</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45283.23958333334</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5094,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>2.75</v>
@@ -5162,16 +5159,16 @@
         <v>7127333</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45283.35416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5180,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>2.7</v>
@@ -5248,16 +5245,16 @@
         <v>7126781</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45288.23958333334</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -5266,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5334,16 +5331,16 @@
         <v>7127334</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45289.23958333334</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5352,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>4.2</v>
@@ -5420,16 +5417,16 @@
         <v>7127335</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45290.14583333334</v>
       </c>
       <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
         <v>39</v>
-      </c>
-      <c r="F58" t="s">
-        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5438,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>1.8</v>
@@ -5506,16 +5503,16 @@
         <v>7127336</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45290.23958333334</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5524,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>1.909</v>
@@ -5592,16 +5589,16 @@
         <v>7127337</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45291.20833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -5610,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5678,16 +5675,16 @@
         <v>7127338</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45292.125</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5696,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5764,16 +5761,16 @@
         <v>7127339</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45295.23958333334</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5782,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5850,16 +5847,16 @@
         <v>7127340</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45296.23958333334</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5868,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.95</v>
@@ -5936,16 +5933,16 @@
         <v>7127341</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45297.14583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5954,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -6022,16 +6019,16 @@
         <v>7127342</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45297.23958333334</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6040,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6108,16 +6105,16 @@
         <v>7127343</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45297.32291666666</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6126,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>3.8</v>
@@ -6194,16 +6191,16 @@
         <v>7126782</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45298.125</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6212,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>3.4</v>
@@ -6280,16 +6277,16 @@
         <v>7127349</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45299.23958333334</v>
       </c>
       <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
         <v>30</v>
-      </c>
-      <c r="F68" t="s">
-        <v>31</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6298,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>1.727</v>
@@ -6366,16 +6363,16 @@
         <v>7646746</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45303.14583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6384,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.75</v>
@@ -6452,16 +6449,16 @@
         <v>7126783</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45303.26041666666</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6470,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <v>2.8</v>
@@ -6538,16 +6535,16 @@
         <v>7646747</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45304.13541666666</v>
       </c>
       <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
         <v>37</v>
-      </c>
-      <c r="F71" t="s">
-        <v>38</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6556,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.5</v>
@@ -6624,16 +6621,16 @@
         <v>7646748</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45304.25</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6642,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -6710,16 +6707,16 @@
         <v>7646749</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6728,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>1.909</v>
@@ -6796,16 +6793,16 @@
         <v>7646750</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6814,7 +6811,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6882,16 +6879,16 @@
         <v>7127350</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45309.23958333334</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6900,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.909</v>
@@ -6968,16 +6965,16 @@
         <v>7127351</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45310.125</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6986,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>2.625</v>
@@ -7054,16 +7051,16 @@
         <v>7127352</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45310.23958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7072,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>1.7</v>
@@ -7140,16 +7137,16 @@
         <v>7127354</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45311.23958333334</v>
       </c>
       <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
         <v>33</v>
-      </c>
-      <c r="F78" t="s">
-        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7158,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>1.475</v>
@@ -7226,16 +7223,16 @@
         <v>7126784</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45312.16666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7244,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7312,16 +7309,16 @@
         <v>7385383</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45314.20833333334</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7330,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7398,16 +7395,16 @@
         <v>7126785</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45316.23958333334</v>
       </c>
       <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" t="s">
         <v>29</v>
-      </c>
-      <c r="F81" t="s">
-        <v>30</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7416,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -7484,16 +7481,16 @@
         <v>7127355</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45317.23958333334</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7502,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>2.05</v>
@@ -7570,16 +7567,16 @@
         <v>7127356</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45318.125</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7588,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.9</v>
@@ -7656,16 +7653,16 @@
         <v>7127357</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45318.16666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7674,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>2.55</v>
@@ -7742,16 +7739,16 @@
         <v>7127358</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45318.23958333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7760,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1.615</v>
@@ -7828,16 +7825,16 @@
         <v>7127359</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45319.125</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7846,7 +7843,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>1.869</v>
@@ -7914,16 +7911,16 @@
         <v>7127360</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45324.23958333334</v>
       </c>
       <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" t="s">
         <v>35</v>
-      </c>
-      <c r="F87" t="s">
-        <v>36</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7932,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8000,16 +7997,16 @@
         <v>7126786</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45324.32291666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8018,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>3.8</v>
@@ -8086,16 +8083,16 @@
         <v>7127361</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45325.125</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8104,7 +8101,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8172,16 +8169,16 @@
         <v>7127362</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45325.16666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8190,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>3.75</v>
@@ -8258,16 +8255,16 @@
         <v>7127363</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45325.23958333334</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8276,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.375</v>
@@ -8344,16 +8341,16 @@
         <v>7127364</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45326.20833333334</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8362,7 +8359,7 @@
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8430,16 +8427,16 @@
         <v>7760137</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45328</v>
       </c>
       <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
         <v>36</v>
-      </c>
-      <c r="F93" t="s">
-        <v>37</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8448,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>2.2</v>
@@ -8516,16 +8513,16 @@
         <v>7127365</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45331.23958333334</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8534,7 +8531,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>1.666</v>
@@ -8602,16 +8599,16 @@
         <v>7127366</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45332.0625</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8620,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>1.5</v>
@@ -8688,16 +8685,16 @@
         <v>7127367</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45332.14583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8706,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>1.615</v>
@@ -8774,16 +8771,16 @@
         <v>7126787</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45332.16666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>5</v>
@@ -8792,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>4.5</v>
@@ -8860,16 +8857,16 @@
         <v>7127368</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45332.23958333334</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8878,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J98">
         <v>1.95</v>
@@ -8946,16 +8943,16 @@
         <v>7127369</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45333.125</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8964,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9032,16 +9029,16 @@
         <v>7127371</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45338.23958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9050,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9118,16 +9115,16 @@
         <v>7127372</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45339.16666666666</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9136,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>1.727</v>
@@ -9204,16 +9201,16 @@
         <v>7126788</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45339.23958333334</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9222,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>2.625</v>
@@ -9290,16 +9287,16 @@
         <v>7127373</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45339.32291666666</v>
       </c>
       <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
         <v>34</v>
-      </c>
-      <c r="F103" t="s">
-        <v>35</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9308,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>2.4</v>
@@ -9373,85 +9370,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>41</v>
       </c>
       <c r="J104">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K104">
         <v>3.75</v>
       </c>
       <c r="L104">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
+        <v>3.25</v>
+      </c>
+      <c r="P104">
+        <v>-0.25</v>
+      </c>
+      <c r="Q104">
+        <v>1.86</v>
+      </c>
+      <c r="R104">
+        <v>2.04</v>
+      </c>
+      <c r="S104">
         <v>2.75</v>
       </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>1.8</v>
-      </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9459,85 +9456,85 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J105">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K105">
         <v>3.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M105">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R105">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y105">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9548,16 +9545,16 @@
         <v>7661946</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45342.20833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9566,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.45</v>
@@ -9634,16 +9631,16 @@
         <v>7127375</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45345.23958333334</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9652,7 +9649,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9720,16 +9717,16 @@
         <v>7875268</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45345.38194444445</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9738,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1.75</v>
@@ -9806,16 +9803,16 @@
         <v>7126789</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45346.14583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9824,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J109">
         <v>1.833</v>
@@ -9892,16 +9889,16 @@
         <v>7127377</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45346.23958333334</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9910,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9978,16 +9975,16 @@
         <v>7127378</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9996,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>2.375</v>
@@ -10064,16 +10061,16 @@
         <v>7127376</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10082,7 +10079,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>1.95</v>
@@ -10150,16 +10147,16 @@
         <v>7127379</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10168,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>1.95</v>
@@ -10236,16 +10233,16 @@
         <v>7126790</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45352.23958333334</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10254,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J114">
         <v>3</v>
@@ -10322,16 +10319,16 @@
         <v>7127380</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45353.125</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10340,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>2.375</v>
@@ -10408,16 +10405,16 @@
         <v>7127381</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45353.16666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10426,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>3.5</v>
@@ -10494,16 +10491,16 @@
         <v>7127382</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45353.23958333334</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10512,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>2.5</v>
@@ -10580,16 +10577,16 @@
         <v>7127383</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45354.04166666666</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10598,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10666,16 +10663,16 @@
         <v>7127384</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45354.125</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10684,7 +10681,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -10752,16 +10749,16 @@
         <v>7127385</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45359.23958333334</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10770,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>1.615</v>
@@ -10838,16 +10835,16 @@
         <v>7126791</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45360.20833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10856,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10924,16 +10921,16 @@
         <v>7127386</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45360.26041666666</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10942,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2.4</v>
@@ -11010,16 +11007,16 @@
         <v>7127387</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45360.32291666666</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11028,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11096,16 +11093,16 @@
         <v>7127388</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11114,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>1.5</v>
@@ -11182,16 +11179,16 @@
         <v>7128012</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11200,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>2.4</v>
@@ -11268,16 +11265,16 @@
         <v>7662592</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45363.20833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>7</v>
@@ -11286,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11354,16 +11351,16 @@
         <v>7127392</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45365.20833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11372,7 +11369,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>4.5</v>
@@ -11440,16 +11437,16 @@
         <v>7127389</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45366.23958333334</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11458,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>2.25</v>
@@ -11526,16 +11523,16 @@
         <v>7127390</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45367.0625</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11544,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J129">
         <v>2.9</v>
@@ -11612,16 +11609,16 @@
         <v>7940069</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45367.08333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11630,7 +11627,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -11698,16 +11695,16 @@
         <v>7940070</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45367.23958333334</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11716,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11784,16 +11781,16 @@
         <v>7127395</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45380.23958333334</v>
       </c>
       <c r="E132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -11802,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>1.666</v>
@@ -11870,16 +11867,16 @@
         <v>7126793</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45381.14583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11888,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>1.571</v>
@@ -11956,16 +11953,16 @@
         <v>7127396</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45381.23958333334</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11974,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>2.15</v>
@@ -12042,16 +12039,16 @@
         <v>7127394</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45381.875</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12060,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.8</v>
@@ -12128,16 +12125,16 @@
         <v>7127397</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45382.04166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12146,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12214,16 +12211,16 @@
         <v>7127398</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45383.04166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12232,7 +12229,7 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>2.5</v>
@@ -12300,16 +12297,16 @@
         <v>7898681</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45384.20833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12318,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12386,16 +12383,16 @@
         <v>7661947</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45385.32291666666</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12404,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>3.1</v>
@@ -12472,16 +12469,16 @@
         <v>7127399</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45387.23958333334</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12490,7 +12487,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12558,16 +12555,16 @@
         <v>8034339</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45388.0625</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141">
         <v>4</v>
@@ -12576,7 +12573,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>2.6</v>
@@ -12644,16 +12641,16 @@
         <v>8005739</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45388.14583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12662,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>1.8</v>
@@ -12730,16 +12727,16 @@
         <v>7126794</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45388.23958333334</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12748,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J143">
         <v>1.833</v>
@@ -12816,16 +12813,16 @@
         <v>7127403</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45389.08333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12834,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>3.6</v>
@@ -12902,16 +12899,16 @@
         <v>7127402</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45389.16666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12920,7 +12917,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -12988,16 +12985,16 @@
         <v>7127404</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45394.16666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13006,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>3.1</v>
@@ -13074,16 +13071,16 @@
         <v>7127405</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45394.28125</v>
       </c>
       <c r="E147" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" t="s">
         <v>30</v>
-      </c>
-      <c r="F147" t="s">
-        <v>31</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13092,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>1.833</v>
@@ -13160,16 +13157,16 @@
         <v>7127408</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45395.10416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13178,7 +13175,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>3.5</v>
@@ -13246,16 +13243,16 @@
         <v>7127407</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45395.1875</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13264,7 +13261,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J149">
         <v>2.1</v>
@@ -13332,16 +13329,16 @@
         <v>7127406</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45395.28125</v>
       </c>
       <c r="E150" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150" t="s">
         <v>32</v>
-      </c>
-      <c r="F150" t="s">
-        <v>33</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13350,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>1.833</v>
@@ -13418,16 +13415,16 @@
         <v>7127409</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45396.08333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -13436,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>1.571</v>
@@ -13504,16 +13501,16 @@
         <v>7702377</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45398.25</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13522,7 +13519,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>2.4</v>
@@ -13590,16 +13587,16 @@
         <v>7127410</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45401.28125</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13608,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>2.8</v>
@@ -13676,16 +13673,16 @@
         <v>8096897</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45402.10416666666</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13694,7 +13691,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J154">
         <v>3.25</v>
@@ -13762,16 +13759,16 @@
         <v>7127411</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45402.1875</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13780,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J155">
         <v>1.65</v>
@@ -13848,16 +13845,16 @@
         <v>7127415</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45402.28125</v>
       </c>
       <c r="E156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156" t="s">
         <v>31</v>
-      </c>
-      <c r="F156" t="s">
-        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13866,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>3.8</v>
@@ -13934,16 +13931,16 @@
         <v>7127414</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45403.16666666666</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13952,7 +13949,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J157">
         <v>2.4</v>
@@ -14020,16 +14017,16 @@
         <v>7127416</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45408.28125</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14038,7 +14035,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J158">
         <v>2.3</v>
@@ -14106,16 +14103,16 @@
         <v>7127419</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14124,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J159">
         <v>1.85</v>
@@ -14192,16 +14189,16 @@
         <v>7127418</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14210,7 +14207,7 @@
         <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J160">
         <v>3.6</v>
@@ -14278,16 +14275,16 @@
         <v>7127417</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45409.28125</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -14296,7 +14293,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>2.05</v>
@@ -14364,16 +14361,16 @@
         <v>8109525</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45410.08333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>7</v>
@@ -14382,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J162">
         <v>1.5</v>
@@ -14450,16 +14447,16 @@
         <v>7127421</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45410.16666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14468,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J163">
         <v>1.65</v>
@@ -14536,16 +14533,16 @@
         <v>8135264</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45413.25</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14554,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J164">
         <v>1.666</v>
@@ -14622,16 +14619,16 @@
         <v>8155621</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45416.28125</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G165">
         <v>4</v>
@@ -14640,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14708,16 +14705,16 @@
         <v>8158306</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45417.16666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -14726,7 +14723,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J166">
         <v>2</v>
@@ -14794,16 +14791,16 @@
         <v>8182788</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45422.28125</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14812,7 +14809,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14880,16 +14877,16 @@
         <v>8182787</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45424.125</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14898,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J168">
         <v>1.909</v>
@@ -14966,16 +14963,16 @@
         <v>8182994</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45430.14583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14984,7 +14981,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J169">
         <v>2.875</v>
@@ -15052,16 +15049,16 @@
         <v>8182995</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45430.28125</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15070,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J170">
         <v>1.909</v>
@@ -15128,71 +15125,6 @@
       </c>
       <c r="AB170">
         <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>27</v>
-      </c>
-      <c r="C171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D171" s="2">
-        <v>45437.28125</v>
-      </c>
-      <c r="E171" t="s">
-        <v>37</v>
-      </c>
-      <c r="F171" t="s">
-        <v>38</v>
-      </c>
-      <c r="J171">
-        <v>2.3</v>
-      </c>
-      <c r="K171">
-        <v>3.4</v>
-      </c>
-      <c r="L171">
-        <v>3</v>
-      </c>
-      <c r="M171">
-        <v>2.2</v>
-      </c>
-      <c r="N171">
-        <v>3.4</v>
-      </c>
-      <c r="O171">
-        <v>3.3</v>
-      </c>
-      <c r="P171">
-        <v>-0.25</v>
-      </c>
-      <c r="Q171">
-        <v>1.91</v>
-      </c>
-      <c r="R171">
-        <v>1.99</v>
-      </c>
-      <c r="S171">
-        <v>2.5</v>
-      </c>
-      <c r="T171">
-        <v>2</v>
-      </c>
-      <c r="U171">
-        <v>1.85</v>
-      </c>
-      <c r="V171">
-        <v>0</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6704,7 +6704,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6713,73 +6713,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6790,7 +6790,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6799,73 +6799,73 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74">
+        <v>1.909</v>
+      </c>
+      <c r="K74">
         <v>4</v>
       </c>
-      <c r="I74" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74">
-        <v>2.45</v>
-      </c>
-      <c r="K74">
-        <v>3.75</v>
-      </c>
       <c r="L74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -15125,6 +15125,92 @@
       </c>
       <c r="AB170">
         <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>8233998</v>
+      </c>
+      <c r="C171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45437.28125</v>
+      </c>
+      <c r="E171" t="s">
+        <v>36</v>
+      </c>
+      <c r="F171" t="s">
+        <v>37</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>41</v>
+      </c>
+      <c r="J171">
+        <v>2.3</v>
+      </c>
+      <c r="K171">
+        <v>3.4</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>2.35</v>
+      </c>
+      <c r="N171">
+        <v>3.1</v>
+      </c>
+      <c r="O171">
+        <v>3.25</v>
+      </c>
+      <c r="P171">
+        <v>-0.25</v>
+      </c>
+      <c r="Q171">
+        <v>2.025</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>2.25</v>
+      </c>
+      <c r="T171">
+        <v>2.05</v>
+      </c>
+      <c r="U171">
+        <v>1.8</v>
+      </c>
+      <c r="V171">
+        <v>1.35</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>1.025</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>1.05</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -9994,7 +9994,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7127374</v>
+        <v>7127370</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10003,82 +10003,82 @@
         <v>45340.125</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L104">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M104">
         <v>3.75</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O104">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="P104">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S104">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="U104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA104">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD104">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10086,7 +10086,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7127370</v>
+        <v>7127374</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10095,82 +10095,82 @@
         <v>45340.125</v>
       </c>
       <c r="E105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L105">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M105">
         <v>3.75</v>
       </c>
       <c r="N105">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
+        <v>3.25</v>
+      </c>
+      <c r="R105">
+        <v>-0.25</v>
+      </c>
+      <c r="S105">
+        <v>1.86</v>
+      </c>
+      <c r="T105">
+        <v>2.04</v>
+      </c>
+      <c r="U105">
         <v>2.75</v>
       </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>1.8</v>
-      </c>
-      <c r="T105">
-        <v>2.05</v>
-      </c>
-      <c r="U105">
-        <v>3</v>
-      </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD105">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -11828,7 +11828,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11837,82 +11837,82 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="R124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S124">
+        <v>2.025</v>
+      </c>
+      <c r="T124">
+        <v>1.825</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.05</v>
+      </c>
+      <c r="W124">
         <v>1.8</v>
       </c>
-      <c r="T124">
-        <v>2.05</v>
-      </c>
-      <c r="U124">
-        <v>3.5</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
-      <c r="W124">
-        <v>1.925</v>
-      </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD124">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11920,7 +11920,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11929,82 +11929,82 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>1.533</v>
+      </c>
+      <c r="P125">
+        <v>5.25</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>-1</v>
+      </c>
+      <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
         <v>3.5</v>
       </c>
-      <c r="N125">
-        <v>2.75</v>
-      </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>3.75</v>
-      </c>
-      <c r="Q125">
-        <v>2.05</v>
-      </c>
-      <c r="R125">
-        <v>0.25</v>
-      </c>
-      <c r="S125">
-        <v>2.025</v>
-      </c>
-      <c r="T125">
-        <v>1.825</v>
-      </c>
-      <c r="U125">
-        <v>3</v>
-      </c>
       <c r="V125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>1.05</v>
       </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.825</v>
-      </c>
       <c r="AC125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:30">

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -7142,7 +7142,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7151,79 +7151,79 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>43</v>
+      </c>
+      <c r="L73">
+        <v>1.909</v>
+      </c>
+      <c r="M73">
         <v>4</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73" t="s">
-        <v>42</v>
-      </c>
-      <c r="L73">
-        <v>2.45</v>
-      </c>
-      <c r="M73">
-        <v>3.75</v>
-      </c>
       <c r="N73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="P73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="R73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="U73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD73">
         <v>-1</v>
@@ -7234,7 +7234,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7243,79 +7243,79 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L74">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O74">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="U74">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X74">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA74">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AD74">
         <v>-1</v>
@@ -11828,7 +11828,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11837,82 +11837,82 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>1.533</v>
+      </c>
+      <c r="P124">
+        <v>5.25</v>
+      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>-1</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2.05</v>
+      </c>
+      <c r="U124">
         <v>3.5</v>
       </c>
-      <c r="N124">
-        <v>2.75</v>
-      </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>3.75</v>
-      </c>
-      <c r="Q124">
-        <v>2.05</v>
-      </c>
-      <c r="R124">
-        <v>0.25</v>
-      </c>
-      <c r="S124">
-        <v>2.025</v>
-      </c>
-      <c r="T124">
-        <v>1.825</v>
-      </c>
-      <c r="U124">
-        <v>3</v>
-      </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>1.05</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.825</v>
-      </c>
       <c r="AC124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11920,7 +11920,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11929,82 +11929,82 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="R125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
+        <v>1.825</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125">
+        <v>2.05</v>
+      </c>
+      <c r="W125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.05</v>
-      </c>
-      <c r="U125">
-        <v>3.5</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
-      <c r="W125">
-        <v>1.925</v>
-      </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD125">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -15048,7 +15048,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7127419</v>
+        <v>7127418</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15057,82 +15057,82 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
         <v>3</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L159">
+        <v>3.6</v>
+      </c>
+      <c r="M159">
+        <v>3.25</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159">
+        <v>4.2</v>
+      </c>
+      <c r="P159">
+        <v>4</v>
+      </c>
+      <c r="Q159">
+        <v>1.75</v>
+      </c>
+      <c r="R159">
+        <v>0.75</v>
+      </c>
+      <c r="S159">
         <v>1.85</v>
       </c>
-      <c r="M159">
-        <v>3.5</v>
-      </c>
-      <c r="N159">
-        <v>3.9</v>
-      </c>
-      <c r="O159">
-        <v>1.55</v>
-      </c>
-      <c r="P159">
-        <v>4.5</v>
-      </c>
-      <c r="Q159">
-        <v>5.25</v>
-      </c>
-      <c r="R159">
-        <v>-1</v>
-      </c>
-      <c r="S159">
-        <v>1.89</v>
-      </c>
       <c r="T159">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X159">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA159">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15140,7 +15140,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7127418</v>
+        <v>7127419</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15149,82 +15149,82 @@
         <v>45409.17708333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="M160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="P160">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q160">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="R160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="U160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:30">

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -11828,7 +11828,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11837,82 +11837,82 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L124">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O124">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="R124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S124">
+        <v>2.025</v>
+      </c>
+      <c r="T124">
+        <v>1.825</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.05</v>
+      </c>
+      <c r="W124">
         <v>1.8</v>
       </c>
-      <c r="T124">
-        <v>2.05</v>
-      </c>
-      <c r="U124">
-        <v>3.5</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
-      <c r="W124">
-        <v>1.925</v>
-      </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD124">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11920,7 +11920,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11929,82 +11929,82 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L125">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>1.533</v>
+      </c>
+      <c r="P125">
+        <v>5.25</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>-1</v>
+      </c>
+      <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
         <v>3.5</v>
       </c>
-      <c r="N125">
-        <v>2.75</v>
-      </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>3.75</v>
-      </c>
-      <c r="Q125">
-        <v>2.05</v>
-      </c>
-      <c r="R125">
-        <v>0.25</v>
-      </c>
-      <c r="S125">
-        <v>2.025</v>
-      </c>
-      <c r="T125">
-        <v>1.825</v>
-      </c>
-      <c r="U125">
-        <v>3</v>
-      </c>
       <c r="V125">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>1.05</v>
       </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.825</v>
-      </c>
       <c r="AC125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:30">

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -7142,7 +7142,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646749</v>
+        <v>7646750</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7151,79 +7151,79 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L73">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N73">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="O73">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q73">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S73">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="U73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA73">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AD73">
         <v>-1</v>
@@ -7234,7 +7234,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7243,79 +7243,79 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>43</v>
+      </c>
+      <c r="L74">
+        <v>1.909</v>
+      </c>
+      <c r="M74">
         <v>4</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>2</v>
-      </c>
-      <c r="K74" t="s">
-        <v>42</v>
-      </c>
-      <c r="L74">
-        <v>2.45</v>
-      </c>
-      <c r="M74">
-        <v>3.75</v>
-      </c>
       <c r="N74">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="P74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="R74">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T74">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="U74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD74">
         <v>-1</v>
@@ -10724,7 +10724,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7127376</v>
+        <v>7127379</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10733,16 +10733,16 @@
         <v>45347.125</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -10751,64 +10751,64 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L112">
         <v>1.95</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N112">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O112">
         <v>1.909</v>
       </c>
       <c r="P112">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q112">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R112">
         <v>-0.5</v>
       </c>
       <c r="S112">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="U112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10816,7 +10816,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7127379</v>
+        <v>7127376</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10825,16 +10825,16 @@
         <v>45347.125</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -10843,64 +10843,64 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L113">
         <v>1.95</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O113">
         <v>1.909</v>
       </c>
       <c r="P113">
+        <v>4.2</v>
+      </c>
+      <c r="Q113">
         <v>3.6</v>
-      </c>
-      <c r="Q113">
-        <v>4</v>
       </c>
       <c r="R113">
         <v>-0.5</v>
       </c>
       <c r="S113">
+        <v>1.89</v>
+      </c>
+      <c r="T113">
+        <v>2.01</v>
+      </c>
+      <c r="U113">
+        <v>3.5</v>
+      </c>
+      <c r="V113">
+        <v>1.95</v>
+      </c>
+      <c r="W113">
         <v>1.9</v>
       </c>
-      <c r="T113">
-        <v>1.95</v>
-      </c>
-      <c r="U113">
-        <v>2.75</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
-      <c r="W113">
-        <v>1.925</v>
-      </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
+        <v>1.01</v>
+      </c>
+      <c r="AC113">
         <v>0.95</v>
       </c>
-      <c r="AC113">
-        <v>-1</v>
-      </c>
       <c r="AD113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:30">

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -37,10 +37,10 @@
     <t>FTAG</t>
   </si>
   <si>
-    <t>ht_goals_h</t>
+    <t>HTHG</t>
   </si>
   <si>
-    <t>ht_goals_a</t>
+    <t>HTAG</t>
   </si>
   <si>
     <t>FTR</t>
@@ -11828,7 +11828,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7128012</v>
+        <v>7127388</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11837,82 +11837,82 @@
         <v>45361.125</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L124">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>1.533</v>
+      </c>
+      <c r="P124">
+        <v>5.25</v>
+      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>-1</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2.05</v>
+      </c>
+      <c r="U124">
         <v>3.5</v>
       </c>
-      <c r="N124">
-        <v>2.75</v>
-      </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>3.75</v>
-      </c>
-      <c r="Q124">
-        <v>2.05</v>
-      </c>
-      <c r="R124">
-        <v>0.25</v>
-      </c>
-      <c r="S124">
-        <v>2.025</v>
-      </c>
-      <c r="T124">
-        <v>1.825</v>
-      </c>
-      <c r="U124">
-        <v>3</v>
-      </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>1.05</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.825</v>
-      </c>
       <c r="AC124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD124">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11920,7 +11920,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7127388</v>
+        <v>7128012</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11929,82 +11929,82 @@
         <v>45361.125</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L125">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O125">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="R125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
+        <v>1.825</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125">
+        <v>2.05</v>
+      </c>
+      <c r="W125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.05</v>
-      </c>
-      <c r="U125">
-        <v>3.5</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
-      <c r="W125">
-        <v>1.925</v>
-      </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD125">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:30">

--- a/Australia ALeague/Australia ALeague.xlsx
+++ b/Australia ALeague/Australia ALeague.xlsx
@@ -7142,7 +7142,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7646750</v>
+        <v>7646749</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7151,79 +7151,79 @@
         <v>45305.23958333334</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>43</v>
+      </c>
+      <c r="L73">
+        <v>1.909</v>
+      </c>
+      <c r="M73">
         <v>4</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73" t="s">
-        <v>42</v>
-      </c>
-      <c r="L73">
-        <v>2.45</v>
-      </c>
-      <c r="M73">
-        <v>3.75</v>
-      </c>
       <c r="N73">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="P73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="R73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T73">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="U73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-   